--- a/BackTest/2020-01-20 BackTest VET.xlsx
+++ b/BackTest/2020-01-20 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.14</v>
+        <v>7.142</v>
       </c>
       <c r="C2" t="n">
-        <v>7.14</v>
+        <v>7.141</v>
       </c>
       <c r="D2" t="n">
-        <v>7.14</v>
+        <v>7.142</v>
       </c>
       <c r="E2" t="n">
-        <v>7.14</v>
+        <v>7.141</v>
       </c>
       <c r="F2" t="n">
-        <v>4340.5282</v>
+        <v>29714</v>
       </c>
       <c r="G2" t="n">
-        <v>7.047533333333336</v>
+        <v>7.046416666666669</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>7.14</v>
       </c>
       <c r="C3" t="n">
-        <v>7.141</v>
+        <v>7.14</v>
       </c>
       <c r="D3" t="n">
-        <v>7.141</v>
+        <v>7.14</v>
       </c>
       <c r="E3" t="n">
         <v>7.14</v>
       </c>
       <c r="F3" t="n">
-        <v>30220.8528</v>
+        <v>4340.5282</v>
       </c>
       <c r="G3" t="n">
-        <v>7.048683333333336</v>
+        <v>7.047533333333336</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C4" t="n">
         <v>7.141</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.976</v>
       </c>
       <c r="D4" t="n">
         <v>7.141</v>
       </c>
       <c r="E4" t="n">
-        <v>6.976</v>
+        <v>7.14</v>
       </c>
       <c r="F4" t="n">
-        <v>280050.7126</v>
+        <v>30220.8528</v>
       </c>
       <c r="G4" t="n">
-        <v>7.047150000000003</v>
+        <v>7.048683333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.077</v>
+        <v>7.141</v>
       </c>
       <c r="C5" t="n">
-        <v>7.077</v>
+        <v>6.976</v>
       </c>
       <c r="D5" t="n">
-        <v>7.077</v>
+        <v>7.141</v>
       </c>
       <c r="E5" t="n">
-        <v>7.077</v>
+        <v>6.976</v>
       </c>
       <c r="F5" t="n">
-        <v>104806.0511</v>
+        <v>280050.7126</v>
       </c>
       <c r="G5" t="n">
-        <v>7.04741666666667</v>
+        <v>7.047150000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.032</v>
+        <v>7.077</v>
       </c>
       <c r="C6" t="n">
-        <v>7.032</v>
+        <v>7.077</v>
       </c>
       <c r="D6" t="n">
-        <v>7.032</v>
+        <v>7.077</v>
       </c>
       <c r="E6" t="n">
-        <v>7.032</v>
+        <v>7.077</v>
       </c>
       <c r="F6" t="n">
-        <v>45193.9489</v>
+        <v>104806.0511</v>
       </c>
       <c r="G6" t="n">
-        <v>7.047300000000003</v>
+        <v>7.04741666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.033</v>
+        <v>7.032</v>
       </c>
       <c r="C7" t="n">
-        <v>6.945</v>
+        <v>7.032</v>
       </c>
       <c r="D7" t="n">
-        <v>7.033</v>
+        <v>7.032</v>
       </c>
       <c r="E7" t="n">
-        <v>6.945</v>
+        <v>7.032</v>
       </c>
       <c r="F7" t="n">
-        <v>378000</v>
+        <v>45193.9489</v>
       </c>
       <c r="G7" t="n">
-        <v>7.04521666666667</v>
+        <v>7.047300000000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.994</v>
+        <v>7.033</v>
       </c>
       <c r="C8" t="n">
-        <v>6.979</v>
+        <v>6.945</v>
       </c>
       <c r="D8" t="n">
-        <v>6.994</v>
+        <v>7.033</v>
       </c>
       <c r="E8" t="n">
-        <v>6.979</v>
+        <v>6.945</v>
       </c>
       <c r="F8" t="n">
-        <v>4856.2978</v>
+        <v>378000</v>
       </c>
       <c r="G8" t="n">
-        <v>7.044116666666669</v>
+        <v>7.04521666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.973</v>
+        <v>6.994</v>
       </c>
       <c r="C9" t="n">
-        <v>6.973</v>
+        <v>6.979</v>
       </c>
       <c r="D9" t="n">
-        <v>6.973</v>
+        <v>6.994</v>
       </c>
       <c r="E9" t="n">
-        <v>6.973</v>
+        <v>6.979</v>
       </c>
       <c r="F9" t="n">
-        <v>900</v>
+        <v>4856.2978</v>
       </c>
       <c r="G9" t="n">
-        <v>7.042700000000003</v>
+        <v>7.044116666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.965</v>
+        <v>6.973</v>
       </c>
       <c r="C10" t="n">
-        <v>6.965</v>
+        <v>6.973</v>
       </c>
       <c r="D10" t="n">
-        <v>6.965</v>
+        <v>6.973</v>
       </c>
       <c r="E10" t="n">
-        <v>6.965</v>
+        <v>6.973</v>
       </c>
       <c r="F10" t="n">
-        <v>76817.98510000001</v>
+        <v>900</v>
       </c>
       <c r="G10" t="n">
-        <v>7.040850000000002</v>
+        <v>7.042700000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.964</v>
+        <v>6.965</v>
       </c>
       <c r="C11" t="n">
-        <v>6.964</v>
+        <v>6.965</v>
       </c>
       <c r="D11" t="n">
-        <v>6.964</v>
+        <v>6.965</v>
       </c>
       <c r="E11" t="n">
-        <v>6.964</v>
+        <v>6.965</v>
       </c>
       <c r="F11" t="n">
-        <v>2000</v>
+        <v>76817.98510000001</v>
       </c>
       <c r="G11" t="n">
-        <v>7.039466666666669</v>
+        <v>7.040850000000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.963</v>
+        <v>6.964</v>
       </c>
       <c r="C12" t="n">
-        <v>6.963</v>
+        <v>6.964</v>
       </c>
       <c r="D12" t="n">
-        <v>6.963</v>
+        <v>6.964</v>
       </c>
       <c r="E12" t="n">
-        <v>6.963</v>
+        <v>6.964</v>
       </c>
       <c r="F12" t="n">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="G12" t="n">
-        <v>7.037800000000002</v>
+        <v>7.039466666666669</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.955</v>
+        <v>6.963</v>
       </c>
       <c r="C13" t="n">
-        <v>6.957</v>
+        <v>6.963</v>
       </c>
       <c r="D13" t="n">
-        <v>6.957</v>
+        <v>6.963</v>
       </c>
       <c r="E13" t="n">
-        <v>6.955</v>
+        <v>6.963</v>
       </c>
       <c r="F13" t="n">
-        <v>89665.09329999999</v>
+        <v>300</v>
       </c>
       <c r="G13" t="n">
-        <v>7.035950000000002</v>
+        <v>7.037800000000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.032</v>
+        <v>6.955</v>
       </c>
       <c r="C14" t="n">
-        <v>7.032</v>
+        <v>6.957</v>
       </c>
       <c r="D14" t="n">
-        <v>7.032</v>
+        <v>6.957</v>
       </c>
       <c r="E14" t="n">
-        <v>7.032</v>
+        <v>6.955</v>
       </c>
       <c r="F14" t="n">
-        <v>72</v>
+        <v>89665.09329999999</v>
       </c>
       <c r="G14" t="n">
-        <v>7.035350000000003</v>
+        <v>7.035950000000002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.018</v>
+        <v>7.032</v>
       </c>
       <c r="C15" t="n">
-        <v>7.018</v>
+        <v>7.032</v>
       </c>
       <c r="D15" t="n">
-        <v>7.018</v>
+        <v>7.032</v>
       </c>
       <c r="E15" t="n">
-        <v>7.018</v>
+        <v>7.032</v>
       </c>
       <c r="F15" t="n">
-        <v>72882</v>
+        <v>72</v>
       </c>
       <c r="G15" t="n">
-        <v>7.034783333333335</v>
+        <v>7.035350000000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.017</v>
+        <v>7.018</v>
       </c>
       <c r="C16" t="n">
-        <v>7.017</v>
+        <v>7.018</v>
       </c>
       <c r="D16" t="n">
-        <v>7.017</v>
+        <v>7.018</v>
       </c>
       <c r="E16" t="n">
-        <v>7.017</v>
+        <v>7.018</v>
       </c>
       <c r="F16" t="n">
-        <v>63516.8154</v>
+        <v>72882</v>
       </c>
       <c r="G16" t="n">
-        <v>7.034800000000001</v>
+        <v>7.034783333333335</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.012</v>
+        <v>7.017</v>
       </c>
       <c r="C17" t="n">
-        <v>6.951</v>
+        <v>7.017</v>
       </c>
       <c r="D17" t="n">
-        <v>7.012</v>
+        <v>7.017</v>
       </c>
       <c r="E17" t="n">
-        <v>6.951</v>
+        <v>7.017</v>
       </c>
       <c r="F17" t="n">
-        <v>320337.365</v>
+        <v>63516.8154</v>
       </c>
       <c r="G17" t="n">
-        <v>7.033766666666668</v>
+        <v>7.034800000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.959</v>
+        <v>7.012</v>
       </c>
       <c r="C18" t="n">
-        <v>6.959</v>
+        <v>6.951</v>
       </c>
       <c r="D18" t="n">
-        <v>6.959</v>
+        <v>7.012</v>
       </c>
       <c r="E18" t="n">
-        <v>6.959</v>
+        <v>6.951</v>
       </c>
       <c r="F18" t="n">
-        <v>114337.365</v>
+        <v>320337.365</v>
       </c>
       <c r="G18" t="n">
-        <v>7.032883333333335</v>
+        <v>7.033766666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.998</v>
+        <v>6.959</v>
       </c>
       <c r="C19" t="n">
-        <v>6.998</v>
+        <v>6.959</v>
       </c>
       <c r="D19" t="n">
-        <v>6.998</v>
+        <v>6.959</v>
       </c>
       <c r="E19" t="n">
-        <v>6.998</v>
+        <v>6.959</v>
       </c>
       <c r="F19" t="n">
-        <v>43522.8912</v>
+        <v>114337.365</v>
       </c>
       <c r="G19" t="n">
-        <v>7.032633333333336</v>
+        <v>7.032883333333335</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.999</v>
+        <v>6.998</v>
       </c>
       <c r="C20" t="n">
-        <v>6.999</v>
+        <v>6.998</v>
       </c>
       <c r="D20" t="n">
-        <v>6.999</v>
+        <v>6.998</v>
       </c>
       <c r="E20" t="n">
-        <v>6.999</v>
+        <v>6.998</v>
       </c>
       <c r="F20" t="n">
-        <v>205616.0345</v>
+        <v>43522.8912</v>
       </c>
       <c r="G20" t="n">
-        <v>7.032183333333336</v>
+        <v>7.032633333333336</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.945</v>
+        <v>6.999</v>
       </c>
       <c r="C21" t="n">
-        <v>6.945</v>
+        <v>6.999</v>
       </c>
       <c r="D21" t="n">
-        <v>6.945</v>
+        <v>6.999</v>
       </c>
       <c r="E21" t="n">
-        <v>6.945</v>
+        <v>6.999</v>
       </c>
       <c r="F21" t="n">
-        <v>1400.5661</v>
+        <v>205616.0345</v>
       </c>
       <c r="G21" t="n">
-        <v>7.030550000000003</v>
+        <v>7.032183333333336</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.943</v>
+        <v>6.945</v>
       </c>
       <c r="C22" t="n">
-        <v>6.943</v>
+        <v>6.945</v>
       </c>
       <c r="D22" t="n">
-        <v>6.943</v>
+        <v>6.945</v>
       </c>
       <c r="E22" t="n">
-        <v>6.943</v>
+        <v>6.945</v>
       </c>
       <c r="F22" t="n">
-        <v>26431.9339</v>
+        <v>1400.5661</v>
       </c>
       <c r="G22" t="n">
-        <v>7.028883333333336</v>
+        <v>7.030550000000003</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.956</v>
+        <v>6.943</v>
       </c>
       <c r="C23" t="n">
-        <v>6.956</v>
+        <v>6.943</v>
       </c>
       <c r="D23" t="n">
-        <v>6.956</v>
+        <v>6.943</v>
       </c>
       <c r="E23" t="n">
-        <v>6.956</v>
+        <v>6.943</v>
       </c>
       <c r="F23" t="n">
-        <v>13682.3242</v>
+        <v>26431.9339</v>
       </c>
       <c r="G23" t="n">
-        <v>7.027266666666669</v>
+        <v>7.028883333333336</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.957</v>
+        <v>6.956</v>
       </c>
       <c r="C24" t="n">
-        <v>6.957</v>
+        <v>6.956</v>
       </c>
       <c r="D24" t="n">
-        <v>6.957</v>
+        <v>6.956</v>
       </c>
       <c r="E24" t="n">
-        <v>6.957</v>
+        <v>6.956</v>
       </c>
       <c r="F24" t="n">
-        <v>14320.4989</v>
+        <v>13682.3242</v>
       </c>
       <c r="G24" t="n">
-        <v>7.025666666666669</v>
+        <v>7.027266666666669</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.941</v>
+        <v>6.957</v>
       </c>
       <c r="C25" t="n">
-        <v>6.941</v>
+        <v>6.957</v>
       </c>
       <c r="D25" t="n">
-        <v>6.941</v>
+        <v>6.957</v>
       </c>
       <c r="E25" t="n">
-        <v>6.941</v>
+        <v>6.957</v>
       </c>
       <c r="F25" t="n">
-        <v>32425.317</v>
+        <v>14320.4989</v>
       </c>
       <c r="G25" t="n">
-        <v>7.023800000000002</v>
+        <v>7.025666666666669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="C26" t="n">
-        <v>6.927</v>
+        <v>6.941</v>
       </c>
       <c r="D26" t="n">
         <v>6.941</v>
       </c>
       <c r="E26" t="n">
-        <v>6.927</v>
+        <v>6.941</v>
       </c>
       <c r="F26" t="n">
-        <v>918922.2024</v>
+        <v>32425.317</v>
       </c>
       <c r="G26" t="n">
-        <v>7.021700000000002</v>
+        <v>7.023800000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.976</v>
+        <v>6.94</v>
       </c>
       <c r="C27" t="n">
-        <v>6.976</v>
+        <v>6.927</v>
       </c>
       <c r="D27" t="n">
-        <v>6.976</v>
+        <v>6.941</v>
       </c>
       <c r="E27" t="n">
-        <v>6.976</v>
+        <v>6.927</v>
       </c>
       <c r="F27" t="n">
-        <v>411188.5506</v>
+        <v>918922.2024</v>
       </c>
       <c r="G27" t="n">
-        <v>7.020883333333336</v>
+        <v>7.021700000000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.008</v>
+        <v>6.976</v>
       </c>
       <c r="C28" t="n">
-        <v>7.009</v>
+        <v>6.976</v>
       </c>
       <c r="D28" t="n">
-        <v>7.009</v>
+        <v>6.976</v>
       </c>
       <c r="E28" t="n">
-        <v>6.96</v>
+        <v>6.976</v>
       </c>
       <c r="F28" t="n">
-        <v>234516.0001</v>
+        <v>411188.5506</v>
       </c>
       <c r="G28" t="n">
-        <v>7.02071666666667</v>
+        <v>7.020883333333336</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.009</v>
+        <v>7.008</v>
       </c>
       <c r="C29" t="n">
         <v>7.009</v>
@@ -1387,13 +1387,13 @@
         <v>7.009</v>
       </c>
       <c r="E29" t="n">
-        <v>7.009</v>
+        <v>6.96</v>
       </c>
       <c r="F29" t="n">
-        <v>30000</v>
+        <v>234516.0001</v>
       </c>
       <c r="G29" t="n">
-        <v>7.02016666666667</v>
+        <v>7.02071666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>7.009</v>
       </c>
       <c r="F30" t="n">
-        <v>41282.9343</v>
+        <v>30000</v>
       </c>
       <c r="G30" t="n">
-        <v>7.019466666666671</v>
+        <v>7.02016666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.963</v>
+        <v>7.009</v>
       </c>
       <c r="C31" t="n">
-        <v>6.963</v>
+        <v>7.009</v>
       </c>
       <c r="D31" t="n">
-        <v>6.963</v>
+        <v>7.009</v>
       </c>
       <c r="E31" t="n">
-        <v>6.963</v>
+        <v>7.009</v>
       </c>
       <c r="F31" t="n">
-        <v>88888</v>
+        <v>41282.9343</v>
       </c>
       <c r="G31" t="n">
-        <v>7.017383333333338</v>
+        <v>7.019466666666671</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.002</v>
+        <v>6.963</v>
       </c>
       <c r="C32" t="n">
-        <v>7.002</v>
+        <v>6.963</v>
       </c>
       <c r="D32" t="n">
-        <v>7.002</v>
+        <v>6.963</v>
       </c>
       <c r="E32" t="n">
-        <v>7.002</v>
+        <v>6.963</v>
       </c>
       <c r="F32" t="n">
-        <v>41988.5951</v>
+        <v>88888</v>
       </c>
       <c r="G32" t="n">
-        <v>7.015950000000004</v>
+        <v>7.017383333333338</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>7.002</v>
       </c>
       <c r="C33" t="n">
-        <v>7.001</v>
+        <v>7.002</v>
       </c>
       <c r="D33" t="n">
         <v>7.002</v>
       </c>
       <c r="E33" t="n">
-        <v>7.001</v>
+        <v>7.002</v>
       </c>
       <c r="F33" t="n">
-        <v>27539.2038</v>
+        <v>41988.5951</v>
       </c>
       <c r="G33" t="n">
-        <v>7.014500000000003</v>
+        <v>7.015950000000004</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.01</v>
+        <v>7.002</v>
       </c>
       <c r="C34" t="n">
-        <v>7.01</v>
+        <v>7.001</v>
       </c>
       <c r="D34" t="n">
-        <v>7.01</v>
+        <v>7.002</v>
       </c>
       <c r="E34" t="n">
-        <v>7.01</v>
+        <v>7.001</v>
       </c>
       <c r="F34" t="n">
-        <v>16898.044</v>
+        <v>27539.2038</v>
       </c>
       <c r="G34" t="n">
-        <v>7.013200000000002</v>
+        <v>7.014500000000003</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.011</v>
+        <v>7.01</v>
       </c>
       <c r="C35" t="n">
-        <v>7.011</v>
+        <v>7.01</v>
       </c>
       <c r="D35" t="n">
-        <v>7.011</v>
+        <v>7.01</v>
       </c>
       <c r="E35" t="n">
-        <v>7.011</v>
+        <v>7.01</v>
       </c>
       <c r="F35" t="n">
-        <v>13185.0442</v>
+        <v>16898.044</v>
       </c>
       <c r="G35" t="n">
-        <v>7.011716666666669</v>
+        <v>7.013200000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.001</v>
+        <v>7.011</v>
       </c>
       <c r="C36" t="n">
-        <v>6.997</v>
+        <v>7.011</v>
       </c>
       <c r="D36" t="n">
-        <v>7.001</v>
+        <v>7.011</v>
       </c>
       <c r="E36" t="n">
-        <v>6.997</v>
+        <v>7.011</v>
       </c>
       <c r="F36" t="n">
-        <v>117300</v>
+        <v>13185.0442</v>
       </c>
       <c r="G36" t="n">
-        <v>7.010200000000002</v>
+        <v>7.011716666666669</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.011</v>
+        <v>7.001</v>
       </c>
       <c r="C37" t="n">
-        <v>7.011</v>
+        <v>6.997</v>
       </c>
       <c r="D37" t="n">
-        <v>7.011</v>
+        <v>7.001</v>
       </c>
       <c r="E37" t="n">
-        <v>7.011</v>
+        <v>6.997</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0001</v>
+        <v>117300</v>
       </c>
       <c r="G37" t="n">
-        <v>7.010333333333336</v>
+        <v>7.010200000000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.005</v>
+        <v>7.011</v>
       </c>
       <c r="C38" t="n">
-        <v>7.005</v>
+        <v>7.011</v>
       </c>
       <c r="D38" t="n">
-        <v>7.005</v>
+        <v>7.011</v>
       </c>
       <c r="E38" t="n">
-        <v>7.005</v>
+        <v>7.011</v>
       </c>
       <c r="F38" t="n">
-        <v>11000</v>
+        <v>0.0001</v>
       </c>
       <c r="G38" t="n">
-        <v>7.011916666666669</v>
+        <v>7.010333333333336</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.046</v>
+        <v>7.005</v>
       </c>
       <c r="C39" t="n">
-        <v>7.047</v>
+        <v>7.005</v>
       </c>
       <c r="D39" t="n">
-        <v>7.047</v>
+        <v>7.005</v>
       </c>
       <c r="E39" t="n">
-        <v>7.046</v>
+        <v>7.005</v>
       </c>
       <c r="F39" t="n">
-        <v>105529.6588</v>
+        <v>11000</v>
       </c>
       <c r="G39" t="n">
-        <v>7.012350000000002</v>
+        <v>7.011916666666669</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.996</v>
+        <v>7.046</v>
       </c>
       <c r="C40" t="n">
-        <v>6.996</v>
+        <v>7.047</v>
       </c>
       <c r="D40" t="n">
-        <v>6.996</v>
+        <v>7.047</v>
       </c>
       <c r="E40" t="n">
-        <v>6.996</v>
+        <v>7.046</v>
       </c>
       <c r="F40" t="n">
-        <v>82881.7705</v>
+        <v>105529.6588</v>
       </c>
       <c r="G40" t="n">
-        <v>7.011050000000002</v>
+        <v>7.012350000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.038</v>
+        <v>6.996</v>
       </c>
       <c r="C41" t="n">
-        <v>7.041</v>
+        <v>6.996</v>
       </c>
       <c r="D41" t="n">
-        <v>7.041</v>
+        <v>6.996</v>
       </c>
       <c r="E41" t="n">
-        <v>7.038</v>
+        <v>6.996</v>
       </c>
       <c r="F41" t="n">
-        <v>910754.4952974862</v>
+        <v>82881.7705</v>
       </c>
       <c r="G41" t="n">
-        <v>7.011283333333336</v>
+        <v>7.011050000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.037</v>
+        <v>7.038</v>
       </c>
       <c r="C42" t="n">
-        <v>7.05</v>
+        <v>7.041</v>
       </c>
       <c r="D42" t="n">
-        <v>7.05</v>
+        <v>7.041</v>
       </c>
       <c r="E42" t="n">
-        <v>7.037</v>
+        <v>7.038</v>
       </c>
       <c r="F42" t="n">
-        <v>642611.3459</v>
+        <v>910754.4952974862</v>
       </c>
       <c r="G42" t="n">
-        <v>7.012516666666669</v>
+        <v>7.011283333333336</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.05</v>
+        <v>7.037</v>
       </c>
       <c r="C43" t="n">
         <v>7.05</v>
@@ -1877,13 +1877,13 @@
         <v>7.05</v>
       </c>
       <c r="E43" t="n">
-        <v>7.05</v>
+        <v>7.037</v>
       </c>
       <c r="F43" t="n">
-        <v>125754.8175</v>
+        <v>642611.3459</v>
       </c>
       <c r="G43" t="n">
-        <v>7.014783333333336</v>
+        <v>7.012516666666669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>7.05</v>
       </c>
       <c r="F44" t="n">
-        <v>231901.5358</v>
+        <v>125754.8175</v>
       </c>
       <c r="G44" t="n">
-        <v>7.015650000000003</v>
+        <v>7.014783333333336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>7.05</v>
       </c>
       <c r="F45" t="n">
-        <v>1356516.9605</v>
+        <v>231901.5358</v>
       </c>
       <c r="G45" t="n">
-        <v>7.016500000000003</v>
+        <v>7.015650000000003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7</v>
+        <v>7.05</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>7.05</v>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>7.05</v>
       </c>
       <c r="E46" t="n">
-        <v>7</v>
+        <v>7.05</v>
       </c>
       <c r="F46" t="n">
-        <v>100000</v>
+        <v>1356516.9605</v>
       </c>
       <c r="G46" t="n">
-        <v>7.017250000000003</v>
+        <v>7.016500000000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.038</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>7.045</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>7.045</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>7.038</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>3416707.6177</v>
+        <v>100000</v>
       </c>
       <c r="G47" t="n">
-        <v>7.018900000000003</v>
+        <v>7.017250000000003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.044</v>
+        <v>7.038</v>
       </c>
       <c r="C48" t="n">
-        <v>7.044</v>
+        <v>7.045</v>
       </c>
       <c r="D48" t="n">
-        <v>7.044</v>
+        <v>7.045</v>
       </c>
       <c r="E48" t="n">
-        <v>7.044</v>
+        <v>7.038</v>
       </c>
       <c r="F48" t="n">
-        <v>58028.3975</v>
+        <v>3416707.6177</v>
       </c>
       <c r="G48" t="n">
-        <v>7.019800000000003</v>
+        <v>7.018900000000003</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.045</v>
+        <v>7.044</v>
       </c>
       <c r="C49" t="n">
-        <v>7.045</v>
+        <v>7.044</v>
       </c>
       <c r="D49" t="n">
-        <v>7.045</v>
+        <v>7.044</v>
       </c>
       <c r="E49" t="n">
-        <v>7.045</v>
+        <v>7.044</v>
       </c>
       <c r="F49" t="n">
-        <v>53000.3865</v>
+        <v>58028.3975</v>
       </c>
       <c r="G49" t="n">
-        <v>7.01996666666667</v>
+        <v>7.019800000000003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>7.045</v>
       </c>
       <c r="F50" t="n">
-        <v>6766.26</v>
+        <v>53000.3865</v>
       </c>
       <c r="G50" t="n">
-        <v>7.019750000000003</v>
+        <v>7.01996666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>7.045</v>
       </c>
       <c r="F51" t="n">
-        <v>26352.4</v>
+        <v>6766.26</v>
       </c>
       <c r="G51" t="n">
-        <v>7.01986666666667</v>
+        <v>7.019750000000003</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>7.045</v>
       </c>
       <c r="F52" t="n">
-        <v>5965.137</v>
+        <v>26352.4</v>
       </c>
       <c r="G52" t="n">
-        <v>7.019950000000003</v>
+        <v>7.01986666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.11</v>
+        <v>7.045</v>
       </c>
       <c r="C53" t="n">
-        <v>7.11</v>
+        <v>7.045</v>
       </c>
       <c r="D53" t="n">
-        <v>7.11</v>
+        <v>7.045</v>
       </c>
       <c r="E53" t="n">
-        <v>7.11</v>
+        <v>7.045</v>
       </c>
       <c r="F53" t="n">
-        <v>29535</v>
+        <v>5965.137</v>
       </c>
       <c r="G53" t="n">
-        <v>7.020583333333336</v>
+        <v>7.019950000000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>7.11</v>
       </c>
       <c r="F54" t="n">
-        <v>458935.9008</v>
+        <v>29535</v>
       </c>
       <c r="G54" t="n">
-        <v>7.02121666666667</v>
+        <v>7.020583333333336</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.08</v>
+        <v>7.11</v>
       </c>
       <c r="C55" t="n">
-        <v>7.08</v>
+        <v>7.11</v>
       </c>
       <c r="D55" t="n">
-        <v>7.08</v>
+        <v>7.11</v>
       </c>
       <c r="E55" t="n">
-        <v>7.08</v>
+        <v>7.11</v>
       </c>
       <c r="F55" t="n">
-        <v>76817.98510000001</v>
+        <v>458935.9008</v>
       </c>
       <c r="G55" t="n">
-        <v>7.021316666666669</v>
+        <v>7.02121666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>7.08</v>
       </c>
       <c r="F56" t="n">
-        <v>7659</v>
+        <v>76817.98510000001</v>
       </c>
       <c r="G56" t="n">
-        <v>7.021466666666669</v>
+        <v>7.021316666666669</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,16 +2370,16 @@
         <v>7.08</v>
       </c>
       <c r="F57" t="n">
-        <v>62900</v>
+        <v>7659</v>
       </c>
       <c r="G57" t="n">
-        <v>7.021166666666669</v>
+        <v>7.021466666666669</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2405,16 +2405,16 @@
         <v>7.08</v>
       </c>
       <c r="F58" t="n">
-        <v>102800.3548</v>
+        <v>62900</v>
       </c>
       <c r="G58" t="n">
-        <v>7.020800000000002</v>
+        <v>7.021166666666669</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2440,10 +2440,10 @@
         <v>7.08</v>
       </c>
       <c r="F59" t="n">
-        <v>120997.5478</v>
+        <v>102800.3548</v>
       </c>
       <c r="G59" t="n">
-        <v>7.020233333333335</v>
+        <v>7.020800000000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>7.08</v>
       </c>
       <c r="F60" t="n">
-        <v>408437.0202</v>
+        <v>120997.5478</v>
       </c>
       <c r="G60" t="n">
-        <v>7.019200000000001</v>
+        <v>7.020233333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>7.08</v>
       </c>
       <c r="F61" t="n">
-        <v>142.8007</v>
+        <v>408437.0202</v>
       </c>
       <c r="G61" t="n">
-        <v>7.018183333333335</v>
+        <v>7.019200000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>7.08</v>
       </c>
       <c r="F62" t="n">
-        <v>100604.1968</v>
+        <v>142.8007</v>
       </c>
       <c r="G62" t="n">
-        <v>7.017183333333334</v>
+        <v>7.018183333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>7.08</v>
       </c>
       <c r="F63" t="n">
-        <v>88719</v>
+        <v>100604.1968</v>
       </c>
       <c r="G63" t="n">
-        <v>7.016166666666667</v>
+        <v>7.017183333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>7.08</v>
       </c>
       <c r="C64" t="n">
-        <v>7.054</v>
+        <v>7.08</v>
       </c>
       <c r="D64" t="n">
         <v>7.08</v>
       </c>
       <c r="E64" t="n">
-        <v>7.054</v>
+        <v>7.08</v>
       </c>
       <c r="F64" t="n">
-        <v>178330.3</v>
+        <v>88719</v>
       </c>
       <c r="G64" t="n">
-        <v>7.017466666666667</v>
+        <v>7.016166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.086</v>
+        <v>7.08</v>
       </c>
       <c r="C65" t="n">
-        <v>7.05</v>
+        <v>7.054</v>
       </c>
       <c r="D65" t="n">
-        <v>7.086</v>
+        <v>7.08</v>
       </c>
       <c r="E65" t="n">
-        <v>7.05</v>
+        <v>7.054</v>
       </c>
       <c r="F65" t="n">
-        <v>6188.975</v>
+        <v>178330.3</v>
       </c>
       <c r="G65" t="n">
-        <v>7.017016666666667</v>
+        <v>7.017466666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.05</v>
+        <v>7.086</v>
       </c>
       <c r="C66" t="n">
         <v>7.05</v>
       </c>
       <c r="D66" t="n">
-        <v>7.05</v>
+        <v>7.086</v>
       </c>
       <c r="E66" t="n">
         <v>7.05</v>
       </c>
       <c r="F66" t="n">
-        <v>335865.3112</v>
+        <v>6188.975</v>
       </c>
       <c r="G66" t="n">
-        <v>7.017316666666668</v>
+        <v>7.017016666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>7.05</v>
       </c>
       <c r="C67" t="n">
-        <v>7.023</v>
+        <v>7.05</v>
       </c>
       <c r="D67" t="n">
         <v>7.05</v>
       </c>
       <c r="E67" t="n">
-        <v>7.023</v>
+        <v>7.05</v>
       </c>
       <c r="F67" t="n">
-        <v>1561028.1469</v>
+        <v>335865.3112</v>
       </c>
       <c r="G67" t="n">
-        <v>7.018616666666668</v>
+        <v>7.017316666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.055</v>
+        <v>7.05</v>
       </c>
       <c r="C68" t="n">
-        <v>7.022</v>
+        <v>7.023</v>
       </c>
       <c r="D68" t="n">
-        <v>7.055</v>
+        <v>7.05</v>
       </c>
       <c r="E68" t="n">
-        <v>7.022</v>
+        <v>7.023</v>
       </c>
       <c r="F68" t="n">
-        <v>56495.3431</v>
+        <v>1561028.1469</v>
       </c>
       <c r="G68" t="n">
-        <v>7.019333333333335</v>
+        <v>7.018616666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>7.055</v>
       </c>
       <c r="C69" t="n">
-        <v>7</v>
+        <v>7.022</v>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>7.055</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>7.022</v>
       </c>
       <c r="F69" t="n">
-        <v>12153</v>
+        <v>56495.3431</v>
       </c>
       <c r="G69" t="n">
-        <v>7.019783333333335</v>
+        <v>7.019333333333335</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>12967</v>
+        <v>12153</v>
       </c>
       <c r="G70" t="n">
-        <v>7.020366666666669</v>
+        <v>7.019783333333335</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.997</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>6.997</v>
+        <v>7</v>
       </c>
       <c r="D71" t="n">
-        <v>6.997</v>
+        <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>6.997</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>10231.9666</v>
+        <v>12967</v>
       </c>
       <c r="G71" t="n">
-        <v>7.020916666666668</v>
+        <v>7.020366666666669</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>6.997</v>
       </c>
       <c r="F72" t="n">
-        <v>5527.5436</v>
+        <v>10231.9666</v>
       </c>
       <c r="G72" t="n">
-        <v>7.021483333333335</v>
+        <v>7.020916666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>6.997</v>
       </c>
       <c r="F73" t="n">
-        <v>8036.0431</v>
+        <v>5527.5436</v>
       </c>
       <c r="G73" t="n">
-        <v>7.022150000000002</v>
+        <v>7.021483333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>6.997</v>
       </c>
       <c r="F74" t="n">
-        <v>4898.3369</v>
+        <v>8036.0431</v>
       </c>
       <c r="G74" t="n">
-        <v>7.021566666666669</v>
+        <v>7.022150000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.012</v>
+        <v>6.997</v>
       </c>
       <c r="C75" t="n">
-        <v>7.012</v>
+        <v>6.997</v>
       </c>
       <c r="D75" t="n">
-        <v>7.012</v>
+        <v>6.997</v>
       </c>
       <c r="E75" t="n">
-        <v>7.012</v>
+        <v>6.997</v>
       </c>
       <c r="F75" t="n">
-        <v>142.6126640045636</v>
+        <v>4898.3369</v>
       </c>
       <c r="G75" t="n">
-        <v>7.02146666666667</v>
+        <v>7.021566666666669</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.977</v>
+        <v>7.012</v>
       </c>
       <c r="C76" t="n">
-        <v>6.977</v>
+        <v>7.012</v>
       </c>
       <c r="D76" t="n">
-        <v>6.977</v>
+        <v>7.012</v>
       </c>
       <c r="E76" t="n">
-        <v>6.977</v>
+        <v>7.012</v>
       </c>
       <c r="F76" t="n">
-        <v>6375.175</v>
+        <v>142.6126640045636</v>
       </c>
       <c r="G76" t="n">
-        <v>7.020800000000003</v>
+        <v>7.02146666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.961</v>
+        <v>6.977</v>
       </c>
       <c r="C77" t="n">
-        <v>6.961</v>
+        <v>6.977</v>
       </c>
       <c r="D77" t="n">
-        <v>6.961</v>
+        <v>6.977</v>
       </c>
       <c r="E77" t="n">
-        <v>6.961</v>
+        <v>6.977</v>
       </c>
       <c r="F77" t="n">
-        <v>34157.7646</v>
+        <v>6375.175</v>
       </c>
       <c r="G77" t="n">
-        <v>7.020966666666669</v>
+        <v>7.020800000000003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>6.961</v>
       </c>
       <c r="F78" t="n">
-        <v>19807.4998</v>
+        <v>34157.7646</v>
       </c>
       <c r="G78" t="n">
-        <v>7.021000000000003</v>
+        <v>7.020966666666669</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.956</v>
+        <v>6.961</v>
       </c>
       <c r="C79" t="n">
-        <v>6.956</v>
+        <v>6.961</v>
       </c>
       <c r="D79" t="n">
-        <v>6.956</v>
+        <v>6.961</v>
       </c>
       <c r="E79" t="n">
-        <v>6.956</v>
+        <v>6.961</v>
       </c>
       <c r="F79" t="n">
-        <v>127328.29</v>
+        <v>19807.4998</v>
       </c>
       <c r="G79" t="n">
-        <v>7.020300000000003</v>
+        <v>7.021000000000003</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.95</v>
+        <v>6.956</v>
       </c>
       <c r="C80" t="n">
-        <v>6.95</v>
+        <v>6.956</v>
       </c>
       <c r="D80" t="n">
-        <v>6.95</v>
+        <v>6.956</v>
       </c>
       <c r="E80" t="n">
-        <v>6.95</v>
+        <v>6.956</v>
       </c>
       <c r="F80" t="n">
-        <v>2671.71</v>
+        <v>127328.29</v>
       </c>
       <c r="G80" t="n">
-        <v>7.019483333333336</v>
+        <v>7.020300000000003</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.961</v>
+        <v>6.95</v>
       </c>
       <c r="C81" t="n">
-        <v>6.961</v>
+        <v>6.95</v>
       </c>
       <c r="D81" t="n">
-        <v>6.961</v>
+        <v>6.95</v>
       </c>
       <c r="E81" t="n">
-        <v>6.961</v>
+        <v>6.95</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0001</v>
+        <v>2671.71</v>
       </c>
       <c r="G81" t="n">
-        <v>7.019750000000003</v>
+        <v>7.019483333333336</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>6.961</v>
       </c>
       <c r="F82" t="n">
-        <v>13552.9891</v>
+        <v>0.0001</v>
       </c>
       <c r="G82" t="n">
-        <v>7.020050000000003</v>
+        <v>7.019750000000003</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.982</v>
+        <v>6.961</v>
       </c>
       <c r="C83" t="n">
-        <v>6.982</v>
+        <v>6.961</v>
       </c>
       <c r="D83" t="n">
-        <v>6.982</v>
+        <v>6.961</v>
       </c>
       <c r="E83" t="n">
-        <v>6.982</v>
+        <v>6.961</v>
       </c>
       <c r="F83" t="n">
-        <v>103329.499</v>
+        <v>13552.9891</v>
       </c>
       <c r="G83" t="n">
-        <v>7.020483333333337</v>
+        <v>7.020050000000003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.003</v>
+        <v>6.982</v>
       </c>
       <c r="C84" t="n">
-        <v>7.032</v>
+        <v>6.982</v>
       </c>
       <c r="D84" t="n">
-        <v>7.032</v>
+        <v>6.982</v>
       </c>
       <c r="E84" t="n">
-        <v>7.003</v>
+        <v>6.982</v>
       </c>
       <c r="F84" t="n">
-        <v>144</v>
+        <v>103329.499</v>
       </c>
       <c r="G84" t="n">
-        <v>7.021733333333336</v>
+        <v>7.020483333333337</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.028</v>
+        <v>7.003</v>
       </c>
       <c r="C85" t="n">
-        <v>7.028</v>
+        <v>7.032</v>
       </c>
       <c r="D85" t="n">
-        <v>7.028</v>
+        <v>7.032</v>
       </c>
       <c r="E85" t="n">
-        <v>7.028</v>
+        <v>7.003</v>
       </c>
       <c r="F85" t="n">
-        <v>29767</v>
+        <v>144</v>
       </c>
       <c r="G85" t="n">
-        <v>7.023183333333337</v>
+        <v>7.021733333333336</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.024</v>
+        <v>7.028</v>
       </c>
       <c r="C86" t="n">
-        <v>7.024</v>
+        <v>7.028</v>
       </c>
       <c r="D86" t="n">
-        <v>7.024</v>
+        <v>7.028</v>
       </c>
       <c r="E86" t="n">
-        <v>7.024</v>
+        <v>7.028</v>
       </c>
       <c r="F86" t="n">
-        <v>11574</v>
+        <v>29767</v>
       </c>
       <c r="G86" t="n">
-        <v>7.024800000000003</v>
+        <v>7.023183333333337</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.025</v>
+        <v>7.024</v>
       </c>
       <c r="C87" t="n">
-        <v>7.025</v>
+        <v>7.024</v>
       </c>
       <c r="D87" t="n">
-        <v>7.025</v>
+        <v>7.024</v>
       </c>
       <c r="E87" t="n">
-        <v>7.025</v>
+        <v>7.024</v>
       </c>
       <c r="F87" t="n">
-        <v>71.17440000000001</v>
+        <v>11574</v>
       </c>
       <c r="G87" t="n">
-        <v>7.02561666666667</v>
+        <v>7.024800000000003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.017</v>
+        <v>7.025</v>
       </c>
       <c r="C88" t="n">
-        <v>7.016</v>
+        <v>7.025</v>
       </c>
       <c r="D88" t="n">
-        <v>7.017</v>
+        <v>7.025</v>
       </c>
       <c r="E88" t="n">
-        <v>7.016</v>
+        <v>7.025</v>
       </c>
       <c r="F88" t="n">
-        <v>14835.1475</v>
+        <v>71.17440000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>7.025733333333337</v>
+        <v>7.02561666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.007</v>
+        <v>7.017</v>
       </c>
       <c r="C89" t="n">
-        <v>7.015</v>
+        <v>7.016</v>
       </c>
       <c r="D89" t="n">
-        <v>7.015</v>
+        <v>7.017</v>
       </c>
       <c r="E89" t="n">
-        <v>6.997</v>
+        <v>7.016</v>
       </c>
       <c r="F89" t="n">
-        <v>240242.5872</v>
+        <v>14835.1475</v>
       </c>
       <c r="G89" t="n">
-        <v>7.025833333333336</v>
+        <v>7.025733333333337</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.983</v>
+        <v>7.007</v>
       </c>
       <c r="C90" t="n">
-        <v>6.983</v>
+        <v>7.015</v>
       </c>
       <c r="D90" t="n">
-        <v>6.983</v>
+        <v>7.015</v>
       </c>
       <c r="E90" t="n">
-        <v>6.983</v>
+        <v>6.997</v>
       </c>
       <c r="F90" t="n">
-        <v>4497.7043</v>
+        <v>240242.5872</v>
       </c>
       <c r="G90" t="n">
-        <v>7.025400000000003</v>
+        <v>7.025833333333336</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>6.983</v>
       </c>
       <c r="F91" t="n">
-        <v>40313.1</v>
+        <v>4497.7043</v>
       </c>
       <c r="G91" t="n">
-        <v>7.025733333333336</v>
+        <v>7.025400000000003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>6.983</v>
       </c>
       <c r="C92" t="n">
-        <v>6.953</v>
+        <v>6.983</v>
       </c>
       <c r="D92" t="n">
         <v>6.983</v>
       </c>
       <c r="E92" t="n">
-        <v>6.953</v>
+        <v>6.983</v>
       </c>
       <c r="F92" t="n">
-        <v>41978.27</v>
+        <v>40313.1</v>
       </c>
       <c r="G92" t="n">
-        <v>7.024916666666669</v>
+        <v>7.025733333333336</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.957</v>
+        <v>6.983</v>
       </c>
       <c r="C93" t="n">
-        <v>6.988</v>
+        <v>6.953</v>
       </c>
       <c r="D93" t="n">
-        <v>6.988</v>
+        <v>6.983</v>
       </c>
       <c r="E93" t="n">
-        <v>6.957</v>
+        <v>6.953</v>
       </c>
       <c r="F93" t="n">
-        <v>266621.1068</v>
+        <v>41978.27</v>
       </c>
       <c r="G93" t="n">
-        <v>7.024700000000002</v>
+        <v>7.024916666666669</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>6.957</v>
+      </c>
+      <c r="C94" t="n">
         <v>6.988</v>
       </c>
-      <c r="C94" t="n">
-        <v>7.025</v>
-      </c>
       <c r="D94" t="n">
-        <v>7.025</v>
+        <v>6.988</v>
       </c>
       <c r="E94" t="n">
-        <v>6.988</v>
+        <v>6.957</v>
       </c>
       <c r="F94" t="n">
-        <v>236000</v>
+        <v>266621.1068</v>
       </c>
       <c r="G94" t="n">
-        <v>7.024950000000002</v>
+        <v>7.024700000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.025</v>
+        <v>6.988</v>
       </c>
       <c r="C95" t="n">
         <v>7.025</v>
@@ -3697,13 +3697,13 @@
         <v>7.025</v>
       </c>
       <c r="E95" t="n">
-        <v>7.025</v>
+        <v>6.988</v>
       </c>
       <c r="F95" t="n">
-        <v>25527.9836</v>
+        <v>236000</v>
       </c>
       <c r="G95" t="n">
-        <v>7.025183333333334</v>
+        <v>7.024950000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.053</v>
+        <v>7.025</v>
       </c>
       <c r="C96" t="n">
-        <v>7.063</v>
+        <v>7.025</v>
       </c>
       <c r="D96" t="n">
-        <v>7.063</v>
+        <v>7.025</v>
       </c>
       <c r="E96" t="n">
-        <v>7.053</v>
+        <v>7.025</v>
       </c>
       <c r="F96" t="n">
-        <v>58000</v>
+        <v>25527.9836</v>
       </c>
       <c r="G96" t="n">
-        <v>7.026283333333335</v>
+        <v>7.025183333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.057</v>
+        <v>7.053</v>
       </c>
       <c r="C97" t="n">
-        <v>7.057</v>
+        <v>7.063</v>
       </c>
       <c r="D97" t="n">
-        <v>7.057</v>
+        <v>7.063</v>
       </c>
       <c r="E97" t="n">
-        <v>7.057</v>
+        <v>7.053</v>
       </c>
       <c r="F97" t="n">
-        <v>264.7017146096075</v>
+        <v>58000</v>
       </c>
       <c r="G97" t="n">
-        <v>7.027050000000001</v>
+        <v>7.026283333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.031</v>
+        <v>7.057</v>
       </c>
       <c r="C98" t="n">
-        <v>7.031</v>
+        <v>7.057</v>
       </c>
       <c r="D98" t="n">
-        <v>7.031</v>
+        <v>7.057</v>
       </c>
       <c r="E98" t="n">
-        <v>7.031</v>
+        <v>7.057</v>
       </c>
       <c r="F98" t="n">
-        <v>252345.65</v>
+        <v>264.7017146096075</v>
       </c>
       <c r="G98" t="n">
-        <v>7.027483333333334</v>
+        <v>7.027050000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,28 +3828,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.03</v>
+        <v>7.031</v>
       </c>
       <c r="C99" t="n">
-        <v>7.03</v>
+        <v>7.031</v>
       </c>
       <c r="D99" t="n">
-        <v>7.03</v>
+        <v>7.031</v>
       </c>
       <c r="E99" t="n">
-        <v>7.03</v>
+        <v>7.031</v>
       </c>
       <c r="F99" t="n">
-        <v>163030.7276</v>
+        <v>252345.65</v>
       </c>
       <c r="G99" t="n">
-        <v>7.0272</v>
+        <v>7.027483333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.052</v>
+        <v>7.03</v>
       </c>
       <c r="C100" t="n">
-        <v>7.034</v>
+        <v>7.03</v>
       </c>
       <c r="D100" t="n">
-        <v>7.052</v>
+        <v>7.03</v>
       </c>
       <c r="E100" t="n">
-        <v>7.034</v>
+        <v>7.03</v>
       </c>
       <c r="F100" t="n">
-        <v>111020.9272</v>
+        <v>163030.7276</v>
       </c>
       <c r="G100" t="n">
-        <v>7.027833333333334</v>
+        <v>7.0272</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.034</v>
+        <v>7.052</v>
       </c>
       <c r="C101" t="n">
         <v>7.034</v>
       </c>
       <c r="D101" t="n">
-        <v>7.034</v>
+        <v>7.052</v>
       </c>
       <c r="E101" t="n">
         <v>7.034</v>
       </c>
       <c r="F101" t="n">
-        <v>64123.8896</v>
+        <v>111020.9272</v>
       </c>
       <c r="G101" t="n">
-        <v>7.027716666666667</v>
+        <v>7.027833333333334</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.06</v>
+        <v>7.034</v>
       </c>
       <c r="C102" t="n">
-        <v>7.06</v>
+        <v>7.034</v>
       </c>
       <c r="D102" t="n">
-        <v>7.06</v>
+        <v>7.034</v>
       </c>
       <c r="E102" t="n">
-        <v>7.06</v>
+        <v>7.034</v>
       </c>
       <c r="F102" t="n">
-        <v>77263.1789</v>
+        <v>64123.8896</v>
       </c>
       <c r="G102" t="n">
-        <v>7.027883333333333</v>
+        <v>7.027716666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,28 +3968,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.055</v>
+        <v>7.06</v>
       </c>
       <c r="C103" t="n">
-        <v>7.055</v>
+        <v>7.06</v>
       </c>
       <c r="D103" t="n">
-        <v>7.055</v>
+        <v>7.06</v>
       </c>
       <c r="E103" t="n">
-        <v>7.055</v>
+        <v>7.06</v>
       </c>
       <c r="F103" t="n">
-        <v>75903.7711</v>
+        <v>77263.1789</v>
       </c>
       <c r="G103" t="n">
-        <v>7.027966666666667</v>
+        <v>7.027883333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4003,28 +4003,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.053</v>
+        <v>7.055</v>
       </c>
       <c r="C104" t="n">
-        <v>7.053</v>
+        <v>7.055</v>
       </c>
       <c r="D104" t="n">
-        <v>7.053</v>
+        <v>7.055</v>
       </c>
       <c r="E104" t="n">
-        <v>7.053</v>
+        <v>7.055</v>
       </c>
       <c r="F104" t="n">
-        <v>50000.0931</v>
+        <v>75903.7711</v>
       </c>
       <c r="G104" t="n">
-        <v>7.028016666666667</v>
+        <v>7.027966666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4038,28 +4038,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.039</v>
+        <v>7.053</v>
       </c>
       <c r="C105" t="n">
-        <v>7.062</v>
+        <v>7.053</v>
       </c>
       <c r="D105" t="n">
-        <v>7.062</v>
+        <v>7.053</v>
       </c>
       <c r="E105" t="n">
-        <v>7.039</v>
+        <v>7.053</v>
       </c>
       <c r="F105" t="n">
-        <v>113880.1148</v>
+        <v>50000.0931</v>
       </c>
       <c r="G105" t="n">
-        <v>7.028216666666666</v>
+        <v>7.028016666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4073,28 +4073,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.057</v>
+        <v>7.039</v>
       </c>
       <c r="C106" t="n">
-        <v>7.057</v>
+        <v>7.062</v>
       </c>
       <c r="D106" t="n">
-        <v>7.057</v>
+        <v>7.062</v>
       </c>
       <c r="E106" t="n">
-        <v>7.057</v>
+        <v>7.039</v>
       </c>
       <c r="F106" t="n">
-        <v>15119.9365</v>
+        <v>113880.1148</v>
       </c>
       <c r="G106" t="n">
-        <v>7.029166666666667</v>
+        <v>7.028216666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4111,25 +4111,25 @@
         <v>7.057</v>
       </c>
       <c r="C107" t="n">
-        <v>7.062</v>
+        <v>7.057</v>
       </c>
       <c r="D107" t="n">
-        <v>7.062</v>
+        <v>7.057</v>
       </c>
       <c r="E107" t="n">
         <v>7.057</v>
       </c>
       <c r="F107" t="n">
-        <v>117832.9986</v>
+        <v>15119.9365</v>
       </c>
       <c r="G107" t="n">
-        <v>7.02945</v>
+        <v>7.029166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4143,28 +4143,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7.041</v>
+        <v>7.057</v>
       </c>
       <c r="C108" t="n">
-        <v>7.041</v>
+        <v>7.062</v>
       </c>
       <c r="D108" t="n">
-        <v>7.041</v>
+        <v>7.062</v>
       </c>
       <c r="E108" t="n">
-        <v>7.041</v>
+        <v>7.057</v>
       </c>
       <c r="F108" t="n">
-        <v>116090.3058</v>
+        <v>117832.9986</v>
       </c>
       <c r="G108" t="n">
-        <v>7.0294</v>
+        <v>7.02945</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4178,28 +4178,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.044</v>
+        <v>7.041</v>
       </c>
       <c r="C109" t="n">
-        <v>7.008</v>
+        <v>7.041</v>
       </c>
       <c r="D109" t="n">
-        <v>7.044</v>
+        <v>7.041</v>
       </c>
       <c r="E109" t="n">
-        <v>7.008</v>
+        <v>7.041</v>
       </c>
       <c r="F109" t="n">
-        <v>854000</v>
+        <v>116090.3058</v>
       </c>
       <c r="G109" t="n">
-        <v>7.028783333333333</v>
+        <v>7.0294</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4213,28 +4213,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.007</v>
+        <v>7.044</v>
       </c>
       <c r="C110" t="n">
-        <v>6.975</v>
+        <v>7.008</v>
       </c>
       <c r="D110" t="n">
-        <v>7.007</v>
+        <v>7.044</v>
       </c>
       <c r="E110" t="n">
-        <v>6.975</v>
+        <v>7.008</v>
       </c>
       <c r="F110" t="n">
-        <v>109114.6004</v>
+        <v>854000</v>
       </c>
       <c r="G110" t="n">
-        <v>7.027616666666666</v>
+        <v>7.028783333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.96</v>
+        <v>7.007</v>
       </c>
       <c r="C111" t="n">
-        <v>6.854</v>
+        <v>6.975</v>
       </c>
       <c r="D111" t="n">
-        <v>6.96</v>
+        <v>7.007</v>
       </c>
       <c r="E111" t="n">
-        <v>6.854</v>
+        <v>6.975</v>
       </c>
       <c r="F111" t="n">
-        <v>848717.2193999999</v>
+        <v>109114.6004</v>
       </c>
       <c r="G111" t="n">
-        <v>7.024433333333333</v>
+        <v>7.027616666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="C112" t="n">
         <v>6.854</v>
       </c>
-      <c r="C112" t="n">
-        <v>6.808</v>
-      </c>
       <c r="D112" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="E112" t="n">
         <v>6.854</v>
       </c>
-      <c r="E112" t="n">
-        <v>6.8</v>
-      </c>
       <c r="F112" t="n">
-        <v>942946.8524</v>
+        <v>848717.2193999999</v>
       </c>
       <c r="G112" t="n">
-        <v>7.020483333333332</v>
+        <v>7.024433333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.717</v>
+        <v>6.854</v>
       </c>
       <c r="C113" t="n">
-        <v>6.717</v>
+        <v>6.808</v>
       </c>
       <c r="D113" t="n">
-        <v>6.717</v>
+        <v>6.854</v>
       </c>
       <c r="E113" t="n">
-        <v>6.717</v>
+        <v>6.8</v>
       </c>
       <c r="F113" t="n">
-        <v>6000</v>
+        <v>942946.8524</v>
       </c>
       <c r="G113" t="n">
-        <v>7.013933333333331</v>
+        <v>7.020483333333332</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.712</v>
+        <v>6.717</v>
       </c>
       <c r="C114" t="n">
-        <v>6.7</v>
+        <v>6.717</v>
       </c>
       <c r="D114" t="n">
-        <v>6.723</v>
+        <v>6.717</v>
       </c>
       <c r="E114" t="n">
-        <v>6.7</v>
+        <v>6.717</v>
       </c>
       <c r="F114" t="n">
-        <v>146615.8377</v>
+        <v>6000</v>
       </c>
       <c r="G114" t="n">
-        <v>7.007099999999998</v>
+        <v>7.013933333333331</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.7</v>
+        <v>6.712</v>
       </c>
       <c r="C115" t="n">
         <v>6.7</v>
       </c>
       <c r="D115" t="n">
-        <v>6.7</v>
+        <v>6.723</v>
       </c>
       <c r="E115" t="n">
         <v>6.7</v>
       </c>
       <c r="F115" t="n">
-        <v>375042.8783</v>
+        <v>146615.8377</v>
       </c>
       <c r="G115" t="n">
-        <v>7.000766666666665</v>
+        <v>7.007099999999998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4426,19 +4426,19 @@
         <v>6.7</v>
       </c>
       <c r="C116" t="n">
-        <v>6.697</v>
+        <v>6.7</v>
       </c>
       <c r="D116" t="n">
         <v>6.7</v>
       </c>
       <c r="E116" t="n">
-        <v>6.695</v>
+        <v>6.7</v>
       </c>
       <c r="F116" t="n">
-        <v>269374.632</v>
+        <v>375042.8783</v>
       </c>
       <c r="G116" t="n">
-        <v>6.994383333333332</v>
+        <v>7.000766666666665</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C117" t="n">
         <v>6.697</v>
       </c>
-      <c r="C117" t="n">
-        <v>6.696</v>
-      </c>
       <c r="D117" t="n">
-        <v>6.697</v>
+        <v>6.7</v>
       </c>
       <c r="E117" t="n">
-        <v>6.696</v>
+        <v>6.695</v>
       </c>
       <c r="F117" t="n">
-        <v>108518.6894</v>
+        <v>269374.632</v>
       </c>
       <c r="G117" t="n">
-        <v>6.987983333333332</v>
+        <v>6.994383333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4496,19 +4496,19 @@
         <v>6.697</v>
       </c>
       <c r="C118" t="n">
-        <v>6.697</v>
+        <v>6.696</v>
       </c>
       <c r="D118" t="n">
         <v>6.697</v>
       </c>
       <c r="E118" t="n">
-        <v>6.697</v>
+        <v>6.696</v>
       </c>
       <c r="F118" t="n">
-        <v>116550.1491</v>
+        <v>108518.6894</v>
       </c>
       <c r="G118" t="n">
-        <v>6.981599999999999</v>
+        <v>6.987983333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.696</v>
+        <v>6.697</v>
       </c>
       <c r="C119" t="n">
-        <v>6.68</v>
+        <v>6.697</v>
       </c>
       <c r="D119" t="n">
-        <v>6.696</v>
+        <v>6.697</v>
       </c>
       <c r="E119" t="n">
-        <v>6.68</v>
+        <v>6.697</v>
       </c>
       <c r="F119" t="n">
-        <v>50929.5483</v>
+        <v>116550.1491</v>
       </c>
       <c r="G119" t="n">
-        <v>6.974933333333333</v>
+        <v>6.981599999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.68</v>
+        <v>6.696</v>
       </c>
       <c r="C120" t="n">
         <v>6.68</v>
       </c>
       <c r="D120" t="n">
-        <v>6.68</v>
+        <v>6.696</v>
       </c>
       <c r="E120" t="n">
         <v>6.68</v>
       </c>
       <c r="F120" t="n">
-        <v>77045</v>
+        <v>50929.5483</v>
       </c>
       <c r="G120" t="n">
-        <v>6.968266666666667</v>
+        <v>6.974933333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4607,13 +4607,13 @@
         <v>6.68</v>
       </c>
       <c r="E121" t="n">
-        <v>6.679</v>
+        <v>6.68</v>
       </c>
       <c r="F121" t="n">
-        <v>222382.1734</v>
+        <v>77045</v>
       </c>
       <c r="G121" t="n">
-        <v>6.961600000000001</v>
+        <v>6.968266666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.679</v>
+        <v>6.68</v>
       </c>
       <c r="C122" t="n">
-        <v>6.679</v>
+        <v>6.68</v>
       </c>
       <c r="D122" t="n">
         <v>6.68</v>
       </c>
       <c r="E122" t="n">
-        <v>6.678</v>
+        <v>6.679</v>
       </c>
       <c r="F122" t="n">
-        <v>630705.2419</v>
+        <v>222382.1734</v>
       </c>
       <c r="G122" t="n">
-        <v>6.954916666666667</v>
+        <v>6.961600000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4677,13 +4677,13 @@
         <v>6.68</v>
       </c>
       <c r="E123" t="n">
-        <v>6.679</v>
+        <v>6.678</v>
       </c>
       <c r="F123" t="n">
-        <v>211283.618</v>
+        <v>630705.2419</v>
       </c>
       <c r="G123" t="n">
-        <v>6.948233333333333</v>
+        <v>6.954916666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.68</v>
+        <v>6.679</v>
       </c>
       <c r="C124" t="n">
-        <v>6.68</v>
+        <v>6.679</v>
       </c>
       <c r="D124" t="n">
         <v>6.68</v>
       </c>
       <c r="E124" t="n">
-        <v>6.68</v>
+        <v>6.679</v>
       </c>
       <c r="F124" t="n">
-        <v>616379.1513</v>
+        <v>211283.618</v>
       </c>
       <c r="G124" t="n">
-        <v>6.942000000000001</v>
+        <v>6.948233333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>6.68</v>
       </c>
       <c r="F125" t="n">
-        <v>175959.7577</v>
+        <v>616379.1513</v>
       </c>
       <c r="G125" t="n">
-        <v>6.935833333333334</v>
+        <v>6.942000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.684</v>
+        <v>6.68</v>
       </c>
       <c r="C126" t="n">
-        <v>6.684</v>
+        <v>6.68</v>
       </c>
       <c r="D126" t="n">
-        <v>6.684</v>
+        <v>6.68</v>
       </c>
       <c r="E126" t="n">
-        <v>6.684</v>
+        <v>6.68</v>
       </c>
       <c r="F126" t="n">
-        <v>4000</v>
+        <v>175959.7577</v>
       </c>
       <c r="G126" t="n">
-        <v>6.929733333333334</v>
+        <v>6.935833333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4811,19 @@
         <v>6.684</v>
       </c>
       <c r="C127" t="n">
-        <v>6.681</v>
+        <v>6.684</v>
       </c>
       <c r="D127" t="n">
-        <v>6.7</v>
+        <v>6.684</v>
       </c>
       <c r="E127" t="n">
-        <v>6.681</v>
+        <v>6.684</v>
       </c>
       <c r="F127" t="n">
-        <v>129674.6915</v>
+        <v>4000</v>
       </c>
       <c r="G127" t="n">
-        <v>6.924033333333333</v>
+        <v>6.929733333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.681</v>
+        <v>6.684</v>
       </c>
       <c r="C128" t="n">
         <v>6.681</v>
       </c>
       <c r="D128" t="n">
-        <v>6.681</v>
+        <v>6.7</v>
       </c>
       <c r="E128" t="n">
         <v>6.681</v>
       </c>
       <c r="F128" t="n">
-        <v>15130.1959</v>
+        <v>129674.6915</v>
       </c>
       <c r="G128" t="n">
-        <v>6.91835</v>
+        <v>6.924033333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.668</v>
+        <v>6.681</v>
       </c>
       <c r="C129" t="n">
-        <v>6.656</v>
+        <v>6.681</v>
       </c>
       <c r="D129" t="n">
-        <v>6.668</v>
+        <v>6.681</v>
       </c>
       <c r="E129" t="n">
-        <v>6.656</v>
+        <v>6.681</v>
       </c>
       <c r="F129" t="n">
-        <v>400.0004</v>
+        <v>15130.1959</v>
       </c>
       <c r="G129" t="n">
-        <v>6.912616666666667</v>
+        <v>6.91835</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,35 +4913,31 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.644</v>
+        <v>6.668</v>
       </c>
       <c r="C130" t="n">
-        <v>6.644</v>
+        <v>6.656</v>
       </c>
       <c r="D130" t="n">
-        <v>6.644</v>
+        <v>6.668</v>
       </c>
       <c r="E130" t="n">
-        <v>6.644</v>
+        <v>6.656</v>
       </c>
       <c r="F130" t="n">
-        <v>133.6545</v>
+        <v>400.0004</v>
       </c>
       <c r="G130" t="n">
-        <v>6.906683333333334</v>
+        <v>6.912616666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="K130" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
@@ -4952,40 +4948,32 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.611</v>
+        <v>6.644</v>
       </c>
       <c r="C131" t="n">
-        <v>6.611</v>
+        <v>6.644</v>
       </c>
       <c r="D131" t="n">
-        <v>6.611</v>
+        <v>6.644</v>
       </c>
       <c r="E131" t="n">
-        <v>6.611</v>
+        <v>6.644</v>
       </c>
       <c r="F131" t="n">
-        <v>6630</v>
+        <v>133.6545</v>
       </c>
       <c r="G131" t="n">
-        <v>6.90025</v>
+        <v>6.906683333333334</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>6.644</v>
-      </c>
-      <c r="K131" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4995,169 +4983,143 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6630</v>
+      </c>
+      <c r="G132" t="n">
+        <v>6.90025</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>6.61</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C133" t="n">
         <v>6.6</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D133" t="n">
         <v>6.61</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E133" t="n">
         <v>6.6</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F133" t="n">
         <v>79117.84179999999</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G133" t="n">
         <v>6.893633333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>6.611</v>
-      </c>
-      <c r="K132" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>308189.2111</v>
+      </c>
+      <c r="G134" t="n">
+        <v>6.887016666666667</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.599</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.606</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>9106165.780400001</v>
+      </c>
+      <c r="G135" t="n">
+        <v>6.879616666666666</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="C133" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="E133" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>308189.2111</v>
-      </c>
-      <c r="G133" t="n">
-        <v>6.887016666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K133" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>6.599</v>
-      </c>
-      <c r="C134" t="n">
-        <v>6.553</v>
-      </c>
-      <c r="D134" t="n">
-        <v>6.606</v>
-      </c>
-      <c r="E134" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F134" t="n">
-        <v>9106165.780400001</v>
-      </c>
-      <c r="G134" t="n">
-        <v>6.879616666666666</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K134" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>6.577</v>
-      </c>
-      <c r="C135" t="n">
-        <v>6.579</v>
-      </c>
-      <c r="D135" t="n">
-        <v>6.586</v>
-      </c>
-      <c r="E135" t="n">
-        <v>6.565</v>
-      </c>
-      <c r="F135" t="n">
-        <v>742684.1222</v>
-      </c>
-      <c r="G135" t="n">
-        <v>6.8724</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>6.553</v>
-      </c>
-      <c r="K135" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5167,22 +5129,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.602</v>
+        <v>6.577</v>
       </c>
       <c r="C136" t="n">
-        <v>6.603</v>
+        <v>6.579</v>
       </c>
       <c r="D136" t="n">
-        <v>6.603</v>
+        <v>6.586</v>
       </c>
       <c r="E136" t="n">
-        <v>6.602</v>
+        <v>6.565</v>
       </c>
       <c r="F136" t="n">
-        <v>511575.2793</v>
+        <v>742684.1222</v>
       </c>
       <c r="G136" t="n">
-        <v>6.866166666666667</v>
+        <v>6.8724</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5191,9 +5153,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5208,22 +5168,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>6.602</v>
+      </c>
+      <c r="C137" t="n">
         <v>6.603</v>
       </c>
-      <c r="C137" t="n">
-        <v>6.604</v>
-      </c>
       <c r="D137" t="n">
-        <v>6.604</v>
+        <v>6.603</v>
       </c>
       <c r="E137" t="n">
-        <v>6.603</v>
+        <v>6.602</v>
       </c>
       <c r="F137" t="n">
-        <v>32212.4197</v>
+        <v>511575.2793</v>
       </c>
       <c r="G137" t="n">
-        <v>6.860216666666667</v>
+        <v>6.866166666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5232,9 +5192,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5249,22 +5207,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.631</v>
+        <v>6.603</v>
       </c>
       <c r="C138" t="n">
-        <v>6.632</v>
+        <v>6.604</v>
       </c>
       <c r="D138" t="n">
-        <v>6.632</v>
+        <v>6.604</v>
       </c>
       <c r="E138" t="n">
-        <v>6.631</v>
+        <v>6.603</v>
       </c>
       <c r="F138" t="n">
-        <v>388253.2343</v>
+        <v>32212.4197</v>
       </c>
       <c r="G138" t="n">
-        <v>6.854733333333333</v>
+        <v>6.860216666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5273,9 +5231,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5290,22 +5246,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="C139" t="n">
         <v>6.632</v>
       </c>
-      <c r="C139" t="n">
-        <v>6.677</v>
-      </c>
       <c r="D139" t="n">
-        <v>6.677</v>
+        <v>6.632</v>
       </c>
       <c r="E139" t="n">
-        <v>6.632</v>
+        <v>6.631</v>
       </c>
       <c r="F139" t="n">
-        <v>353038.0897</v>
+        <v>388253.2343</v>
       </c>
       <c r="G139" t="n">
-        <v>6.850083333333333</v>
+        <v>6.854733333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5314,9 +5270,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5331,7 +5285,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.677</v>
+        <v>6.632</v>
       </c>
       <c r="C140" t="n">
         <v>6.677</v>
@@ -5340,13 +5294,13 @@
         <v>6.677</v>
       </c>
       <c r="E140" t="n">
-        <v>6.677</v>
+        <v>6.632</v>
       </c>
       <c r="F140" t="n">
-        <v>6280.3819</v>
+        <v>353038.0897</v>
       </c>
       <c r="G140" t="n">
-        <v>6.845533333333334</v>
+        <v>6.850083333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5355,9 +5309,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5372,22 +5324,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.676</v>
+        <v>6.677</v>
       </c>
       <c r="C141" t="n">
-        <v>6.676</v>
+        <v>6.677</v>
       </c>
       <c r="D141" t="n">
-        <v>6.676</v>
+        <v>6.677</v>
       </c>
       <c r="E141" t="n">
-        <v>6.676</v>
+        <v>6.677</v>
       </c>
       <c r="F141" t="n">
-        <v>25585.9302</v>
+        <v>6280.3819</v>
       </c>
       <c r="G141" t="n">
-        <v>6.840783333333333</v>
+        <v>6.845533333333334</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5396,9 +5348,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5413,22 +5363,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.678</v>
+        <v>6.676</v>
       </c>
       <c r="C142" t="n">
-        <v>6.679</v>
+        <v>6.676</v>
       </c>
       <c r="D142" t="n">
-        <v>6.679</v>
+        <v>6.676</v>
       </c>
       <c r="E142" t="n">
-        <v>6.64</v>
+        <v>6.676</v>
       </c>
       <c r="F142" t="n">
-        <v>244248.3335</v>
+        <v>25585.9302</v>
       </c>
       <c r="G142" t="n">
-        <v>6.836083333333333</v>
+        <v>6.840783333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5437,9 +5387,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5454,22 +5402,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.68</v>
+        <v>6.678</v>
       </c>
       <c r="C143" t="n">
-        <v>6.693</v>
+        <v>6.679</v>
       </c>
       <c r="D143" t="n">
-        <v>6.693</v>
+        <v>6.679</v>
       </c>
       <c r="E143" t="n">
-        <v>6.68</v>
+        <v>6.64</v>
       </c>
       <c r="F143" t="n">
-        <v>10018.9648</v>
+        <v>244248.3335</v>
       </c>
       <c r="G143" t="n">
-        <v>6.831266666666665</v>
+        <v>6.836083333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5478,9 +5426,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5495,22 +5441,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.658</v>
+        <v>6.68</v>
       </c>
       <c r="C144" t="n">
-        <v>6.658</v>
+        <v>6.693</v>
       </c>
       <c r="D144" t="n">
-        <v>6.658</v>
+        <v>6.693</v>
       </c>
       <c r="E144" t="n">
-        <v>6.658</v>
+        <v>6.68</v>
       </c>
       <c r="F144" t="n">
-        <v>9223.1644</v>
+        <v>10018.9648</v>
       </c>
       <c r="G144" t="n">
-        <v>6.825033333333333</v>
+        <v>6.831266666666665</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5519,9 +5465,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5536,22 +5480,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.68</v>
+        <v>6.658</v>
       </c>
       <c r="C145" t="n">
-        <v>6.67</v>
+        <v>6.658</v>
       </c>
       <c r="D145" t="n">
-        <v>6.68</v>
+        <v>6.658</v>
       </c>
       <c r="E145" t="n">
-        <v>6.669</v>
+        <v>6.658</v>
       </c>
       <c r="F145" t="n">
-        <v>58376.0952</v>
+        <v>9223.1644</v>
       </c>
       <c r="G145" t="n">
-        <v>6.819066666666666</v>
+        <v>6.825033333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5560,9 +5504,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5577,22 +5519,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.694</v>
+        <v>6.68</v>
       </c>
       <c r="C146" t="n">
-        <v>6.698</v>
+        <v>6.67</v>
       </c>
       <c r="D146" t="n">
-        <v>6.698</v>
+        <v>6.68</v>
       </c>
       <c r="E146" t="n">
-        <v>6.694</v>
+        <v>6.669</v>
       </c>
       <c r="F146" t="n">
-        <v>87191.6076</v>
+        <v>58376.0952</v>
       </c>
       <c r="G146" t="n">
-        <v>6.813633333333332</v>
+        <v>6.819066666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5601,9 +5543,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>6.656</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5613,6 +5553,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.694</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.694</v>
+      </c>
+      <c r="F147" t="n">
+        <v>87191.6076</v>
+      </c>
+      <c r="G147" t="n">
+        <v>6.813633333333332</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-20 BackTest VET.xlsx
+++ b/BackTest/2020-01-20 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>29714</v>
       </c>
       <c r="G2" t="n">
+        <v>7.066199999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>7.046416666666669</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>4340.5282</v>
       </c>
       <c r="G3" t="n">
+        <v>7.079133333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>7.047533333333336</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>30220.8528</v>
       </c>
       <c r="G4" t="n">
+        <v>7.089200000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>7.048683333333336</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>280050.7126</v>
       </c>
       <c r="G5" t="n">
+        <v>7.085266666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>7.047150000000003</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>104806.0511</v>
       </c>
       <c r="G6" t="n">
+        <v>7.086533333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>7.04741666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>45193.9489</v>
       </c>
       <c r="G7" t="n">
+        <v>7.086133333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>7.047300000000003</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>378000</v>
       </c>
       <c r="G8" t="n">
+        <v>7.0798</v>
+      </c>
+      <c r="H8" t="n">
         <v>7.04521666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4856.2978</v>
       </c>
       <c r="G9" t="n">
+        <v>7.073599999999999</v>
+      </c>
+      <c r="H9" t="n">
         <v>7.044116666666669</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>900</v>
       </c>
       <c r="G10" t="n">
+        <v>7.066999999999998</v>
+      </c>
+      <c r="H10" t="n">
         <v>7.042700000000003</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>76817.98510000001</v>
       </c>
       <c r="G11" t="n">
+        <v>7.059733333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>7.040850000000002</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2000</v>
       </c>
       <c r="G12" t="n">
+        <v>7.052599999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>7.039466666666669</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>300</v>
       </c>
       <c r="G13" t="n">
+        <v>7.043599999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>7.037800000000002</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>89665.09329999999</v>
       </c>
       <c r="G14" t="n">
+        <v>7.033933333333332</v>
+      </c>
+      <c r="H14" t="n">
         <v>7.035950000000002</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>72</v>
       </c>
       <c r="G15" t="n">
+        <v>7.028466666666664</v>
+      </c>
+      <c r="H15" t="n">
         <v>7.035350000000003</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>72882</v>
       </c>
       <c r="G16" t="n">
+        <v>7.020199999999998</v>
+      </c>
+      <c r="H16" t="n">
         <v>7.034783333333335</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>63516.8154</v>
       </c>
       <c r="G17" t="n">
+        <v>7.011933333333331</v>
+      </c>
+      <c r="H17" t="n">
         <v>7.034800000000001</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>320337.365</v>
       </c>
       <c r="G18" t="n">
+        <v>6.99933333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>7.033766666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>114337.365</v>
       </c>
       <c r="G19" t="n">
+        <v>6.987199999999997</v>
+      </c>
+      <c r="H19" t="n">
         <v>7.032883333333335</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>43522.8912</v>
       </c>
       <c r="G20" t="n">
+        <v>6.988666666666663</v>
+      </c>
+      <c r="H20" t="n">
         <v>7.032633333333336</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>205616.0345</v>
       </c>
       <c r="G21" t="n">
+        <v>6.983466666666663</v>
+      </c>
+      <c r="H21" t="n">
         <v>7.032183333333336</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1400.5661</v>
       </c>
       <c r="G22" t="n">
+        <v>6.977666666666663</v>
+      </c>
+      <c r="H22" t="n">
         <v>7.030550000000003</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>26431.9339</v>
       </c>
       <c r="G23" t="n">
+        <v>6.97753333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>7.028883333333336</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>13682.3242</v>
       </c>
       <c r="G24" t="n">
+        <v>6.975999999999997</v>
+      </c>
+      <c r="H24" t="n">
         <v>7.027266666666669</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>14320.4989</v>
       </c>
       <c r="G25" t="n">
+        <v>6.97493333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>7.025666666666669</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>32425.317</v>
       </c>
       <c r="G26" t="n">
+        <v>6.97333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>7.023800000000002</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>918922.2024</v>
       </c>
       <c r="G27" t="n">
+        <v>6.970866666666664</v>
+      </c>
+      <c r="H27" t="n">
         <v>7.021700000000002</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>411188.5506</v>
       </c>
       <c r="G28" t="n">
+        <v>6.971733333333331</v>
+      </c>
+      <c r="H28" t="n">
         <v>7.020883333333336</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>234516.0001</v>
       </c>
       <c r="G29" t="n">
+        <v>6.975199999999998</v>
+      </c>
+      <c r="H29" t="n">
         <v>7.02071666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>30000</v>
       </c>
       <c r="G30" t="n">
+        <v>6.973666666666665</v>
+      </c>
+      <c r="H30" t="n">
         <v>7.02016666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>41282.9343</v>
       </c>
       <c r="G31" t="n">
+        <v>6.973066666666665</v>
+      </c>
+      <c r="H31" t="n">
         <v>7.019466666666671</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>88888</v>
       </c>
       <c r="G32" t="n">
+        <v>6.969466666666665</v>
+      </c>
+      <c r="H32" t="n">
         <v>7.017383333333338</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>41988.5951</v>
       </c>
       <c r="G33" t="n">
+        <v>6.972866666666665</v>
+      </c>
+      <c r="H33" t="n">
         <v>7.015950000000004</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>27539.2038</v>
       </c>
       <c r="G34" t="n">
+        <v>6.975666666666665</v>
+      </c>
+      <c r="H34" t="n">
         <v>7.014500000000003</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>16898.044</v>
       </c>
       <c r="G35" t="n">
+        <v>6.976466666666665</v>
+      </c>
+      <c r="H35" t="n">
         <v>7.013200000000002</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>13185.0442</v>
       </c>
       <c r="G36" t="n">
+        <v>6.977266666666665</v>
+      </c>
+      <c r="H36" t="n">
         <v>7.011716666666669</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>117300</v>
       </c>
       <c r="G37" t="n">
+        <v>6.980733333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>7.010200000000002</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>0.0001</v>
       </c>
       <c r="G38" t="n">
+        <v>6.985266666666665</v>
+      </c>
+      <c r="H38" t="n">
         <v>7.010333333333336</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>11000</v>
       </c>
       <c r="G39" t="n">
+        <v>6.988533333333332</v>
+      </c>
+      <c r="H39" t="n">
         <v>7.011916666666669</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>105529.6588</v>
       </c>
       <c r="G40" t="n">
+        <v>6.994533333333332</v>
+      </c>
+      <c r="H40" t="n">
         <v>7.012350000000002</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>82881.7705</v>
       </c>
       <c r="G41" t="n">
+        <v>6.998199999999998</v>
+      </c>
+      <c r="H41" t="n">
         <v>7.011050000000002</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>910754.4952974862</v>
       </c>
       <c r="G42" t="n">
+        <v>7.005799999999997</v>
+      </c>
+      <c r="H42" t="n">
         <v>7.011283333333336</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>642611.3459</v>
       </c>
       <c r="G43" t="n">
+        <v>7.010733333333331</v>
+      </c>
+      <c r="H43" t="n">
         <v>7.012516666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>125754.8175</v>
       </c>
       <c r="G44" t="n">
+        <v>7.013466666666663</v>
+      </c>
+      <c r="H44" t="n">
         <v>7.014783333333336</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>231901.5358</v>
       </c>
       <c r="G45" t="n">
+        <v>7.016199999999997</v>
+      </c>
+      <c r="H45" t="n">
         <v>7.015650000000003</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1356516.9605</v>
       </c>
       <c r="G46" t="n">
+        <v>7.01893333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>7.016500000000003</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>100000</v>
       </c>
       <c r="G47" t="n">
+        <v>7.021399999999997</v>
+      </c>
+      <c r="H47" t="n">
         <v>7.017250000000003</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>3416707.6177</v>
       </c>
       <c r="G48" t="n">
+        <v>7.024266666666664</v>
+      </c>
+      <c r="H48" t="n">
         <v>7.018900000000003</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>58028.3975</v>
       </c>
       <c r="G49" t="n">
+        <v>7.02713333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>7.019800000000003</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>53000.3865</v>
       </c>
       <c r="G50" t="n">
+        <v>7.029466666666663</v>
+      </c>
+      <c r="H50" t="n">
         <v>7.01996666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>6766.26</v>
       </c>
       <c r="G51" t="n">
+        <v>7.031733333333331</v>
+      </c>
+      <c r="H51" t="n">
         <v>7.019750000000003</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>26352.4</v>
       </c>
       <c r="G52" t="n">
+        <v>7.03493333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>7.01986666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>5965.137</v>
       </c>
       <c r="G53" t="n">
+        <v>7.037199999999998</v>
+      </c>
+      <c r="H53" t="n">
         <v>7.019950000000003</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>29535</v>
       </c>
       <c r="G54" t="n">
+        <v>7.044199999999998</v>
+      </c>
+      <c r="H54" t="n">
         <v>7.020583333333336</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>458935.9008</v>
       </c>
       <c r="G55" t="n">
+        <v>7.048399999999998</v>
+      </c>
+      <c r="H55" t="n">
         <v>7.02121666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>76817.98510000001</v>
       </c>
       <c r="G56" t="n">
+        <v>7.053999999999998</v>
+      </c>
+      <c r="H56" t="n">
         <v>7.021316666666669</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>7659</v>
       </c>
       <c r="G57" t="n">
+        <v>7.056599999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>7.021466666666669</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>62900</v>
       </c>
       <c r="G58" t="n">
+        <v>7.058599999999998</v>
+      </c>
+      <c r="H58" t="n">
         <v>7.021166666666669</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>102800.3548</v>
       </c>
       <c r="G59" t="n">
+        <v>7.060599999999998</v>
+      </c>
+      <c r="H59" t="n">
         <v>7.020800000000002</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>120997.5478</v>
       </c>
       <c r="G60" t="n">
+        <v>7.062599999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>7.020233333333335</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>408437.0202</v>
       </c>
       <c r="G61" t="n">
+        <v>7.064599999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>7.019200000000001</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>142.8007</v>
       </c>
       <c r="G62" t="n">
+        <v>7.069933333333332</v>
+      </c>
+      <c r="H62" t="n">
         <v>7.018183333333335</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>100604.1968</v>
       </c>
       <c r="G63" t="n">
+        <v>7.072266666666665</v>
+      </c>
+      <c r="H63" t="n">
         <v>7.017183333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>88719</v>
       </c>
       <c r="G64" t="n">
+        <v>7.074666666666665</v>
+      </c>
+      <c r="H64" t="n">
         <v>7.016166666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>178330.3</v>
       </c>
       <c r="G65" t="n">
+        <v>7.075266666666665</v>
+      </c>
+      <c r="H65" t="n">
         <v>7.017466666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>6188.975</v>
       </c>
       <c r="G66" t="n">
+        <v>7.075599999999998</v>
+      </c>
+      <c r="H66" t="n">
         <v>7.017016666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>335865.3112</v>
       </c>
       <c r="G67" t="n">
+        <v>7.075933333333331</v>
+      </c>
+      <c r="H67" t="n">
         <v>7.017316666666668</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>1561028.1469</v>
       </c>
       <c r="G68" t="n">
+        <v>7.074466666666664</v>
+      </c>
+      <c r="H68" t="n">
         <v>7.018616666666668</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>56495.3431</v>
       </c>
       <c r="G69" t="n">
+        <v>7.068599999999998</v>
+      </c>
+      <c r="H69" t="n">
         <v>7.019333333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>12153</v>
       </c>
       <c r="G70" t="n">
+        <v>7.061266666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>7.019783333333335</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>12967</v>
       </c>
       <c r="G71" t="n">
+        <v>7.055933333333331</v>
+      </c>
+      <c r="H71" t="n">
         <v>7.020366666666669</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>10231.9666</v>
       </c>
       <c r="G72" t="n">
+        <v>7.050399999999998</v>
+      </c>
+      <c r="H72" t="n">
         <v>7.020916666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>5527.5436</v>
       </c>
       <c r="G73" t="n">
+        <v>7.044866666666665</v>
+      </c>
+      <c r="H73" t="n">
         <v>7.021483333333335</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>8036.0431</v>
       </c>
       <c r="G74" t="n">
+        <v>7.039333333333332</v>
+      </c>
+      <c r="H74" t="n">
         <v>7.022150000000002</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>4898.3369</v>
       </c>
       <c r="G75" t="n">
+        <v>7.033799999999998</v>
+      </c>
+      <c r="H75" t="n">
         <v>7.021566666666669</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>142.6126640045636</v>
       </c>
       <c r="G76" t="n">
+        <v>7.029266666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>7.02146666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>6375.175</v>
       </c>
       <c r="G77" t="n">
+        <v>7.022399999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>7.020800000000003</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>34157.7646</v>
       </c>
       <c r="G78" t="n">
+        <v>7.014466666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>7.020966666666669</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>19807.4998</v>
       </c>
       <c r="G79" t="n">
+        <v>7.006533333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>7.021000000000003</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>127328.29</v>
       </c>
       <c r="G80" t="n">
+        <v>6.999999999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>7.020300000000003</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>2671.71</v>
       </c>
       <c r="G81" t="n">
+        <v>6.993333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>7.019483333333336</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>0.0001</v>
       </c>
       <c r="G82" t="n">
+        <v>6.987399999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>7.019750000000003</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>13552.9891</v>
       </c>
       <c r="G83" t="n">
+        <v>6.983266666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>7.020050000000003</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>103329.499</v>
       </c>
       <c r="G84" t="n">
+        <v>6.980599999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>7.020483333333337</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>144</v>
       </c>
       <c r="G85" t="n">
+        <v>6.982733333333332</v>
+      </c>
+      <c r="H85" t="n">
         <v>7.021733333333336</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>29767</v>
       </c>
       <c r="G86" t="n">
+        <v>6.984599999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>7.023183333333337</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>11574</v>
       </c>
       <c r="G87" t="n">
+        <v>6.9864</v>
+      </c>
+      <c r="H87" t="n">
         <v>7.024800000000003</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>71.17440000000001</v>
       </c>
       <c r="G88" t="n">
+        <v>6.988266666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>7.02561666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>14835.1475</v>
       </c>
       <c r="G89" t="n">
+        <v>6.989533333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>7.025733333333337</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>240242.5872</v>
       </c>
       <c r="G90" t="n">
+        <v>6.990733333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>7.025833333333336</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>4497.7043</v>
       </c>
       <c r="G91" t="n">
+        <v>6.9888</v>
+      </c>
+      <c r="H91" t="n">
         <v>7.025400000000003</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>40313.1</v>
       </c>
       <c r="G92" t="n">
+        <v>6.9892</v>
+      </c>
+      <c r="H92" t="n">
         <v>7.025733333333336</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>41978.27</v>
       </c>
       <c r="G93" t="n">
+        <v>6.988666666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>7.024916666666669</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>266621.1068</v>
       </c>
       <c r="G94" t="n">
+        <v>6.990466666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>7.024700000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>236000</v>
       </c>
       <c r="G95" t="n">
+        <v>6.995066666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>7.024950000000002</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>25527.9836</v>
       </c>
       <c r="G96" t="n">
+        <v>7.000066666666668</v>
+      </c>
+      <c r="H96" t="n">
         <v>7.025183333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>58000</v>
       </c>
       <c r="G97" t="n">
+        <v>7.006866666666668</v>
+      </c>
+      <c r="H97" t="n">
         <v>7.026283333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>264.7017146096075</v>
       </c>
       <c r="G98" t="n">
+        <v>7.013266666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>7.027050000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>252345.65</v>
       </c>
       <c r="G99" t="n">
+        <v>7.016533333333336</v>
+      </c>
+      <c r="H99" t="n">
         <v>7.027483333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>163030.7276</v>
       </c>
       <c r="G100" t="n">
+        <v>7.016400000000003</v>
+      </c>
+      <c r="H100" t="n">
         <v>7.0272</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>111020.9272</v>
       </c>
       <c r="G101" t="n">
+        <v>7.016800000000003</v>
+      </c>
+      <c r="H101" t="n">
         <v>7.027833333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>64123.8896</v>
       </c>
       <c r="G102" t="n">
+        <v>7.017466666666669</v>
+      </c>
+      <c r="H102" t="n">
         <v>7.027716666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>77263.1789</v>
       </c>
       <c r="G103" t="n">
+        <v>7.019800000000003</v>
+      </c>
+      <c r="H103" t="n">
         <v>7.027883333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>75903.7711</v>
       </c>
       <c r="G104" t="n">
+        <v>7.022400000000002</v>
+      </c>
+      <c r="H104" t="n">
         <v>7.027966666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>50000.0931</v>
       </c>
       <c r="G105" t="n">
+        <v>7.024933333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>7.028016666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>113880.1148</v>
       </c>
       <c r="G106" t="n">
+        <v>7.030200000000002</v>
+      </c>
+      <c r="H106" t="n">
         <v>7.028216666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>15119.9365</v>
       </c>
       <c r="G107" t="n">
+        <v>7.035133333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>7.029166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>117832.9986</v>
       </c>
       <c r="G108" t="n">
+        <v>7.042400000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>7.02945</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>116090.3058</v>
       </c>
       <c r="G109" t="n">
+        <v>7.045933333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>7.0294</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>854000</v>
       </c>
       <c r="G110" t="n">
+        <v>7.0448</v>
+      </c>
+      <c r="H110" t="n">
         <v>7.028783333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>109114.6004</v>
       </c>
       <c r="G111" t="n">
+        <v>7.041466666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>7.027616666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>848717.2193999999</v>
       </c>
       <c r="G112" t="n">
+        <v>7.027533333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>7.024433333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>942946.8524</v>
       </c>
       <c r="G113" t="n">
+        <v>7.010933333333331</v>
+      </c>
+      <c r="H113" t="n">
         <v>7.020483333333332</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>6000</v>
       </c>
       <c r="G114" t="n">
+        <v>6.989999999999998</v>
+      </c>
+      <c r="H114" t="n">
         <v>7.013933333333331</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>146615.8377</v>
       </c>
       <c r="G115" t="n">
+        <v>6.967999999999998</v>
+      </c>
+      <c r="H115" t="n">
         <v>7.007099999999998</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>375042.8783</v>
       </c>
       <c r="G116" t="n">
+        <v>6.945733333333331</v>
+      </c>
+      <c r="H116" t="n">
         <v>7.000766666666665</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>269374.632</v>
       </c>
       <c r="G117" t="n">
+        <v>6.923266666666664</v>
+      </c>
+      <c r="H117" t="n">
         <v>6.994383333333332</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>108518.6894</v>
       </c>
       <c r="G118" t="n">
+        <v>6.898999999999997</v>
+      </c>
+      <c r="H118" t="n">
         <v>6.987983333333332</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>116550.1491</v>
       </c>
       <c r="G119" t="n">
+        <v>6.87513333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>6.981599999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>50929.5483</v>
       </c>
       <c r="G120" t="n">
+        <v>6.850266666666665</v>
+      </c>
+      <c r="H120" t="n">
         <v>6.974933333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>77045</v>
       </c>
       <c r="G121" t="n">
+        <v>6.824799999999998</v>
+      </c>
+      <c r="H121" t="n">
         <v>6.968266666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>222382.1734</v>
       </c>
       <c r="G122" t="n">
+        <v>6.799666666666664</v>
+      </c>
+      <c r="H122" t="n">
         <v>6.961600000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>630705.2419</v>
       </c>
       <c r="G123" t="n">
+        <v>6.774133333333331</v>
+      </c>
+      <c r="H123" t="n">
         <v>6.954916666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>211283.618</v>
       </c>
       <c r="G124" t="n">
+        <v>6.749999999999998</v>
+      </c>
+      <c r="H124" t="n">
         <v>6.948233333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>616379.1513</v>
       </c>
       <c r="G125" t="n">
+        <v>6.728133333333332</v>
+      </c>
+      <c r="H125" t="n">
         <v>6.942000000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>175959.7577</v>
       </c>
       <c r="G126" t="n">
+        <v>6.708466666666665</v>
+      </c>
+      <c r="H126" t="n">
         <v>6.935833333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>4000</v>
       </c>
       <c r="G127" t="n">
+        <v>6.697133333333332</v>
+      </c>
+      <c r="H127" t="n">
         <v>6.929733333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>129674.6915</v>
       </c>
       <c r="G128" t="n">
+        <v>6.688666666666665</v>
+      </c>
+      <c r="H128" t="n">
         <v>6.924033333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>15130.1959</v>
       </c>
       <c r="G129" t="n">
+        <v>6.686266666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>6.91835</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>400.0004</v>
       </c>
       <c r="G130" t="n">
+        <v>6.683333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>6.912616666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>133.6545</v>
       </c>
       <c r="G131" t="n">
+        <v>6.679599999999999</v>
+      </c>
+      <c r="H131" t="n">
         <v>6.906683333333334</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>6630</v>
       </c>
       <c r="G132" t="n">
+        <v>6.673866666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>6.90025</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>79117.84179999999</v>
       </c>
       <c r="G133" t="n">
+        <v>6.667466666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>6.893633333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>308189.2111</v>
       </c>
       <c r="G134" t="n">
+        <v>6.660999999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>6.887016666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,494 +5507,965 @@
         <v>9106165.780400001</v>
       </c>
       <c r="G135" t="n">
+        <v>6.652533333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>6.879616666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6.577</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6.579</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.586</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6.565</v>
+      </c>
+      <c r="F136" t="n">
+        <v>742684.1222</v>
+      </c>
+      <c r="G136" t="n">
+        <v>6.645799999999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>6.8724</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.602</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.602</v>
+      </c>
+      <c r="F137" t="n">
+        <v>511575.2793</v>
+      </c>
+      <c r="G137" t="n">
+        <v>6.640666666666665</v>
+      </c>
+      <c r="H137" t="n">
+        <v>6.866166666666667</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6.604</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.604</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="F138" t="n">
+        <v>32212.4197</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6.635666666666665</v>
+      </c>
+      <c r="H138" t="n">
+        <v>6.860216666666667</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="F139" t="n">
+        <v>388253.2343</v>
+      </c>
+      <c r="G139" t="n">
+        <v>6.632533333333332</v>
+      </c>
+      <c r="H139" t="n">
+        <v>6.854733333333333</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="F140" t="n">
+        <v>353038.0897</v>
+      </c>
+      <c r="G140" t="n">
+        <v>6.632333333333333</v>
+      </c>
+      <c r="H140" t="n">
+        <v>6.850083333333333</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6280.3819</v>
+      </c>
+      <c r="G141" t="n">
+        <v>6.632133333333331</v>
+      </c>
+      <c r="H141" t="n">
+        <v>6.845533333333334</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="F142" t="n">
+        <v>25585.9302</v>
+      </c>
+      <c r="G142" t="n">
+        <v>6.631599999999998</v>
+      </c>
+      <c r="H142" t="n">
+        <v>6.840783333333333</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="L142" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.678</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F143" t="n">
+        <v>244248.3335</v>
+      </c>
+      <c r="G143" t="n">
+        <v>6.631466666666666</v>
+      </c>
+      <c r="H143" t="n">
+        <v>6.836083333333333</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>6.577</v>
-      </c>
-      <c r="C136" t="n">
-        <v>6.579</v>
-      </c>
-      <c r="D136" t="n">
-        <v>6.586</v>
-      </c>
-      <c r="E136" t="n">
-        <v>6.565</v>
-      </c>
-      <c r="F136" t="n">
-        <v>742684.1222</v>
-      </c>
-      <c r="G136" t="n">
-        <v>6.8724</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10018.9648</v>
+      </c>
+      <c r="G144" t="n">
+        <v>6.632266666666665</v>
+      </c>
+      <c r="H144" t="n">
+        <v>6.831266666666665</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="L144" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>6.602</v>
-      </c>
-      <c r="C137" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="D137" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="E137" t="n">
-        <v>6.602</v>
-      </c>
-      <c r="F137" t="n">
-        <v>511575.2793</v>
-      </c>
-      <c r="G137" t="n">
-        <v>6.866166666666667</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="F145" t="n">
+        <v>9223.1644</v>
+      </c>
+      <c r="G145" t="n">
+        <v>6.632399999999999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6.825033333333333</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="L145" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="C138" t="n">
-        <v>6.604</v>
-      </c>
-      <c r="D138" t="n">
-        <v>6.604</v>
-      </c>
-      <c r="E138" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="F138" t="n">
-        <v>32212.4197</v>
-      </c>
-      <c r="G138" t="n">
-        <v>6.860216666666667</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.669</v>
+      </c>
+      <c r="F146" t="n">
+        <v>58376.0952</v>
+      </c>
+      <c r="G146" t="n">
+        <v>6.634133333333332</v>
+      </c>
+      <c r="H146" t="n">
+        <v>6.819066666666666</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="L146" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>6.631</v>
-      </c>
-      <c r="C139" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="D139" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="E139" t="n">
-        <v>6.631</v>
-      </c>
-      <c r="F139" t="n">
-        <v>388253.2343</v>
-      </c>
-      <c r="G139" t="n">
-        <v>6.854733333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.694</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.694</v>
+      </c>
+      <c r="F147" t="n">
+        <v>87191.6076</v>
+      </c>
+      <c r="G147" t="n">
+        <v>6.639933333333332</v>
+      </c>
+      <c r="H147" t="n">
+        <v>6.813633333333332</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="L147" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="C140" t="n">
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6018</v>
+      </c>
+      <c r="G148" t="n">
+        <v>6.643999999999999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>6.807566666666665</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="L148" t="n">
         <v>6.677</v>
       </c>
-      <c r="D140" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="E140" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="F140" t="n">
-        <v>353038.0897</v>
-      </c>
-      <c r="G140" t="n">
-        <v>6.850083333333333</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="M148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="F149" t="n">
+        <v>32189.6568</v>
+      </c>
+      <c r="G149" t="n">
+        <v>6.650533333333332</v>
+      </c>
+      <c r="H149" t="n">
+        <v>6.802266666666665</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="L149" t="n">
         <v>6.677</v>
       </c>
-      <c r="C141" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="D141" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="E141" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="F141" t="n">
-        <v>6280.3819</v>
-      </c>
-      <c r="G141" t="n">
-        <v>6.845533333333334</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="M149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="C142" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="D142" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="E142" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="F142" t="n">
-        <v>25585.9302</v>
-      </c>
-      <c r="G142" t="n">
-        <v>6.840783333333333</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5217.5001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>6.657666666666666</v>
+      </c>
+      <c r="H150" t="n">
+        <v>6.796349999999999</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="L150" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>6.678</v>
-      </c>
-      <c r="C143" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="D143" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="E143" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="F143" t="n">
-        <v>244248.3335</v>
-      </c>
-      <c r="G143" t="n">
-        <v>6.836083333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F151" t="n">
+        <v>642325.5037999999</v>
+      </c>
+      <c r="G151" t="n">
+        <v>6.663066666666666</v>
+      </c>
+      <c r="H151" t="n">
+        <v>6.790966666666666</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C144" t="n">
-        <v>6.693</v>
-      </c>
-      <c r="D144" t="n">
-        <v>6.693</v>
-      </c>
-      <c r="E144" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F144" t="n">
-        <v>10018.9648</v>
-      </c>
-      <c r="G144" t="n">
-        <v>6.831266666666665</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="F152" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>6.665733333333333</v>
+      </c>
+      <c r="H152" t="n">
+        <v>6.785299999999999</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="C145" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="D145" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="E145" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="F145" t="n">
-        <v>9223.1644</v>
-      </c>
-      <c r="G145" t="n">
-        <v>6.825033333333333</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="F153" t="n">
+        <v>150.838</v>
+      </c>
+      <c r="G153" t="n">
+        <v>6.667</v>
+      </c>
+      <c r="H153" t="n">
+        <v>6.779799999999999</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C146" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="D146" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E146" t="n">
-        <v>6.669</v>
-      </c>
-      <c r="F146" t="n">
-        <v>58376.0952</v>
-      </c>
-      <c r="G146" t="n">
-        <v>6.819066666666666</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.629</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F154" t="n">
+        <v>117336.4222</v>
+      </c>
+      <c r="G154" t="n">
+        <v>6.666866666666666</v>
+      </c>
+      <c r="H154" t="n">
+        <v>6.773833333333332</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>6.694</v>
-      </c>
-      <c r="C147" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="D147" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="E147" t="n">
-        <v>6.694</v>
-      </c>
-      <c r="F147" t="n">
-        <v>87191.6076</v>
-      </c>
-      <c r="G147" t="n">
-        <v>6.813633333333332</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1510.345869204048</v>
+      </c>
+      <c r="G155" t="n">
+        <v>6.663133333333332</v>
+      </c>
+      <c r="H155" t="n">
+        <v>6.767099999999999</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="F156" t="n">
+        <v>274731.9615</v>
+      </c>
+      <c r="G156" t="n">
+        <v>6.659799999999998</v>
+      </c>
+      <c r="H156" t="n">
+        <v>6.760466666666667</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.626</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.626</v>
+      </c>
+      <c r="F157" t="n">
+        <v>217464.8651</v>
+      </c>
+      <c r="G157" t="n">
+        <v>6.65653333333333</v>
+      </c>
+      <c r="H157" t="n">
+        <v>6.753200000000001</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest VET.xlsx
+++ b/BackTest/2020-01-20 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:M186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.142</v>
+        <v>7.088</v>
       </c>
       <c r="C2" t="n">
-        <v>7.141</v>
+        <v>7.088</v>
       </c>
       <c r="D2" t="n">
-        <v>7.142</v>
+        <v>7.088</v>
       </c>
       <c r="E2" t="n">
-        <v>7.141</v>
+        <v>7.088</v>
       </c>
       <c r="F2" t="n">
-        <v>29714</v>
+        <v>147084.3171</v>
       </c>
       <c r="G2" t="n">
-        <v>7.066199999999999</v>
+        <v>-548547.9367000004</v>
       </c>
       <c r="H2" t="n">
-        <v>7.046416666666669</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.14</v>
+        <v>7.088</v>
       </c>
       <c r="C3" t="n">
-        <v>7.14</v>
+        <v>7.088</v>
       </c>
       <c r="D3" t="n">
-        <v>7.14</v>
+        <v>7.088</v>
       </c>
       <c r="E3" t="n">
-        <v>7.14</v>
+        <v>7.088</v>
       </c>
       <c r="F3" t="n">
-        <v>4340.5282</v>
+        <v>6778.1486</v>
       </c>
       <c r="G3" t="n">
-        <v>7.079133333333333</v>
+        <v>-548547.9367000004</v>
       </c>
       <c r="H3" t="n">
-        <v>7.047533333333336</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.14</v>
+        <v>7.088</v>
       </c>
       <c r="C4" t="n">
-        <v>7.141</v>
+        <v>7.088</v>
       </c>
       <c r="D4" t="n">
-        <v>7.141</v>
+        <v>7.088</v>
       </c>
       <c r="E4" t="n">
-        <v>7.14</v>
+        <v>7.088</v>
       </c>
       <c r="F4" t="n">
-        <v>30220.8528</v>
+        <v>2903.8287</v>
       </c>
       <c r="G4" t="n">
-        <v>7.089200000000001</v>
+        <v>-548547.9367000004</v>
       </c>
       <c r="H4" t="n">
-        <v>7.048683333333336</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.141</v>
+        <v>7.1</v>
       </c>
       <c r="C5" t="n">
-        <v>6.976</v>
+        <v>7.1</v>
       </c>
       <c r="D5" t="n">
-        <v>7.141</v>
+        <v>7.1</v>
       </c>
       <c r="E5" t="n">
-        <v>6.976</v>
+        <v>7.1</v>
       </c>
       <c r="F5" t="n">
-        <v>280050.7126</v>
+        <v>1257.5252</v>
       </c>
       <c r="G5" t="n">
-        <v>7.085266666666667</v>
+        <v>-547290.4115000004</v>
       </c>
       <c r="H5" t="n">
-        <v>7.047150000000003</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.077</v>
+        <v>7.088</v>
       </c>
       <c r="C6" t="n">
-        <v>7.077</v>
+        <v>7.088</v>
       </c>
       <c r="D6" t="n">
-        <v>7.077</v>
+        <v>7.088</v>
       </c>
       <c r="E6" t="n">
-        <v>7.077</v>
+        <v>7.088</v>
       </c>
       <c r="F6" t="n">
-        <v>104806.0511</v>
+        <v>515.6882000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>7.086533333333334</v>
+        <v>-547806.0997000004</v>
       </c>
       <c r="H6" t="n">
-        <v>7.04741666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.032</v>
+        <v>7.011</v>
       </c>
       <c r="C7" t="n">
-        <v>7.032</v>
+        <v>7.003</v>
       </c>
       <c r="D7" t="n">
-        <v>7.032</v>
+        <v>7.011</v>
       </c>
       <c r="E7" t="n">
-        <v>7.032</v>
+        <v>6.97</v>
       </c>
       <c r="F7" t="n">
-        <v>45193.9489</v>
+        <v>722326.8625</v>
       </c>
       <c r="G7" t="n">
-        <v>7.086133333333334</v>
+        <v>-1270132.9622</v>
       </c>
       <c r="H7" t="n">
-        <v>7.047300000000003</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.033</v>
+        <v>6.91</v>
       </c>
       <c r="C8" t="n">
-        <v>6.945</v>
+        <v>6.91</v>
       </c>
       <c r="D8" t="n">
-        <v>7.033</v>
+        <v>6.91</v>
       </c>
       <c r="E8" t="n">
-        <v>6.945</v>
+        <v>6.91</v>
       </c>
       <c r="F8" t="n">
-        <v>378000</v>
+        <v>72249.0193</v>
       </c>
       <c r="G8" t="n">
-        <v>7.0798</v>
+        <v>-1342381.9815</v>
       </c>
       <c r="H8" t="n">
-        <v>7.04521666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.994</v>
+        <v>7.02</v>
       </c>
       <c r="C9" t="n">
-        <v>6.979</v>
+        <v>7.021</v>
       </c>
       <c r="D9" t="n">
-        <v>6.994</v>
+        <v>7.021</v>
       </c>
       <c r="E9" t="n">
-        <v>6.979</v>
+        <v>7.02</v>
       </c>
       <c r="F9" t="n">
-        <v>4856.2978</v>
+        <v>568531.5082</v>
       </c>
       <c r="G9" t="n">
-        <v>7.073599999999999</v>
+        <v>-773850.4733000004</v>
       </c>
       <c r="H9" t="n">
-        <v>7.044116666666669</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.973</v>
+        <v>7.074</v>
       </c>
       <c r="C10" t="n">
-        <v>6.973</v>
+        <v>7.074</v>
       </c>
       <c r="D10" t="n">
-        <v>6.973</v>
+        <v>7.074</v>
       </c>
       <c r="E10" t="n">
-        <v>6.973</v>
+        <v>7.074</v>
       </c>
       <c r="F10" t="n">
-        <v>900</v>
+        <v>73220</v>
       </c>
       <c r="G10" t="n">
-        <v>7.066999999999998</v>
+        <v>-700630.4733000004</v>
       </c>
       <c r="H10" t="n">
-        <v>7.042700000000003</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.965</v>
+        <v>7.03</v>
       </c>
       <c r="C11" t="n">
-        <v>6.965</v>
+        <v>7.027</v>
       </c>
       <c r="D11" t="n">
-        <v>6.965</v>
+        <v>7.03</v>
       </c>
       <c r="E11" t="n">
-        <v>6.965</v>
+        <v>7.027</v>
       </c>
       <c r="F11" t="n">
-        <v>76817.98510000001</v>
+        <v>196052.0142</v>
       </c>
       <c r="G11" t="n">
-        <v>7.059733333333332</v>
+        <v>-896682.4875000004</v>
       </c>
       <c r="H11" t="n">
-        <v>7.040850000000002</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.964</v>
+        <v>6.976</v>
       </c>
       <c r="C12" t="n">
-        <v>6.964</v>
+        <v>6.976</v>
       </c>
       <c r="D12" t="n">
-        <v>6.964</v>
+        <v>6.976</v>
       </c>
       <c r="E12" t="n">
-        <v>6.964</v>
+        <v>6.976</v>
       </c>
       <c r="F12" t="n">
-        <v>2000</v>
+        <v>5019</v>
       </c>
       <c r="G12" t="n">
-        <v>7.052599999999999</v>
+        <v>-901701.4875000004</v>
       </c>
       <c r="H12" t="n">
-        <v>7.039466666666669</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.963</v>
+        <v>6.982</v>
       </c>
       <c r="C13" t="n">
-        <v>6.963</v>
+        <v>6.914</v>
       </c>
       <c r="D13" t="n">
-        <v>6.963</v>
+        <v>6.982</v>
       </c>
       <c r="E13" t="n">
-        <v>6.963</v>
+        <v>6.914</v>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>2817278.2809</v>
       </c>
       <c r="G13" t="n">
-        <v>7.043599999999999</v>
+        <v>-3718979.7684</v>
       </c>
       <c r="H13" t="n">
-        <v>7.037800000000002</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.955</v>
+        <v>6.998</v>
       </c>
       <c r="C14" t="n">
-        <v>6.957</v>
+        <v>6.998</v>
       </c>
       <c r="D14" t="n">
-        <v>6.957</v>
+        <v>6.998</v>
       </c>
       <c r="E14" t="n">
-        <v>6.955</v>
+        <v>6.998</v>
       </c>
       <c r="F14" t="n">
-        <v>89665.09329999999</v>
+        <v>3396.4613</v>
       </c>
       <c r="G14" t="n">
-        <v>7.033933333333332</v>
+        <v>-3715583.3071</v>
       </c>
       <c r="H14" t="n">
-        <v>7.035950000000002</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.032</v>
+        <v>6.998</v>
       </c>
       <c r="C15" t="n">
-        <v>7.032</v>
+        <v>6.999</v>
       </c>
       <c r="D15" t="n">
-        <v>7.032</v>
+        <v>6.999</v>
       </c>
       <c r="E15" t="n">
-        <v>7.032</v>
+        <v>6.998</v>
       </c>
       <c r="F15" t="n">
-        <v>72</v>
+        <v>156348.5313</v>
       </c>
       <c r="G15" t="n">
-        <v>7.028466666666664</v>
+        <v>-3559234.7758</v>
       </c>
       <c r="H15" t="n">
-        <v>7.035350000000003</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.018</v>
+        <v>6.955</v>
       </c>
       <c r="C16" t="n">
-        <v>7.018</v>
+        <v>6.955</v>
       </c>
       <c r="D16" t="n">
-        <v>7.018</v>
+        <v>6.955</v>
       </c>
       <c r="E16" t="n">
-        <v>7.018</v>
+        <v>6.955</v>
       </c>
       <c r="F16" t="n">
-        <v>72882</v>
+        <v>9222.099899999999</v>
       </c>
       <c r="G16" t="n">
-        <v>7.020199999999998</v>
+        <v>-3568456.8757</v>
       </c>
       <c r="H16" t="n">
-        <v>7.034783333333335</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.017</v>
+        <v>6.946</v>
       </c>
       <c r="C17" t="n">
-        <v>7.017</v>
+        <v>6.946</v>
       </c>
       <c r="D17" t="n">
-        <v>7.017</v>
+        <v>6.946</v>
       </c>
       <c r="E17" t="n">
-        <v>7.017</v>
+        <v>6.946</v>
       </c>
       <c r="F17" t="n">
-        <v>63516.8154</v>
+        <v>4576.9242</v>
       </c>
       <c r="G17" t="n">
-        <v>7.011933333333331</v>
+        <v>-3573033.7999</v>
       </c>
       <c r="H17" t="n">
-        <v>7.034800000000001</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.012</v>
+        <v>6.99</v>
       </c>
       <c r="C18" t="n">
-        <v>6.951</v>
+        <v>6.99</v>
       </c>
       <c r="D18" t="n">
-        <v>7.012</v>
+        <v>6.99</v>
       </c>
       <c r="E18" t="n">
-        <v>6.951</v>
+        <v>6.99</v>
       </c>
       <c r="F18" t="n">
-        <v>320337.365</v>
+        <v>5533.025</v>
       </c>
       <c r="G18" t="n">
-        <v>6.99933333333333</v>
+        <v>-3567500.7749</v>
       </c>
       <c r="H18" t="n">
-        <v>7.033766666666668</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.959</v>
+        <v>6.968</v>
       </c>
       <c r="C19" t="n">
-        <v>6.959</v>
+        <v>7.035</v>
       </c>
       <c r="D19" t="n">
-        <v>6.959</v>
+        <v>7.035</v>
       </c>
       <c r="E19" t="n">
-        <v>6.959</v>
+        <v>6.968</v>
       </c>
       <c r="F19" t="n">
-        <v>114337.365</v>
+        <v>7373.1344</v>
       </c>
       <c r="G19" t="n">
-        <v>6.987199999999997</v>
+        <v>-3560127.6405</v>
       </c>
       <c r="H19" t="n">
-        <v>7.032883333333335</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.998</v>
+        <v>7.058</v>
       </c>
       <c r="C20" t="n">
-        <v>6.998</v>
+        <v>7.058</v>
       </c>
       <c r="D20" t="n">
-        <v>6.998</v>
+        <v>7.058</v>
       </c>
       <c r="E20" t="n">
-        <v>6.998</v>
+        <v>7.058</v>
       </c>
       <c r="F20" t="n">
-        <v>43522.8912</v>
+        <v>138049.9414</v>
       </c>
       <c r="G20" t="n">
-        <v>6.988666666666663</v>
+        <v>-3422077.6991</v>
       </c>
       <c r="H20" t="n">
-        <v>7.032633333333336</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.999</v>
+        <v>7.041</v>
       </c>
       <c r="C21" t="n">
-        <v>6.999</v>
+        <v>7.038</v>
       </c>
       <c r="D21" t="n">
-        <v>6.999</v>
+        <v>7.041</v>
       </c>
       <c r="E21" t="n">
-        <v>6.999</v>
+        <v>7.038</v>
       </c>
       <c r="F21" t="n">
-        <v>205616.0345</v>
+        <v>137101.9933</v>
       </c>
       <c r="G21" t="n">
-        <v>6.983466666666663</v>
+        <v>-3559179.692400001</v>
       </c>
       <c r="H21" t="n">
-        <v>7.032183333333336</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.945</v>
+        <v>7.04</v>
       </c>
       <c r="C22" t="n">
-        <v>6.945</v>
+        <v>7.04</v>
       </c>
       <c r="D22" t="n">
-        <v>6.945</v>
+        <v>7.04</v>
       </c>
       <c r="E22" t="n">
-        <v>6.945</v>
+        <v>7.04</v>
       </c>
       <c r="F22" t="n">
-        <v>1400.5661</v>
+        <v>6342.546</v>
       </c>
       <c r="G22" t="n">
-        <v>6.977666666666663</v>
+        <v>-3552837.1464</v>
       </c>
       <c r="H22" t="n">
-        <v>7.030550000000003</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.943</v>
+        <v>7.072</v>
       </c>
       <c r="C23" t="n">
-        <v>6.943</v>
+        <v>7.072</v>
       </c>
       <c r="D23" t="n">
-        <v>6.943</v>
+        <v>7.072</v>
       </c>
       <c r="E23" t="n">
-        <v>6.943</v>
+        <v>7.072</v>
       </c>
       <c r="F23" t="n">
-        <v>26431.9339</v>
+        <v>22967.4497</v>
       </c>
       <c r="G23" t="n">
-        <v>6.97753333333333</v>
+        <v>-3529869.6967</v>
       </c>
       <c r="H23" t="n">
-        <v>7.028883333333336</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.956</v>
+        <v>7.072</v>
       </c>
       <c r="C24" t="n">
-        <v>6.956</v>
+        <v>7.072</v>
       </c>
       <c r="D24" t="n">
-        <v>6.956</v>
+        <v>7.072</v>
       </c>
       <c r="E24" t="n">
-        <v>6.956</v>
+        <v>7.072</v>
       </c>
       <c r="F24" t="n">
-        <v>13682.3242</v>
+        <v>100000</v>
       </c>
       <c r="G24" t="n">
-        <v>6.975999999999997</v>
+        <v>-3529869.6967</v>
       </c>
       <c r="H24" t="n">
-        <v>7.027266666666669</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.957</v>
+        <v>7.073</v>
       </c>
       <c r="C25" t="n">
-        <v>6.957</v>
+        <v>7.074</v>
       </c>
       <c r="D25" t="n">
-        <v>6.957</v>
+        <v>7.074</v>
       </c>
       <c r="E25" t="n">
-        <v>6.957</v>
+        <v>7.073</v>
       </c>
       <c r="F25" t="n">
-        <v>14320.4989</v>
+        <v>195803.3999</v>
       </c>
       <c r="G25" t="n">
-        <v>6.97493333333333</v>
+        <v>-3334066.2968</v>
       </c>
       <c r="H25" t="n">
-        <v>7.025666666666669</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.941</v>
+        <v>7.073</v>
       </c>
       <c r="C26" t="n">
-        <v>6.941</v>
+        <v>7.071</v>
       </c>
       <c r="D26" t="n">
-        <v>6.941</v>
+        <v>7.074</v>
       </c>
       <c r="E26" t="n">
-        <v>6.941</v>
+        <v>7.071</v>
       </c>
       <c r="F26" t="n">
-        <v>32425.317</v>
+        <v>272111.6391</v>
       </c>
       <c r="G26" t="n">
-        <v>6.97333333333333</v>
+        <v>-3606177.9359</v>
       </c>
       <c r="H26" t="n">
-        <v>7.023800000000002</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.94</v>
+        <v>7.098</v>
       </c>
       <c r="C27" t="n">
-        <v>6.927</v>
+        <v>7.098</v>
       </c>
       <c r="D27" t="n">
-        <v>6.941</v>
+        <v>7.098</v>
       </c>
       <c r="E27" t="n">
-        <v>6.927</v>
+        <v>7.098</v>
       </c>
       <c r="F27" t="n">
-        <v>918922.2024</v>
+        <v>123352.5874</v>
       </c>
       <c r="G27" t="n">
-        <v>6.970866666666664</v>
+        <v>-3482825.3485</v>
       </c>
       <c r="H27" t="n">
-        <v>7.021700000000002</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.976</v>
+        <v>7.102</v>
       </c>
       <c r="C28" t="n">
-        <v>6.976</v>
+        <v>7.102</v>
       </c>
       <c r="D28" t="n">
-        <v>6.976</v>
+        <v>7.102</v>
       </c>
       <c r="E28" t="n">
-        <v>6.976</v>
+        <v>7.102</v>
       </c>
       <c r="F28" t="n">
-        <v>411188.5506</v>
+        <v>46284</v>
       </c>
       <c r="G28" t="n">
-        <v>6.971733333333331</v>
+        <v>-3436541.3485</v>
       </c>
       <c r="H28" t="n">
-        <v>7.020883333333336</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.008</v>
+        <v>7.112</v>
       </c>
       <c r="C29" t="n">
-        <v>7.009</v>
+        <v>7.114</v>
       </c>
       <c r="D29" t="n">
-        <v>7.009</v>
+        <v>7.114</v>
       </c>
       <c r="E29" t="n">
-        <v>6.96</v>
+        <v>7.112</v>
       </c>
       <c r="F29" t="n">
-        <v>234516.0001</v>
+        <v>83322.8317</v>
       </c>
       <c r="G29" t="n">
-        <v>6.975199999999998</v>
+        <v>-3353218.5168</v>
       </c>
       <c r="H29" t="n">
-        <v>7.02071666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.009</v>
+        <v>7.119</v>
       </c>
       <c r="C30" t="n">
-        <v>7.009</v>
+        <v>7.142</v>
       </c>
       <c r="D30" t="n">
-        <v>7.009</v>
+        <v>7.142</v>
       </c>
       <c r="E30" t="n">
-        <v>7.009</v>
+        <v>7.119</v>
       </c>
       <c r="F30" t="n">
-        <v>30000</v>
+        <v>181081.9826</v>
       </c>
       <c r="G30" t="n">
-        <v>6.973666666666665</v>
+        <v>-3172136.5342</v>
       </c>
       <c r="H30" t="n">
-        <v>7.02016666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.009</v>
+        <v>7.142</v>
       </c>
       <c r="C31" t="n">
-        <v>7.009</v>
+        <v>7.141</v>
       </c>
       <c r="D31" t="n">
-        <v>7.009</v>
+        <v>7.142</v>
       </c>
       <c r="E31" t="n">
-        <v>7.009</v>
+        <v>7.141</v>
       </c>
       <c r="F31" t="n">
-        <v>41282.9343</v>
+        <v>29714</v>
       </c>
       <c r="G31" t="n">
-        <v>6.973066666666665</v>
+        <v>-3201850.5342</v>
       </c>
       <c r="H31" t="n">
-        <v>7.019466666666671</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.963</v>
+        <v>7.14</v>
       </c>
       <c r="C32" t="n">
-        <v>6.963</v>
+        <v>7.14</v>
       </c>
       <c r="D32" t="n">
-        <v>6.963</v>
+        <v>7.14</v>
       </c>
       <c r="E32" t="n">
-        <v>6.963</v>
+        <v>7.14</v>
       </c>
       <c r="F32" t="n">
-        <v>88888</v>
+        <v>4340.5282</v>
       </c>
       <c r="G32" t="n">
-        <v>6.969466666666665</v>
+        <v>-3206191.0624</v>
       </c>
       <c r="H32" t="n">
-        <v>7.017383333333338</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.002</v>
+        <v>7.14</v>
       </c>
       <c r="C33" t="n">
-        <v>7.002</v>
+        <v>7.141</v>
       </c>
       <c r="D33" t="n">
-        <v>7.002</v>
+        <v>7.141</v>
       </c>
       <c r="E33" t="n">
-        <v>7.002</v>
+        <v>7.14</v>
       </c>
       <c r="F33" t="n">
-        <v>41988.5951</v>
+        <v>30220.8528</v>
       </c>
       <c r="G33" t="n">
-        <v>6.972866666666665</v>
+        <v>-3175970.2096</v>
       </c>
       <c r="H33" t="n">
-        <v>7.015950000000004</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.002</v>
+        <v>7.141</v>
       </c>
       <c r="C34" t="n">
-        <v>7.001</v>
+        <v>6.976</v>
       </c>
       <c r="D34" t="n">
-        <v>7.002</v>
+        <v>7.141</v>
       </c>
       <c r="E34" t="n">
-        <v>7.001</v>
+        <v>6.976</v>
       </c>
       <c r="F34" t="n">
-        <v>27539.2038</v>
+        <v>280050.7126</v>
       </c>
       <c r="G34" t="n">
-        <v>6.975666666666665</v>
+        <v>-3456020.9222</v>
       </c>
       <c r="H34" t="n">
-        <v>7.014500000000003</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.01</v>
+        <v>7.077</v>
       </c>
       <c r="C35" t="n">
-        <v>7.01</v>
+        <v>7.077</v>
       </c>
       <c r="D35" t="n">
-        <v>7.01</v>
+        <v>7.077</v>
       </c>
       <c r="E35" t="n">
-        <v>7.01</v>
+        <v>7.077</v>
       </c>
       <c r="F35" t="n">
-        <v>16898.044</v>
+        <v>104806.0511</v>
       </c>
       <c r="G35" t="n">
-        <v>6.976466666666665</v>
+        <v>-3351214.8711</v>
       </c>
       <c r="H35" t="n">
-        <v>7.013200000000002</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.011</v>
+        <v>7.032</v>
       </c>
       <c r="C36" t="n">
-        <v>7.011</v>
+        <v>7.032</v>
       </c>
       <c r="D36" t="n">
-        <v>7.011</v>
+        <v>7.032</v>
       </c>
       <c r="E36" t="n">
-        <v>7.011</v>
+        <v>7.032</v>
       </c>
       <c r="F36" t="n">
-        <v>13185.0442</v>
+        <v>45193.9489</v>
       </c>
       <c r="G36" t="n">
-        <v>6.977266666666665</v>
+        <v>-3396408.82</v>
       </c>
       <c r="H36" t="n">
-        <v>7.011716666666669</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.001</v>
+        <v>7.033</v>
       </c>
       <c r="C37" t="n">
-        <v>6.997</v>
+        <v>6.945</v>
       </c>
       <c r="D37" t="n">
-        <v>7.001</v>
+        <v>7.033</v>
       </c>
       <c r="E37" t="n">
-        <v>6.997</v>
+        <v>6.945</v>
       </c>
       <c r="F37" t="n">
-        <v>117300</v>
+        <v>378000</v>
       </c>
       <c r="G37" t="n">
-        <v>6.980733333333332</v>
+        <v>-3774408.82</v>
       </c>
       <c r="H37" t="n">
-        <v>7.010200000000002</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.011</v>
+        <v>6.994</v>
       </c>
       <c r="C38" t="n">
-        <v>7.011</v>
+        <v>6.979</v>
       </c>
       <c r="D38" t="n">
-        <v>7.011</v>
+        <v>6.994</v>
       </c>
       <c r="E38" t="n">
-        <v>7.011</v>
+        <v>6.979</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0001</v>
+        <v>4856.2978</v>
       </c>
       <c r="G38" t="n">
-        <v>6.985266666666665</v>
+        <v>-3769552.5222</v>
       </c>
       <c r="H38" t="n">
-        <v>7.010333333333336</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.005</v>
+        <v>6.973</v>
       </c>
       <c r="C39" t="n">
-        <v>7.005</v>
+        <v>6.973</v>
       </c>
       <c r="D39" t="n">
-        <v>7.005</v>
+        <v>6.973</v>
       </c>
       <c r="E39" t="n">
-        <v>7.005</v>
+        <v>6.973</v>
       </c>
       <c r="F39" t="n">
-        <v>11000</v>
+        <v>900</v>
       </c>
       <c r="G39" t="n">
-        <v>6.988533333333332</v>
+        <v>-3770452.5222</v>
       </c>
       <c r="H39" t="n">
-        <v>7.011916666666669</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.046</v>
+        <v>6.965</v>
       </c>
       <c r="C40" t="n">
-        <v>7.047</v>
+        <v>6.965</v>
       </c>
       <c r="D40" t="n">
-        <v>7.047</v>
+        <v>6.965</v>
       </c>
       <c r="E40" t="n">
-        <v>7.046</v>
+        <v>6.965</v>
       </c>
       <c r="F40" t="n">
-        <v>105529.6588</v>
+        <v>76817.98510000001</v>
       </c>
       <c r="G40" t="n">
-        <v>6.994533333333332</v>
+        <v>-3847270.507300001</v>
       </c>
       <c r="H40" t="n">
-        <v>7.012350000000002</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.996</v>
+        <v>6.964</v>
       </c>
       <c r="C41" t="n">
-        <v>6.996</v>
+        <v>6.964</v>
       </c>
       <c r="D41" t="n">
-        <v>6.996</v>
+        <v>6.964</v>
       </c>
       <c r="E41" t="n">
-        <v>6.996</v>
+        <v>6.964</v>
       </c>
       <c r="F41" t="n">
-        <v>82881.7705</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="n">
-        <v>6.998199999999998</v>
+        <v>-3849270.507300001</v>
       </c>
       <c r="H41" t="n">
-        <v>7.011050000000002</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.038</v>
+        <v>6.963</v>
       </c>
       <c r="C42" t="n">
-        <v>7.041</v>
+        <v>6.963</v>
       </c>
       <c r="D42" t="n">
-        <v>7.041</v>
+        <v>6.963</v>
       </c>
       <c r="E42" t="n">
-        <v>7.038</v>
+        <v>6.963</v>
       </c>
       <c r="F42" t="n">
-        <v>910754.4952974862</v>
+        <v>300</v>
       </c>
       <c r="G42" t="n">
-        <v>7.005799999999997</v>
+        <v>-3849570.507300001</v>
       </c>
       <c r="H42" t="n">
-        <v>7.011283333333336</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.037</v>
+        <v>6.955</v>
       </c>
       <c r="C43" t="n">
-        <v>7.05</v>
+        <v>6.957</v>
       </c>
       <c r="D43" t="n">
-        <v>7.05</v>
+        <v>6.957</v>
       </c>
       <c r="E43" t="n">
-        <v>7.037</v>
+        <v>6.955</v>
       </c>
       <c r="F43" t="n">
-        <v>642611.3459</v>
+        <v>89665.09329999999</v>
       </c>
       <c r="G43" t="n">
-        <v>7.010733333333331</v>
+        <v>-3939235.6006</v>
       </c>
       <c r="H43" t="n">
-        <v>7.012516666666669</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.05</v>
+        <v>7.032</v>
       </c>
       <c r="C44" t="n">
-        <v>7.05</v>
+        <v>7.032</v>
       </c>
       <c r="D44" t="n">
-        <v>7.05</v>
+        <v>7.032</v>
       </c>
       <c r="E44" t="n">
-        <v>7.05</v>
+        <v>7.032</v>
       </c>
       <c r="F44" t="n">
-        <v>125754.8175</v>
+        <v>72</v>
       </c>
       <c r="G44" t="n">
-        <v>7.013466666666663</v>
+        <v>-3939163.6006</v>
       </c>
       <c r="H44" t="n">
-        <v>7.014783333333336</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.05</v>
+        <v>7.018</v>
       </c>
       <c r="C45" t="n">
-        <v>7.05</v>
+        <v>7.018</v>
       </c>
       <c r="D45" t="n">
-        <v>7.05</v>
+        <v>7.018</v>
       </c>
       <c r="E45" t="n">
-        <v>7.05</v>
+        <v>7.018</v>
       </c>
       <c r="F45" t="n">
-        <v>231901.5358</v>
+        <v>72882</v>
       </c>
       <c r="G45" t="n">
-        <v>7.016199999999997</v>
+        <v>-4012045.6006</v>
       </c>
       <c r="H45" t="n">
-        <v>7.015650000000003</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.05</v>
+        <v>7.017</v>
       </c>
       <c r="C46" t="n">
-        <v>7.05</v>
+        <v>7.017</v>
       </c>
       <c r="D46" t="n">
-        <v>7.05</v>
+        <v>7.017</v>
       </c>
       <c r="E46" t="n">
-        <v>7.05</v>
+        <v>7.017</v>
       </c>
       <c r="F46" t="n">
-        <v>1356516.9605</v>
+        <v>63516.8154</v>
       </c>
       <c r="G46" t="n">
-        <v>7.01893333333333</v>
+        <v>-4075562.416000001</v>
       </c>
       <c r="H46" t="n">
-        <v>7.016500000000003</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>7.012</v>
       </c>
       <c r="C47" t="n">
-        <v>7</v>
+        <v>6.951</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>7.012</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6.951</v>
       </c>
       <c r="F47" t="n">
-        <v>100000</v>
+        <v>320337.365</v>
       </c>
       <c r="G47" t="n">
-        <v>7.021399999999997</v>
+        <v>-4395899.781</v>
       </c>
       <c r="H47" t="n">
-        <v>7.017250000000003</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.038</v>
+        <v>6.959</v>
       </c>
       <c r="C48" t="n">
-        <v>7.045</v>
+        <v>6.959</v>
       </c>
       <c r="D48" t="n">
-        <v>7.045</v>
+        <v>6.959</v>
       </c>
       <c r="E48" t="n">
-        <v>7.038</v>
+        <v>6.959</v>
       </c>
       <c r="F48" t="n">
-        <v>3416707.6177</v>
+        <v>114337.365</v>
       </c>
       <c r="G48" t="n">
-        <v>7.024266666666664</v>
+        <v>-4281562.416</v>
       </c>
       <c r="H48" t="n">
-        <v>7.018900000000003</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.044</v>
+        <v>6.998</v>
       </c>
       <c r="C49" t="n">
-        <v>7.044</v>
+        <v>6.998</v>
       </c>
       <c r="D49" t="n">
-        <v>7.044</v>
+        <v>6.998</v>
       </c>
       <c r="E49" t="n">
-        <v>7.044</v>
+        <v>6.998</v>
       </c>
       <c r="F49" t="n">
-        <v>58028.3975</v>
+        <v>43522.8912</v>
       </c>
       <c r="G49" t="n">
-        <v>7.02713333333333</v>
+        <v>-4238039.5248</v>
       </c>
       <c r="H49" t="n">
-        <v>7.019800000000003</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.045</v>
+        <v>6.999</v>
       </c>
       <c r="C50" t="n">
-        <v>7.045</v>
+        <v>6.999</v>
       </c>
       <c r="D50" t="n">
-        <v>7.045</v>
+        <v>6.999</v>
       </c>
       <c r="E50" t="n">
-        <v>7.045</v>
+        <v>6.999</v>
       </c>
       <c r="F50" t="n">
-        <v>53000.3865</v>
+        <v>205616.0345</v>
       </c>
       <c r="G50" t="n">
-        <v>7.029466666666663</v>
+        <v>-4032423.4903</v>
       </c>
       <c r="H50" t="n">
-        <v>7.01996666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.045</v>
+        <v>6.945</v>
       </c>
       <c r="C51" t="n">
-        <v>7.045</v>
+        <v>6.945</v>
       </c>
       <c r="D51" t="n">
-        <v>7.045</v>
+        <v>6.945</v>
       </c>
       <c r="E51" t="n">
-        <v>7.045</v>
+        <v>6.945</v>
       </c>
       <c r="F51" t="n">
-        <v>6766.26</v>
+        <v>1400.5661</v>
       </c>
       <c r="G51" t="n">
-        <v>7.031733333333331</v>
+        <v>-4033824.0564</v>
       </c>
       <c r="H51" t="n">
-        <v>7.019750000000003</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.045</v>
+        <v>6.943</v>
       </c>
       <c r="C52" t="n">
-        <v>7.045</v>
+        <v>6.943</v>
       </c>
       <c r="D52" t="n">
-        <v>7.045</v>
+        <v>6.943</v>
       </c>
       <c r="E52" t="n">
-        <v>7.045</v>
+        <v>6.943</v>
       </c>
       <c r="F52" t="n">
-        <v>26352.4</v>
+        <v>26431.9339</v>
       </c>
       <c r="G52" t="n">
-        <v>7.03493333333333</v>
+        <v>-4060255.9903</v>
       </c>
       <c r="H52" t="n">
-        <v>7.01986666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.045</v>
+        <v>6.956</v>
       </c>
       <c r="C53" t="n">
-        <v>7.045</v>
+        <v>6.956</v>
       </c>
       <c r="D53" t="n">
-        <v>7.045</v>
+        <v>6.956</v>
       </c>
       <c r="E53" t="n">
-        <v>7.045</v>
+        <v>6.956</v>
       </c>
       <c r="F53" t="n">
-        <v>5965.137</v>
+        <v>13682.3242</v>
       </c>
       <c r="G53" t="n">
-        <v>7.037199999999998</v>
+        <v>-4046573.6661</v>
       </c>
       <c r="H53" t="n">
-        <v>7.019950000000003</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.11</v>
+        <v>6.957</v>
       </c>
       <c r="C54" t="n">
-        <v>7.11</v>
+        <v>6.957</v>
       </c>
       <c r="D54" t="n">
-        <v>7.11</v>
+        <v>6.957</v>
       </c>
       <c r="E54" t="n">
-        <v>7.11</v>
+        <v>6.957</v>
       </c>
       <c r="F54" t="n">
-        <v>29535</v>
+        <v>14320.4989</v>
       </c>
       <c r="G54" t="n">
-        <v>7.044199999999998</v>
+        <v>-4032253.1672</v>
       </c>
       <c r="H54" t="n">
-        <v>7.020583333333336</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.11</v>
+        <v>6.941</v>
       </c>
       <c r="C55" t="n">
-        <v>7.11</v>
+        <v>6.941</v>
       </c>
       <c r="D55" t="n">
-        <v>7.11</v>
+        <v>6.941</v>
       </c>
       <c r="E55" t="n">
-        <v>7.11</v>
+        <v>6.941</v>
       </c>
       <c r="F55" t="n">
-        <v>458935.9008</v>
+        <v>32425.317</v>
       </c>
       <c r="G55" t="n">
-        <v>7.048399999999998</v>
+        <v>-4064678.484199999</v>
       </c>
       <c r="H55" t="n">
-        <v>7.02121666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.08</v>
+        <v>6.94</v>
       </c>
       <c r="C56" t="n">
-        <v>7.08</v>
+        <v>6.927</v>
       </c>
       <c r="D56" t="n">
-        <v>7.08</v>
+        <v>6.941</v>
       </c>
       <c r="E56" t="n">
-        <v>7.08</v>
+        <v>6.927</v>
       </c>
       <c r="F56" t="n">
-        <v>76817.98510000001</v>
+        <v>918922.2024</v>
       </c>
       <c r="G56" t="n">
-        <v>7.053999999999998</v>
+        <v>-4983600.6866</v>
       </c>
       <c r="H56" t="n">
-        <v>7.021316666666669</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.08</v>
+        <v>6.976</v>
       </c>
       <c r="C57" t="n">
-        <v>7.08</v>
+        <v>6.976</v>
       </c>
       <c r="D57" t="n">
-        <v>7.08</v>
+        <v>6.976</v>
       </c>
       <c r="E57" t="n">
-        <v>7.08</v>
+        <v>6.976</v>
       </c>
       <c r="F57" t="n">
-        <v>7659</v>
+        <v>411188.5506</v>
       </c>
       <c r="G57" t="n">
-        <v>7.056599999999999</v>
+        <v>-4572412.136</v>
       </c>
       <c r="H57" t="n">
-        <v>7.021466666666669</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.08</v>
+        <v>7.008</v>
       </c>
       <c r="C58" t="n">
-        <v>7.08</v>
+        <v>7.009</v>
       </c>
       <c r="D58" t="n">
-        <v>7.08</v>
+        <v>7.009</v>
       </c>
       <c r="E58" t="n">
-        <v>7.08</v>
+        <v>6.96</v>
       </c>
       <c r="F58" t="n">
-        <v>62900</v>
+        <v>234516.0001</v>
       </c>
       <c r="G58" t="n">
-        <v>7.058599999999998</v>
+        <v>-4337896.1359</v>
       </c>
       <c r="H58" t="n">
-        <v>7.021166666666669</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.08</v>
+        <v>7.009</v>
       </c>
       <c r="C59" t="n">
-        <v>7.08</v>
+        <v>7.009</v>
       </c>
       <c r="D59" t="n">
-        <v>7.08</v>
+        <v>7.009</v>
       </c>
       <c r="E59" t="n">
-        <v>7.08</v>
+        <v>7.009</v>
       </c>
       <c r="F59" t="n">
-        <v>102800.3548</v>
+        <v>30000</v>
       </c>
       <c r="G59" t="n">
-        <v>7.060599999999998</v>
+        <v>-4337896.1359</v>
       </c>
       <c r="H59" t="n">
-        <v>7.020800000000002</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.08</v>
+        <v>7.009</v>
       </c>
       <c r="C60" t="n">
-        <v>7.08</v>
+        <v>7.009</v>
       </c>
       <c r="D60" t="n">
-        <v>7.08</v>
+        <v>7.009</v>
       </c>
       <c r="E60" t="n">
-        <v>7.08</v>
+        <v>7.009</v>
       </c>
       <c r="F60" t="n">
-        <v>120997.5478</v>
+        <v>41282.9343</v>
       </c>
       <c r="G60" t="n">
-        <v>7.062599999999999</v>
+        <v>-4337896.1359</v>
       </c>
       <c r="H60" t="n">
-        <v>7.020233333333335</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.08</v>
+        <v>6.963</v>
       </c>
       <c r="C61" t="n">
-        <v>7.08</v>
+        <v>6.963</v>
       </c>
       <c r="D61" t="n">
-        <v>7.08</v>
+        <v>6.963</v>
       </c>
       <c r="E61" t="n">
-        <v>7.08</v>
+        <v>6.963</v>
       </c>
       <c r="F61" t="n">
-        <v>408437.0202</v>
+        <v>88888</v>
       </c>
       <c r="G61" t="n">
-        <v>7.064599999999999</v>
+        <v>-4426784.1359</v>
       </c>
       <c r="H61" t="n">
-        <v>7.019200000000001</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.08</v>
+        <v>7.002</v>
       </c>
       <c r="C62" t="n">
-        <v>7.08</v>
+        <v>7.002</v>
       </c>
       <c r="D62" t="n">
-        <v>7.08</v>
+        <v>7.002</v>
       </c>
       <c r="E62" t="n">
-        <v>7.08</v>
+        <v>7.002</v>
       </c>
       <c r="F62" t="n">
-        <v>142.8007</v>
+        <v>41988.5951</v>
       </c>
       <c r="G62" t="n">
-        <v>7.069933333333332</v>
+        <v>-4384795.540800001</v>
       </c>
       <c r="H62" t="n">
-        <v>7.018183333333335</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.08</v>
+        <v>7.002</v>
       </c>
       <c r="C63" t="n">
-        <v>7.08</v>
+        <v>7.001</v>
       </c>
       <c r="D63" t="n">
-        <v>7.08</v>
+        <v>7.002</v>
       </c>
       <c r="E63" t="n">
-        <v>7.08</v>
+        <v>7.001</v>
       </c>
       <c r="F63" t="n">
-        <v>100604.1968</v>
+        <v>27539.2038</v>
       </c>
       <c r="G63" t="n">
-        <v>7.072266666666665</v>
+        <v>-4412334.744600001</v>
       </c>
       <c r="H63" t="n">
-        <v>7.017183333333334</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.08</v>
+        <v>7.01</v>
       </c>
       <c r="C64" t="n">
-        <v>7.08</v>
+        <v>7.01</v>
       </c>
       <c r="D64" t="n">
-        <v>7.08</v>
+        <v>7.01</v>
       </c>
       <c r="E64" t="n">
-        <v>7.08</v>
+        <v>7.01</v>
       </c>
       <c r="F64" t="n">
-        <v>88719</v>
+        <v>16898.044</v>
       </c>
       <c r="G64" t="n">
-        <v>7.074666666666665</v>
+        <v>-4395436.700600001</v>
       </c>
       <c r="H64" t="n">
-        <v>7.016166666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.08</v>
+        <v>7.011</v>
       </c>
       <c r="C65" t="n">
-        <v>7.054</v>
+        <v>7.011</v>
       </c>
       <c r="D65" t="n">
-        <v>7.08</v>
+        <v>7.011</v>
       </c>
       <c r="E65" t="n">
-        <v>7.054</v>
+        <v>7.011</v>
       </c>
       <c r="F65" t="n">
-        <v>178330.3</v>
+        <v>13185.0442</v>
       </c>
       <c r="G65" t="n">
-        <v>7.075266666666665</v>
+        <v>-4382251.656400001</v>
       </c>
       <c r="H65" t="n">
-        <v>7.017466666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.086</v>
+        <v>7.001</v>
       </c>
       <c r="C66" t="n">
-        <v>7.05</v>
+        <v>6.997</v>
       </c>
       <c r="D66" t="n">
-        <v>7.086</v>
+        <v>7.001</v>
       </c>
       <c r="E66" t="n">
-        <v>7.05</v>
+        <v>6.997</v>
       </c>
       <c r="F66" t="n">
-        <v>6188.975</v>
+        <v>117300</v>
       </c>
       <c r="G66" t="n">
-        <v>7.075599999999998</v>
+        <v>-4499551.656400001</v>
       </c>
       <c r="H66" t="n">
-        <v>7.017016666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.05</v>
+        <v>7.011</v>
       </c>
       <c r="C67" t="n">
-        <v>7.05</v>
+        <v>7.011</v>
       </c>
       <c r="D67" t="n">
-        <v>7.05</v>
+        <v>7.011</v>
       </c>
       <c r="E67" t="n">
-        <v>7.05</v>
+        <v>7.011</v>
       </c>
       <c r="F67" t="n">
-        <v>335865.3112</v>
+        <v>0.0001</v>
       </c>
       <c r="G67" t="n">
-        <v>7.075933333333331</v>
+        <v>-4499551.656300001</v>
       </c>
       <c r="H67" t="n">
-        <v>7.017316666666668</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.05</v>
+        <v>7.005</v>
       </c>
       <c r="C68" t="n">
-        <v>7.023</v>
+        <v>7.005</v>
       </c>
       <c r="D68" t="n">
-        <v>7.05</v>
+        <v>7.005</v>
       </c>
       <c r="E68" t="n">
-        <v>7.023</v>
+        <v>7.005</v>
       </c>
       <c r="F68" t="n">
-        <v>1561028.1469</v>
+        <v>11000</v>
       </c>
       <c r="G68" t="n">
-        <v>7.074466666666664</v>
+        <v>-4510551.656300001</v>
       </c>
       <c r="H68" t="n">
-        <v>7.018616666666668</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.055</v>
+        <v>7.046</v>
       </c>
       <c r="C69" t="n">
-        <v>7.022</v>
+        <v>7.047</v>
       </c>
       <c r="D69" t="n">
-        <v>7.055</v>
+        <v>7.047</v>
       </c>
       <c r="E69" t="n">
-        <v>7.022</v>
+        <v>7.046</v>
       </c>
       <c r="F69" t="n">
-        <v>56495.3431</v>
+        <v>105529.6588</v>
       </c>
       <c r="G69" t="n">
-        <v>7.068599999999998</v>
+        <v>-4405021.997500001</v>
       </c>
       <c r="H69" t="n">
-        <v>7.019333333333335</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7</v>
+        <v>6.996</v>
       </c>
       <c r="C70" t="n">
-        <v>7</v>
+        <v>6.996</v>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>6.996</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>6.996</v>
       </c>
       <c r="F70" t="n">
-        <v>12153</v>
+        <v>82881.7705</v>
       </c>
       <c r="G70" t="n">
-        <v>7.061266666666665</v>
+        <v>-4487903.768</v>
       </c>
       <c r="H70" t="n">
-        <v>7.019783333333335</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>7.038</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>7.041</v>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>7.041</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>7.038</v>
       </c>
       <c r="F71" t="n">
-        <v>12967</v>
+        <v>910754.4952974862</v>
       </c>
       <c r="G71" t="n">
-        <v>7.055933333333331</v>
+        <v>-3577149.272702514</v>
       </c>
       <c r="H71" t="n">
-        <v>7.020366666666669</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.997</v>
+        <v>7.037</v>
       </c>
       <c r="C72" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="D72" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="E72" t="n">
-        <v>6.997</v>
+        <v>7.037</v>
       </c>
       <c r="F72" t="n">
-        <v>10231.9666</v>
+        <v>642611.3459</v>
       </c>
       <c r="G72" t="n">
-        <v>7.050399999999998</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H72" t="n">
-        <v>7.020916666666668</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="C73" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="D73" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="E73" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="F73" t="n">
-        <v>5527.5436</v>
+        <v>125754.8175</v>
       </c>
       <c r="G73" t="n">
-        <v>7.044866666666665</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H73" t="n">
-        <v>7.021483333333335</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="C74" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="D74" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="E74" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="F74" t="n">
-        <v>8036.0431</v>
+        <v>231901.5358</v>
       </c>
       <c r="G74" t="n">
-        <v>7.039333333333332</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H74" t="n">
-        <v>7.022150000000002</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="C75" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="D75" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="E75" t="n">
-        <v>6.997</v>
+        <v>7.05</v>
       </c>
       <c r="F75" t="n">
-        <v>4898.3369</v>
+        <v>1356516.9605</v>
       </c>
       <c r="G75" t="n">
-        <v>7.033799999999998</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H75" t="n">
-        <v>7.021566666666669</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.012</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>7.012</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>7.012</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>7.012</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>142.6126640045636</v>
+        <v>100000</v>
       </c>
       <c r="G76" t="n">
-        <v>7.029266666666666</v>
+        <v>-3034537.926802514</v>
       </c>
       <c r="H76" t="n">
-        <v>7.02146666666667</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.977</v>
+        <v>7.038</v>
       </c>
       <c r="C77" t="n">
-        <v>6.977</v>
+        <v>7.045</v>
       </c>
       <c r="D77" t="n">
-        <v>6.977</v>
+        <v>7.045</v>
       </c>
       <c r="E77" t="n">
-        <v>6.977</v>
+        <v>7.038</v>
       </c>
       <c r="F77" t="n">
-        <v>6375.175</v>
+        <v>3416707.6177</v>
       </c>
       <c r="G77" t="n">
-        <v>7.022399999999999</v>
+        <v>382169.6908974857</v>
       </c>
       <c r="H77" t="n">
-        <v>7.020800000000003</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.961</v>
+        <v>7.044</v>
       </c>
       <c r="C78" t="n">
-        <v>6.961</v>
+        <v>7.044</v>
       </c>
       <c r="D78" t="n">
-        <v>6.961</v>
+        <v>7.044</v>
       </c>
       <c r="E78" t="n">
-        <v>6.961</v>
+        <v>7.044</v>
       </c>
       <c r="F78" t="n">
-        <v>34157.7646</v>
+        <v>58028.3975</v>
       </c>
       <c r="G78" t="n">
-        <v>7.014466666666666</v>
+        <v>324141.2933974857</v>
       </c>
       <c r="H78" t="n">
-        <v>7.020966666666669</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.961</v>
+        <v>7.045</v>
       </c>
       <c r="C79" t="n">
-        <v>6.961</v>
+        <v>7.045</v>
       </c>
       <c r="D79" t="n">
-        <v>6.961</v>
+        <v>7.045</v>
       </c>
       <c r="E79" t="n">
-        <v>6.961</v>
+        <v>7.045</v>
       </c>
       <c r="F79" t="n">
-        <v>19807.4998</v>
+        <v>53000.3865</v>
       </c>
       <c r="G79" t="n">
-        <v>7.006533333333333</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H79" t="n">
-        <v>7.021000000000003</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.956</v>
+        <v>7.045</v>
       </c>
       <c r="C80" t="n">
-        <v>6.956</v>
+        <v>7.045</v>
       </c>
       <c r="D80" t="n">
-        <v>6.956</v>
+        <v>7.045</v>
       </c>
       <c r="E80" t="n">
-        <v>6.956</v>
+        <v>7.045</v>
       </c>
       <c r="F80" t="n">
-        <v>127328.29</v>
+        <v>6766.26</v>
       </c>
       <c r="G80" t="n">
-        <v>6.999999999999999</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H80" t="n">
-        <v>7.020300000000003</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.95</v>
+        <v>7.045</v>
       </c>
       <c r="C81" t="n">
-        <v>6.95</v>
+        <v>7.045</v>
       </c>
       <c r="D81" t="n">
-        <v>6.95</v>
+        <v>7.045</v>
       </c>
       <c r="E81" t="n">
-        <v>6.95</v>
+        <v>7.045</v>
       </c>
       <c r="F81" t="n">
-        <v>2671.71</v>
+        <v>26352.4</v>
       </c>
       <c r="G81" t="n">
-        <v>6.993333333333333</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H81" t="n">
-        <v>7.019483333333336</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.961</v>
+        <v>7.045</v>
       </c>
       <c r="C82" t="n">
-        <v>6.961</v>
+        <v>7.045</v>
       </c>
       <c r="D82" t="n">
-        <v>6.961</v>
+        <v>7.045</v>
       </c>
       <c r="E82" t="n">
-        <v>6.961</v>
+        <v>7.045</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0001</v>
+        <v>5965.137</v>
       </c>
       <c r="G82" t="n">
-        <v>6.987399999999999</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H82" t="n">
-        <v>7.019750000000003</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.961</v>
+        <v>7.11</v>
       </c>
       <c r="C83" t="n">
-        <v>6.961</v>
+        <v>7.11</v>
       </c>
       <c r="D83" t="n">
-        <v>6.961</v>
+        <v>7.11</v>
       </c>
       <c r="E83" t="n">
-        <v>6.961</v>
+        <v>7.11</v>
       </c>
       <c r="F83" t="n">
-        <v>13552.9891</v>
+        <v>29535</v>
       </c>
       <c r="G83" t="n">
-        <v>6.983266666666666</v>
+        <v>406676.6798974857</v>
       </c>
       <c r="H83" t="n">
-        <v>7.020050000000003</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.982</v>
+        <v>7.11</v>
       </c>
       <c r="C84" t="n">
-        <v>6.982</v>
+        <v>7.11</v>
       </c>
       <c r="D84" t="n">
-        <v>6.982</v>
+        <v>7.11</v>
       </c>
       <c r="E84" t="n">
-        <v>6.982</v>
+        <v>7.11</v>
       </c>
       <c r="F84" t="n">
-        <v>103329.499</v>
+        <v>458935.9008</v>
       </c>
       <c r="G84" t="n">
-        <v>6.980599999999999</v>
+        <v>406676.6798974857</v>
       </c>
       <c r="H84" t="n">
-        <v>7.020483333333337</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.003</v>
+        <v>7.08</v>
       </c>
       <c r="C85" t="n">
-        <v>7.032</v>
+        <v>7.08</v>
       </c>
       <c r="D85" t="n">
-        <v>7.032</v>
+        <v>7.08</v>
       </c>
       <c r="E85" t="n">
-        <v>7.003</v>
+        <v>7.08</v>
       </c>
       <c r="F85" t="n">
-        <v>144</v>
+        <v>76817.98510000001</v>
       </c>
       <c r="G85" t="n">
-        <v>6.982733333333332</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H85" t="n">
-        <v>7.021733333333336</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.028</v>
+        <v>7.08</v>
       </c>
       <c r="C86" t="n">
-        <v>7.028</v>
+        <v>7.08</v>
       </c>
       <c r="D86" t="n">
-        <v>7.028</v>
+        <v>7.08</v>
       </c>
       <c r="E86" t="n">
-        <v>7.028</v>
+        <v>7.08</v>
       </c>
       <c r="F86" t="n">
-        <v>29767</v>
+        <v>7659</v>
       </c>
       <c r="G86" t="n">
-        <v>6.984599999999999</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H86" t="n">
-        <v>7.023183333333337</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.024</v>
+        <v>7.08</v>
       </c>
       <c r="C87" t="n">
-        <v>7.024</v>
+        <v>7.08</v>
       </c>
       <c r="D87" t="n">
-        <v>7.024</v>
+        <v>7.08</v>
       </c>
       <c r="E87" t="n">
-        <v>7.024</v>
+        <v>7.08</v>
       </c>
       <c r="F87" t="n">
-        <v>11574</v>
+        <v>62900</v>
       </c>
       <c r="G87" t="n">
-        <v>6.9864</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H87" t="n">
-        <v>7.024800000000003</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.025</v>
+        <v>7.08</v>
       </c>
       <c r="C88" t="n">
-        <v>7.025</v>
+        <v>7.08</v>
       </c>
       <c r="D88" t="n">
-        <v>7.025</v>
+        <v>7.08</v>
       </c>
       <c r="E88" t="n">
-        <v>7.025</v>
+        <v>7.08</v>
       </c>
       <c r="F88" t="n">
-        <v>71.17440000000001</v>
+        <v>102800.3548</v>
       </c>
       <c r="G88" t="n">
-        <v>6.988266666666666</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H88" t="n">
-        <v>7.02561666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.017</v>
+        <v>7.08</v>
       </c>
       <c r="C89" t="n">
-        <v>7.016</v>
+        <v>7.08</v>
       </c>
       <c r="D89" t="n">
-        <v>7.017</v>
+        <v>7.08</v>
       </c>
       <c r="E89" t="n">
-        <v>7.016</v>
+        <v>7.08</v>
       </c>
       <c r="F89" t="n">
-        <v>14835.1475</v>
+        <v>120997.5478</v>
       </c>
       <c r="G89" t="n">
-        <v>6.989533333333333</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H89" t="n">
-        <v>7.025733333333337</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.007</v>
+        <v>7.08</v>
       </c>
       <c r="C90" t="n">
-        <v>7.015</v>
+        <v>7.08</v>
       </c>
       <c r="D90" t="n">
-        <v>7.015</v>
+        <v>7.08</v>
       </c>
       <c r="E90" t="n">
-        <v>6.997</v>
+        <v>7.08</v>
       </c>
       <c r="F90" t="n">
-        <v>240242.5872</v>
+        <v>408437.0202</v>
       </c>
       <c r="G90" t="n">
-        <v>6.990733333333334</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H90" t="n">
-        <v>7.025833333333336</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.983</v>
+        <v>7.08</v>
       </c>
       <c r="C91" t="n">
-        <v>6.983</v>
+        <v>7.08</v>
       </c>
       <c r="D91" t="n">
-        <v>6.983</v>
+        <v>7.08</v>
       </c>
       <c r="E91" t="n">
-        <v>6.983</v>
+        <v>7.08</v>
       </c>
       <c r="F91" t="n">
-        <v>4497.7043</v>
+        <v>142.8007</v>
       </c>
       <c r="G91" t="n">
-        <v>6.9888</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H91" t="n">
-        <v>7.025400000000003</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.983</v>
+        <v>7.08</v>
       </c>
       <c r="C92" t="n">
-        <v>6.983</v>
+        <v>7.08</v>
       </c>
       <c r="D92" t="n">
-        <v>6.983</v>
+        <v>7.08</v>
       </c>
       <c r="E92" t="n">
-        <v>6.983</v>
+        <v>7.08</v>
       </c>
       <c r="F92" t="n">
-        <v>40313.1</v>
+        <v>100604.1968</v>
       </c>
       <c r="G92" t="n">
-        <v>6.9892</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H92" t="n">
-        <v>7.025733333333336</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.983</v>
+        <v>7.08</v>
       </c>
       <c r="C93" t="n">
-        <v>6.953</v>
+        <v>7.08</v>
       </c>
       <c r="D93" t="n">
-        <v>6.983</v>
+        <v>7.08</v>
       </c>
       <c r="E93" t="n">
-        <v>6.953</v>
+        <v>7.08</v>
       </c>
       <c r="F93" t="n">
-        <v>41978.27</v>
+        <v>88719</v>
       </c>
       <c r="G93" t="n">
-        <v>6.988666666666668</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H93" t="n">
-        <v>7.024916666666669</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.957</v>
+        <v>7.08</v>
       </c>
       <c r="C94" t="n">
-        <v>6.988</v>
+        <v>7.054</v>
       </c>
       <c r="D94" t="n">
-        <v>6.988</v>
+        <v>7.08</v>
       </c>
       <c r="E94" t="n">
-        <v>6.957</v>
+        <v>7.054</v>
       </c>
       <c r="F94" t="n">
-        <v>266621.1068</v>
+        <v>178330.3</v>
       </c>
       <c r="G94" t="n">
-        <v>6.990466666666667</v>
+        <v>151528.3947974857</v>
       </c>
       <c r="H94" t="n">
-        <v>7.024700000000002</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.988</v>
+        <v>7.086</v>
       </c>
       <c r="C95" t="n">
-        <v>7.025</v>
+        <v>7.05</v>
       </c>
       <c r="D95" t="n">
-        <v>7.025</v>
+        <v>7.086</v>
       </c>
       <c r="E95" t="n">
-        <v>6.988</v>
+        <v>7.05</v>
       </c>
       <c r="F95" t="n">
-        <v>236000</v>
+        <v>6188.975</v>
       </c>
       <c r="G95" t="n">
-        <v>6.995066666666668</v>
+        <v>145339.4197974857</v>
       </c>
       <c r="H95" t="n">
-        <v>7.024950000000002</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.025</v>
+        <v>7.05</v>
       </c>
       <c r="C96" t="n">
-        <v>7.025</v>
+        <v>7.05</v>
       </c>
       <c r="D96" t="n">
-        <v>7.025</v>
+        <v>7.05</v>
       </c>
       <c r="E96" t="n">
-        <v>7.025</v>
+        <v>7.05</v>
       </c>
       <c r="F96" t="n">
-        <v>25527.9836</v>
+        <v>335865.3112</v>
       </c>
       <c r="G96" t="n">
-        <v>7.000066666666668</v>
+        <v>145339.4197974857</v>
       </c>
       <c r="H96" t="n">
-        <v>7.025183333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.053</v>
+        <v>7.05</v>
       </c>
       <c r="C97" t="n">
-        <v>7.063</v>
+        <v>7.023</v>
       </c>
       <c r="D97" t="n">
-        <v>7.063</v>
+        <v>7.05</v>
       </c>
       <c r="E97" t="n">
-        <v>7.053</v>
+        <v>7.023</v>
       </c>
       <c r="F97" t="n">
-        <v>58000</v>
+        <v>1561028.1469</v>
       </c>
       <c r="G97" t="n">
-        <v>7.006866666666668</v>
+        <v>-1415688.727102514</v>
       </c>
       <c r="H97" t="n">
-        <v>7.026283333333335</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.057</v>
+        <v>7.055</v>
       </c>
       <c r="C98" t="n">
-        <v>7.057</v>
+        <v>7.022</v>
       </c>
       <c r="D98" t="n">
-        <v>7.057</v>
+        <v>7.055</v>
       </c>
       <c r="E98" t="n">
-        <v>7.057</v>
+        <v>7.022</v>
       </c>
       <c r="F98" t="n">
-        <v>264.7017146096075</v>
+        <v>56495.3431</v>
       </c>
       <c r="G98" t="n">
-        <v>7.013266666666668</v>
+        <v>-1472184.070202514</v>
       </c>
       <c r="H98" t="n">
-        <v>7.027050000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7.031</v>
+        <v>7</v>
       </c>
       <c r="C99" t="n">
-        <v>7.031</v>
+        <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>7.031</v>
+        <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>7.031</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>252345.65</v>
+        <v>12153</v>
       </c>
       <c r="G99" t="n">
-        <v>7.016533333333336</v>
+        <v>-1484337.070202514</v>
       </c>
       <c r="H99" t="n">
-        <v>7.027483333333334</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="C100" t="n">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="E100" t="n">
-        <v>7.03</v>
+        <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>163030.7276</v>
+        <v>12967</v>
       </c>
       <c r="G100" t="n">
-        <v>7.016400000000003</v>
+        <v>-1484337.070202514</v>
       </c>
       <c r="H100" t="n">
-        <v>7.0272</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7.052</v>
+        <v>6.997</v>
       </c>
       <c r="C101" t="n">
-        <v>7.034</v>
+        <v>6.997</v>
       </c>
       <c r="D101" t="n">
-        <v>7.052</v>
+        <v>6.997</v>
       </c>
       <c r="E101" t="n">
-        <v>7.034</v>
+        <v>6.997</v>
       </c>
       <c r="F101" t="n">
-        <v>111020.9272</v>
+        <v>10231.9666</v>
       </c>
       <c r="G101" t="n">
-        <v>7.016800000000003</v>
+        <v>-1494569.036802514</v>
       </c>
       <c r="H101" t="n">
-        <v>7.027833333333334</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7.034</v>
+        <v>6.997</v>
       </c>
       <c r="C102" t="n">
-        <v>7.034</v>
+        <v>6.997</v>
       </c>
       <c r="D102" t="n">
-        <v>7.034</v>
+        <v>6.997</v>
       </c>
       <c r="E102" t="n">
-        <v>7.034</v>
+        <v>6.997</v>
       </c>
       <c r="F102" t="n">
-        <v>64123.8896</v>
+        <v>5527.5436</v>
       </c>
       <c r="G102" t="n">
-        <v>7.017466666666669</v>
+        <v>-1494569.036802514</v>
       </c>
       <c r="H102" t="n">
-        <v>7.027716666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7.06</v>
+        <v>6.997</v>
       </c>
       <c r="C103" t="n">
-        <v>7.06</v>
+        <v>6.997</v>
       </c>
       <c r="D103" t="n">
-        <v>7.06</v>
+        <v>6.997</v>
       </c>
       <c r="E103" t="n">
-        <v>7.06</v>
+        <v>6.997</v>
       </c>
       <c r="F103" t="n">
-        <v>77263.1789</v>
+        <v>8036.0431</v>
       </c>
       <c r="G103" t="n">
-        <v>7.019800000000003</v>
+        <v>-1494569.036802514</v>
       </c>
       <c r="H103" t="n">
-        <v>7.027883333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7.055</v>
+        <v>6.997</v>
       </c>
       <c r="C104" t="n">
-        <v>7.055</v>
+        <v>6.997</v>
       </c>
       <c r="D104" t="n">
-        <v>7.055</v>
+        <v>6.997</v>
       </c>
       <c r="E104" t="n">
-        <v>7.055</v>
+        <v>6.997</v>
       </c>
       <c r="F104" t="n">
-        <v>75903.7711</v>
+        <v>4898.3369</v>
       </c>
       <c r="G104" t="n">
-        <v>7.022400000000002</v>
+        <v>-1494569.036802514</v>
       </c>
       <c r="H104" t="n">
-        <v>7.027966666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.053</v>
+        <v>7.012</v>
       </c>
       <c r="C105" t="n">
-        <v>7.053</v>
+        <v>7.012</v>
       </c>
       <c r="D105" t="n">
-        <v>7.053</v>
+        <v>7.012</v>
       </c>
       <c r="E105" t="n">
-        <v>7.053</v>
+        <v>7.012</v>
       </c>
       <c r="F105" t="n">
-        <v>50000.0931</v>
+        <v>142.6126640045636</v>
       </c>
       <c r="G105" t="n">
-        <v>7.024933333333335</v>
+        <v>-1494426.42413851</v>
       </c>
       <c r="H105" t="n">
-        <v>7.028016666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7.039</v>
+        <v>6.977</v>
       </c>
       <c r="C106" t="n">
-        <v>7.062</v>
+        <v>6.977</v>
       </c>
       <c r="D106" t="n">
-        <v>7.062</v>
+        <v>6.977</v>
       </c>
       <c r="E106" t="n">
-        <v>7.039</v>
+        <v>6.977</v>
       </c>
       <c r="F106" t="n">
-        <v>113880.1148</v>
+        <v>6375.175</v>
       </c>
       <c r="G106" t="n">
-        <v>7.030200000000002</v>
+        <v>-1500801.59913851</v>
       </c>
       <c r="H106" t="n">
-        <v>7.028216666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.057</v>
+        <v>6.961</v>
       </c>
       <c r="C107" t="n">
-        <v>7.057</v>
+        <v>6.961</v>
       </c>
       <c r="D107" t="n">
-        <v>7.057</v>
+        <v>6.961</v>
       </c>
       <c r="E107" t="n">
-        <v>7.057</v>
+        <v>6.961</v>
       </c>
       <c r="F107" t="n">
-        <v>15119.9365</v>
+        <v>34157.7646</v>
       </c>
       <c r="G107" t="n">
-        <v>7.035133333333334</v>
+        <v>-1534959.36373851</v>
       </c>
       <c r="H107" t="n">
-        <v>7.029166666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7.057</v>
+        <v>6.961</v>
       </c>
       <c r="C108" t="n">
-        <v>7.062</v>
+        <v>6.961</v>
       </c>
       <c r="D108" t="n">
-        <v>7.062</v>
+        <v>6.961</v>
       </c>
       <c r="E108" t="n">
-        <v>7.057</v>
+        <v>6.961</v>
       </c>
       <c r="F108" t="n">
-        <v>117832.9986</v>
+        <v>19807.4998</v>
       </c>
       <c r="G108" t="n">
-        <v>7.042400000000001</v>
+        <v>-1534959.36373851</v>
       </c>
       <c r="H108" t="n">
-        <v>7.02945</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7.041</v>
+        <v>6.956</v>
       </c>
       <c r="C109" t="n">
-        <v>7.041</v>
+        <v>6.956</v>
       </c>
       <c r="D109" t="n">
-        <v>7.041</v>
+        <v>6.956</v>
       </c>
       <c r="E109" t="n">
-        <v>7.041</v>
+        <v>6.956</v>
       </c>
       <c r="F109" t="n">
-        <v>116090.3058</v>
+        <v>127328.29</v>
       </c>
       <c r="G109" t="n">
-        <v>7.045933333333334</v>
+        <v>-1662287.65373851</v>
       </c>
       <c r="H109" t="n">
-        <v>7.0294</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7.044</v>
+        <v>6.95</v>
       </c>
       <c r="C110" t="n">
-        <v>7.008</v>
+        <v>6.95</v>
       </c>
       <c r="D110" t="n">
-        <v>7.044</v>
+        <v>6.95</v>
       </c>
       <c r="E110" t="n">
-        <v>7.008</v>
+        <v>6.95</v>
       </c>
       <c r="F110" t="n">
-        <v>854000</v>
+        <v>2671.71</v>
       </c>
       <c r="G110" t="n">
-        <v>7.0448</v>
+        <v>-1664959.36373851</v>
       </c>
       <c r="H110" t="n">
-        <v>7.028783333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7.007</v>
+        <v>6.961</v>
       </c>
       <c r="C111" t="n">
-        <v>6.975</v>
+        <v>6.961</v>
       </c>
       <c r="D111" t="n">
-        <v>7.007</v>
+        <v>6.961</v>
       </c>
       <c r="E111" t="n">
-        <v>6.975</v>
+        <v>6.961</v>
       </c>
       <c r="F111" t="n">
-        <v>109114.6004</v>
+        <v>0.0001</v>
       </c>
       <c r="G111" t="n">
-        <v>7.041466666666666</v>
+        <v>-1664959.36363851</v>
       </c>
       <c r="H111" t="n">
-        <v>7.027616666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.96</v>
+        <v>6.961</v>
       </c>
       <c r="C112" t="n">
-        <v>6.854</v>
+        <v>6.961</v>
       </c>
       <c r="D112" t="n">
-        <v>6.96</v>
+        <v>6.961</v>
       </c>
       <c r="E112" t="n">
-        <v>6.854</v>
+        <v>6.961</v>
       </c>
       <c r="F112" t="n">
-        <v>848717.2193999999</v>
+        <v>13552.9891</v>
       </c>
       <c r="G112" t="n">
-        <v>7.027533333333333</v>
+        <v>-1664959.36363851</v>
       </c>
       <c r="H112" t="n">
-        <v>7.024433333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.854</v>
+        <v>6.982</v>
       </c>
       <c r="C113" t="n">
-        <v>6.808</v>
+        <v>6.982</v>
       </c>
       <c r="D113" t="n">
-        <v>6.854</v>
+        <v>6.982</v>
       </c>
       <c r="E113" t="n">
-        <v>6.8</v>
+        <v>6.982</v>
       </c>
       <c r="F113" t="n">
-        <v>942946.8524</v>
+        <v>103329.499</v>
       </c>
       <c r="G113" t="n">
-        <v>7.010933333333331</v>
+        <v>-1561629.86463851</v>
       </c>
       <c r="H113" t="n">
-        <v>7.020483333333332</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4353,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.717</v>
+        <v>7.003</v>
       </c>
       <c r="C114" t="n">
-        <v>6.717</v>
+        <v>7.032</v>
       </c>
       <c r="D114" t="n">
-        <v>6.717</v>
+        <v>7.032</v>
       </c>
       <c r="E114" t="n">
-        <v>6.717</v>
+        <v>7.003</v>
       </c>
       <c r="F114" t="n">
-        <v>6000</v>
+        <v>144</v>
       </c>
       <c r="G114" t="n">
-        <v>6.989999999999998</v>
+        <v>-1561485.86463851</v>
       </c>
       <c r="H114" t="n">
-        <v>7.013933333333331</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.712</v>
+        <v>7.028</v>
       </c>
       <c r="C115" t="n">
-        <v>6.7</v>
+        <v>7.028</v>
       </c>
       <c r="D115" t="n">
-        <v>6.723</v>
+        <v>7.028</v>
       </c>
       <c r="E115" t="n">
-        <v>6.7</v>
+        <v>7.028</v>
       </c>
       <c r="F115" t="n">
-        <v>146615.8377</v>
+        <v>29767</v>
       </c>
       <c r="G115" t="n">
-        <v>6.967999999999998</v>
+        <v>-1591252.86463851</v>
       </c>
       <c r="H115" t="n">
-        <v>7.007099999999998</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4423,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.7</v>
+        <v>7.024</v>
       </c>
       <c r="C116" t="n">
-        <v>6.7</v>
+        <v>7.024</v>
       </c>
       <c r="D116" t="n">
-        <v>6.7</v>
+        <v>7.024</v>
       </c>
       <c r="E116" t="n">
-        <v>6.7</v>
+        <v>7.024</v>
       </c>
       <c r="F116" t="n">
-        <v>375042.8783</v>
+        <v>11574</v>
       </c>
       <c r="G116" t="n">
-        <v>6.945733333333331</v>
+        <v>-1602826.86463851</v>
       </c>
       <c r="H116" t="n">
-        <v>7.000766666666665</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4458,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.7</v>
+        <v>7.025</v>
       </c>
       <c r="C117" t="n">
-        <v>6.697</v>
+        <v>7.025</v>
       </c>
       <c r="D117" t="n">
-        <v>6.7</v>
+        <v>7.025</v>
       </c>
       <c r="E117" t="n">
-        <v>6.695</v>
+        <v>7.025</v>
       </c>
       <c r="F117" t="n">
-        <v>269374.632</v>
+        <v>71.17440000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>6.923266666666664</v>
+        <v>-1602755.69023851</v>
       </c>
       <c r="H117" t="n">
-        <v>6.994383333333332</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4493,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.697</v>
+        <v>7.017</v>
       </c>
       <c r="C118" t="n">
-        <v>6.696</v>
+        <v>7.016</v>
       </c>
       <c r="D118" t="n">
-        <v>6.697</v>
+        <v>7.017</v>
       </c>
       <c r="E118" t="n">
-        <v>6.696</v>
+        <v>7.016</v>
       </c>
       <c r="F118" t="n">
-        <v>108518.6894</v>
+        <v>14835.1475</v>
       </c>
       <c r="G118" t="n">
-        <v>6.898999999999997</v>
+        <v>-1617590.83773851</v>
       </c>
       <c r="H118" t="n">
-        <v>6.987983333333332</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4528,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.697</v>
+        <v>7.007</v>
       </c>
       <c r="C119" t="n">
-        <v>6.697</v>
+        <v>7.015</v>
       </c>
       <c r="D119" t="n">
-        <v>6.697</v>
+        <v>7.015</v>
       </c>
       <c r="E119" t="n">
-        <v>6.697</v>
+        <v>6.997</v>
       </c>
       <c r="F119" t="n">
-        <v>116550.1491</v>
+        <v>240242.5872</v>
       </c>
       <c r="G119" t="n">
-        <v>6.87513333333333</v>
+        <v>-1857833.42493851</v>
       </c>
       <c r="H119" t="n">
-        <v>6.981599999999999</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4563,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.696</v>
+        <v>6.983</v>
       </c>
       <c r="C120" t="n">
-        <v>6.68</v>
+        <v>6.983</v>
       </c>
       <c r="D120" t="n">
-        <v>6.696</v>
+        <v>6.983</v>
       </c>
       <c r="E120" t="n">
-        <v>6.68</v>
+        <v>6.983</v>
       </c>
       <c r="F120" t="n">
-        <v>50929.5483</v>
+        <v>4497.7043</v>
       </c>
       <c r="G120" t="n">
-        <v>6.850266666666665</v>
+        <v>-1862331.12923851</v>
       </c>
       <c r="H120" t="n">
-        <v>6.974933333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4598,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.68</v>
+        <v>6.983</v>
       </c>
       <c r="C121" t="n">
-        <v>6.68</v>
+        <v>6.983</v>
       </c>
       <c r="D121" t="n">
-        <v>6.68</v>
+        <v>6.983</v>
       </c>
       <c r="E121" t="n">
-        <v>6.68</v>
+        <v>6.983</v>
       </c>
       <c r="F121" t="n">
-        <v>77045</v>
+        <v>40313.1</v>
       </c>
       <c r="G121" t="n">
-        <v>6.824799999999998</v>
+        <v>-1862331.12923851</v>
       </c>
       <c r="H121" t="n">
-        <v>6.968266666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4633,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.68</v>
+        <v>6.983</v>
       </c>
       <c r="C122" t="n">
-        <v>6.68</v>
+        <v>6.953</v>
       </c>
       <c r="D122" t="n">
-        <v>6.68</v>
+        <v>6.983</v>
       </c>
       <c r="E122" t="n">
-        <v>6.679</v>
+        <v>6.953</v>
       </c>
       <c r="F122" t="n">
-        <v>222382.1734</v>
+        <v>41978.27</v>
       </c>
       <c r="G122" t="n">
-        <v>6.799666666666664</v>
+        <v>-1904309.39923851</v>
       </c>
       <c r="H122" t="n">
-        <v>6.961600000000001</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4668,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.679</v>
+        <v>6.957</v>
       </c>
       <c r="C123" t="n">
-        <v>6.679</v>
+        <v>6.988</v>
       </c>
       <c r="D123" t="n">
-        <v>6.68</v>
+        <v>6.988</v>
       </c>
       <c r="E123" t="n">
-        <v>6.678</v>
+        <v>6.957</v>
       </c>
       <c r="F123" t="n">
-        <v>630705.2419</v>
+        <v>266621.1068</v>
       </c>
       <c r="G123" t="n">
-        <v>6.774133333333331</v>
+        <v>-1637688.29243851</v>
       </c>
       <c r="H123" t="n">
-        <v>6.954916666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4703,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.679</v>
+        <v>6.988</v>
       </c>
       <c r="C124" t="n">
-        <v>6.679</v>
+        <v>7.025</v>
       </c>
       <c r="D124" t="n">
-        <v>6.68</v>
+        <v>7.025</v>
       </c>
       <c r="E124" t="n">
-        <v>6.679</v>
+        <v>6.988</v>
       </c>
       <c r="F124" t="n">
-        <v>211283.618</v>
+        <v>236000</v>
       </c>
       <c r="G124" t="n">
-        <v>6.749999999999998</v>
+        <v>-1401688.29243851</v>
       </c>
       <c r="H124" t="n">
-        <v>6.948233333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4738,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.68</v>
+        <v>7.025</v>
       </c>
       <c r="C125" t="n">
-        <v>6.68</v>
+        <v>7.025</v>
       </c>
       <c r="D125" t="n">
-        <v>6.68</v>
+        <v>7.025</v>
       </c>
       <c r="E125" t="n">
-        <v>6.68</v>
+        <v>7.025</v>
       </c>
       <c r="F125" t="n">
-        <v>616379.1513</v>
+        <v>25527.9836</v>
       </c>
       <c r="G125" t="n">
-        <v>6.728133333333332</v>
+        <v>-1401688.29243851</v>
       </c>
       <c r="H125" t="n">
-        <v>6.942000000000001</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4773,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.68</v>
+        <v>7.053</v>
       </c>
       <c r="C126" t="n">
-        <v>6.68</v>
+        <v>7.063</v>
       </c>
       <c r="D126" t="n">
-        <v>6.68</v>
+        <v>7.063</v>
       </c>
       <c r="E126" t="n">
-        <v>6.68</v>
+        <v>7.053</v>
       </c>
       <c r="F126" t="n">
-        <v>175959.7577</v>
+        <v>58000</v>
       </c>
       <c r="G126" t="n">
-        <v>6.708466666666665</v>
+        <v>-1343688.29243851</v>
       </c>
       <c r="H126" t="n">
-        <v>6.935833333333334</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +4808,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6.684</v>
+        <v>7.057</v>
       </c>
       <c r="C127" t="n">
-        <v>6.684</v>
+        <v>7.057</v>
       </c>
       <c r="D127" t="n">
-        <v>6.684</v>
+        <v>7.057</v>
       </c>
       <c r="E127" t="n">
-        <v>6.684</v>
+        <v>7.057</v>
       </c>
       <c r="F127" t="n">
-        <v>4000</v>
+        <v>264.7017146096075</v>
       </c>
       <c r="G127" t="n">
-        <v>6.697133333333332</v>
+        <v>-1343952.994153119</v>
       </c>
       <c r="H127" t="n">
-        <v>6.929733333333334</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +4843,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.684</v>
+        <v>7.031</v>
       </c>
       <c r="C128" t="n">
-        <v>6.681</v>
+        <v>7.031</v>
       </c>
       <c r="D128" t="n">
-        <v>6.7</v>
+        <v>7.031</v>
       </c>
       <c r="E128" t="n">
-        <v>6.681</v>
+        <v>7.031</v>
       </c>
       <c r="F128" t="n">
-        <v>129674.6915</v>
+        <v>252345.65</v>
       </c>
       <c r="G128" t="n">
-        <v>6.688666666666665</v>
+        <v>-1596298.644153119</v>
       </c>
       <c r="H128" t="n">
-        <v>6.924033333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +4878,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6.681</v>
+        <v>7.03</v>
       </c>
       <c r="C129" t="n">
-        <v>6.681</v>
+        <v>7.03</v>
       </c>
       <c r="D129" t="n">
-        <v>6.681</v>
+        <v>7.03</v>
       </c>
       <c r="E129" t="n">
-        <v>6.681</v>
+        <v>7.03</v>
       </c>
       <c r="F129" t="n">
-        <v>15130.1959</v>
+        <v>163030.7276</v>
       </c>
       <c r="G129" t="n">
-        <v>6.686266666666666</v>
+        <v>-1759329.371753119</v>
       </c>
       <c r="H129" t="n">
-        <v>6.91835</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,36 +4913,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6.668</v>
+        <v>7.052</v>
       </c>
       <c r="C130" t="n">
-        <v>6.656</v>
+        <v>7.034</v>
       </c>
       <c r="D130" t="n">
-        <v>6.668</v>
+        <v>7.052</v>
       </c>
       <c r="E130" t="n">
-        <v>6.656</v>
+        <v>7.034</v>
       </c>
       <c r="F130" t="n">
-        <v>400.0004</v>
+        <v>111020.9272</v>
       </c>
       <c r="G130" t="n">
-        <v>6.683333333333333</v>
+        <v>-1648308.444553119</v>
       </c>
       <c r="H130" t="n">
-        <v>6.912616666666667</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +4948,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6.644</v>
+        <v>7.034</v>
       </c>
       <c r="C131" t="n">
-        <v>6.644</v>
+        <v>7.034</v>
       </c>
       <c r="D131" t="n">
-        <v>6.644</v>
+        <v>7.034</v>
       </c>
       <c r="E131" t="n">
-        <v>6.644</v>
+        <v>7.034</v>
       </c>
       <c r="F131" t="n">
-        <v>133.6545</v>
+        <v>64123.8896</v>
       </c>
       <c r="G131" t="n">
-        <v>6.679599999999999</v>
+        <v>-1648308.444553119</v>
       </c>
       <c r="H131" t="n">
-        <v>6.906683333333334</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +4983,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.611</v>
+        <v>7.06</v>
       </c>
       <c r="C132" t="n">
-        <v>6.611</v>
+        <v>7.06</v>
       </c>
       <c r="D132" t="n">
-        <v>6.611</v>
+        <v>7.06</v>
       </c>
       <c r="E132" t="n">
-        <v>6.611</v>
+        <v>7.06</v>
       </c>
       <c r="F132" t="n">
-        <v>6630</v>
+        <v>77263.1789</v>
       </c>
       <c r="G132" t="n">
-        <v>6.673866666666666</v>
+        <v>-1571045.265653119</v>
       </c>
       <c r="H132" t="n">
-        <v>6.90025</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,36 +5018,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.61</v>
+        <v>7.055</v>
       </c>
       <c r="C133" t="n">
-        <v>6.6</v>
+        <v>7.055</v>
       </c>
       <c r="D133" t="n">
-        <v>6.61</v>
+        <v>7.055</v>
       </c>
       <c r="E133" t="n">
-        <v>6.6</v>
+        <v>7.055</v>
       </c>
       <c r="F133" t="n">
-        <v>79117.84179999999</v>
+        <v>75903.7711</v>
       </c>
       <c r="G133" t="n">
-        <v>6.667466666666666</v>
+        <v>-1646949.036753119</v>
       </c>
       <c r="H133" t="n">
-        <v>6.893633333333333</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,36 +5053,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6.61</v>
+        <v>7.053</v>
       </c>
       <c r="C134" t="n">
-        <v>6.6</v>
+        <v>7.053</v>
       </c>
       <c r="D134" t="n">
-        <v>6.61</v>
+        <v>7.053</v>
       </c>
       <c r="E134" t="n">
-        <v>6.6</v>
+        <v>7.053</v>
       </c>
       <c r="F134" t="n">
-        <v>308189.2111</v>
+        <v>50000.0931</v>
       </c>
       <c r="G134" t="n">
-        <v>6.660999999999999</v>
+        <v>-1696949.129853119</v>
       </c>
       <c r="H134" t="n">
-        <v>6.887016666666667</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,36 +5088,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6.599</v>
+        <v>7.039</v>
       </c>
       <c r="C135" t="n">
-        <v>6.553</v>
+        <v>7.062</v>
       </c>
       <c r="D135" t="n">
-        <v>6.606</v>
+        <v>7.062</v>
       </c>
       <c r="E135" t="n">
-        <v>6.5</v>
+        <v>7.039</v>
       </c>
       <c r="F135" t="n">
-        <v>9106165.780400001</v>
+        <v>113880.1148</v>
       </c>
       <c r="G135" t="n">
-        <v>6.652533333333333</v>
+        <v>-1583069.015053119</v>
       </c>
       <c r="H135" t="n">
-        <v>6.879616666666666</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,36 +5123,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.577</v>
+        <v>7.057</v>
       </c>
       <c r="C136" t="n">
-        <v>6.579</v>
+        <v>7.057</v>
       </c>
       <c r="D136" t="n">
-        <v>6.586</v>
+        <v>7.057</v>
       </c>
       <c r="E136" t="n">
-        <v>6.565</v>
+        <v>7.057</v>
       </c>
       <c r="F136" t="n">
-        <v>742684.1222</v>
+        <v>15119.9365</v>
       </c>
       <c r="G136" t="n">
-        <v>6.645799999999999</v>
+        <v>-1598188.951553119</v>
       </c>
       <c r="H136" t="n">
-        <v>6.8724</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,36 +5158,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.602</v>
+        <v>7.057</v>
       </c>
       <c r="C137" t="n">
-        <v>6.603</v>
+        <v>7.062</v>
       </c>
       <c r="D137" t="n">
-        <v>6.603</v>
+        <v>7.062</v>
       </c>
       <c r="E137" t="n">
-        <v>6.602</v>
+        <v>7.057</v>
       </c>
       <c r="F137" t="n">
-        <v>511575.2793</v>
+        <v>117832.9986</v>
       </c>
       <c r="G137" t="n">
-        <v>6.640666666666665</v>
+        <v>-1480355.952953119</v>
       </c>
       <c r="H137" t="n">
-        <v>6.866166666666667</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,36 +5193,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6.603</v>
+        <v>7.041</v>
       </c>
       <c r="C138" t="n">
-        <v>6.604</v>
+        <v>7.041</v>
       </c>
       <c r="D138" t="n">
-        <v>6.604</v>
+        <v>7.041</v>
       </c>
       <c r="E138" t="n">
-        <v>6.603</v>
+        <v>7.041</v>
       </c>
       <c r="F138" t="n">
-        <v>32212.4197</v>
+        <v>116090.3058</v>
       </c>
       <c r="G138" t="n">
-        <v>6.635666666666665</v>
+        <v>-1596446.258753119</v>
       </c>
       <c r="H138" t="n">
-        <v>6.860216666666667</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,36 +5228,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.631</v>
+        <v>7.044</v>
       </c>
       <c r="C139" t="n">
-        <v>6.632</v>
+        <v>7.008</v>
       </c>
       <c r="D139" t="n">
-        <v>6.632</v>
+        <v>7.044</v>
       </c>
       <c r="E139" t="n">
-        <v>6.631</v>
+        <v>7.008</v>
       </c>
       <c r="F139" t="n">
-        <v>388253.2343</v>
+        <v>854000</v>
       </c>
       <c r="G139" t="n">
-        <v>6.632533333333332</v>
+        <v>-2450446.258753119</v>
       </c>
       <c r="H139" t="n">
-        <v>6.854733333333333</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5682,36 +5263,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.632</v>
+        <v>7.007</v>
       </c>
       <c r="C140" t="n">
-        <v>6.677</v>
+        <v>6.975</v>
       </c>
       <c r="D140" t="n">
-        <v>6.677</v>
+        <v>7.007</v>
       </c>
       <c r="E140" t="n">
-        <v>6.632</v>
+        <v>6.975</v>
       </c>
       <c r="F140" t="n">
-        <v>353038.0897</v>
+        <v>109114.6004</v>
       </c>
       <c r="G140" t="n">
-        <v>6.632333333333333</v>
+        <v>-2559560.859153119</v>
       </c>
       <c r="H140" t="n">
-        <v>6.850083333333333</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,36 +5298,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.677</v>
+        <v>6.96</v>
       </c>
       <c r="C141" t="n">
-        <v>6.677</v>
+        <v>6.854</v>
       </c>
       <c r="D141" t="n">
-        <v>6.677</v>
+        <v>6.96</v>
       </c>
       <c r="E141" t="n">
-        <v>6.677</v>
+        <v>6.854</v>
       </c>
       <c r="F141" t="n">
-        <v>6280.3819</v>
+        <v>848717.2193999999</v>
       </c>
       <c r="G141" t="n">
-        <v>6.632133333333331</v>
+        <v>-3408278.078553119</v>
       </c>
       <c r="H141" t="n">
-        <v>6.845533333333334</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5758,40 +5333,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.676</v>
+        <v>6.854</v>
       </c>
       <c r="C142" t="n">
-        <v>6.676</v>
+        <v>6.808</v>
       </c>
       <c r="D142" t="n">
-        <v>6.676</v>
+        <v>6.854</v>
       </c>
       <c r="E142" t="n">
-        <v>6.676</v>
+        <v>6.8</v>
       </c>
       <c r="F142" t="n">
-        <v>25585.9302</v>
+        <v>942946.8524</v>
       </c>
       <c r="G142" t="n">
-        <v>6.631599999999998</v>
+        <v>-4351224.930953119</v>
       </c>
       <c r="H142" t="n">
-        <v>6.840783333333333</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="L142" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,672 +5368,1718 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-4357224.930953119</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.712</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>146615.8377</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-4503840.768653119</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>375042.8783</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4503840.768653119</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.695</v>
+      </c>
+      <c r="F146" t="n">
+        <v>269374.632</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4773215.400653119</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.696</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.696</v>
+      </c>
+      <c r="F147" t="n">
+        <v>108518.6894</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4881734.090053119</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="F148" t="n">
+        <v>116550.1491</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-4765183.940953119</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.696</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.696</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F149" t="n">
+        <v>50929.5483</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-4816113.489253119</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F150" t="n">
+        <v>77045</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-4816113.489253119</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="F151" t="n">
+        <v>222382.1734</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-4816113.489253119</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E152" t="n">
         <v>6.678</v>
       </c>
-      <c r="C143" t="n">
+      <c r="F152" t="n">
+        <v>630705.2419</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-5446818.731153118</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
         <v>6.679</v>
       </c>
-      <c r="D143" t="n">
+      <c r="C153" t="n">
         <v>6.679</v>
       </c>
-      <c r="E143" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="F143" t="n">
-        <v>244248.3335</v>
-      </c>
-      <c r="G143" t="n">
-        <v>6.631466666666666</v>
-      </c>
-      <c r="H143" t="n">
-        <v>6.836083333333333</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M143" t="inlineStr">
+      <c r="D153" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="F153" t="n">
+        <v>211283.618</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-5446818.731153118</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F154" t="n">
+        <v>616379.1513</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-4830439.579853118</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F155" t="n">
+        <v>175959.7577</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-4830439.579853118</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-4826439.579853118</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="F157" t="n">
+        <v>129674.6915</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-4956114.271353118</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="F158" t="n">
+        <v>15130.1959</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-4956114.271353118</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="K158" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.668</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.668</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="F159" t="n">
+        <v>400.0004</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-4956514.271753118</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C144" t="n">
-        <v>6.693</v>
-      </c>
-      <c r="D144" t="n">
-        <v>6.693</v>
-      </c>
-      <c r="E144" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F144" t="n">
-        <v>10018.9648</v>
-      </c>
-      <c r="G144" t="n">
-        <v>6.632266666666665</v>
-      </c>
-      <c r="H144" t="n">
-        <v>6.831266666666665</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="L144" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M144" t="inlineStr">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="F160" t="n">
+        <v>133.6545</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4956647.926253119</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="K160" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="C145" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="D145" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="E145" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="F145" t="n">
-        <v>9223.1644</v>
-      </c>
-      <c r="G145" t="n">
-        <v>6.632399999999999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>6.825033333333333</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>6.693</v>
-      </c>
-      <c r="L145" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M145" t="inlineStr">
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6630</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-4963277.926253119</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C146" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="D146" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E146" t="n">
-        <v>6.669</v>
-      </c>
-      <c r="F146" t="n">
-        <v>58376.0952</v>
-      </c>
-      <c r="G146" t="n">
-        <v>6.634133333333332</v>
-      </c>
-      <c r="H146" t="n">
-        <v>6.819066666666666</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="L146" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M146" t="inlineStr">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C162" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F162" t="n">
+        <v>79117.84179999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-5042395.768053118</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>6.694</v>
-      </c>
-      <c r="C147" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="D147" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="E147" t="n">
-        <v>6.694</v>
-      </c>
-      <c r="F147" t="n">
-        <v>87191.6076</v>
-      </c>
-      <c r="G147" t="n">
-        <v>6.639933333333332</v>
-      </c>
-      <c r="H147" t="n">
-        <v>6.813633333333332</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="L147" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M147" t="inlineStr">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>308189.2111</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-5042395.768053118</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="C148" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="D148" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="E148" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="F148" t="n">
-        <v>6018</v>
-      </c>
-      <c r="G148" t="n">
-        <v>6.643999999999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>6.807566666666665</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="L148" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M148" t="inlineStr">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6.599</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6.606</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>9106165.780400001</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-14148561.54845312</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="C149" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="D149" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="E149" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="F149" t="n">
-        <v>32189.6568</v>
-      </c>
-      <c r="G149" t="n">
-        <v>6.650533333333332</v>
-      </c>
-      <c r="H149" t="n">
-        <v>6.802266666666665</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="L149" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M149" t="inlineStr">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6.577</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.579</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6.586</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6.565</v>
+      </c>
+      <c r="F165" t="n">
+        <v>742684.1222</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-13405877.42625312</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="C150" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="D150" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E150" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="F150" t="n">
-        <v>5217.5001</v>
-      </c>
-      <c r="G150" t="n">
-        <v>6.657666666666666</v>
-      </c>
-      <c r="H150" t="n">
-        <v>6.796349999999999</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="L150" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M150" t="inlineStr">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6.602</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.602</v>
+      </c>
+      <c r="F166" t="n">
+        <v>511575.2793</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-12894302.14695312</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="C151" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="D151" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E151" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="F151" t="n">
-        <v>642325.5037999999</v>
-      </c>
-      <c r="G151" t="n">
-        <v>6.663066666666666</v>
-      </c>
-      <c r="H151" t="n">
-        <v>6.790966666666666</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M151" t="inlineStr">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.604</v>
+      </c>
+      <c r="D167" t="n">
+        <v>6.604</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="F167" t="n">
+        <v>32212.4197</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-12862089.72725312</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="C152" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="D152" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="E152" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="F152" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G152" t="n">
-        <v>6.665733333333333</v>
-      </c>
-      <c r="H152" t="n">
-        <v>6.785299999999999</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M152" t="inlineStr">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="C168" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="F168" t="n">
+        <v>388253.2343</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-12473836.49295312</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="C153" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="D153" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="E153" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="F153" t="n">
-        <v>150.838</v>
-      </c>
-      <c r="G153" t="n">
-        <v>6.667</v>
-      </c>
-      <c r="H153" t="n">
-        <v>6.779799999999999</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="C169" t="n">
         <v>6.677</v>
       </c>
-      <c r="M153" t="inlineStr">
+      <c r="D169" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="F169" t="n">
+        <v>353038.0897</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-12120798.40325312</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>6.629</v>
-      </c>
-      <c r="C154" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="D154" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="E154" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F154" t="n">
-        <v>117336.4222</v>
-      </c>
-      <c r="G154" t="n">
-        <v>6.666866666666666</v>
-      </c>
-      <c r="H154" t="n">
-        <v>6.773833333333332</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
         <v>6.677</v>
       </c>
-      <c r="M154" t="inlineStr">
+      <c r="C170" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6280.3819</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-12120798.40325312</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="C155" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="D155" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="E155" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1510.345869204048</v>
-      </c>
-      <c r="G155" t="n">
-        <v>6.663133333333332</v>
-      </c>
-      <c r="H155" t="n">
-        <v>6.767099999999999</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M155" t="inlineStr">
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="F171" t="n">
+        <v>25585.9302</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-12146384.33345312</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>6.622</v>
-      </c>
-      <c r="C156" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="D156" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="E156" t="n">
-        <v>6.622</v>
-      </c>
-      <c r="F156" t="n">
-        <v>274731.9615</v>
-      </c>
-      <c r="G156" t="n">
-        <v>6.659799999999998</v>
-      </c>
-      <c r="H156" t="n">
-        <v>6.760466666666667</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M156" t="inlineStr">
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.678</v>
+      </c>
+      <c r="C172" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F172" t="n">
+        <v>244248.3335</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-11902135.99995312</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>6.626</v>
-      </c>
-      <c r="C157" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="D157" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="E157" t="n">
-        <v>6.626</v>
-      </c>
-      <c r="F157" t="n">
-        <v>217464.8651</v>
-      </c>
-      <c r="G157" t="n">
-        <v>6.65653333333333</v>
-      </c>
-      <c r="H157" t="n">
-        <v>6.753200000000001</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="M157" t="inlineStr">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C173" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="E173" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F173" t="n">
+        <v>10018.9648</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-11892117.03515312</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N157" t="n">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="F174" t="n">
+        <v>9223.1644</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-11901340.19955312</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E175" t="n">
+        <v>6.669</v>
+      </c>
+      <c r="F175" t="n">
+        <v>58376.0952</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-11842964.10435312</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6.694</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="E176" t="n">
+        <v>6.694</v>
+      </c>
+      <c r="F176" t="n">
+        <v>87191.6076</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-11755772.49675312</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="E177" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6018</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-11761790.49675312</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="E178" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="F178" t="n">
+        <v>32189.6568</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-11729600.83995312</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D179" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F179" t="n">
+        <v>5217.5001</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-11734818.34005312</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E180" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F180" t="n">
+        <v>642325.5037999999</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-11734818.34005312</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="K180" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="E181" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="F181" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-11784818.34005312</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="D182" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="E182" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="F182" t="n">
+        <v>150.838</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-11784969.17805312</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="K182" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6.629</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E183" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>117336.4222</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-11667632.75585312</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="K183" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="D184" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="E184" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1510.345869204048</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-11669143.10172232</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="C185" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="E185" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="F185" t="n">
+        <v>274731.9615</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-11394411.14022232</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6.626</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="E186" t="n">
+        <v>6.626</v>
+      </c>
+      <c r="F186" t="n">
+        <v>217464.8651</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-11394411.14022232</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest VET.xlsx
+++ b/BackTest/2020-01-20 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M186"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.088</v>
+        <v>7.032</v>
       </c>
       <c r="C2" t="n">
-        <v>7.088</v>
+        <v>7.032</v>
       </c>
       <c r="D2" t="n">
-        <v>7.088</v>
+        <v>7.032</v>
       </c>
       <c r="E2" t="n">
-        <v>7.088</v>
+        <v>7.032</v>
       </c>
       <c r="F2" t="n">
-        <v>147084.3171</v>
+        <v>72</v>
       </c>
       <c r="G2" t="n">
-        <v>-548547.9367000004</v>
+        <v>-3939163.6006</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.088</v>
+        <v>7.018</v>
       </c>
       <c r="C3" t="n">
-        <v>7.088</v>
+        <v>7.018</v>
       </c>
       <c r="D3" t="n">
-        <v>7.088</v>
+        <v>7.018</v>
       </c>
       <c r="E3" t="n">
-        <v>7.088</v>
+        <v>7.018</v>
       </c>
       <c r="F3" t="n">
-        <v>6778.1486</v>
+        <v>72882</v>
       </c>
       <c r="G3" t="n">
-        <v>-548547.9367000004</v>
+        <v>-4012045.6006</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.088</v>
+        <v>7.017</v>
       </c>
       <c r="C4" t="n">
-        <v>7.088</v>
+        <v>7.017</v>
       </c>
       <c r="D4" t="n">
-        <v>7.088</v>
+        <v>7.017</v>
       </c>
       <c r="E4" t="n">
-        <v>7.088</v>
+        <v>7.017</v>
       </c>
       <c r="F4" t="n">
-        <v>2903.8287</v>
+        <v>63516.8154</v>
       </c>
       <c r="G4" t="n">
-        <v>-548547.9367000004</v>
+        <v>-4075562.416000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.1</v>
+        <v>7.012</v>
       </c>
       <c r="C5" t="n">
-        <v>7.1</v>
+        <v>6.951</v>
       </c>
       <c r="D5" t="n">
-        <v>7.1</v>
+        <v>7.012</v>
       </c>
       <c r="E5" t="n">
-        <v>7.1</v>
+        <v>6.951</v>
       </c>
       <c r="F5" t="n">
-        <v>1257.5252</v>
+        <v>320337.365</v>
       </c>
       <c r="G5" t="n">
-        <v>-547290.4115000004</v>
+        <v>-4395899.781</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.088</v>
+        <v>6.959</v>
       </c>
       <c r="C6" t="n">
-        <v>7.088</v>
+        <v>6.959</v>
       </c>
       <c r="D6" t="n">
-        <v>7.088</v>
+        <v>6.959</v>
       </c>
       <c r="E6" t="n">
-        <v>7.088</v>
+        <v>6.959</v>
       </c>
       <c r="F6" t="n">
-        <v>515.6882000000001</v>
+        <v>114337.365</v>
       </c>
       <c r="G6" t="n">
-        <v>-547806.0997000004</v>
+        <v>-4281562.416</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.011</v>
+        <v>6.998</v>
       </c>
       <c r="C7" t="n">
-        <v>7.003</v>
+        <v>6.998</v>
       </c>
       <c r="D7" t="n">
-        <v>7.011</v>
+        <v>6.998</v>
       </c>
       <c r="E7" t="n">
-        <v>6.97</v>
+        <v>6.998</v>
       </c>
       <c r="F7" t="n">
-        <v>722326.8625</v>
+        <v>43522.8912</v>
       </c>
       <c r="G7" t="n">
-        <v>-1270132.9622</v>
+        <v>-4238039.5248</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.91</v>
+        <v>6.999</v>
       </c>
       <c r="C8" t="n">
-        <v>6.91</v>
+        <v>6.999</v>
       </c>
       <c r="D8" t="n">
-        <v>6.91</v>
+        <v>6.999</v>
       </c>
       <c r="E8" t="n">
-        <v>6.91</v>
+        <v>6.999</v>
       </c>
       <c r="F8" t="n">
-        <v>72249.0193</v>
+        <v>205616.0345</v>
       </c>
       <c r="G8" t="n">
-        <v>-1342381.9815</v>
+        <v>-4032423.4903</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.02</v>
+        <v>6.945</v>
       </c>
       <c r="C9" t="n">
-        <v>7.021</v>
+        <v>6.945</v>
       </c>
       <c r="D9" t="n">
-        <v>7.021</v>
+        <v>6.945</v>
       </c>
       <c r="E9" t="n">
-        <v>7.02</v>
+        <v>6.945</v>
       </c>
       <c r="F9" t="n">
-        <v>568531.5082</v>
+        <v>1400.5661</v>
       </c>
       <c r="G9" t="n">
-        <v>-773850.4733000004</v>
+        <v>-4033824.0564</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.074</v>
+        <v>6.943</v>
       </c>
       <c r="C10" t="n">
-        <v>7.074</v>
+        <v>6.943</v>
       </c>
       <c r="D10" t="n">
-        <v>7.074</v>
+        <v>6.943</v>
       </c>
       <c r="E10" t="n">
-        <v>7.074</v>
+        <v>6.943</v>
       </c>
       <c r="F10" t="n">
-        <v>73220</v>
+        <v>26431.9339</v>
       </c>
       <c r="G10" t="n">
-        <v>-700630.4733000004</v>
+        <v>-4060255.9903</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.03</v>
+        <v>6.956</v>
       </c>
       <c r="C11" t="n">
-        <v>7.027</v>
+        <v>6.956</v>
       </c>
       <c r="D11" t="n">
-        <v>7.03</v>
+        <v>6.956</v>
       </c>
       <c r="E11" t="n">
-        <v>7.027</v>
+        <v>6.956</v>
       </c>
       <c r="F11" t="n">
-        <v>196052.0142</v>
+        <v>13682.3242</v>
       </c>
       <c r="G11" t="n">
-        <v>-896682.4875000004</v>
+        <v>-4046573.6661</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.976</v>
+        <v>6.957</v>
       </c>
       <c r="C12" t="n">
-        <v>6.976</v>
+        <v>6.957</v>
       </c>
       <c r="D12" t="n">
-        <v>6.976</v>
+        <v>6.957</v>
       </c>
       <c r="E12" t="n">
-        <v>6.976</v>
+        <v>6.957</v>
       </c>
       <c r="F12" t="n">
-        <v>5019</v>
+        <v>14320.4989</v>
       </c>
       <c r="G12" t="n">
-        <v>-901701.4875000004</v>
+        <v>-4032253.1672</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.982</v>
+        <v>6.941</v>
       </c>
       <c r="C13" t="n">
-        <v>6.914</v>
+        <v>6.941</v>
       </c>
       <c r="D13" t="n">
-        <v>6.982</v>
+        <v>6.941</v>
       </c>
       <c r="E13" t="n">
-        <v>6.914</v>
+        <v>6.941</v>
       </c>
       <c r="F13" t="n">
-        <v>2817278.2809</v>
+        <v>32425.317</v>
       </c>
       <c r="G13" t="n">
-        <v>-3718979.7684</v>
+        <v>-4064678.484199999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.998</v>
+        <v>6.94</v>
       </c>
       <c r="C14" t="n">
-        <v>6.998</v>
+        <v>6.927</v>
       </c>
       <c r="D14" t="n">
-        <v>6.998</v>
+        <v>6.941</v>
       </c>
       <c r="E14" t="n">
-        <v>6.998</v>
+        <v>6.927</v>
       </c>
       <c r="F14" t="n">
-        <v>3396.4613</v>
+        <v>918922.2024</v>
       </c>
       <c r="G14" t="n">
-        <v>-3715583.3071</v>
+        <v>-4983600.6866</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.998</v>
+        <v>6.976</v>
       </c>
       <c r="C15" t="n">
-        <v>6.999</v>
+        <v>6.976</v>
       </c>
       <c r="D15" t="n">
-        <v>6.999</v>
+        <v>6.976</v>
       </c>
       <c r="E15" t="n">
-        <v>6.998</v>
+        <v>6.976</v>
       </c>
       <c r="F15" t="n">
-        <v>156348.5313</v>
+        <v>411188.5506</v>
       </c>
       <c r="G15" t="n">
-        <v>-3559234.7758</v>
+        <v>-4572412.136</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.955</v>
+        <v>7.008</v>
       </c>
       <c r="C16" t="n">
-        <v>6.955</v>
+        <v>7.009</v>
       </c>
       <c r="D16" t="n">
-        <v>6.955</v>
+        <v>7.009</v>
       </c>
       <c r="E16" t="n">
-        <v>6.955</v>
+        <v>6.96</v>
       </c>
       <c r="F16" t="n">
-        <v>9222.099899999999</v>
+        <v>234516.0001</v>
       </c>
       <c r="G16" t="n">
-        <v>-3568456.8757</v>
+        <v>-4337896.1359</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.946</v>
+        <v>7.009</v>
       </c>
       <c r="C17" t="n">
-        <v>6.946</v>
+        <v>7.009</v>
       </c>
       <c r="D17" t="n">
-        <v>6.946</v>
+        <v>7.009</v>
       </c>
       <c r="E17" t="n">
-        <v>6.946</v>
+        <v>7.009</v>
       </c>
       <c r="F17" t="n">
-        <v>4576.9242</v>
+        <v>30000</v>
       </c>
       <c r="G17" t="n">
-        <v>-3573033.7999</v>
+        <v>-4337896.1359</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.99</v>
+        <v>7.009</v>
       </c>
       <c r="C18" t="n">
-        <v>6.99</v>
+        <v>7.009</v>
       </c>
       <c r="D18" t="n">
-        <v>6.99</v>
+        <v>7.009</v>
       </c>
       <c r="E18" t="n">
-        <v>6.99</v>
+        <v>7.009</v>
       </c>
       <c r="F18" t="n">
-        <v>5533.025</v>
+        <v>41282.9343</v>
       </c>
       <c r="G18" t="n">
-        <v>-3567500.7749</v>
+        <v>-4337896.1359</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.968</v>
+        <v>6.963</v>
       </c>
       <c r="C19" t="n">
-        <v>7.035</v>
+        <v>6.963</v>
       </c>
       <c r="D19" t="n">
-        <v>7.035</v>
+        <v>6.963</v>
       </c>
       <c r="E19" t="n">
-        <v>6.968</v>
+        <v>6.963</v>
       </c>
       <c r="F19" t="n">
-        <v>7373.1344</v>
+        <v>88888</v>
       </c>
       <c r="G19" t="n">
-        <v>-3560127.6405</v>
+        <v>-4426784.1359</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.058</v>
+        <v>7.002</v>
       </c>
       <c r="C20" t="n">
-        <v>7.058</v>
+        <v>7.002</v>
       </c>
       <c r="D20" t="n">
-        <v>7.058</v>
+        <v>7.002</v>
       </c>
       <c r="E20" t="n">
-        <v>7.058</v>
+        <v>7.002</v>
       </c>
       <c r="F20" t="n">
-        <v>138049.9414</v>
+        <v>41988.5951</v>
       </c>
       <c r="G20" t="n">
-        <v>-3422077.6991</v>
+        <v>-4384795.540800001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.041</v>
+        <v>7.002</v>
       </c>
       <c r="C21" t="n">
-        <v>7.038</v>
+        <v>7.001</v>
       </c>
       <c r="D21" t="n">
-        <v>7.041</v>
+        <v>7.002</v>
       </c>
       <c r="E21" t="n">
-        <v>7.038</v>
+        <v>7.001</v>
       </c>
       <c r="F21" t="n">
-        <v>137101.9933</v>
+        <v>27539.2038</v>
       </c>
       <c r="G21" t="n">
-        <v>-3559179.692400001</v>
+        <v>-4412334.744600001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.04</v>
+        <v>7.01</v>
       </c>
       <c r="C22" t="n">
-        <v>7.04</v>
+        <v>7.01</v>
       </c>
       <c r="D22" t="n">
-        <v>7.04</v>
+        <v>7.01</v>
       </c>
       <c r="E22" t="n">
-        <v>7.04</v>
+        <v>7.01</v>
       </c>
       <c r="F22" t="n">
-        <v>6342.546</v>
+        <v>16898.044</v>
       </c>
       <c r="G22" t="n">
-        <v>-3552837.1464</v>
+        <v>-4395436.700600001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.072</v>
+        <v>7.011</v>
       </c>
       <c r="C23" t="n">
-        <v>7.072</v>
+        <v>7.011</v>
       </c>
       <c r="D23" t="n">
-        <v>7.072</v>
+        <v>7.011</v>
       </c>
       <c r="E23" t="n">
-        <v>7.072</v>
+        <v>7.011</v>
       </c>
       <c r="F23" t="n">
-        <v>22967.4497</v>
+        <v>13185.0442</v>
       </c>
       <c r="G23" t="n">
-        <v>-3529869.6967</v>
+        <v>-4382251.656400001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.072</v>
+        <v>7.001</v>
       </c>
       <c r="C24" t="n">
-        <v>7.072</v>
+        <v>6.997</v>
       </c>
       <c r="D24" t="n">
-        <v>7.072</v>
+        <v>7.001</v>
       </c>
       <c r="E24" t="n">
-        <v>7.072</v>
+        <v>6.997</v>
       </c>
       <c r="F24" t="n">
-        <v>100000</v>
+        <v>117300</v>
       </c>
       <c r="G24" t="n">
-        <v>-3529869.6967</v>
+        <v>-4499551.656400001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.073</v>
+        <v>7.011</v>
       </c>
       <c r="C25" t="n">
-        <v>7.074</v>
+        <v>7.011</v>
       </c>
       <c r="D25" t="n">
-        <v>7.074</v>
+        <v>7.011</v>
       </c>
       <c r="E25" t="n">
-        <v>7.073</v>
+        <v>7.011</v>
       </c>
       <c r="F25" t="n">
-        <v>195803.3999</v>
+        <v>0.0001</v>
       </c>
       <c r="G25" t="n">
-        <v>-3334066.2968</v>
+        <v>-4499551.656300001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.073</v>
+        <v>7.005</v>
       </c>
       <c r="C26" t="n">
-        <v>7.071</v>
+        <v>7.005</v>
       </c>
       <c r="D26" t="n">
-        <v>7.074</v>
+        <v>7.005</v>
       </c>
       <c r="E26" t="n">
-        <v>7.071</v>
+        <v>7.005</v>
       </c>
       <c r="F26" t="n">
-        <v>272111.6391</v>
+        <v>11000</v>
       </c>
       <c r="G26" t="n">
-        <v>-3606177.9359</v>
+        <v>-4510551.656300001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.098</v>
+        <v>7.046</v>
       </c>
       <c r="C27" t="n">
-        <v>7.098</v>
+        <v>7.047</v>
       </c>
       <c r="D27" t="n">
-        <v>7.098</v>
+        <v>7.047</v>
       </c>
       <c r="E27" t="n">
-        <v>7.098</v>
+        <v>7.046</v>
       </c>
       <c r="F27" t="n">
-        <v>123352.5874</v>
+        <v>105529.6588</v>
       </c>
       <c r="G27" t="n">
-        <v>-3482825.3485</v>
+        <v>-4405021.997500001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.102</v>
+        <v>6.996</v>
       </c>
       <c r="C28" t="n">
-        <v>7.102</v>
+        <v>6.996</v>
       </c>
       <c r="D28" t="n">
-        <v>7.102</v>
+        <v>6.996</v>
       </c>
       <c r="E28" t="n">
-        <v>7.102</v>
+        <v>6.996</v>
       </c>
       <c r="F28" t="n">
-        <v>46284</v>
+        <v>82881.7705</v>
       </c>
       <c r="G28" t="n">
-        <v>-3436541.3485</v>
+        <v>-4487903.768</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.112</v>
+        <v>7.038</v>
       </c>
       <c r="C29" t="n">
-        <v>7.114</v>
+        <v>7.041</v>
       </c>
       <c r="D29" t="n">
-        <v>7.114</v>
+        <v>7.041</v>
       </c>
       <c r="E29" t="n">
-        <v>7.112</v>
+        <v>7.038</v>
       </c>
       <c r="F29" t="n">
-        <v>83322.8317</v>
+        <v>910754.4952974862</v>
       </c>
       <c r="G29" t="n">
-        <v>-3353218.5168</v>
+        <v>-3577149.272702514</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.119</v>
+        <v>7.037</v>
       </c>
       <c r="C30" t="n">
-        <v>7.142</v>
+        <v>7.05</v>
       </c>
       <c r="D30" t="n">
-        <v>7.142</v>
+        <v>7.05</v>
       </c>
       <c r="E30" t="n">
-        <v>7.119</v>
+        <v>7.037</v>
       </c>
       <c r="F30" t="n">
-        <v>181081.9826</v>
+        <v>642611.3459</v>
       </c>
       <c r="G30" t="n">
-        <v>-3172136.5342</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.142</v>
+        <v>7.05</v>
       </c>
       <c r="C31" t="n">
-        <v>7.141</v>
+        <v>7.05</v>
       </c>
       <c r="D31" t="n">
-        <v>7.142</v>
+        <v>7.05</v>
       </c>
       <c r="E31" t="n">
-        <v>7.141</v>
+        <v>7.05</v>
       </c>
       <c r="F31" t="n">
-        <v>29714</v>
+        <v>125754.8175</v>
       </c>
       <c r="G31" t="n">
-        <v>-3201850.5342</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.14</v>
+        <v>7.05</v>
       </c>
       <c r="C32" t="n">
-        <v>7.14</v>
+        <v>7.05</v>
       </c>
       <c r="D32" t="n">
-        <v>7.14</v>
+        <v>7.05</v>
       </c>
       <c r="E32" t="n">
-        <v>7.14</v>
+        <v>7.05</v>
       </c>
       <c r="F32" t="n">
-        <v>4340.5282</v>
+        <v>231901.5358</v>
       </c>
       <c r="G32" t="n">
-        <v>-3206191.0624</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.14</v>
+        <v>7.05</v>
       </c>
       <c r="C33" t="n">
-        <v>7.141</v>
+        <v>7.05</v>
       </c>
       <c r="D33" t="n">
-        <v>7.141</v>
+        <v>7.05</v>
       </c>
       <c r="E33" t="n">
-        <v>7.14</v>
+        <v>7.05</v>
       </c>
       <c r="F33" t="n">
-        <v>30220.8528</v>
+        <v>1356516.9605</v>
       </c>
       <c r="G33" t="n">
-        <v>-3175970.2096</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.141</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>6.976</v>
+        <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>7.141</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>6.976</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>280050.7126</v>
+        <v>100000</v>
       </c>
       <c r="G34" t="n">
-        <v>-3456020.9222</v>
+        <v>-3034537.926802514</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.077</v>
+        <v>7.038</v>
       </c>
       <c r="C35" t="n">
-        <v>7.077</v>
+        <v>7.045</v>
       </c>
       <c r="D35" t="n">
-        <v>7.077</v>
+        <v>7.045</v>
       </c>
       <c r="E35" t="n">
-        <v>7.077</v>
+        <v>7.038</v>
       </c>
       <c r="F35" t="n">
-        <v>104806.0511</v>
+        <v>3416707.6177</v>
       </c>
       <c r="G35" t="n">
-        <v>-3351214.8711</v>
+        <v>382169.6908974857</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.032</v>
+        <v>7.044</v>
       </c>
       <c r="C36" t="n">
-        <v>7.032</v>
+        <v>7.044</v>
       </c>
       <c r="D36" t="n">
-        <v>7.032</v>
+        <v>7.044</v>
       </c>
       <c r="E36" t="n">
-        <v>7.032</v>
+        <v>7.044</v>
       </c>
       <c r="F36" t="n">
-        <v>45193.9489</v>
+        <v>58028.3975</v>
       </c>
       <c r="G36" t="n">
-        <v>-3396408.82</v>
+        <v>324141.2933974857</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.033</v>
+        <v>7.045</v>
       </c>
       <c r="C37" t="n">
-        <v>6.945</v>
+        <v>7.045</v>
       </c>
       <c r="D37" t="n">
-        <v>7.033</v>
+        <v>7.045</v>
       </c>
       <c r="E37" t="n">
-        <v>6.945</v>
+        <v>7.045</v>
       </c>
       <c r="F37" t="n">
-        <v>378000</v>
+        <v>53000.3865</v>
       </c>
       <c r="G37" t="n">
-        <v>-3774408.82</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.994</v>
+        <v>7.045</v>
       </c>
       <c r="C38" t="n">
-        <v>6.979</v>
+        <v>7.045</v>
       </c>
       <c r="D38" t="n">
-        <v>6.994</v>
+        <v>7.045</v>
       </c>
       <c r="E38" t="n">
-        <v>6.979</v>
+        <v>7.045</v>
       </c>
       <c r="F38" t="n">
-        <v>4856.2978</v>
+        <v>6766.26</v>
       </c>
       <c r="G38" t="n">
-        <v>-3769552.5222</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.973</v>
+        <v>7.045</v>
       </c>
       <c r="C39" t="n">
-        <v>6.973</v>
+        <v>7.045</v>
       </c>
       <c r="D39" t="n">
-        <v>6.973</v>
+        <v>7.045</v>
       </c>
       <c r="E39" t="n">
-        <v>6.973</v>
+        <v>7.045</v>
       </c>
       <c r="F39" t="n">
-        <v>900</v>
+        <v>26352.4</v>
       </c>
       <c r="G39" t="n">
-        <v>-3770452.5222</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.965</v>
+        <v>7.045</v>
       </c>
       <c r="C40" t="n">
-        <v>6.965</v>
+        <v>7.045</v>
       </c>
       <c r="D40" t="n">
-        <v>6.965</v>
+        <v>7.045</v>
       </c>
       <c r="E40" t="n">
-        <v>6.965</v>
+        <v>7.045</v>
       </c>
       <c r="F40" t="n">
-        <v>76817.98510000001</v>
+        <v>5965.137</v>
       </c>
       <c r="G40" t="n">
-        <v>-3847270.507300001</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.964</v>
+        <v>7.11</v>
       </c>
       <c r="C41" t="n">
-        <v>6.964</v>
+        <v>7.11</v>
       </c>
       <c r="D41" t="n">
-        <v>6.964</v>
+        <v>7.11</v>
       </c>
       <c r="E41" t="n">
-        <v>6.964</v>
+        <v>7.11</v>
       </c>
       <c r="F41" t="n">
-        <v>2000</v>
+        <v>29535</v>
       </c>
       <c r="G41" t="n">
-        <v>-3849270.507300001</v>
+        <v>406676.6798974857</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.963</v>
+        <v>7.11</v>
       </c>
       <c r="C42" t="n">
-        <v>6.963</v>
+        <v>7.11</v>
       </c>
       <c r="D42" t="n">
-        <v>6.963</v>
+        <v>7.11</v>
       </c>
       <c r="E42" t="n">
-        <v>6.963</v>
+        <v>7.11</v>
       </c>
       <c r="F42" t="n">
-        <v>300</v>
+        <v>458935.9008</v>
       </c>
       <c r="G42" t="n">
-        <v>-3849570.507300001</v>
+        <v>406676.6798974857</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.955</v>
+        <v>7.08</v>
       </c>
       <c r="C43" t="n">
-        <v>6.957</v>
+        <v>7.08</v>
       </c>
       <c r="D43" t="n">
-        <v>6.957</v>
+        <v>7.08</v>
       </c>
       <c r="E43" t="n">
-        <v>6.955</v>
+        <v>7.08</v>
       </c>
       <c r="F43" t="n">
-        <v>89665.09329999999</v>
+        <v>76817.98510000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-3939235.6006</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.032</v>
+        <v>7.08</v>
       </c>
       <c r="C44" t="n">
-        <v>7.032</v>
+        <v>7.08</v>
       </c>
       <c r="D44" t="n">
-        <v>7.032</v>
+        <v>7.08</v>
       </c>
       <c r="E44" t="n">
-        <v>7.032</v>
+        <v>7.08</v>
       </c>
       <c r="F44" t="n">
-        <v>72</v>
+        <v>7659</v>
       </c>
       <c r="G44" t="n">
-        <v>-3939163.6006</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.018</v>
+        <v>7.08</v>
       </c>
       <c r="C45" t="n">
-        <v>7.018</v>
+        <v>7.08</v>
       </c>
       <c r="D45" t="n">
-        <v>7.018</v>
+        <v>7.08</v>
       </c>
       <c r="E45" t="n">
-        <v>7.018</v>
+        <v>7.08</v>
       </c>
       <c r="F45" t="n">
-        <v>72882</v>
+        <v>62900</v>
       </c>
       <c r="G45" t="n">
-        <v>-4012045.6006</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.017</v>
+        <v>7.08</v>
       </c>
       <c r="C46" t="n">
-        <v>7.017</v>
+        <v>7.08</v>
       </c>
       <c r="D46" t="n">
-        <v>7.017</v>
+        <v>7.08</v>
       </c>
       <c r="E46" t="n">
-        <v>7.017</v>
+        <v>7.08</v>
       </c>
       <c r="F46" t="n">
-        <v>63516.8154</v>
+        <v>102800.3548</v>
       </c>
       <c r="G46" t="n">
-        <v>-4075562.416000001</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.012</v>
+        <v>7.08</v>
       </c>
       <c r="C47" t="n">
-        <v>6.951</v>
+        <v>7.08</v>
       </c>
       <c r="D47" t="n">
-        <v>7.012</v>
+        <v>7.08</v>
       </c>
       <c r="E47" t="n">
-        <v>6.951</v>
+        <v>7.08</v>
       </c>
       <c r="F47" t="n">
-        <v>320337.365</v>
+        <v>120997.5478</v>
       </c>
       <c r="G47" t="n">
-        <v>-4395899.781</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.959</v>
+        <v>7.08</v>
       </c>
       <c r="C48" t="n">
-        <v>6.959</v>
+        <v>7.08</v>
       </c>
       <c r="D48" t="n">
-        <v>6.959</v>
+        <v>7.08</v>
       </c>
       <c r="E48" t="n">
-        <v>6.959</v>
+        <v>7.08</v>
       </c>
       <c r="F48" t="n">
-        <v>114337.365</v>
+        <v>408437.0202</v>
       </c>
       <c r="G48" t="n">
-        <v>-4281562.416</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.998</v>
+        <v>7.08</v>
       </c>
       <c r="C49" t="n">
-        <v>6.998</v>
+        <v>7.08</v>
       </c>
       <c r="D49" t="n">
-        <v>6.998</v>
+        <v>7.08</v>
       </c>
       <c r="E49" t="n">
-        <v>6.998</v>
+        <v>7.08</v>
       </c>
       <c r="F49" t="n">
-        <v>43522.8912</v>
+        <v>142.8007</v>
       </c>
       <c r="G49" t="n">
-        <v>-4238039.5248</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.999</v>
+        <v>7.08</v>
       </c>
       <c r="C50" t="n">
-        <v>6.999</v>
+        <v>7.08</v>
       </c>
       <c r="D50" t="n">
-        <v>6.999</v>
+        <v>7.08</v>
       </c>
       <c r="E50" t="n">
-        <v>6.999</v>
+        <v>7.08</v>
       </c>
       <c r="F50" t="n">
-        <v>205616.0345</v>
+        <v>100604.1968</v>
       </c>
       <c r="G50" t="n">
-        <v>-4032423.4903</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.945</v>
+        <v>7.08</v>
       </c>
       <c r="C51" t="n">
-        <v>6.945</v>
+        <v>7.08</v>
       </c>
       <c r="D51" t="n">
-        <v>6.945</v>
+        <v>7.08</v>
       </c>
       <c r="E51" t="n">
-        <v>6.945</v>
+        <v>7.08</v>
       </c>
       <c r="F51" t="n">
-        <v>1400.5661</v>
+        <v>88719</v>
       </c>
       <c r="G51" t="n">
-        <v>-4033824.0564</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.943</v>
+        <v>7.08</v>
       </c>
       <c r="C52" t="n">
-        <v>6.943</v>
+        <v>7.054</v>
       </c>
       <c r="D52" t="n">
-        <v>6.943</v>
+        <v>7.08</v>
       </c>
       <c r="E52" t="n">
-        <v>6.943</v>
+        <v>7.054</v>
       </c>
       <c r="F52" t="n">
-        <v>26431.9339</v>
+        <v>178330.3</v>
       </c>
       <c r="G52" t="n">
-        <v>-4060255.9903</v>
+        <v>151528.3947974857</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.956</v>
+        <v>7.086</v>
       </c>
       <c r="C53" t="n">
-        <v>6.956</v>
+        <v>7.05</v>
       </c>
       <c r="D53" t="n">
-        <v>6.956</v>
+        <v>7.086</v>
       </c>
       <c r="E53" t="n">
-        <v>6.956</v>
+        <v>7.05</v>
       </c>
       <c r="F53" t="n">
-        <v>13682.3242</v>
+        <v>6188.975</v>
       </c>
       <c r="G53" t="n">
-        <v>-4046573.6661</v>
+        <v>145339.4197974857</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.957</v>
+        <v>7.05</v>
       </c>
       <c r="C54" t="n">
-        <v>6.957</v>
+        <v>7.05</v>
       </c>
       <c r="D54" t="n">
-        <v>6.957</v>
+        <v>7.05</v>
       </c>
       <c r="E54" t="n">
-        <v>6.957</v>
+        <v>7.05</v>
       </c>
       <c r="F54" t="n">
-        <v>14320.4989</v>
+        <v>335865.3112</v>
       </c>
       <c r="G54" t="n">
-        <v>-4032253.1672</v>
+        <v>145339.4197974857</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.941</v>
+        <v>7.05</v>
       </c>
       <c r="C55" t="n">
-        <v>6.941</v>
+        <v>7.023</v>
       </c>
       <c r="D55" t="n">
-        <v>6.941</v>
+        <v>7.05</v>
       </c>
       <c r="E55" t="n">
-        <v>6.941</v>
+        <v>7.023</v>
       </c>
       <c r="F55" t="n">
-        <v>32425.317</v>
+        <v>1561028.1469</v>
       </c>
       <c r="G55" t="n">
-        <v>-4064678.484199999</v>
+        <v>-1415688.727102514</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.94</v>
+        <v>7.055</v>
       </c>
       <c r="C56" t="n">
-        <v>6.927</v>
+        <v>7.022</v>
       </c>
       <c r="D56" t="n">
-        <v>6.941</v>
+        <v>7.055</v>
       </c>
       <c r="E56" t="n">
-        <v>6.927</v>
+        <v>7.022</v>
       </c>
       <c r="F56" t="n">
-        <v>918922.2024</v>
+        <v>56495.3431</v>
       </c>
       <c r="G56" t="n">
-        <v>-4983600.6866</v>
+        <v>-1472184.070202514</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.976</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>6.976</v>
+        <v>7</v>
       </c>
       <c r="D57" t="n">
-        <v>6.976</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>6.976</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>411188.5506</v>
+        <v>12153</v>
       </c>
       <c r="G57" t="n">
-        <v>-4572412.136</v>
+        <v>-1484337.070202514</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.008</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>7.009</v>
+        <v>7</v>
       </c>
       <c r="D58" t="n">
-        <v>7.009</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>6.96</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>234516.0001</v>
+        <v>12967</v>
       </c>
       <c r="G58" t="n">
-        <v>-4337896.1359</v>
+        <v>-1484337.070202514</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.009</v>
+        <v>6.997</v>
       </c>
       <c r="C59" t="n">
-        <v>7.009</v>
+        <v>6.997</v>
       </c>
       <c r="D59" t="n">
-        <v>7.009</v>
+        <v>6.997</v>
       </c>
       <c r="E59" t="n">
-        <v>7.009</v>
+        <v>6.997</v>
       </c>
       <c r="F59" t="n">
-        <v>30000</v>
+        <v>10231.9666</v>
       </c>
       <c r="G59" t="n">
-        <v>-4337896.1359</v>
+        <v>-1494569.036802514</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.009</v>
+        <v>6.997</v>
       </c>
       <c r="C60" t="n">
-        <v>7.009</v>
+        <v>6.997</v>
       </c>
       <c r="D60" t="n">
-        <v>7.009</v>
+        <v>6.997</v>
       </c>
       <c r="E60" t="n">
-        <v>7.009</v>
+        <v>6.997</v>
       </c>
       <c r="F60" t="n">
-        <v>41282.9343</v>
+        <v>5527.5436</v>
       </c>
       <c r="G60" t="n">
-        <v>-4337896.1359</v>
+        <v>-1494569.036802514</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.963</v>
+        <v>6.997</v>
       </c>
       <c r="C61" t="n">
-        <v>6.963</v>
+        <v>6.997</v>
       </c>
       <c r="D61" t="n">
-        <v>6.963</v>
+        <v>6.997</v>
       </c>
       <c r="E61" t="n">
-        <v>6.963</v>
+        <v>6.997</v>
       </c>
       <c r="F61" t="n">
-        <v>88888</v>
+        <v>8036.0431</v>
       </c>
       <c r="G61" t="n">
-        <v>-4426784.1359</v>
+        <v>-1494569.036802514</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,34 +2591,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.002</v>
+        <v>6.997</v>
       </c>
       <c r="C62" t="n">
-        <v>7.002</v>
+        <v>6.997</v>
       </c>
       <c r="D62" t="n">
-        <v>7.002</v>
+        <v>6.997</v>
       </c>
       <c r="E62" t="n">
-        <v>7.002</v>
+        <v>6.997</v>
       </c>
       <c r="F62" t="n">
-        <v>41988.5951</v>
+        <v>4898.3369</v>
       </c>
       <c r="G62" t="n">
-        <v>-4384795.540800001</v>
+        <v>-1494569.036802514</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,34 +2627,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.002</v>
+        <v>7.012</v>
       </c>
       <c r="C63" t="n">
-        <v>7.001</v>
+        <v>7.012</v>
       </c>
       <c r="D63" t="n">
-        <v>7.002</v>
+        <v>7.012</v>
       </c>
       <c r="E63" t="n">
-        <v>7.001</v>
+        <v>7.012</v>
       </c>
       <c r="F63" t="n">
-        <v>27539.2038</v>
+        <v>142.6126640045636</v>
       </c>
       <c r="G63" t="n">
-        <v>-4412334.744600001</v>
+        <v>-1494426.42413851</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,34 +2663,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.01</v>
+        <v>6.977</v>
       </c>
       <c r="C64" t="n">
-        <v>7.01</v>
+        <v>6.977</v>
       </c>
       <c r="D64" t="n">
-        <v>7.01</v>
+        <v>6.977</v>
       </c>
       <c r="E64" t="n">
-        <v>7.01</v>
+        <v>6.977</v>
       </c>
       <c r="F64" t="n">
-        <v>16898.044</v>
+        <v>6375.175</v>
       </c>
       <c r="G64" t="n">
-        <v>-4395436.700600001</v>
+        <v>-1500801.59913851</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,34 +2699,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.011</v>
+        <v>6.961</v>
       </c>
       <c r="C65" t="n">
-        <v>7.011</v>
+        <v>6.961</v>
       </c>
       <c r="D65" t="n">
-        <v>7.011</v>
+        <v>6.961</v>
       </c>
       <c r="E65" t="n">
-        <v>7.011</v>
+        <v>6.961</v>
       </c>
       <c r="F65" t="n">
-        <v>13185.0442</v>
+        <v>34157.7646</v>
       </c>
       <c r="G65" t="n">
-        <v>-4382251.656400001</v>
+        <v>-1534959.36373851</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.001</v>
+        <v>6.961</v>
       </c>
       <c r="C66" t="n">
-        <v>6.997</v>
+        <v>6.961</v>
       </c>
       <c r="D66" t="n">
-        <v>7.001</v>
+        <v>6.961</v>
       </c>
       <c r="E66" t="n">
-        <v>6.997</v>
+        <v>6.961</v>
       </c>
       <c r="F66" t="n">
-        <v>117300</v>
+        <v>19807.4998</v>
       </c>
       <c r="G66" t="n">
-        <v>-4499551.656400001</v>
+        <v>-1534959.36373851</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.011</v>
+        <v>6.956</v>
       </c>
       <c r="C67" t="n">
-        <v>7.011</v>
+        <v>6.956</v>
       </c>
       <c r="D67" t="n">
-        <v>7.011</v>
+        <v>6.956</v>
       </c>
       <c r="E67" t="n">
-        <v>7.011</v>
+        <v>6.956</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0001</v>
+        <v>127328.29</v>
       </c>
       <c r="G67" t="n">
-        <v>-4499551.656300001</v>
+        <v>-1662287.65373851</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,34 +2807,35 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.005</v>
+        <v>6.95</v>
       </c>
       <c r="C68" t="n">
-        <v>7.005</v>
+        <v>6.95</v>
       </c>
       <c r="D68" t="n">
-        <v>7.005</v>
+        <v>6.95</v>
       </c>
       <c r="E68" t="n">
-        <v>7.005</v>
+        <v>6.95</v>
       </c>
       <c r="F68" t="n">
-        <v>11000</v>
+        <v>2671.71</v>
       </c>
       <c r="G68" t="n">
-        <v>-4510551.656300001</v>
+        <v>-1664959.36373851</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.046</v>
+        <v>6.961</v>
       </c>
       <c r="C69" t="n">
-        <v>7.047</v>
+        <v>6.961</v>
       </c>
       <c r="D69" t="n">
-        <v>7.047</v>
+        <v>6.961</v>
       </c>
       <c r="E69" t="n">
-        <v>7.046</v>
+        <v>6.961</v>
       </c>
       <c r="F69" t="n">
-        <v>105529.6588</v>
+        <v>0.0001</v>
       </c>
       <c r="G69" t="n">
-        <v>-4405021.997500001</v>
+        <v>-1664959.36363851</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.996</v>
+        <v>6.961</v>
       </c>
       <c r="C70" t="n">
-        <v>6.996</v>
+        <v>6.961</v>
       </c>
       <c r="D70" t="n">
-        <v>6.996</v>
+        <v>6.961</v>
       </c>
       <c r="E70" t="n">
-        <v>6.996</v>
+        <v>6.961</v>
       </c>
       <c r="F70" t="n">
-        <v>82881.7705</v>
+        <v>13552.9891</v>
       </c>
       <c r="G70" t="n">
-        <v>-4487903.768</v>
+        <v>-1664959.36363851</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,34 +2915,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.038</v>
+        <v>6.982</v>
       </c>
       <c r="C71" t="n">
-        <v>7.041</v>
+        <v>6.982</v>
       </c>
       <c r="D71" t="n">
-        <v>7.041</v>
+        <v>6.982</v>
       </c>
       <c r="E71" t="n">
-        <v>7.038</v>
+        <v>6.982</v>
       </c>
       <c r="F71" t="n">
-        <v>910754.4952974862</v>
+        <v>103329.499</v>
       </c>
       <c r="G71" t="n">
-        <v>-3577149.272702514</v>
+        <v>-1561629.86463851</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,34 +2951,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.037</v>
+        <v>7.003</v>
       </c>
       <c r="C72" t="n">
-        <v>7.05</v>
+        <v>7.032</v>
       </c>
       <c r="D72" t="n">
-        <v>7.05</v>
+        <v>7.032</v>
       </c>
       <c r="E72" t="n">
-        <v>7.037</v>
+        <v>7.003</v>
       </c>
       <c r="F72" t="n">
-        <v>642611.3459</v>
+        <v>144</v>
       </c>
       <c r="G72" t="n">
-        <v>-2934537.926802514</v>
+        <v>-1561485.86463851</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,34 +2987,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.05</v>
+        <v>7.028</v>
       </c>
       <c r="C73" t="n">
-        <v>7.05</v>
+        <v>7.028</v>
       </c>
       <c r="D73" t="n">
-        <v>7.05</v>
+        <v>7.028</v>
       </c>
       <c r="E73" t="n">
-        <v>7.05</v>
+        <v>7.028</v>
       </c>
       <c r="F73" t="n">
-        <v>125754.8175</v>
+        <v>29767</v>
       </c>
       <c r="G73" t="n">
-        <v>-2934537.926802514</v>
+        <v>-1591252.86463851</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2947,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.05</v>
+        <v>7.024</v>
       </c>
       <c r="C74" t="n">
-        <v>7.05</v>
+        <v>7.024</v>
       </c>
       <c r="D74" t="n">
-        <v>7.05</v>
+        <v>7.024</v>
       </c>
       <c r="E74" t="n">
-        <v>7.05</v>
+        <v>7.024</v>
       </c>
       <c r="F74" t="n">
-        <v>231901.5358</v>
+        <v>11574</v>
       </c>
       <c r="G74" t="n">
-        <v>-2934537.926802514</v>
+        <v>-1602826.86463851</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2982,34 +3059,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.05</v>
+        <v>7.025</v>
       </c>
       <c r="C75" t="n">
-        <v>7.05</v>
+        <v>7.025</v>
       </c>
       <c r="D75" t="n">
-        <v>7.05</v>
+        <v>7.025</v>
       </c>
       <c r="E75" t="n">
-        <v>7.05</v>
+        <v>7.025</v>
       </c>
       <c r="F75" t="n">
-        <v>1356516.9605</v>
+        <v>71.17440000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-2934537.926802514</v>
+        <v>-1602755.69023851</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3017,34 +3095,35 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>7.017</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>7.016</v>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>7.017</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>7.016</v>
       </c>
       <c r="F76" t="n">
-        <v>100000</v>
+        <v>14835.1475</v>
       </c>
       <c r="G76" t="n">
-        <v>-3034537.926802514</v>
+        <v>-1617590.83773851</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3052,34 +3131,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.038</v>
+        <v>7.007</v>
       </c>
       <c r="C77" t="n">
-        <v>7.045</v>
+        <v>7.015</v>
       </c>
       <c r="D77" t="n">
-        <v>7.045</v>
+        <v>7.015</v>
       </c>
       <c r="E77" t="n">
-        <v>7.038</v>
+        <v>6.997</v>
       </c>
       <c r="F77" t="n">
-        <v>3416707.6177</v>
+        <v>240242.5872</v>
       </c>
       <c r="G77" t="n">
-        <v>382169.6908974857</v>
+        <v>-1857833.42493851</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3087,34 +3167,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.044</v>
+        <v>6.983</v>
       </c>
       <c r="C78" t="n">
-        <v>7.044</v>
+        <v>6.983</v>
       </c>
       <c r="D78" t="n">
-        <v>7.044</v>
+        <v>6.983</v>
       </c>
       <c r="E78" t="n">
-        <v>7.044</v>
+        <v>6.983</v>
       </c>
       <c r="F78" t="n">
-        <v>58028.3975</v>
+        <v>4497.7043</v>
       </c>
       <c r="G78" t="n">
-        <v>324141.2933974857</v>
+        <v>-1862331.12923851</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3122,34 +3203,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.045</v>
+        <v>6.983</v>
       </c>
       <c r="C79" t="n">
-        <v>7.045</v>
+        <v>6.983</v>
       </c>
       <c r="D79" t="n">
-        <v>7.045</v>
+        <v>6.983</v>
       </c>
       <c r="E79" t="n">
-        <v>7.045</v>
+        <v>6.983</v>
       </c>
       <c r="F79" t="n">
-        <v>53000.3865</v>
+        <v>40313.1</v>
       </c>
       <c r="G79" t="n">
-        <v>377141.6798974857</v>
+        <v>-1862331.12923851</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,34 +3239,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.045</v>
+        <v>6.983</v>
       </c>
       <c r="C80" t="n">
-        <v>7.045</v>
+        <v>6.953</v>
       </c>
       <c r="D80" t="n">
-        <v>7.045</v>
+        <v>6.983</v>
       </c>
       <c r="E80" t="n">
-        <v>7.045</v>
+        <v>6.953</v>
       </c>
       <c r="F80" t="n">
-        <v>6766.26</v>
+        <v>41978.27</v>
       </c>
       <c r="G80" t="n">
-        <v>377141.6798974857</v>
+        <v>-1904309.39923851</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3192,34 +3275,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.045</v>
+        <v>6.957</v>
       </c>
       <c r="C81" t="n">
-        <v>7.045</v>
+        <v>6.988</v>
       </c>
       <c r="D81" t="n">
-        <v>7.045</v>
+        <v>6.988</v>
       </c>
       <c r="E81" t="n">
-        <v>7.045</v>
+        <v>6.957</v>
       </c>
       <c r="F81" t="n">
-        <v>26352.4</v>
+        <v>266621.1068</v>
       </c>
       <c r="G81" t="n">
-        <v>377141.6798974857</v>
+        <v>-1637688.29243851</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3227,34 +3311,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.045</v>
+        <v>6.988</v>
       </c>
       <c r="C82" t="n">
-        <v>7.045</v>
+        <v>7.025</v>
       </c>
       <c r="D82" t="n">
-        <v>7.045</v>
+        <v>7.025</v>
       </c>
       <c r="E82" t="n">
-        <v>7.045</v>
+        <v>6.988</v>
       </c>
       <c r="F82" t="n">
-        <v>5965.137</v>
+        <v>236000</v>
       </c>
       <c r="G82" t="n">
-        <v>377141.6798974857</v>
+        <v>-1401688.29243851</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3262,34 +3347,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.11</v>
+        <v>7.025</v>
       </c>
       <c r="C83" t="n">
-        <v>7.11</v>
+        <v>7.025</v>
       </c>
       <c r="D83" t="n">
-        <v>7.11</v>
+        <v>7.025</v>
       </c>
       <c r="E83" t="n">
-        <v>7.11</v>
+        <v>7.025</v>
       </c>
       <c r="F83" t="n">
-        <v>29535</v>
+        <v>25527.9836</v>
       </c>
       <c r="G83" t="n">
-        <v>406676.6798974857</v>
+        <v>-1401688.29243851</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3297,34 +3383,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.11</v>
+        <v>7.053</v>
       </c>
       <c r="C84" t="n">
-        <v>7.11</v>
+        <v>7.063</v>
       </c>
       <c r="D84" t="n">
-        <v>7.11</v>
+        <v>7.063</v>
       </c>
       <c r="E84" t="n">
-        <v>7.11</v>
+        <v>7.053</v>
       </c>
       <c r="F84" t="n">
-        <v>458935.9008</v>
+        <v>58000</v>
       </c>
       <c r="G84" t="n">
-        <v>406676.6798974857</v>
+        <v>-1343688.29243851</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.08</v>
+        <v>7.057</v>
       </c>
       <c r="C85" t="n">
-        <v>7.08</v>
+        <v>7.057</v>
       </c>
       <c r="D85" t="n">
-        <v>7.08</v>
+        <v>7.057</v>
       </c>
       <c r="E85" t="n">
-        <v>7.08</v>
+        <v>7.057</v>
       </c>
       <c r="F85" t="n">
-        <v>76817.98510000001</v>
+        <v>264.7017146096075</v>
       </c>
       <c r="G85" t="n">
-        <v>329858.6947974857</v>
+        <v>-1343952.994153119</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,34 +3455,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.08</v>
+        <v>7.031</v>
       </c>
       <c r="C86" t="n">
-        <v>7.08</v>
+        <v>7.031</v>
       </c>
       <c r="D86" t="n">
-        <v>7.08</v>
+        <v>7.031</v>
       </c>
       <c r="E86" t="n">
-        <v>7.08</v>
+        <v>7.031</v>
       </c>
       <c r="F86" t="n">
-        <v>7659</v>
+        <v>252345.65</v>
       </c>
       <c r="G86" t="n">
-        <v>329858.6947974857</v>
+        <v>-1596298.644153119</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,34 +3491,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.08</v>
+        <v>7.03</v>
       </c>
       <c r="C87" t="n">
-        <v>7.08</v>
+        <v>7.03</v>
       </c>
       <c r="D87" t="n">
-        <v>7.08</v>
+        <v>7.03</v>
       </c>
       <c r="E87" t="n">
-        <v>7.08</v>
+        <v>7.03</v>
       </c>
       <c r="F87" t="n">
-        <v>62900</v>
+        <v>163030.7276</v>
       </c>
       <c r="G87" t="n">
-        <v>329858.6947974857</v>
+        <v>-1759329.371753119</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,34 +3527,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.08</v>
+        <v>7.052</v>
       </c>
       <c r="C88" t="n">
-        <v>7.08</v>
+        <v>7.034</v>
       </c>
       <c r="D88" t="n">
-        <v>7.08</v>
+        <v>7.052</v>
       </c>
       <c r="E88" t="n">
-        <v>7.08</v>
+        <v>7.034</v>
       </c>
       <c r="F88" t="n">
-        <v>102800.3548</v>
+        <v>111020.9272</v>
       </c>
       <c r="G88" t="n">
-        <v>329858.6947974857</v>
+        <v>-1648308.444553119</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.08</v>
+        <v>7.034</v>
       </c>
       <c r="C89" t="n">
-        <v>7.08</v>
+        <v>7.034</v>
       </c>
       <c r="D89" t="n">
-        <v>7.08</v>
+        <v>7.034</v>
       </c>
       <c r="E89" t="n">
-        <v>7.08</v>
+        <v>7.034</v>
       </c>
       <c r="F89" t="n">
-        <v>120997.5478</v>
+        <v>64123.8896</v>
       </c>
       <c r="G89" t="n">
-        <v>329858.6947974857</v>
+        <v>-1648308.444553119</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.08</v>
+        <v>7.06</v>
       </c>
       <c r="C90" t="n">
-        <v>7.08</v>
+        <v>7.06</v>
       </c>
       <c r="D90" t="n">
-        <v>7.08</v>
+        <v>7.06</v>
       </c>
       <c r="E90" t="n">
-        <v>7.08</v>
+        <v>7.06</v>
       </c>
       <c r="F90" t="n">
-        <v>408437.0202</v>
+        <v>77263.1789</v>
       </c>
       <c r="G90" t="n">
-        <v>329858.6947974857</v>
+        <v>-1571045.265653119</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.08</v>
+        <v>7.055</v>
       </c>
       <c r="C91" t="n">
-        <v>7.08</v>
+        <v>7.055</v>
       </c>
       <c r="D91" t="n">
-        <v>7.08</v>
+        <v>7.055</v>
       </c>
       <c r="E91" t="n">
-        <v>7.08</v>
+        <v>7.055</v>
       </c>
       <c r="F91" t="n">
-        <v>142.8007</v>
+        <v>75903.7711</v>
       </c>
       <c r="G91" t="n">
-        <v>329858.6947974857</v>
+        <v>-1646949.036753119</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.08</v>
+        <v>7.053</v>
       </c>
       <c r="C92" t="n">
-        <v>7.08</v>
+        <v>7.053</v>
       </c>
       <c r="D92" t="n">
-        <v>7.08</v>
+        <v>7.053</v>
       </c>
       <c r="E92" t="n">
-        <v>7.08</v>
+        <v>7.053</v>
       </c>
       <c r="F92" t="n">
-        <v>100604.1968</v>
+        <v>50000.0931</v>
       </c>
       <c r="G92" t="n">
-        <v>329858.6947974857</v>
+        <v>-1696949.129853119</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.08</v>
+        <v>7.039</v>
       </c>
       <c r="C93" t="n">
-        <v>7.08</v>
+        <v>7.062</v>
       </c>
       <c r="D93" t="n">
-        <v>7.08</v>
+        <v>7.062</v>
       </c>
       <c r="E93" t="n">
-        <v>7.08</v>
+        <v>7.039</v>
       </c>
       <c r="F93" t="n">
-        <v>88719</v>
+        <v>113880.1148</v>
       </c>
       <c r="G93" t="n">
-        <v>329858.6947974857</v>
+        <v>-1583069.015053119</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.08</v>
+        <v>7.057</v>
       </c>
       <c r="C94" t="n">
-        <v>7.054</v>
+        <v>7.057</v>
       </c>
       <c r="D94" t="n">
-        <v>7.08</v>
+        <v>7.057</v>
       </c>
       <c r="E94" t="n">
-        <v>7.054</v>
+        <v>7.057</v>
       </c>
       <c r="F94" t="n">
-        <v>178330.3</v>
+        <v>15119.9365</v>
       </c>
       <c r="G94" t="n">
-        <v>151528.3947974857</v>
+        <v>-1598188.951553119</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.086</v>
+        <v>7.057</v>
       </c>
       <c r="C95" t="n">
-        <v>7.05</v>
+        <v>7.062</v>
       </c>
       <c r="D95" t="n">
-        <v>7.086</v>
+        <v>7.062</v>
       </c>
       <c r="E95" t="n">
-        <v>7.05</v>
+        <v>7.057</v>
       </c>
       <c r="F95" t="n">
-        <v>6188.975</v>
+        <v>117832.9986</v>
       </c>
       <c r="G95" t="n">
-        <v>145339.4197974857</v>
+        <v>-1480355.952953119</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.05</v>
+        <v>7.041</v>
       </c>
       <c r="C96" t="n">
-        <v>7.05</v>
+        <v>7.041</v>
       </c>
       <c r="D96" t="n">
-        <v>7.05</v>
+        <v>7.041</v>
       </c>
       <c r="E96" t="n">
-        <v>7.05</v>
+        <v>7.041</v>
       </c>
       <c r="F96" t="n">
-        <v>335865.3112</v>
+        <v>116090.3058</v>
       </c>
       <c r="G96" t="n">
-        <v>145339.4197974857</v>
+        <v>-1596446.258753119</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.05</v>
+        <v>7.044</v>
       </c>
       <c r="C97" t="n">
-        <v>7.023</v>
+        <v>7.008</v>
       </c>
       <c r="D97" t="n">
-        <v>7.05</v>
+        <v>7.044</v>
       </c>
       <c r="E97" t="n">
-        <v>7.023</v>
+        <v>7.008</v>
       </c>
       <c r="F97" t="n">
-        <v>1561028.1469</v>
+        <v>854000</v>
       </c>
       <c r="G97" t="n">
-        <v>-1415688.727102514</v>
+        <v>-2450446.258753119</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.055</v>
+        <v>7.007</v>
       </c>
       <c r="C98" t="n">
-        <v>7.022</v>
+        <v>6.975</v>
       </c>
       <c r="D98" t="n">
-        <v>7.055</v>
+        <v>7.007</v>
       </c>
       <c r="E98" t="n">
-        <v>7.022</v>
+        <v>6.975</v>
       </c>
       <c r="F98" t="n">
-        <v>56495.3431</v>
+        <v>109114.6004</v>
       </c>
       <c r="G98" t="n">
-        <v>-1472184.070202514</v>
+        <v>-2559560.859153119</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,34 +3923,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7</v>
+        <v>6.96</v>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>6.854</v>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>6.96</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>6.854</v>
       </c>
       <c r="F99" t="n">
-        <v>12153</v>
+        <v>848717.2193999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-1484337.070202514</v>
+        <v>-3408278.078553119</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3857,34 +3959,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7</v>
+        <v>6.854</v>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>6.808</v>
       </c>
       <c r="D100" t="n">
-        <v>7</v>
+        <v>6.854</v>
       </c>
       <c r="E100" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F100" t="n">
-        <v>12967</v>
+        <v>942946.8524</v>
       </c>
       <c r="G100" t="n">
-        <v>-1484337.070202514</v>
+        <v>-4351224.930953119</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3892,34 +3995,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.997</v>
+        <v>6.717</v>
       </c>
       <c r="C101" t="n">
-        <v>6.997</v>
+        <v>6.717</v>
       </c>
       <c r="D101" t="n">
-        <v>6.997</v>
+        <v>6.717</v>
       </c>
       <c r="E101" t="n">
-        <v>6.997</v>
+        <v>6.717</v>
       </c>
       <c r="F101" t="n">
-        <v>10231.9666</v>
+        <v>6000</v>
       </c>
       <c r="G101" t="n">
-        <v>-1494569.036802514</v>
+        <v>-4357224.930953119</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.997</v>
+        <v>6.712</v>
       </c>
       <c r="C102" t="n">
-        <v>6.997</v>
+        <v>6.7</v>
       </c>
       <c r="D102" t="n">
-        <v>6.997</v>
+        <v>6.723</v>
       </c>
       <c r="E102" t="n">
-        <v>6.997</v>
+        <v>6.7</v>
       </c>
       <c r="F102" t="n">
-        <v>5527.5436</v>
+        <v>146615.8377</v>
       </c>
       <c r="G102" t="n">
-        <v>-1494569.036802514</v>
+        <v>-4503840.768653119</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.997</v>
+        <v>6.7</v>
       </c>
       <c r="C103" t="n">
-        <v>6.997</v>
+        <v>6.7</v>
       </c>
       <c r="D103" t="n">
-        <v>6.997</v>
+        <v>6.7</v>
       </c>
       <c r="E103" t="n">
-        <v>6.997</v>
+        <v>6.7</v>
       </c>
       <c r="F103" t="n">
-        <v>8036.0431</v>
+        <v>375042.8783</v>
       </c>
       <c r="G103" t="n">
-        <v>-1494569.036802514</v>
+        <v>-4503840.768653119</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.997</v>
+        <v>6.7</v>
       </c>
       <c r="C104" t="n">
-        <v>6.997</v>
+        <v>6.697</v>
       </c>
       <c r="D104" t="n">
-        <v>6.997</v>
+        <v>6.7</v>
       </c>
       <c r="E104" t="n">
-        <v>6.997</v>
+        <v>6.695</v>
       </c>
       <c r="F104" t="n">
-        <v>4898.3369</v>
+        <v>269374.632</v>
       </c>
       <c r="G104" t="n">
-        <v>-1494569.036802514</v>
+        <v>-4773215.400653119</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7.012</v>
+        <v>6.697</v>
       </c>
       <c r="C105" t="n">
-        <v>7.012</v>
+        <v>6.696</v>
       </c>
       <c r="D105" t="n">
-        <v>7.012</v>
+        <v>6.697</v>
       </c>
       <c r="E105" t="n">
-        <v>7.012</v>
+        <v>6.696</v>
       </c>
       <c r="F105" t="n">
-        <v>142.6126640045636</v>
+        <v>108518.6894</v>
       </c>
       <c r="G105" t="n">
-        <v>-1494426.42413851</v>
+        <v>-4881734.090053119</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.977</v>
+        <v>6.697</v>
       </c>
       <c r="C106" t="n">
-        <v>6.977</v>
+        <v>6.697</v>
       </c>
       <c r="D106" t="n">
-        <v>6.977</v>
+        <v>6.697</v>
       </c>
       <c r="E106" t="n">
-        <v>6.977</v>
+        <v>6.697</v>
       </c>
       <c r="F106" t="n">
-        <v>6375.175</v>
+        <v>116550.1491</v>
       </c>
       <c r="G106" t="n">
-        <v>-1500801.59913851</v>
+        <v>-4765183.940953119</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.961</v>
+        <v>6.696</v>
       </c>
       <c r="C107" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="D107" t="n">
-        <v>6.961</v>
+        <v>6.696</v>
       </c>
       <c r="E107" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="F107" t="n">
-        <v>34157.7646</v>
+        <v>50929.5483</v>
       </c>
       <c r="G107" t="n">
-        <v>-1534959.36373851</v>
+        <v>-4816113.489253119</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="C108" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="D108" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="E108" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="F108" t="n">
-        <v>19807.4998</v>
+        <v>77045</v>
       </c>
       <c r="G108" t="n">
-        <v>-1534959.36373851</v>
+        <v>-4816113.489253119</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.956</v>
+        <v>6.68</v>
       </c>
       <c r="C109" t="n">
-        <v>6.956</v>
+        <v>6.68</v>
       </c>
       <c r="D109" t="n">
-        <v>6.956</v>
+        <v>6.68</v>
       </c>
       <c r="E109" t="n">
-        <v>6.956</v>
+        <v>6.679</v>
       </c>
       <c r="F109" t="n">
-        <v>127328.29</v>
+        <v>222382.1734</v>
       </c>
       <c r="G109" t="n">
-        <v>-1662287.65373851</v>
+        <v>-4816113.489253119</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.95</v>
+        <v>6.679</v>
       </c>
       <c r="C110" t="n">
-        <v>6.95</v>
+        <v>6.679</v>
       </c>
       <c r="D110" t="n">
-        <v>6.95</v>
+        <v>6.68</v>
       </c>
       <c r="E110" t="n">
-        <v>6.95</v>
+        <v>6.678</v>
       </c>
       <c r="F110" t="n">
-        <v>2671.71</v>
+        <v>630705.2419</v>
       </c>
       <c r="G110" t="n">
-        <v>-1664959.36373851</v>
+        <v>-5446818.731153118</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.961</v>
+        <v>6.679</v>
       </c>
       <c r="C111" t="n">
-        <v>6.961</v>
+        <v>6.679</v>
       </c>
       <c r="D111" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="E111" t="n">
-        <v>6.961</v>
+        <v>6.679</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0001</v>
+        <v>211283.618</v>
       </c>
       <c r="G111" t="n">
-        <v>-1664959.36363851</v>
+        <v>-5446818.731153118</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="C112" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="D112" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="E112" t="n">
-        <v>6.961</v>
+        <v>6.68</v>
       </c>
       <c r="F112" t="n">
-        <v>13552.9891</v>
+        <v>616379.1513</v>
       </c>
       <c r="G112" t="n">
-        <v>-1664959.36363851</v>
+        <v>-4830439.579853118</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.982</v>
+        <v>6.68</v>
       </c>
       <c r="C113" t="n">
-        <v>6.982</v>
+        <v>6.68</v>
       </c>
       <c r="D113" t="n">
-        <v>6.982</v>
+        <v>6.68</v>
       </c>
       <c r="E113" t="n">
-        <v>6.982</v>
+        <v>6.68</v>
       </c>
       <c r="F113" t="n">
-        <v>103329.499</v>
+        <v>175959.7577</v>
       </c>
       <c r="G113" t="n">
-        <v>-1561629.86463851</v>
+        <v>-4830439.579853118</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7.003</v>
+        <v>6.684</v>
       </c>
       <c r="C114" t="n">
-        <v>7.032</v>
+        <v>6.684</v>
       </c>
       <c r="D114" t="n">
-        <v>7.032</v>
+        <v>6.684</v>
       </c>
       <c r="E114" t="n">
-        <v>7.003</v>
+        <v>6.684</v>
       </c>
       <c r="F114" t="n">
-        <v>144</v>
+        <v>4000</v>
       </c>
       <c r="G114" t="n">
-        <v>-1561485.86463851</v>
+        <v>-4826439.579853118</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7.028</v>
+        <v>6.684</v>
       </c>
       <c r="C115" t="n">
-        <v>7.028</v>
+        <v>6.681</v>
       </c>
       <c r="D115" t="n">
-        <v>7.028</v>
+        <v>6.7</v>
       </c>
       <c r="E115" t="n">
-        <v>7.028</v>
+        <v>6.681</v>
       </c>
       <c r="F115" t="n">
-        <v>29767</v>
+        <v>129674.6915</v>
       </c>
       <c r="G115" t="n">
-        <v>-1591252.86463851</v>
+        <v>-4956114.271353118</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7.024</v>
+        <v>6.681</v>
       </c>
       <c r="C116" t="n">
-        <v>7.024</v>
+        <v>6.681</v>
       </c>
       <c r="D116" t="n">
-        <v>7.024</v>
+        <v>6.681</v>
       </c>
       <c r="E116" t="n">
-        <v>7.024</v>
+        <v>6.681</v>
       </c>
       <c r="F116" t="n">
-        <v>11574</v>
+        <v>15130.1959</v>
       </c>
       <c r="G116" t="n">
-        <v>-1602826.86463851</v>
+        <v>-4956114.271353118</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7.025</v>
+        <v>6.668</v>
       </c>
       <c r="C117" t="n">
-        <v>7.025</v>
+        <v>6.656</v>
       </c>
       <c r="D117" t="n">
-        <v>7.025</v>
+        <v>6.668</v>
       </c>
       <c r="E117" t="n">
-        <v>7.025</v>
+        <v>6.656</v>
       </c>
       <c r="F117" t="n">
-        <v>71.17440000000001</v>
+        <v>400.0004</v>
       </c>
       <c r="G117" t="n">
-        <v>-1602755.69023851</v>
+        <v>-4956514.271753118</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7.017</v>
+        <v>6.644</v>
       </c>
       <c r="C118" t="n">
-        <v>7.016</v>
+        <v>6.644</v>
       </c>
       <c r="D118" t="n">
-        <v>7.017</v>
+        <v>6.644</v>
       </c>
       <c r="E118" t="n">
-        <v>7.016</v>
+        <v>6.644</v>
       </c>
       <c r="F118" t="n">
-        <v>14835.1475</v>
+        <v>133.6545</v>
       </c>
       <c r="G118" t="n">
-        <v>-1617590.83773851</v>
+        <v>-4956647.926253119</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7.007</v>
+        <v>6.611</v>
       </c>
       <c r="C119" t="n">
-        <v>7.015</v>
+        <v>6.611</v>
       </c>
       <c r="D119" t="n">
-        <v>7.015</v>
+        <v>6.611</v>
       </c>
       <c r="E119" t="n">
-        <v>6.997</v>
+        <v>6.611</v>
       </c>
       <c r="F119" t="n">
-        <v>240242.5872</v>
+        <v>6630</v>
       </c>
       <c r="G119" t="n">
-        <v>-1857833.42493851</v>
+        <v>-4963277.926253119</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,133 +4679,155 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.983</v>
+        <v>6.61</v>
       </c>
       <c r="C120" t="n">
-        <v>6.983</v>
+        <v>6.6</v>
       </c>
       <c r="D120" t="n">
-        <v>6.983</v>
+        <v>6.61</v>
       </c>
       <c r="E120" t="n">
-        <v>6.983</v>
+        <v>6.6</v>
       </c>
       <c r="F120" t="n">
-        <v>4497.7043</v>
+        <v>79117.84179999999</v>
       </c>
       <c r="G120" t="n">
-        <v>-1862331.12923851</v>
+        <v>-5042395.768053118</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.611</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.983</v>
+        <v>6.61</v>
       </c>
       <c r="C121" t="n">
-        <v>6.983</v>
+        <v>6.6</v>
       </c>
       <c r="D121" t="n">
-        <v>6.983</v>
+        <v>6.61</v>
       </c>
       <c r="E121" t="n">
-        <v>6.983</v>
+        <v>6.6</v>
       </c>
       <c r="F121" t="n">
-        <v>40313.1</v>
+        <v>308189.2111</v>
       </c>
       <c r="G121" t="n">
-        <v>-1862331.12923851</v>
+        <v>-5042395.768053118</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.6</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.983</v>
+        <v>6.599</v>
       </c>
       <c r="C122" t="n">
-        <v>6.953</v>
+        <v>6.553</v>
       </c>
       <c r="D122" t="n">
-        <v>6.983</v>
+        <v>6.606</v>
       </c>
       <c r="E122" t="n">
-        <v>6.953</v>
+        <v>6.5</v>
       </c>
       <c r="F122" t="n">
-        <v>41978.27</v>
+        <v>9106165.780400001</v>
       </c>
       <c r="G122" t="n">
-        <v>-1904309.39923851</v>
+        <v>-14148561.54845312</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.6</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.957</v>
+        <v>6.577</v>
       </c>
       <c r="C123" t="n">
-        <v>6.988</v>
+        <v>6.579</v>
       </c>
       <c r="D123" t="n">
-        <v>6.988</v>
+        <v>6.586</v>
       </c>
       <c r="E123" t="n">
-        <v>6.957</v>
+        <v>6.565</v>
       </c>
       <c r="F123" t="n">
-        <v>266621.1068</v>
+        <v>742684.1222</v>
       </c>
       <c r="G123" t="n">
-        <v>-1637688.29243851</v>
+        <v>-13405877.42625312</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,32 +4837,37 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6.988</v>
+        <v>6.602</v>
       </c>
       <c r="C124" t="n">
-        <v>7.025</v>
+        <v>6.603</v>
       </c>
       <c r="D124" t="n">
-        <v>7.025</v>
+        <v>6.603</v>
       </c>
       <c r="E124" t="n">
-        <v>6.988</v>
+        <v>6.602</v>
       </c>
       <c r="F124" t="n">
-        <v>236000</v>
+        <v>511575.2793</v>
       </c>
       <c r="G124" t="n">
-        <v>-1401688.29243851</v>
+        <v>-12894302.14695312</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,32 +4877,37 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7.025</v>
+        <v>6.603</v>
       </c>
       <c r="C125" t="n">
-        <v>7.025</v>
+        <v>6.604</v>
       </c>
       <c r="D125" t="n">
-        <v>7.025</v>
+        <v>6.604</v>
       </c>
       <c r="E125" t="n">
-        <v>7.025</v>
+        <v>6.603</v>
       </c>
       <c r="F125" t="n">
-        <v>25527.9836</v>
+        <v>32212.4197</v>
       </c>
       <c r="G125" t="n">
-        <v>-1401688.29243851</v>
+        <v>-12862089.72725312</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,242 +4917,289 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7.053</v>
+        <v>6.631</v>
       </c>
       <c r="C126" t="n">
-        <v>7.063</v>
+        <v>6.632</v>
       </c>
       <c r="D126" t="n">
-        <v>7.063</v>
+        <v>6.632</v>
       </c>
       <c r="E126" t="n">
-        <v>7.053</v>
+        <v>6.631</v>
       </c>
       <c r="F126" t="n">
-        <v>58000</v>
+        <v>388253.2343</v>
       </c>
       <c r="G126" t="n">
-        <v>-1343688.29243851</v>
+        <v>-12473836.49295312</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.604</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7.057</v>
+        <v>6.632</v>
       </c>
       <c r="C127" t="n">
-        <v>7.057</v>
+        <v>6.677</v>
       </c>
       <c r="D127" t="n">
-        <v>7.057</v>
+        <v>6.677</v>
       </c>
       <c r="E127" t="n">
-        <v>7.057</v>
+        <v>6.632</v>
       </c>
       <c r="F127" t="n">
-        <v>264.7017146096075</v>
+        <v>353038.0897</v>
       </c>
       <c r="G127" t="n">
-        <v>-1343952.994153119</v>
+        <v>-12120798.40325312</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.632</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7.031</v>
+        <v>6.677</v>
       </c>
       <c r="C128" t="n">
-        <v>7.031</v>
+        <v>6.677</v>
       </c>
       <c r="D128" t="n">
-        <v>7.031</v>
+        <v>6.677</v>
       </c>
       <c r="E128" t="n">
-        <v>7.031</v>
+        <v>6.677</v>
       </c>
       <c r="F128" t="n">
-        <v>252345.65</v>
+        <v>6280.3819</v>
       </c>
       <c r="G128" t="n">
-        <v>-1596298.644153119</v>
+        <v>-12120798.40325312</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.677</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7.03</v>
+        <v>6.676</v>
       </c>
       <c r="C129" t="n">
-        <v>7.03</v>
+        <v>6.676</v>
       </c>
       <c r="D129" t="n">
-        <v>7.03</v>
+        <v>6.676</v>
       </c>
       <c r="E129" t="n">
-        <v>7.03</v>
+        <v>6.676</v>
       </c>
       <c r="F129" t="n">
-        <v>163030.7276</v>
+        <v>25585.9302</v>
       </c>
       <c r="G129" t="n">
-        <v>-1759329.371753119</v>
+        <v>-12146384.33345312</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.677</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7.052</v>
+        <v>6.678</v>
       </c>
       <c r="C130" t="n">
-        <v>7.034</v>
+        <v>6.679</v>
       </c>
       <c r="D130" t="n">
-        <v>7.052</v>
+        <v>6.679</v>
       </c>
       <c r="E130" t="n">
-        <v>7.034</v>
+        <v>6.64</v>
       </c>
       <c r="F130" t="n">
-        <v>111020.9272</v>
+        <v>244248.3335</v>
       </c>
       <c r="G130" t="n">
-        <v>-1648308.444553119</v>
+        <v>-11902135.99995312</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.676</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7.034</v>
+        <v>6.68</v>
       </c>
       <c r="C131" t="n">
-        <v>7.034</v>
+        <v>6.693</v>
       </c>
       <c r="D131" t="n">
-        <v>7.034</v>
+        <v>6.693</v>
       </c>
       <c r="E131" t="n">
-        <v>7.034</v>
+        <v>6.68</v>
       </c>
       <c r="F131" t="n">
-        <v>64123.8896</v>
+        <v>10018.9648</v>
       </c>
       <c r="G131" t="n">
-        <v>-1648308.444553119</v>
+        <v>-11892117.03515312</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.679</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7.06</v>
+        <v>6.658</v>
       </c>
       <c r="C132" t="n">
-        <v>7.06</v>
+        <v>6.658</v>
       </c>
       <c r="D132" t="n">
-        <v>7.06</v>
+        <v>6.658</v>
       </c>
       <c r="E132" t="n">
-        <v>7.06</v>
+        <v>6.658</v>
       </c>
       <c r="F132" t="n">
-        <v>77263.1789</v>
+        <v>9223.1644</v>
       </c>
       <c r="G132" t="n">
-        <v>-1571045.265653119</v>
+        <v>-11901340.19955312</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,32 +5209,37 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7.055</v>
+        <v>6.68</v>
       </c>
       <c r="C133" t="n">
-        <v>7.055</v>
+        <v>6.67</v>
       </c>
       <c r="D133" t="n">
-        <v>7.055</v>
+        <v>6.68</v>
       </c>
       <c r="E133" t="n">
-        <v>7.055</v>
+        <v>6.669</v>
       </c>
       <c r="F133" t="n">
-        <v>75903.7711</v>
+        <v>58376.0952</v>
       </c>
       <c r="G133" t="n">
-        <v>-1646949.036753119</v>
+        <v>-11842964.10435312</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,32 +5249,37 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7.053</v>
+        <v>6.694</v>
       </c>
       <c r="C134" t="n">
-        <v>7.053</v>
+        <v>6.698</v>
       </c>
       <c r="D134" t="n">
-        <v>7.053</v>
+        <v>6.698</v>
       </c>
       <c r="E134" t="n">
-        <v>7.053</v>
+        <v>6.694</v>
       </c>
       <c r="F134" t="n">
-        <v>50000.0931</v>
+        <v>87191.6076</v>
       </c>
       <c r="G134" t="n">
-        <v>-1696949.129853119</v>
+        <v>-11755772.49675312</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,2010 +5289,435 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7.039</v>
+        <v>6.661</v>
       </c>
       <c r="C135" t="n">
-        <v>7.062</v>
+        <v>6.661</v>
       </c>
       <c r="D135" t="n">
-        <v>7.062</v>
+        <v>6.661</v>
       </c>
       <c r="E135" t="n">
-        <v>7.039</v>
+        <v>6.661</v>
       </c>
       <c r="F135" t="n">
-        <v>113880.1148</v>
+        <v>6018</v>
       </c>
       <c r="G135" t="n">
-        <v>-1583069.015053119</v>
+        <v>-11761790.49675312</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.698</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7.057</v>
+        <v>6.698</v>
       </c>
       <c r="C136" t="n">
-        <v>7.057</v>
+        <v>6.698</v>
       </c>
       <c r="D136" t="n">
-        <v>7.057</v>
+        <v>6.698</v>
       </c>
       <c r="E136" t="n">
-        <v>7.057</v>
+        <v>6.698</v>
       </c>
       <c r="F136" t="n">
-        <v>15119.9365</v>
+        <v>32189.6568</v>
       </c>
       <c r="G136" t="n">
-        <v>-1598188.951553119</v>
+        <v>-11729600.83995312</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.661</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7.057</v>
+        <v>6.66</v>
       </c>
       <c r="C137" t="n">
-        <v>7.062</v>
+        <v>6.66</v>
       </c>
       <c r="D137" t="n">
-        <v>7.062</v>
+        <v>6.66</v>
       </c>
       <c r="E137" t="n">
-        <v>7.057</v>
+        <v>6.66</v>
       </c>
       <c r="F137" t="n">
-        <v>117832.9986</v>
+        <v>5217.5001</v>
       </c>
       <c r="G137" t="n">
-        <v>-1480355.952953119</v>
+        <v>-11734818.34005312</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6.698</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7.041</v>
+        <v>6.66</v>
       </c>
       <c r="C138" t="n">
-        <v>7.041</v>
+        <v>6.66</v>
       </c>
       <c r="D138" t="n">
-        <v>7.041</v>
+        <v>6.66</v>
       </c>
       <c r="E138" t="n">
-        <v>7.041</v>
+        <v>6.66</v>
       </c>
       <c r="F138" t="n">
-        <v>116090.3058</v>
+        <v>642325.5037999999</v>
       </c>
       <c r="G138" t="n">
-        <v>-1596446.258753119</v>
+        <v>-11734818.34005312</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.66</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7.044</v>
+        <v>6.643</v>
       </c>
       <c r="C139" t="n">
-        <v>7.008</v>
+        <v>6.643</v>
       </c>
       <c r="D139" t="n">
-        <v>7.044</v>
+        <v>6.643</v>
       </c>
       <c r="E139" t="n">
-        <v>7.008</v>
+        <v>6.643</v>
       </c>
       <c r="F139" t="n">
-        <v>854000</v>
+        <v>50000</v>
       </c>
       <c r="G139" t="n">
-        <v>-2450446.258753119</v>
+        <v>-11784818.34005312</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.66</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7.007</v>
+        <v>6.623</v>
       </c>
       <c r="C140" t="n">
-        <v>6.975</v>
+        <v>6.623</v>
       </c>
       <c r="D140" t="n">
-        <v>7.007</v>
+        <v>6.623</v>
       </c>
       <c r="E140" t="n">
-        <v>6.975</v>
+        <v>6.623</v>
       </c>
       <c r="F140" t="n">
-        <v>109114.6004</v>
+        <v>150.838</v>
       </c>
       <c r="G140" t="n">
-        <v>-2559560.859153119</v>
+        <v>-11784969.17805312</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.643</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.96</v>
+        <v>6.629</v>
       </c>
       <c r="C141" t="n">
-        <v>6.854</v>
+        <v>6.63</v>
       </c>
       <c r="D141" t="n">
-        <v>6.96</v>
+        <v>6.63</v>
       </c>
       <c r="E141" t="n">
-        <v>6.854</v>
+        <v>6.6</v>
       </c>
       <c r="F141" t="n">
-        <v>848717.2193999999</v>
+        <v>117336.4222</v>
       </c>
       <c r="G141" t="n">
-        <v>-3408278.078553119</v>
+        <v>-11667632.75585312</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.623</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.854</v>
+        <v>6.621</v>
       </c>
       <c r="C142" t="n">
-        <v>6.808</v>
+        <v>6.621</v>
       </c>
       <c r="D142" t="n">
-        <v>6.854</v>
+        <v>6.621</v>
       </c>
       <c r="E142" t="n">
-        <v>6.8</v>
+        <v>6.621</v>
       </c>
       <c r="F142" t="n">
-        <v>942946.8524</v>
+        <v>1510.345869204048</v>
       </c>
       <c r="G142" t="n">
-        <v>-4351224.930953119</v>
+        <v>-11669143.10172232</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6.63</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.717</v>
+        <v>6.622</v>
       </c>
       <c r="C143" t="n">
-        <v>6.717</v>
+        <v>6.627</v>
       </c>
       <c r="D143" t="n">
-        <v>6.717</v>
+        <v>6.627</v>
       </c>
       <c r="E143" t="n">
-        <v>6.717</v>
+        <v>6.622</v>
       </c>
       <c r="F143" t="n">
-        <v>6000</v>
+        <v>274731.9615</v>
       </c>
       <c r="G143" t="n">
-        <v>-4357224.930953119</v>
+        <v>-11394411.14022232</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6.621</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.712</v>
+        <v>6.626</v>
       </c>
       <c r="C144" t="n">
-        <v>6.7</v>
+        <v>6.627</v>
       </c>
       <c r="D144" t="n">
-        <v>6.723</v>
+        <v>6.627</v>
       </c>
       <c r="E144" t="n">
-        <v>6.7</v>
+        <v>6.626</v>
       </c>
       <c r="F144" t="n">
-        <v>146615.8377</v>
+        <v>217464.8651</v>
       </c>
       <c r="G144" t="n">
-        <v>-4503840.768653119</v>
+        <v>-11394411.14022232</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6.627</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="C145" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D145" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E145" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="F145" t="n">
-        <v>375042.8783</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-4503840.768653119</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="C146" t="n">
-        <v>6.697</v>
-      </c>
-      <c r="D146" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E146" t="n">
-        <v>6.695</v>
-      </c>
-      <c r="F146" t="n">
-        <v>269374.632</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-4773215.400653119</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>6.697</v>
-      </c>
-      <c r="C147" t="n">
-        <v>6.696</v>
-      </c>
-      <c r="D147" t="n">
-        <v>6.697</v>
-      </c>
-      <c r="E147" t="n">
-        <v>6.696</v>
-      </c>
-      <c r="F147" t="n">
-        <v>108518.6894</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-4881734.090053119</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>6.697</v>
-      </c>
-      <c r="C148" t="n">
-        <v>6.697</v>
-      </c>
-      <c r="D148" t="n">
-        <v>6.697</v>
-      </c>
-      <c r="E148" t="n">
-        <v>6.697</v>
-      </c>
-      <c r="F148" t="n">
-        <v>116550.1491</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-4765183.940953119</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>6.696</v>
-      </c>
-      <c r="C149" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D149" t="n">
-        <v>6.696</v>
-      </c>
-      <c r="E149" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F149" t="n">
-        <v>50929.5483</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-4816113.489253119</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C150" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D150" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E150" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F150" t="n">
-        <v>77045</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-4816113.489253119</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C151" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D151" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E151" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="F151" t="n">
-        <v>222382.1734</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-4816113.489253119</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="C152" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="D152" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E152" t="n">
-        <v>6.678</v>
-      </c>
-      <c r="F152" t="n">
-        <v>630705.2419</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-5446818.731153118</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="C153" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="D153" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E153" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="F153" t="n">
-        <v>211283.618</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-5446818.731153118</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C154" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D154" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E154" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F154" t="n">
-        <v>616379.1513</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-4830439.579853118</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C155" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="D155" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E155" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F155" t="n">
-        <v>175959.7577</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-4830439.579853118</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>6.684</v>
-      </c>
-      <c r="C156" t="n">
-        <v>6.684</v>
-      </c>
-      <c r="D156" t="n">
-        <v>6.684</v>
-      </c>
-      <c r="E156" t="n">
-        <v>6.684</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-4826439.579853118</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>6.684</v>
-      </c>
-      <c r="C157" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="D157" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E157" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="F157" t="n">
-        <v>129674.6915</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-4956114.271353118</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="C158" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="D158" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="E158" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="F158" t="n">
-        <v>15130.1959</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-4956114.271353118</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="K158" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>6.668</v>
-      </c>
-      <c r="C159" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="D159" t="n">
-        <v>6.668</v>
-      </c>
-      <c r="E159" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="F159" t="n">
-        <v>400.0004</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-4956514.271753118</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>6.644</v>
-      </c>
-      <c r="C160" t="n">
-        <v>6.644</v>
-      </c>
-      <c r="D160" t="n">
-        <v>6.644</v>
-      </c>
-      <c r="E160" t="n">
-        <v>6.644</v>
-      </c>
-      <c r="F160" t="n">
-        <v>133.6545</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-4956647.926253119</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="K160" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>6.611</v>
-      </c>
-      <c r="C161" t="n">
-        <v>6.611</v>
-      </c>
-      <c r="D161" t="n">
-        <v>6.611</v>
-      </c>
-      <c r="E161" t="n">
-        <v>6.611</v>
-      </c>
-      <c r="F161" t="n">
-        <v>6630</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-4963277.926253119</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="C162" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D162" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="E162" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F162" t="n">
-        <v>79117.84179999999</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-5042395.768053118</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="C163" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D163" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="E163" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F163" t="n">
-        <v>308189.2111</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-5042395.768053118</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>6.599</v>
-      </c>
-      <c r="C164" t="n">
-        <v>6.553</v>
-      </c>
-      <c r="D164" t="n">
-        <v>6.606</v>
-      </c>
-      <c r="E164" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F164" t="n">
-        <v>9106165.780400001</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-14148561.54845312</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>6.577</v>
-      </c>
-      <c r="C165" t="n">
-        <v>6.579</v>
-      </c>
-      <c r="D165" t="n">
-        <v>6.586</v>
-      </c>
-      <c r="E165" t="n">
-        <v>6.565</v>
-      </c>
-      <c r="F165" t="n">
-        <v>742684.1222</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-13405877.42625312</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>6.602</v>
-      </c>
-      <c r="C166" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="D166" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="E166" t="n">
-        <v>6.602</v>
-      </c>
-      <c r="F166" t="n">
-        <v>511575.2793</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-12894302.14695312</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="C167" t="n">
-        <v>6.604</v>
-      </c>
-      <c r="D167" t="n">
-        <v>6.604</v>
-      </c>
-      <c r="E167" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="F167" t="n">
-        <v>32212.4197</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-12862089.72725312</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>6.631</v>
-      </c>
-      <c r="C168" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="D168" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="E168" t="n">
-        <v>6.631</v>
-      </c>
-      <c r="F168" t="n">
-        <v>388253.2343</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-12473836.49295312</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="C169" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="D169" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="E169" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="F169" t="n">
-        <v>353038.0897</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-12120798.40325312</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="C170" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="D170" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="E170" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="F170" t="n">
-        <v>6280.3819</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-12120798.40325312</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="C171" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="D171" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="E171" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="F171" t="n">
-        <v>25585.9302</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-12146384.33345312</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>6.678</v>
-      </c>
-      <c r="C172" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="D172" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="E172" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="F172" t="n">
-        <v>244248.3335</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-11902135.99995312</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C173" t="n">
-        <v>6.693</v>
-      </c>
-      <c r="D173" t="n">
-        <v>6.693</v>
-      </c>
-      <c r="E173" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F173" t="n">
-        <v>10018.9648</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-11892117.03515312</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="C174" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="D174" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="E174" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="F174" t="n">
-        <v>9223.1644</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-11901340.19955312</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C175" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="D175" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E175" t="n">
-        <v>6.669</v>
-      </c>
-      <c r="F175" t="n">
-        <v>58376.0952</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-11842964.10435312</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>6.694</v>
-      </c>
-      <c r="C176" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="D176" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="E176" t="n">
-        <v>6.694</v>
-      </c>
-      <c r="F176" t="n">
-        <v>87191.6076</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-11755772.49675312</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="C177" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="D177" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="E177" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="F177" t="n">
-        <v>6018</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-11761790.49675312</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="C178" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="D178" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="E178" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="F178" t="n">
-        <v>32189.6568</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-11729600.83995312</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="C179" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="D179" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E179" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="F179" t="n">
-        <v>5217.5001</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-11734818.34005312</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="C180" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="D180" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E180" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="F180" t="n">
-        <v>642325.5037999999</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-11734818.34005312</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K180" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="C181" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="D181" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="E181" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="F181" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-11784818.34005312</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="C182" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="D182" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="E182" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="F182" t="n">
-        <v>150.838</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-11784969.17805312</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="K182" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>6.629</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="D183" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="E183" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F183" t="n">
-        <v>117336.4222</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-11667632.75585312</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="K183" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="D184" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="E184" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1510.345869204048</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-11669143.10172232</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>6.622</v>
-      </c>
-      <c r="C185" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="D185" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="E185" t="n">
-        <v>6.622</v>
-      </c>
-      <c r="F185" t="n">
-        <v>274731.9615</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-11394411.14022232</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>6.626</v>
-      </c>
-      <c r="C186" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="D186" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="E186" t="n">
-        <v>6.626</v>
-      </c>
-      <c r="F186" t="n">
-        <v>217464.8651</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-11394411.14022232</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>6.681</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-20 BackTest VET.xlsx
+++ b/BackTest/2020-01-20 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.032</v>
+        <v>7.072</v>
       </c>
       <c r="C2" t="n">
-        <v>7.032</v>
+        <v>7.072</v>
       </c>
       <c r="D2" t="n">
-        <v>7.032</v>
+        <v>7.072</v>
       </c>
       <c r="E2" t="n">
-        <v>7.032</v>
+        <v>7.072</v>
       </c>
       <c r="F2" t="n">
-        <v>72</v>
+        <v>146.5347</v>
       </c>
       <c r="G2" t="n">
-        <v>-3939163.6006</v>
+        <v>-680116.4038000003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.018</v>
+        <v>7.068</v>
       </c>
       <c r="C3" t="n">
-        <v>7.018</v>
+        <v>7.068</v>
       </c>
       <c r="D3" t="n">
-        <v>7.018</v>
+        <v>7.068</v>
       </c>
       <c r="E3" t="n">
-        <v>7.018</v>
+        <v>7.068</v>
       </c>
       <c r="F3" t="n">
-        <v>72882</v>
+        <v>74</v>
       </c>
       <c r="G3" t="n">
-        <v>-4012045.6006</v>
+        <v>-680190.4038000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.017</v>
+        <v>7.061</v>
       </c>
       <c r="C4" t="n">
-        <v>7.017</v>
+        <v>7.061</v>
       </c>
       <c r="D4" t="n">
-        <v>7.017</v>
+        <v>7.061</v>
       </c>
       <c r="E4" t="n">
-        <v>7.017</v>
+        <v>7.061</v>
       </c>
       <c r="F4" t="n">
-        <v>63516.8154</v>
+        <v>113.5108</v>
       </c>
       <c r="G4" t="n">
-        <v>-4075562.416000001</v>
+        <v>-680303.9146000004</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.012</v>
+        <v>7.042</v>
       </c>
       <c r="C5" t="n">
-        <v>6.951</v>
+        <v>7.039</v>
       </c>
       <c r="D5" t="n">
-        <v>7.012</v>
+        <v>7.042</v>
       </c>
       <c r="E5" t="n">
-        <v>6.951</v>
+        <v>7.039</v>
       </c>
       <c r="F5" t="n">
-        <v>320337.365</v>
+        <v>22348.2377</v>
       </c>
       <c r="G5" t="n">
-        <v>-4395899.781</v>
+        <v>-702652.1523000004</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.959</v>
+        <v>7.037</v>
       </c>
       <c r="C6" t="n">
-        <v>6.959</v>
+        <v>7.07</v>
       </c>
       <c r="D6" t="n">
-        <v>6.959</v>
+        <v>7.07</v>
       </c>
       <c r="E6" t="n">
-        <v>6.959</v>
+        <v>7.037</v>
       </c>
       <c r="F6" t="n">
-        <v>114337.365</v>
+        <v>154087.0494</v>
       </c>
       <c r="G6" t="n">
-        <v>-4281562.416</v>
+        <v>-548565.1029000004</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.998</v>
+        <v>7.045</v>
       </c>
       <c r="C7" t="n">
-        <v>6.998</v>
+        <v>7.045</v>
       </c>
       <c r="D7" t="n">
-        <v>6.998</v>
+        <v>7.045</v>
       </c>
       <c r="E7" t="n">
-        <v>6.998</v>
+        <v>7.045</v>
       </c>
       <c r="F7" t="n">
-        <v>43522.8912</v>
+        <v>72</v>
       </c>
       <c r="G7" t="n">
-        <v>-4238039.5248</v>
+        <v>-548637.1029000004</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.999</v>
+        <v>7.058</v>
       </c>
       <c r="C8" t="n">
-        <v>6.999</v>
+        <v>7.058</v>
       </c>
       <c r="D8" t="n">
-        <v>6.999</v>
+        <v>7.058</v>
       </c>
       <c r="E8" t="n">
-        <v>6.999</v>
+        <v>7.058</v>
       </c>
       <c r="F8" t="n">
-        <v>205616.0345</v>
+        <v>72</v>
       </c>
       <c r="G8" t="n">
-        <v>-4032423.4903</v>
+        <v>-548565.1029000004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.945</v>
+        <v>7.076</v>
       </c>
       <c r="C9" t="n">
-        <v>6.945</v>
+        <v>7.076</v>
       </c>
       <c r="D9" t="n">
-        <v>6.945</v>
+        <v>7.076</v>
       </c>
       <c r="E9" t="n">
-        <v>6.945</v>
+        <v>7.076</v>
       </c>
       <c r="F9" t="n">
-        <v>1400.5661</v>
+        <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>-4033824.0564</v>
+        <v>-548494.1029000004</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.943</v>
+        <v>7.047</v>
       </c>
       <c r="C10" t="n">
-        <v>6.943</v>
+        <v>7.047</v>
       </c>
       <c r="D10" t="n">
-        <v>6.943</v>
+        <v>7.047</v>
       </c>
       <c r="E10" t="n">
-        <v>6.943</v>
+        <v>7.047</v>
       </c>
       <c r="F10" t="n">
-        <v>26431.9339</v>
+        <v>72962.1992</v>
       </c>
       <c r="G10" t="n">
-        <v>-4060255.9903</v>
+        <v>-621456.3021000004</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.956</v>
+        <v>7.063</v>
       </c>
       <c r="C11" t="n">
-        <v>6.956</v>
+        <v>7.063</v>
       </c>
       <c r="D11" t="n">
-        <v>6.956</v>
+        <v>7.063</v>
       </c>
       <c r="E11" t="n">
-        <v>6.956</v>
+        <v>7.063</v>
       </c>
       <c r="F11" t="n">
-        <v>13682.3242</v>
+        <v>73</v>
       </c>
       <c r="G11" t="n">
-        <v>-4046573.6661</v>
+        <v>-621383.3021000004</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.957</v>
+        <v>7.068</v>
       </c>
       <c r="C12" t="n">
-        <v>6.957</v>
+        <v>7.068</v>
       </c>
       <c r="D12" t="n">
-        <v>6.957</v>
+        <v>7.068</v>
       </c>
       <c r="E12" t="n">
-        <v>6.957</v>
+        <v>7.068</v>
       </c>
       <c r="F12" t="n">
-        <v>14320.4989</v>
+        <v>73</v>
       </c>
       <c r="G12" t="n">
-        <v>-4032253.1672</v>
+        <v>-621310.3021000004</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.941</v>
+        <v>7.068</v>
       </c>
       <c r="C13" t="n">
-        <v>6.941</v>
+        <v>7.068</v>
       </c>
       <c r="D13" t="n">
-        <v>6.941</v>
+        <v>7.068</v>
       </c>
       <c r="E13" t="n">
-        <v>6.941</v>
+        <v>7.068</v>
       </c>
       <c r="F13" t="n">
-        <v>32425.317</v>
+        <v>74.657</v>
       </c>
       <c r="G13" t="n">
-        <v>-4064678.484199999</v>
+        <v>-621310.3021000004</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.94</v>
+        <v>7.052</v>
       </c>
       <c r="C14" t="n">
-        <v>6.927</v>
+        <v>7.052</v>
       </c>
       <c r="D14" t="n">
-        <v>6.941</v>
+        <v>7.052</v>
       </c>
       <c r="E14" t="n">
-        <v>6.927</v>
+        <v>7.052</v>
       </c>
       <c r="F14" t="n">
-        <v>918922.2024</v>
+        <v>79.79049999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-4983600.6866</v>
+        <v>-621390.0926000004</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.976</v>
+        <v>7.032</v>
       </c>
       <c r="C15" t="n">
-        <v>6.976</v>
+        <v>7.016</v>
       </c>
       <c r="D15" t="n">
-        <v>6.976</v>
+        <v>7.032</v>
       </c>
       <c r="E15" t="n">
-        <v>6.976</v>
+        <v>7.016</v>
       </c>
       <c r="F15" t="n">
-        <v>411188.5506</v>
+        <v>65676.088</v>
       </c>
       <c r="G15" t="n">
-        <v>-4572412.136</v>
+        <v>-687066.1806000004</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.008</v>
+        <v>7.013</v>
       </c>
       <c r="C16" t="n">
-        <v>7.009</v>
+        <v>7.013</v>
       </c>
       <c r="D16" t="n">
-        <v>7.009</v>
+        <v>7.013</v>
       </c>
       <c r="E16" t="n">
-        <v>6.96</v>
+        <v>7.013</v>
       </c>
       <c r="F16" t="n">
-        <v>234516.0001</v>
+        <v>74.32899999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-4337896.1359</v>
+        <v>-687140.5096000005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.009</v>
+        <v>7.012</v>
       </c>
       <c r="C17" t="n">
-        <v>7.009</v>
+        <v>7.012</v>
       </c>
       <c r="D17" t="n">
-        <v>7.009</v>
+        <v>7.012</v>
       </c>
       <c r="E17" t="n">
-        <v>7.009</v>
+        <v>7.012</v>
       </c>
       <c r="F17" t="n">
-        <v>30000</v>
+        <v>23876.671</v>
       </c>
       <c r="G17" t="n">
-        <v>-4337896.1359</v>
+        <v>-711017.1806000004</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.009</v>
+        <v>7.013</v>
       </c>
       <c r="C18" t="n">
-        <v>7.009</v>
+        <v>7.013</v>
       </c>
       <c r="D18" t="n">
-        <v>7.009</v>
+        <v>7.013</v>
       </c>
       <c r="E18" t="n">
-        <v>7.009</v>
+        <v>7.013</v>
       </c>
       <c r="F18" t="n">
-        <v>41282.9343</v>
+        <v>78819</v>
       </c>
       <c r="G18" t="n">
-        <v>-4337896.1359</v>
+        <v>-632198.1806000004</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.963</v>
+        <v>7.026</v>
       </c>
       <c r="C19" t="n">
-        <v>6.963</v>
+        <v>7.026</v>
       </c>
       <c r="D19" t="n">
-        <v>6.963</v>
+        <v>7.026</v>
       </c>
       <c r="E19" t="n">
-        <v>6.963</v>
+        <v>7.026</v>
       </c>
       <c r="F19" t="n">
-        <v>88888</v>
+        <v>50291</v>
       </c>
       <c r="G19" t="n">
-        <v>-4426784.1359</v>
+        <v>-581907.1806000004</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.002</v>
+        <v>7.043</v>
       </c>
       <c r="C20" t="n">
-        <v>7.002</v>
+        <v>7.043</v>
       </c>
       <c r="D20" t="n">
-        <v>7.002</v>
+        <v>7.043</v>
       </c>
       <c r="E20" t="n">
-        <v>7.002</v>
+        <v>7.043</v>
       </c>
       <c r="F20" t="n">
-        <v>41988.5951</v>
+        <v>14473.6142</v>
       </c>
       <c r="G20" t="n">
-        <v>-4384795.540800001</v>
+        <v>-567433.5664000005</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.002</v>
+        <v>7.043</v>
       </c>
       <c r="C21" t="n">
-        <v>7.001</v>
+        <v>7.043</v>
       </c>
       <c r="D21" t="n">
-        <v>7.002</v>
+        <v>7.043</v>
       </c>
       <c r="E21" t="n">
-        <v>7.001</v>
+        <v>7.043</v>
       </c>
       <c r="F21" t="n">
-        <v>27539.2038</v>
+        <v>13762.4121</v>
       </c>
       <c r="G21" t="n">
-        <v>-4412334.744600001</v>
+        <v>-567433.5664000005</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.01</v>
+        <v>7.053</v>
       </c>
       <c r="C22" t="n">
-        <v>7.01</v>
+        <v>7.053</v>
       </c>
       <c r="D22" t="n">
-        <v>7.01</v>
+        <v>7.053</v>
       </c>
       <c r="E22" t="n">
-        <v>7.01</v>
+        <v>7.053</v>
       </c>
       <c r="F22" t="n">
-        <v>16898.044</v>
+        <v>8443.666499999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-4395436.700600001</v>
+        <v>-558989.8999000004</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.011</v>
+        <v>7.053</v>
       </c>
       <c r="C23" t="n">
-        <v>7.011</v>
+        <v>7.053</v>
       </c>
       <c r="D23" t="n">
-        <v>7.011</v>
+        <v>7.053</v>
       </c>
       <c r="E23" t="n">
-        <v>7.011</v>
+        <v>7.053</v>
       </c>
       <c r="F23" t="n">
-        <v>13185.0442</v>
+        <v>40335.9115</v>
       </c>
       <c r="G23" t="n">
-        <v>-4382251.656400001</v>
+        <v>-558989.8999000004</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.001</v>
+        <v>7.053</v>
       </c>
       <c r="C24" t="n">
-        <v>6.997</v>
+        <v>7.053</v>
       </c>
       <c r="D24" t="n">
-        <v>7.001</v>
+        <v>7.053</v>
       </c>
       <c r="E24" t="n">
-        <v>6.997</v>
+        <v>7.053</v>
       </c>
       <c r="F24" t="n">
-        <v>117300</v>
+        <v>63846</v>
       </c>
       <c r="G24" t="n">
-        <v>-4499551.656400001</v>
+        <v>-558989.8999000004</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.011</v>
+        <v>7.053</v>
       </c>
       <c r="C25" t="n">
-        <v>7.011</v>
+        <v>7.053</v>
       </c>
       <c r="D25" t="n">
-        <v>7.011</v>
+        <v>7.053</v>
       </c>
       <c r="E25" t="n">
-        <v>7.011</v>
+        <v>7.053</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0001</v>
+        <v>3710.6351</v>
       </c>
       <c r="G25" t="n">
-        <v>-4499551.656300001</v>
+        <v>-558989.8999000004</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.005</v>
+        <v>7.025</v>
       </c>
       <c r="C26" t="n">
-        <v>7.005</v>
+        <v>7.025</v>
       </c>
       <c r="D26" t="n">
-        <v>7.005</v>
+        <v>7.025</v>
       </c>
       <c r="E26" t="n">
-        <v>7.005</v>
+        <v>7.025</v>
       </c>
       <c r="F26" t="n">
-        <v>11000</v>
+        <v>2587.6719</v>
       </c>
       <c r="G26" t="n">
-        <v>-4510551.656300001</v>
+        <v>-561577.5718000004</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.046</v>
+        <v>7.019</v>
       </c>
       <c r="C27" t="n">
-        <v>7.047</v>
+        <v>7.019</v>
       </c>
       <c r="D27" t="n">
-        <v>7.047</v>
+        <v>7.019</v>
       </c>
       <c r="E27" t="n">
-        <v>7.046</v>
+        <v>7.019</v>
       </c>
       <c r="F27" t="n">
-        <v>105529.6588</v>
+        <v>5085.4714</v>
       </c>
       <c r="G27" t="n">
-        <v>-4405021.997500001</v>
+        <v>-566663.0432000004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.996</v>
+        <v>7.042</v>
       </c>
       <c r="C28" t="n">
-        <v>6.996</v>
+        <v>7.042</v>
       </c>
       <c r="D28" t="n">
-        <v>6.996</v>
+        <v>7.042</v>
       </c>
       <c r="E28" t="n">
-        <v>6.996</v>
+        <v>7.042</v>
       </c>
       <c r="F28" t="n">
-        <v>82881.7705</v>
+        <v>9000</v>
       </c>
       <c r="G28" t="n">
-        <v>-4487903.768</v>
+        <v>-557663.0432000004</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.038</v>
+        <v>7.051</v>
       </c>
       <c r="C29" t="n">
-        <v>7.041</v>
+        <v>7.051</v>
       </c>
       <c r="D29" t="n">
-        <v>7.041</v>
+        <v>7.051</v>
       </c>
       <c r="E29" t="n">
-        <v>7.038</v>
+        <v>7.051</v>
       </c>
       <c r="F29" t="n">
-        <v>910754.4952974862</v>
+        <v>315.2747</v>
       </c>
       <c r="G29" t="n">
-        <v>-3577149.272702514</v>
+        <v>-557347.7685000005</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.037</v>
+        <v>7.088</v>
       </c>
       <c r="C30" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="D30" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="E30" t="n">
-        <v>7.037</v>
+        <v>7.088</v>
       </c>
       <c r="F30" t="n">
-        <v>642611.3459</v>
+        <v>8799.8318</v>
       </c>
       <c r="G30" t="n">
-        <v>-2934537.926802514</v>
+        <v>-548547.9367000004</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="C31" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="D31" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="E31" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="F31" t="n">
-        <v>125754.8175</v>
+        <v>147084.3171</v>
       </c>
       <c r="G31" t="n">
-        <v>-2934537.926802514</v>
+        <v>-548547.9367000004</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="C32" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="D32" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="E32" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="F32" t="n">
-        <v>231901.5358</v>
+        <v>6778.1486</v>
       </c>
       <c r="G32" t="n">
-        <v>-2934537.926802514</v>
+        <v>-548547.9367000004</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="C33" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="D33" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="E33" t="n">
-        <v>7.05</v>
+        <v>7.088</v>
       </c>
       <c r="F33" t="n">
-        <v>1356516.9605</v>
+        <v>2903.8287</v>
       </c>
       <c r="G33" t="n">
-        <v>-2934537.926802514</v>
+        <v>-548547.9367000004</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="F34" t="n">
-        <v>100000</v>
+        <v>1257.5252</v>
       </c>
       <c r="G34" t="n">
-        <v>-3034537.926802514</v>
+        <v>-547290.4115000004</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.038</v>
+        <v>7.088</v>
       </c>
       <c r="C35" t="n">
-        <v>7.045</v>
+        <v>7.088</v>
       </c>
       <c r="D35" t="n">
-        <v>7.045</v>
+        <v>7.088</v>
       </c>
       <c r="E35" t="n">
-        <v>7.038</v>
+        <v>7.088</v>
       </c>
       <c r="F35" t="n">
-        <v>3416707.6177</v>
+        <v>515.6882000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>382169.6908974857</v>
+        <v>-547806.0997000004</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.044</v>
+        <v>7.011</v>
       </c>
       <c r="C36" t="n">
-        <v>7.044</v>
+        <v>7.003</v>
       </c>
       <c r="D36" t="n">
-        <v>7.044</v>
+        <v>7.011</v>
       </c>
       <c r="E36" t="n">
-        <v>7.044</v>
+        <v>6.97</v>
       </c>
       <c r="F36" t="n">
-        <v>58028.3975</v>
+        <v>722326.8625</v>
       </c>
       <c r="G36" t="n">
-        <v>324141.2933974857</v>
+        <v>-1270132.9622</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.045</v>
+        <v>6.91</v>
       </c>
       <c r="C37" t="n">
-        <v>7.045</v>
+        <v>6.91</v>
       </c>
       <c r="D37" t="n">
-        <v>7.045</v>
+        <v>6.91</v>
       </c>
       <c r="E37" t="n">
-        <v>7.045</v>
+        <v>6.91</v>
       </c>
       <c r="F37" t="n">
-        <v>53000.3865</v>
+        <v>72249.0193</v>
       </c>
       <c r="G37" t="n">
-        <v>377141.6798974857</v>
+        <v>-1342381.9815</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.045</v>
+        <v>7.02</v>
       </c>
       <c r="C38" t="n">
-        <v>7.045</v>
+        <v>7.021</v>
       </c>
       <c r="D38" t="n">
-        <v>7.045</v>
+        <v>7.021</v>
       </c>
       <c r="E38" t="n">
-        <v>7.045</v>
+        <v>7.02</v>
       </c>
       <c r="F38" t="n">
-        <v>6766.26</v>
+        <v>568531.5082</v>
       </c>
       <c r="G38" t="n">
-        <v>377141.6798974857</v>
+        <v>-773850.4733000004</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.045</v>
+        <v>7.074</v>
       </c>
       <c r="C39" t="n">
-        <v>7.045</v>
+        <v>7.074</v>
       </c>
       <c r="D39" t="n">
-        <v>7.045</v>
+        <v>7.074</v>
       </c>
       <c r="E39" t="n">
-        <v>7.045</v>
+        <v>7.074</v>
       </c>
       <c r="F39" t="n">
-        <v>26352.4</v>
+        <v>73220</v>
       </c>
       <c r="G39" t="n">
-        <v>377141.6798974857</v>
+        <v>-700630.4733000004</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.045</v>
+        <v>7.03</v>
       </c>
       <c r="C40" t="n">
-        <v>7.045</v>
+        <v>7.027</v>
       </c>
       <c r="D40" t="n">
-        <v>7.045</v>
+        <v>7.03</v>
       </c>
       <c r="E40" t="n">
-        <v>7.045</v>
+        <v>7.027</v>
       </c>
       <c r="F40" t="n">
-        <v>5965.137</v>
+        <v>196052.0142</v>
       </c>
       <c r="G40" t="n">
-        <v>377141.6798974857</v>
+        <v>-896682.4875000004</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.11</v>
+        <v>6.976</v>
       </c>
       <c r="C41" t="n">
-        <v>7.11</v>
+        <v>6.976</v>
       </c>
       <c r="D41" t="n">
-        <v>7.11</v>
+        <v>6.976</v>
       </c>
       <c r="E41" t="n">
-        <v>7.11</v>
+        <v>6.976</v>
       </c>
       <c r="F41" t="n">
-        <v>29535</v>
+        <v>5019</v>
       </c>
       <c r="G41" t="n">
-        <v>406676.6798974857</v>
+        <v>-901701.4875000004</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.11</v>
+        <v>6.982</v>
       </c>
       <c r="C42" t="n">
-        <v>7.11</v>
+        <v>6.914</v>
       </c>
       <c r="D42" t="n">
-        <v>7.11</v>
+        <v>6.982</v>
       </c>
       <c r="E42" t="n">
-        <v>7.11</v>
+        <v>6.914</v>
       </c>
       <c r="F42" t="n">
-        <v>458935.9008</v>
+        <v>2817278.2809</v>
       </c>
       <c r="G42" t="n">
-        <v>406676.6798974857</v>
+        <v>-3718979.7684</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.08</v>
+        <v>6.998</v>
       </c>
       <c r="C43" t="n">
-        <v>7.08</v>
+        <v>6.998</v>
       </c>
       <c r="D43" t="n">
-        <v>7.08</v>
+        <v>6.998</v>
       </c>
       <c r="E43" t="n">
-        <v>7.08</v>
+        <v>6.998</v>
       </c>
       <c r="F43" t="n">
-        <v>76817.98510000001</v>
+        <v>3396.4613</v>
       </c>
       <c r="G43" t="n">
-        <v>329858.6947974857</v>
+        <v>-3715583.3071</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.08</v>
+        <v>6.998</v>
       </c>
       <c r="C44" t="n">
-        <v>7.08</v>
+        <v>6.999</v>
       </c>
       <c r="D44" t="n">
-        <v>7.08</v>
+        <v>6.999</v>
       </c>
       <c r="E44" t="n">
-        <v>7.08</v>
+        <v>6.998</v>
       </c>
       <c r="F44" t="n">
-        <v>7659</v>
+        <v>156348.5313</v>
       </c>
       <c r="G44" t="n">
-        <v>329858.6947974857</v>
+        <v>-3559234.7758</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.08</v>
+        <v>6.955</v>
       </c>
       <c r="C45" t="n">
-        <v>7.08</v>
+        <v>6.955</v>
       </c>
       <c r="D45" t="n">
-        <v>7.08</v>
+        <v>6.955</v>
       </c>
       <c r="E45" t="n">
-        <v>7.08</v>
+        <v>6.955</v>
       </c>
       <c r="F45" t="n">
-        <v>62900</v>
+        <v>9222.099899999999</v>
       </c>
       <c r="G45" t="n">
-        <v>329858.6947974857</v>
+        <v>-3568456.8757</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.08</v>
+        <v>6.946</v>
       </c>
       <c r="C46" t="n">
-        <v>7.08</v>
+        <v>6.946</v>
       </c>
       <c r="D46" t="n">
-        <v>7.08</v>
+        <v>6.946</v>
       </c>
       <c r="E46" t="n">
-        <v>7.08</v>
+        <v>6.946</v>
       </c>
       <c r="F46" t="n">
-        <v>102800.3548</v>
+        <v>4576.9242</v>
       </c>
       <c r="G46" t="n">
-        <v>329858.6947974857</v>
+        <v>-3573033.7999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.08</v>
+        <v>6.99</v>
       </c>
       <c r="C47" t="n">
-        <v>7.08</v>
+        <v>6.99</v>
       </c>
       <c r="D47" t="n">
-        <v>7.08</v>
+        <v>6.99</v>
       </c>
       <c r="E47" t="n">
-        <v>7.08</v>
+        <v>6.99</v>
       </c>
       <c r="F47" t="n">
-        <v>120997.5478</v>
+        <v>5533.025</v>
       </c>
       <c r="G47" t="n">
-        <v>329858.6947974857</v>
+        <v>-3567500.7749</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.08</v>
+        <v>6.968</v>
       </c>
       <c r="C48" t="n">
-        <v>7.08</v>
+        <v>7.035</v>
       </c>
       <c r="D48" t="n">
-        <v>7.08</v>
+        <v>7.035</v>
       </c>
       <c r="E48" t="n">
-        <v>7.08</v>
+        <v>6.968</v>
       </c>
       <c r="F48" t="n">
-        <v>408437.0202</v>
+        <v>7373.1344</v>
       </c>
       <c r="G48" t="n">
-        <v>329858.6947974857</v>
+        <v>-3560127.6405</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.08</v>
+        <v>7.058</v>
       </c>
       <c r="C49" t="n">
-        <v>7.08</v>
+        <v>7.058</v>
       </c>
       <c r="D49" t="n">
-        <v>7.08</v>
+        <v>7.058</v>
       </c>
       <c r="E49" t="n">
-        <v>7.08</v>
+        <v>7.058</v>
       </c>
       <c r="F49" t="n">
-        <v>142.8007</v>
+        <v>138049.9414</v>
       </c>
       <c r="G49" t="n">
-        <v>329858.6947974857</v>
+        <v>-3422077.6991</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.08</v>
+        <v>7.041</v>
       </c>
       <c r="C50" t="n">
-        <v>7.08</v>
+        <v>7.038</v>
       </c>
       <c r="D50" t="n">
-        <v>7.08</v>
+        <v>7.041</v>
       </c>
       <c r="E50" t="n">
-        <v>7.08</v>
+        <v>7.038</v>
       </c>
       <c r="F50" t="n">
-        <v>100604.1968</v>
+        <v>137101.9933</v>
       </c>
       <c r="G50" t="n">
-        <v>329858.6947974857</v>
+        <v>-3559179.692400001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.08</v>
+        <v>7.04</v>
       </c>
       <c r="C51" t="n">
-        <v>7.08</v>
+        <v>7.04</v>
       </c>
       <c r="D51" t="n">
-        <v>7.08</v>
+        <v>7.04</v>
       </c>
       <c r="E51" t="n">
-        <v>7.08</v>
+        <v>7.04</v>
       </c>
       <c r="F51" t="n">
-        <v>88719</v>
+        <v>6342.546</v>
       </c>
       <c r="G51" t="n">
-        <v>329858.6947974857</v>
+        <v>-3552837.1464</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.08</v>
+        <v>7.072</v>
       </c>
       <c r="C52" t="n">
-        <v>7.054</v>
+        <v>7.072</v>
       </c>
       <c r="D52" t="n">
-        <v>7.08</v>
+        <v>7.072</v>
       </c>
       <c r="E52" t="n">
-        <v>7.054</v>
+        <v>7.072</v>
       </c>
       <c r="F52" t="n">
-        <v>178330.3</v>
+        <v>22967.4497</v>
       </c>
       <c r="G52" t="n">
-        <v>151528.3947974857</v>
+        <v>-3529869.6967</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.086</v>
+        <v>7.072</v>
       </c>
       <c r="C53" t="n">
-        <v>7.05</v>
+        <v>7.072</v>
       </c>
       <c r="D53" t="n">
-        <v>7.086</v>
+        <v>7.072</v>
       </c>
       <c r="E53" t="n">
-        <v>7.05</v>
+        <v>7.072</v>
       </c>
       <c r="F53" t="n">
-        <v>6188.975</v>
+        <v>100000</v>
       </c>
       <c r="G53" t="n">
-        <v>145339.4197974857</v>
+        <v>-3529869.6967</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.05</v>
+        <v>7.073</v>
       </c>
       <c r="C54" t="n">
-        <v>7.05</v>
+        <v>7.074</v>
       </c>
       <c r="D54" t="n">
-        <v>7.05</v>
+        <v>7.074</v>
       </c>
       <c r="E54" t="n">
-        <v>7.05</v>
+        <v>7.073</v>
       </c>
       <c r="F54" t="n">
-        <v>335865.3112</v>
+        <v>195803.3999</v>
       </c>
       <c r="G54" t="n">
-        <v>145339.4197974857</v>
+        <v>-3334066.2968</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.05</v>
+        <v>7.073</v>
       </c>
       <c r="C55" t="n">
-        <v>7.023</v>
+        <v>7.071</v>
       </c>
       <c r="D55" t="n">
-        <v>7.05</v>
+        <v>7.074</v>
       </c>
       <c r="E55" t="n">
-        <v>7.023</v>
+        <v>7.071</v>
       </c>
       <c r="F55" t="n">
-        <v>1561028.1469</v>
+        <v>272111.6391</v>
       </c>
       <c r="G55" t="n">
-        <v>-1415688.727102514</v>
+        <v>-3606177.9359</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.055</v>
+        <v>7.098</v>
       </c>
       <c r="C56" t="n">
-        <v>7.022</v>
+        <v>7.098</v>
       </c>
       <c r="D56" t="n">
-        <v>7.055</v>
+        <v>7.098</v>
       </c>
       <c r="E56" t="n">
-        <v>7.022</v>
+        <v>7.098</v>
       </c>
       <c r="F56" t="n">
-        <v>56495.3431</v>
+        <v>123352.5874</v>
       </c>
       <c r="G56" t="n">
-        <v>-1472184.070202514</v>
+        <v>-3482825.3485</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>7.102</v>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>7.102</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>7.102</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>7.102</v>
       </c>
       <c r="F57" t="n">
-        <v>12153</v>
+        <v>46284</v>
       </c>
       <c r="G57" t="n">
-        <v>-1484337.070202514</v>
+        <v>-3436541.3485</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7</v>
+        <v>7.112</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>7.114</v>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>7.114</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>7.112</v>
       </c>
       <c r="F58" t="n">
-        <v>12967</v>
+        <v>83322.8317</v>
       </c>
       <c r="G58" t="n">
-        <v>-1484337.070202514</v>
+        <v>-3353218.5168</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.997</v>
+        <v>7.119</v>
       </c>
       <c r="C59" t="n">
-        <v>6.997</v>
+        <v>7.142</v>
       </c>
       <c r="D59" t="n">
-        <v>6.997</v>
+        <v>7.142</v>
       </c>
       <c r="E59" t="n">
-        <v>6.997</v>
+        <v>7.119</v>
       </c>
       <c r="F59" t="n">
-        <v>10231.9666</v>
+        <v>181081.9826</v>
       </c>
       <c r="G59" t="n">
-        <v>-1494569.036802514</v>
+        <v>-3172136.5342</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.997</v>
+        <v>7.142</v>
       </c>
       <c r="C60" t="n">
-        <v>6.997</v>
+        <v>7.141</v>
       </c>
       <c r="D60" t="n">
-        <v>6.997</v>
+        <v>7.142</v>
       </c>
       <c r="E60" t="n">
-        <v>6.997</v>
+        <v>7.141</v>
       </c>
       <c r="F60" t="n">
-        <v>5527.5436</v>
+        <v>29714</v>
       </c>
       <c r="G60" t="n">
-        <v>-1494569.036802514</v>
+        <v>-3201850.5342</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.997</v>
+        <v>7.14</v>
       </c>
       <c r="C61" t="n">
-        <v>6.997</v>
+        <v>7.14</v>
       </c>
       <c r="D61" t="n">
-        <v>6.997</v>
+        <v>7.14</v>
       </c>
       <c r="E61" t="n">
-        <v>6.997</v>
+        <v>7.14</v>
       </c>
       <c r="F61" t="n">
-        <v>8036.0431</v>
+        <v>4340.5282</v>
       </c>
       <c r="G61" t="n">
-        <v>-1494569.036802514</v>
+        <v>-3206191.0624</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.997</v>
+        <v>7.14</v>
       </c>
       <c r="C62" t="n">
-        <v>6.997</v>
+        <v>7.141</v>
       </c>
       <c r="D62" t="n">
-        <v>6.997</v>
+        <v>7.141</v>
       </c>
       <c r="E62" t="n">
-        <v>6.997</v>
+        <v>7.14</v>
       </c>
       <c r="F62" t="n">
-        <v>4898.3369</v>
+        <v>30220.8528</v>
       </c>
       <c r="G62" t="n">
-        <v>-1494569.036802514</v>
+        <v>-3175970.2096</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.012</v>
+        <v>7.141</v>
       </c>
       <c r="C63" t="n">
-        <v>7.012</v>
+        <v>6.976</v>
       </c>
       <c r="D63" t="n">
-        <v>7.012</v>
+        <v>7.141</v>
       </c>
       <c r="E63" t="n">
-        <v>7.012</v>
+        <v>6.976</v>
       </c>
       <c r="F63" t="n">
-        <v>142.6126640045636</v>
+        <v>280050.7126</v>
       </c>
       <c r="G63" t="n">
-        <v>-1494426.42413851</v>
+        <v>-3456020.9222</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.977</v>
+        <v>7.077</v>
       </c>
       <c r="C64" t="n">
-        <v>6.977</v>
+        <v>7.077</v>
       </c>
       <c r="D64" t="n">
-        <v>6.977</v>
+        <v>7.077</v>
       </c>
       <c r="E64" t="n">
-        <v>6.977</v>
+        <v>7.077</v>
       </c>
       <c r="F64" t="n">
-        <v>6375.175</v>
+        <v>104806.0511</v>
       </c>
       <c r="G64" t="n">
-        <v>-1500801.59913851</v>
+        <v>-3351214.8711</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.961</v>
+        <v>7.032</v>
       </c>
       <c r="C65" t="n">
-        <v>6.961</v>
+        <v>7.032</v>
       </c>
       <c r="D65" t="n">
-        <v>6.961</v>
+        <v>7.032</v>
       </c>
       <c r="E65" t="n">
-        <v>6.961</v>
+        <v>7.032</v>
       </c>
       <c r="F65" t="n">
-        <v>34157.7646</v>
+        <v>45193.9489</v>
       </c>
       <c r="G65" t="n">
-        <v>-1534959.36373851</v>
+        <v>-3396408.82</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,28 +2742,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.961</v>
+        <v>7.033</v>
       </c>
       <c r="C66" t="n">
-        <v>6.961</v>
+        <v>6.945</v>
       </c>
       <c r="D66" t="n">
-        <v>6.961</v>
+        <v>7.033</v>
       </c>
       <c r="E66" t="n">
-        <v>6.961</v>
+        <v>6.945</v>
       </c>
       <c r="F66" t="n">
-        <v>19807.4998</v>
+        <v>378000</v>
       </c>
       <c r="G66" t="n">
-        <v>-1534959.36373851</v>
+        <v>-3774408.82</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,28 +2778,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.956</v>
+        <v>6.994</v>
       </c>
       <c r="C67" t="n">
-        <v>6.956</v>
+        <v>6.979</v>
       </c>
       <c r="D67" t="n">
-        <v>6.956</v>
+        <v>6.994</v>
       </c>
       <c r="E67" t="n">
-        <v>6.956</v>
+        <v>6.979</v>
       </c>
       <c r="F67" t="n">
-        <v>127328.29</v>
+        <v>4856.2978</v>
       </c>
       <c r="G67" t="n">
-        <v>-1662287.65373851</v>
+        <v>-3769552.5222</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,28 +2814,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.95</v>
+        <v>6.973</v>
       </c>
       <c r="C68" t="n">
-        <v>6.95</v>
+        <v>6.973</v>
       </c>
       <c r="D68" t="n">
-        <v>6.95</v>
+        <v>6.973</v>
       </c>
       <c r="E68" t="n">
-        <v>6.95</v>
+        <v>6.973</v>
       </c>
       <c r="F68" t="n">
-        <v>2671.71</v>
+        <v>900</v>
       </c>
       <c r="G68" t="n">
-        <v>-1664959.36373851</v>
+        <v>-3770452.5222</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.961</v>
+        <v>6.965</v>
       </c>
       <c r="C69" t="n">
-        <v>6.961</v>
+        <v>6.965</v>
       </c>
       <c r="D69" t="n">
-        <v>6.961</v>
+        <v>6.965</v>
       </c>
       <c r="E69" t="n">
-        <v>6.961</v>
+        <v>6.965</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0001</v>
+        <v>76817.98510000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-1664959.36363851</v>
+        <v>-3847270.507300001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.961</v>
+        <v>6.964</v>
       </c>
       <c r="C70" t="n">
-        <v>6.961</v>
+        <v>6.964</v>
       </c>
       <c r="D70" t="n">
-        <v>6.961</v>
+        <v>6.964</v>
       </c>
       <c r="E70" t="n">
-        <v>6.961</v>
+        <v>6.964</v>
       </c>
       <c r="F70" t="n">
-        <v>13552.9891</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="n">
-        <v>-1664959.36363851</v>
+        <v>-3849270.507300001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,28 +2922,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.982</v>
+        <v>6.963</v>
       </c>
       <c r="C71" t="n">
-        <v>6.982</v>
+        <v>6.963</v>
       </c>
       <c r="D71" t="n">
-        <v>6.982</v>
+        <v>6.963</v>
       </c>
       <c r="E71" t="n">
-        <v>6.982</v>
+        <v>6.963</v>
       </c>
       <c r="F71" t="n">
-        <v>103329.499</v>
+        <v>300</v>
       </c>
       <c r="G71" t="n">
-        <v>-1561629.86463851</v>
+        <v>-3849570.507300001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2958,28 +2958,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.003</v>
+        <v>6.955</v>
       </c>
       <c r="C72" t="n">
-        <v>7.032</v>
+        <v>6.957</v>
       </c>
       <c r="D72" t="n">
-        <v>7.032</v>
+        <v>6.957</v>
       </c>
       <c r="E72" t="n">
-        <v>7.003</v>
+        <v>6.955</v>
       </c>
       <c r="F72" t="n">
-        <v>144</v>
+        <v>89665.09329999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-1561485.86463851</v>
+        <v>-3939235.6006</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2994,28 +2994,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.028</v>
+        <v>7.032</v>
       </c>
       <c r="C73" t="n">
-        <v>7.028</v>
+        <v>7.032</v>
       </c>
       <c r="D73" t="n">
-        <v>7.028</v>
+        <v>7.032</v>
       </c>
       <c r="E73" t="n">
-        <v>7.028</v>
+        <v>7.032</v>
       </c>
       <c r="F73" t="n">
-        <v>29767</v>
+        <v>72</v>
       </c>
       <c r="G73" t="n">
-        <v>-1591252.86463851</v>
+        <v>-3939163.6006</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3030,28 +3030,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.024</v>
+        <v>7.018</v>
       </c>
       <c r="C74" t="n">
-        <v>7.024</v>
+        <v>7.018</v>
       </c>
       <c r="D74" t="n">
-        <v>7.024</v>
+        <v>7.018</v>
       </c>
       <c r="E74" t="n">
-        <v>7.024</v>
+        <v>7.018</v>
       </c>
       <c r="F74" t="n">
-        <v>11574</v>
+        <v>72882</v>
       </c>
       <c r="G74" t="n">
-        <v>-1602826.86463851</v>
+        <v>-4012045.6006</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,28 +3066,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.025</v>
+        <v>7.017</v>
       </c>
       <c r="C75" t="n">
-        <v>7.025</v>
+        <v>7.017</v>
       </c>
       <c r="D75" t="n">
-        <v>7.025</v>
+        <v>7.017</v>
       </c>
       <c r="E75" t="n">
-        <v>7.025</v>
+        <v>7.017</v>
       </c>
       <c r="F75" t="n">
-        <v>71.17440000000001</v>
+        <v>63516.8154</v>
       </c>
       <c r="G75" t="n">
-        <v>-1602755.69023851</v>
+        <v>-4075562.416000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3102,28 +3102,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.017</v>
+        <v>7.012</v>
       </c>
       <c r="C76" t="n">
-        <v>7.016</v>
+        <v>6.951</v>
       </c>
       <c r="D76" t="n">
-        <v>7.017</v>
+        <v>7.012</v>
       </c>
       <c r="E76" t="n">
-        <v>7.016</v>
+        <v>6.951</v>
       </c>
       <c r="F76" t="n">
-        <v>14835.1475</v>
+        <v>320337.365</v>
       </c>
       <c r="G76" t="n">
-        <v>-1617590.83773851</v>
+        <v>-4395899.781</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.007</v>
+        <v>6.959</v>
       </c>
       <c r="C77" t="n">
-        <v>7.015</v>
+        <v>6.959</v>
       </c>
       <c r="D77" t="n">
-        <v>7.015</v>
+        <v>6.959</v>
       </c>
       <c r="E77" t="n">
-        <v>6.997</v>
+        <v>6.959</v>
       </c>
       <c r="F77" t="n">
-        <v>240242.5872</v>
+        <v>114337.365</v>
       </c>
       <c r="G77" t="n">
-        <v>-1857833.42493851</v>
+        <v>-4281562.416</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.983</v>
+        <v>6.998</v>
       </c>
       <c r="C78" t="n">
-        <v>6.983</v>
+        <v>6.998</v>
       </c>
       <c r="D78" t="n">
-        <v>6.983</v>
+        <v>6.998</v>
       </c>
       <c r="E78" t="n">
-        <v>6.983</v>
+        <v>6.998</v>
       </c>
       <c r="F78" t="n">
-        <v>4497.7043</v>
+        <v>43522.8912</v>
       </c>
       <c r="G78" t="n">
-        <v>-1862331.12923851</v>
+        <v>-4238039.5248</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.983</v>
+        <v>6.999</v>
       </c>
       <c r="C79" t="n">
-        <v>6.983</v>
+        <v>6.999</v>
       </c>
       <c r="D79" t="n">
-        <v>6.983</v>
+        <v>6.999</v>
       </c>
       <c r="E79" t="n">
-        <v>6.983</v>
+        <v>6.999</v>
       </c>
       <c r="F79" t="n">
-        <v>40313.1</v>
+        <v>205616.0345</v>
       </c>
       <c r="G79" t="n">
-        <v>-1862331.12923851</v>
+        <v>-4032423.4903</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.983</v>
+        <v>6.945</v>
       </c>
       <c r="C80" t="n">
-        <v>6.953</v>
+        <v>6.945</v>
       </c>
       <c r="D80" t="n">
-        <v>6.983</v>
+        <v>6.945</v>
       </c>
       <c r="E80" t="n">
-        <v>6.953</v>
+        <v>6.945</v>
       </c>
       <c r="F80" t="n">
-        <v>41978.27</v>
+        <v>1400.5661</v>
       </c>
       <c r="G80" t="n">
-        <v>-1904309.39923851</v>
+        <v>-4033824.0564</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.957</v>
+        <v>6.943</v>
       </c>
       <c r="C81" t="n">
-        <v>6.988</v>
+        <v>6.943</v>
       </c>
       <c r="D81" t="n">
-        <v>6.988</v>
+        <v>6.943</v>
       </c>
       <c r="E81" t="n">
-        <v>6.957</v>
+        <v>6.943</v>
       </c>
       <c r="F81" t="n">
-        <v>266621.1068</v>
+        <v>26431.9339</v>
       </c>
       <c r="G81" t="n">
-        <v>-1637688.29243851</v>
+        <v>-4060255.9903</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.988</v>
+        <v>6.956</v>
       </c>
       <c r="C82" t="n">
-        <v>7.025</v>
+        <v>6.956</v>
       </c>
       <c r="D82" t="n">
-        <v>7.025</v>
+        <v>6.956</v>
       </c>
       <c r="E82" t="n">
-        <v>6.988</v>
+        <v>6.956</v>
       </c>
       <c r="F82" t="n">
-        <v>236000</v>
+        <v>13682.3242</v>
       </c>
       <c r="G82" t="n">
-        <v>-1401688.29243851</v>
+        <v>-4046573.6661</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3354,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.025</v>
+        <v>6.957</v>
       </c>
       <c r="C83" t="n">
-        <v>7.025</v>
+        <v>6.957</v>
       </c>
       <c r="D83" t="n">
-        <v>7.025</v>
+        <v>6.957</v>
       </c>
       <c r="E83" t="n">
-        <v>7.025</v>
+        <v>6.957</v>
       </c>
       <c r="F83" t="n">
-        <v>25527.9836</v>
+        <v>14320.4989</v>
       </c>
       <c r="G83" t="n">
-        <v>-1401688.29243851</v>
+        <v>-4032253.1672</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.053</v>
+        <v>6.941</v>
       </c>
       <c r="C84" t="n">
-        <v>7.063</v>
+        <v>6.941</v>
       </c>
       <c r="D84" t="n">
-        <v>7.063</v>
+        <v>6.941</v>
       </c>
       <c r="E84" t="n">
-        <v>7.053</v>
+        <v>6.941</v>
       </c>
       <c r="F84" t="n">
-        <v>58000</v>
+        <v>32425.317</v>
       </c>
       <c r="G84" t="n">
-        <v>-1343688.29243851</v>
+        <v>-4064678.484199999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7.057</v>
+        <v>6.94</v>
       </c>
       <c r="C85" t="n">
-        <v>7.057</v>
+        <v>6.927</v>
       </c>
       <c r="D85" t="n">
-        <v>7.057</v>
+        <v>6.941</v>
       </c>
       <c r="E85" t="n">
-        <v>7.057</v>
+        <v>6.927</v>
       </c>
       <c r="F85" t="n">
-        <v>264.7017146096075</v>
+        <v>918922.2024</v>
       </c>
       <c r="G85" t="n">
-        <v>-1343952.994153119</v>
+        <v>-4983600.6866</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7.031</v>
+        <v>6.976</v>
       </c>
       <c r="C86" t="n">
-        <v>7.031</v>
+        <v>6.976</v>
       </c>
       <c r="D86" t="n">
-        <v>7.031</v>
+        <v>6.976</v>
       </c>
       <c r="E86" t="n">
-        <v>7.031</v>
+        <v>6.976</v>
       </c>
       <c r="F86" t="n">
-        <v>252345.65</v>
+        <v>411188.5506</v>
       </c>
       <c r="G86" t="n">
-        <v>-1596298.644153119</v>
+        <v>-4572412.136</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.03</v>
+        <v>7.008</v>
       </c>
       <c r="C87" t="n">
-        <v>7.03</v>
+        <v>7.009</v>
       </c>
       <c r="D87" t="n">
-        <v>7.03</v>
+        <v>7.009</v>
       </c>
       <c r="E87" t="n">
-        <v>7.03</v>
+        <v>6.96</v>
       </c>
       <c r="F87" t="n">
-        <v>163030.7276</v>
+        <v>234516.0001</v>
       </c>
       <c r="G87" t="n">
-        <v>-1759329.371753119</v>
+        <v>-4337896.1359</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7.052</v>
+        <v>7.009</v>
       </c>
       <c r="C88" t="n">
-        <v>7.034</v>
+        <v>7.009</v>
       </c>
       <c r="D88" t="n">
-        <v>7.052</v>
+        <v>7.009</v>
       </c>
       <c r="E88" t="n">
-        <v>7.034</v>
+        <v>7.009</v>
       </c>
       <c r="F88" t="n">
-        <v>111020.9272</v>
+        <v>30000</v>
       </c>
       <c r="G88" t="n">
-        <v>-1648308.444553119</v>
+        <v>-4337896.1359</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3570,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7.034</v>
+        <v>7.009</v>
       </c>
       <c r="C89" t="n">
-        <v>7.034</v>
+        <v>7.009</v>
       </c>
       <c r="D89" t="n">
-        <v>7.034</v>
+        <v>7.009</v>
       </c>
       <c r="E89" t="n">
-        <v>7.034</v>
+        <v>7.009</v>
       </c>
       <c r="F89" t="n">
-        <v>64123.8896</v>
+        <v>41282.9343</v>
       </c>
       <c r="G89" t="n">
-        <v>-1648308.444553119</v>
+        <v>-4337896.1359</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.06</v>
+        <v>6.963</v>
       </c>
       <c r="C90" t="n">
-        <v>7.06</v>
+        <v>6.963</v>
       </c>
       <c r="D90" t="n">
-        <v>7.06</v>
+        <v>6.963</v>
       </c>
       <c r="E90" t="n">
-        <v>7.06</v>
+        <v>6.963</v>
       </c>
       <c r="F90" t="n">
-        <v>77263.1789</v>
+        <v>88888</v>
       </c>
       <c r="G90" t="n">
-        <v>-1571045.265653119</v>
+        <v>-4426784.1359</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.055</v>
+        <v>7.002</v>
       </c>
       <c r="C91" t="n">
-        <v>7.055</v>
+        <v>7.002</v>
       </c>
       <c r="D91" t="n">
-        <v>7.055</v>
+        <v>7.002</v>
       </c>
       <c r="E91" t="n">
-        <v>7.055</v>
+        <v>7.002</v>
       </c>
       <c r="F91" t="n">
-        <v>75903.7711</v>
+        <v>41988.5951</v>
       </c>
       <c r="G91" t="n">
-        <v>-1646949.036753119</v>
+        <v>-4384795.540800001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,28 +3678,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7.053</v>
+        <v>7.002</v>
       </c>
       <c r="C92" t="n">
-        <v>7.053</v>
+        <v>7.001</v>
       </c>
       <c r="D92" t="n">
-        <v>7.053</v>
+        <v>7.002</v>
       </c>
       <c r="E92" t="n">
-        <v>7.053</v>
+        <v>7.001</v>
       </c>
       <c r="F92" t="n">
-        <v>50000.0931</v>
+        <v>27539.2038</v>
       </c>
       <c r="G92" t="n">
-        <v>-1696949.129853119</v>
+        <v>-4412334.744600001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,28 +3714,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7.039</v>
+        <v>7.01</v>
       </c>
       <c r="C93" t="n">
-        <v>7.062</v>
+        <v>7.01</v>
       </c>
       <c r="D93" t="n">
-        <v>7.062</v>
+        <v>7.01</v>
       </c>
       <c r="E93" t="n">
-        <v>7.039</v>
+        <v>7.01</v>
       </c>
       <c r="F93" t="n">
-        <v>113880.1148</v>
+        <v>16898.044</v>
       </c>
       <c r="G93" t="n">
-        <v>-1583069.015053119</v>
+        <v>-4395436.700600001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3750,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7.057</v>
+        <v>7.011</v>
       </c>
       <c r="C94" t="n">
-        <v>7.057</v>
+        <v>7.011</v>
       </c>
       <c r="D94" t="n">
-        <v>7.057</v>
+        <v>7.011</v>
       </c>
       <c r="E94" t="n">
-        <v>7.057</v>
+        <v>7.011</v>
       </c>
       <c r="F94" t="n">
-        <v>15119.9365</v>
+        <v>13185.0442</v>
       </c>
       <c r="G94" t="n">
-        <v>-1598188.951553119</v>
+        <v>-4382251.656400001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3786,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7.057</v>
+        <v>7.001</v>
       </c>
       <c r="C95" t="n">
-        <v>7.062</v>
+        <v>6.997</v>
       </c>
       <c r="D95" t="n">
-        <v>7.062</v>
+        <v>7.001</v>
       </c>
       <c r="E95" t="n">
-        <v>7.057</v>
+        <v>6.997</v>
       </c>
       <c r="F95" t="n">
-        <v>117832.9986</v>
+        <v>117300</v>
       </c>
       <c r="G95" t="n">
-        <v>-1480355.952953119</v>
+        <v>-4499551.656400001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3822,28 +3822,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7.041</v>
+        <v>7.011</v>
       </c>
       <c r="C96" t="n">
-        <v>7.041</v>
+        <v>7.011</v>
       </c>
       <c r="D96" t="n">
-        <v>7.041</v>
+        <v>7.011</v>
       </c>
       <c r="E96" t="n">
-        <v>7.041</v>
+        <v>7.011</v>
       </c>
       <c r="F96" t="n">
-        <v>116090.3058</v>
+        <v>0.0001</v>
       </c>
       <c r="G96" t="n">
-        <v>-1596446.258753119</v>
+        <v>-4499551.656300001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3858,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7.044</v>
+        <v>7.005</v>
       </c>
       <c r="C97" t="n">
-        <v>7.008</v>
+        <v>7.005</v>
       </c>
       <c r="D97" t="n">
-        <v>7.044</v>
+        <v>7.005</v>
       </c>
       <c r="E97" t="n">
-        <v>7.008</v>
+        <v>7.005</v>
       </c>
       <c r="F97" t="n">
-        <v>854000</v>
+        <v>11000</v>
       </c>
       <c r="G97" t="n">
-        <v>-2450446.258753119</v>
+        <v>-4510551.656300001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3894,28 +3894,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7.007</v>
+        <v>7.046</v>
       </c>
       <c r="C98" t="n">
-        <v>6.975</v>
+        <v>7.047</v>
       </c>
       <c r="D98" t="n">
-        <v>7.007</v>
+        <v>7.047</v>
       </c>
       <c r="E98" t="n">
-        <v>6.975</v>
+        <v>7.046</v>
       </c>
       <c r="F98" t="n">
-        <v>109114.6004</v>
+        <v>105529.6588</v>
       </c>
       <c r="G98" t="n">
-        <v>-2559560.859153119</v>
+        <v>-4405021.997500001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3930,28 +3930,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.96</v>
+        <v>6.996</v>
       </c>
       <c r="C99" t="n">
-        <v>6.854</v>
+        <v>6.996</v>
       </c>
       <c r="D99" t="n">
-        <v>6.96</v>
+        <v>6.996</v>
       </c>
       <c r="E99" t="n">
-        <v>6.854</v>
+        <v>6.996</v>
       </c>
       <c r="F99" t="n">
-        <v>848717.2193999999</v>
+        <v>82881.7705</v>
       </c>
       <c r="G99" t="n">
-        <v>-3408278.078553119</v>
+        <v>-4487903.768</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3966,28 +3966,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.854</v>
+        <v>7.038</v>
       </c>
       <c r="C100" t="n">
-        <v>6.808</v>
+        <v>7.041</v>
       </c>
       <c r="D100" t="n">
-        <v>6.854</v>
+        <v>7.041</v>
       </c>
       <c r="E100" t="n">
-        <v>6.8</v>
+        <v>7.038</v>
       </c>
       <c r="F100" t="n">
-        <v>942946.8524</v>
+        <v>910754.4952974862</v>
       </c>
       <c r="G100" t="n">
-        <v>-4351224.930953119</v>
+        <v>-3577149.272702514</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4002,28 +4002,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.717</v>
+        <v>7.037</v>
       </c>
       <c r="C101" t="n">
-        <v>6.717</v>
+        <v>7.05</v>
       </c>
       <c r="D101" t="n">
-        <v>6.717</v>
+        <v>7.05</v>
       </c>
       <c r="E101" t="n">
-        <v>6.717</v>
+        <v>7.037</v>
       </c>
       <c r="F101" t="n">
-        <v>6000</v>
+        <v>642611.3459</v>
       </c>
       <c r="G101" t="n">
-        <v>-4357224.930953119</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.712</v>
+        <v>7.05</v>
       </c>
       <c r="C102" t="n">
-        <v>6.7</v>
+        <v>7.05</v>
       </c>
       <c r="D102" t="n">
-        <v>6.723</v>
+        <v>7.05</v>
       </c>
       <c r="E102" t="n">
-        <v>6.7</v>
+        <v>7.05</v>
       </c>
       <c r="F102" t="n">
-        <v>146615.8377</v>
+        <v>125754.8175</v>
       </c>
       <c r="G102" t="n">
-        <v>-4503840.768653119</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.7</v>
+        <v>7.05</v>
       </c>
       <c r="C103" t="n">
-        <v>6.7</v>
+        <v>7.05</v>
       </c>
       <c r="D103" t="n">
-        <v>6.7</v>
+        <v>7.05</v>
       </c>
       <c r="E103" t="n">
-        <v>6.7</v>
+        <v>7.05</v>
       </c>
       <c r="F103" t="n">
-        <v>375042.8783</v>
+        <v>231901.5358</v>
       </c>
       <c r="G103" t="n">
-        <v>-4503840.768653119</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.7</v>
+        <v>7.05</v>
       </c>
       <c r="C104" t="n">
-        <v>6.697</v>
+        <v>7.05</v>
       </c>
       <c r="D104" t="n">
-        <v>6.7</v>
+        <v>7.05</v>
       </c>
       <c r="E104" t="n">
-        <v>6.695</v>
+        <v>7.05</v>
       </c>
       <c r="F104" t="n">
-        <v>269374.632</v>
+        <v>1356516.9605</v>
       </c>
       <c r="G104" t="n">
-        <v>-4773215.400653119</v>
+        <v>-2934537.926802514</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.697</v>
+        <v>7</v>
       </c>
       <c r="C105" t="n">
-        <v>6.696</v>
+        <v>7</v>
       </c>
       <c r="D105" t="n">
-        <v>6.697</v>
+        <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>6.696</v>
+        <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>108518.6894</v>
+        <v>100000</v>
       </c>
       <c r="G105" t="n">
-        <v>-4881734.090053119</v>
+        <v>-3034537.926802514</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.697</v>
+        <v>7.038</v>
       </c>
       <c r="C106" t="n">
-        <v>6.697</v>
+        <v>7.045</v>
       </c>
       <c r="D106" t="n">
-        <v>6.697</v>
+        <v>7.045</v>
       </c>
       <c r="E106" t="n">
-        <v>6.697</v>
+        <v>7.038</v>
       </c>
       <c r="F106" t="n">
-        <v>116550.1491</v>
+        <v>3416707.6177</v>
       </c>
       <c r="G106" t="n">
-        <v>-4765183.940953119</v>
+        <v>382169.6908974857</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.696</v>
+        <v>7.044</v>
       </c>
       <c r="C107" t="n">
-        <v>6.68</v>
+        <v>7.044</v>
       </c>
       <c r="D107" t="n">
-        <v>6.696</v>
+        <v>7.044</v>
       </c>
       <c r="E107" t="n">
-        <v>6.68</v>
+        <v>7.044</v>
       </c>
       <c r="F107" t="n">
-        <v>50929.5483</v>
+        <v>58028.3975</v>
       </c>
       <c r="G107" t="n">
-        <v>-4816113.489253119</v>
+        <v>324141.2933974857</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.68</v>
+        <v>7.045</v>
       </c>
       <c r="C108" t="n">
-        <v>6.68</v>
+        <v>7.045</v>
       </c>
       <c r="D108" t="n">
-        <v>6.68</v>
+        <v>7.045</v>
       </c>
       <c r="E108" t="n">
-        <v>6.68</v>
+        <v>7.045</v>
       </c>
       <c r="F108" t="n">
-        <v>77045</v>
+        <v>53000.3865</v>
       </c>
       <c r="G108" t="n">
-        <v>-4816113.489253119</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.68</v>
+        <v>7.045</v>
       </c>
       <c r="C109" t="n">
-        <v>6.68</v>
+        <v>7.045</v>
       </c>
       <c r="D109" t="n">
-        <v>6.68</v>
+        <v>7.045</v>
       </c>
       <c r="E109" t="n">
-        <v>6.679</v>
+        <v>7.045</v>
       </c>
       <c r="F109" t="n">
-        <v>222382.1734</v>
+        <v>6766.26</v>
       </c>
       <c r="G109" t="n">
-        <v>-4816113.489253119</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.679</v>
+        <v>7.045</v>
       </c>
       <c r="C110" t="n">
-        <v>6.679</v>
+        <v>7.045</v>
       </c>
       <c r="D110" t="n">
-        <v>6.68</v>
+        <v>7.045</v>
       </c>
       <c r="E110" t="n">
-        <v>6.678</v>
+        <v>7.045</v>
       </c>
       <c r="F110" t="n">
-        <v>630705.2419</v>
+        <v>26352.4</v>
       </c>
       <c r="G110" t="n">
-        <v>-5446818.731153118</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.679</v>
+        <v>7.045</v>
       </c>
       <c r="C111" t="n">
-        <v>6.679</v>
+        <v>7.045</v>
       </c>
       <c r="D111" t="n">
-        <v>6.68</v>
+        <v>7.045</v>
       </c>
       <c r="E111" t="n">
-        <v>6.679</v>
+        <v>7.045</v>
       </c>
       <c r="F111" t="n">
-        <v>211283.618</v>
+        <v>5965.137</v>
       </c>
       <c r="G111" t="n">
-        <v>-5446818.731153118</v>
+        <v>377141.6798974857</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.68</v>
+        <v>7.11</v>
       </c>
       <c r="C112" t="n">
-        <v>6.68</v>
+        <v>7.11</v>
       </c>
       <c r="D112" t="n">
-        <v>6.68</v>
+        <v>7.11</v>
       </c>
       <c r="E112" t="n">
-        <v>6.68</v>
+        <v>7.11</v>
       </c>
       <c r="F112" t="n">
-        <v>616379.1513</v>
+        <v>29535</v>
       </c>
       <c r="G112" t="n">
-        <v>-4830439.579853118</v>
+        <v>406676.6798974857</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,28 +4434,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.68</v>
+        <v>7.11</v>
       </c>
       <c r="C113" t="n">
-        <v>6.68</v>
+        <v>7.11</v>
       </c>
       <c r="D113" t="n">
-        <v>6.68</v>
+        <v>7.11</v>
       </c>
       <c r="E113" t="n">
-        <v>6.68</v>
+        <v>7.11</v>
       </c>
       <c r="F113" t="n">
-        <v>175959.7577</v>
+        <v>458935.9008</v>
       </c>
       <c r="G113" t="n">
-        <v>-4830439.579853118</v>
+        <v>406676.6798974857</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4470,28 +4470,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.684</v>
+        <v>7.08</v>
       </c>
       <c r="C114" t="n">
-        <v>6.684</v>
+        <v>7.08</v>
       </c>
       <c r="D114" t="n">
-        <v>6.684</v>
+        <v>7.08</v>
       </c>
       <c r="E114" t="n">
-        <v>6.684</v>
+        <v>7.08</v>
       </c>
       <c r="F114" t="n">
-        <v>4000</v>
+        <v>76817.98510000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-4826439.579853118</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4506,28 +4506,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.684</v>
+        <v>7.08</v>
       </c>
       <c r="C115" t="n">
-        <v>6.681</v>
+        <v>7.08</v>
       </c>
       <c r="D115" t="n">
-        <v>6.7</v>
+        <v>7.08</v>
       </c>
       <c r="E115" t="n">
-        <v>6.681</v>
+        <v>7.08</v>
       </c>
       <c r="F115" t="n">
-        <v>129674.6915</v>
+        <v>7659</v>
       </c>
       <c r="G115" t="n">
-        <v>-4956114.271353118</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4542,28 +4542,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.681</v>
+        <v>7.08</v>
       </c>
       <c r="C116" t="n">
-        <v>6.681</v>
+        <v>7.08</v>
       </c>
       <c r="D116" t="n">
-        <v>6.681</v>
+        <v>7.08</v>
       </c>
       <c r="E116" t="n">
-        <v>6.681</v>
+        <v>7.08</v>
       </c>
       <c r="F116" t="n">
-        <v>15130.1959</v>
+        <v>62900</v>
       </c>
       <c r="G116" t="n">
-        <v>-4956114.271353118</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4578,28 +4578,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.668</v>
+        <v>7.08</v>
       </c>
       <c r="C117" t="n">
-        <v>6.656</v>
+        <v>7.08</v>
       </c>
       <c r="D117" t="n">
-        <v>6.668</v>
+        <v>7.08</v>
       </c>
       <c r="E117" t="n">
-        <v>6.656</v>
+        <v>7.08</v>
       </c>
       <c r="F117" t="n">
-        <v>400.0004</v>
+        <v>102800.3548</v>
       </c>
       <c r="G117" t="n">
-        <v>-4956514.271753118</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4614,28 +4614,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.644</v>
+        <v>7.08</v>
       </c>
       <c r="C118" t="n">
-        <v>6.644</v>
+        <v>7.08</v>
       </c>
       <c r="D118" t="n">
-        <v>6.644</v>
+        <v>7.08</v>
       </c>
       <c r="E118" t="n">
-        <v>6.644</v>
+        <v>7.08</v>
       </c>
       <c r="F118" t="n">
-        <v>133.6545</v>
+        <v>120997.5478</v>
       </c>
       <c r="G118" t="n">
-        <v>-4956647.926253119</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4650,28 +4650,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.611</v>
+        <v>7.08</v>
       </c>
       <c r="C119" t="n">
-        <v>6.611</v>
+        <v>7.08</v>
       </c>
       <c r="D119" t="n">
-        <v>6.611</v>
+        <v>7.08</v>
       </c>
       <c r="E119" t="n">
-        <v>6.611</v>
+        <v>7.08</v>
       </c>
       <c r="F119" t="n">
-        <v>6630</v>
+        <v>408437.0202</v>
       </c>
       <c r="G119" t="n">
-        <v>-4963277.926253119</v>
+        <v>329858.6947974857</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4686,1038 +4686,3660 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="F120" t="n">
+        <v>142.8007</v>
+      </c>
+      <c r="G120" t="n">
+        <v>329858.6947974857</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="F121" t="n">
+        <v>100604.1968</v>
+      </c>
+      <c r="G121" t="n">
+        <v>329858.6947974857</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="F122" t="n">
+        <v>88719</v>
+      </c>
+      <c r="G122" t="n">
+        <v>329858.6947974857</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.054</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.054</v>
+      </c>
+      <c r="F123" t="n">
+        <v>178330.3</v>
+      </c>
+      <c r="G123" t="n">
+        <v>151528.3947974857</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7.086</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7.086</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6188.975</v>
+      </c>
+      <c r="G124" t="n">
+        <v>145339.4197974857</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="F125" t="n">
+        <v>335865.3112</v>
+      </c>
+      <c r="G125" t="n">
+        <v>145339.4197974857</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.023</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.023</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1561028.1469</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1415688.727102514</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7.055</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7.022</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7.055</v>
+      </c>
+      <c r="E127" t="n">
+        <v>7.022</v>
+      </c>
+      <c r="F127" t="n">
+        <v>56495.3431</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1472184.070202514</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12153</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1484337.070202514</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>12967</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1484337.070202514</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10231.9666</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1494569.036802514</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5527.5436</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1494569.036802514</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8036.0431</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1494569.036802514</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4898.3369</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1494569.036802514</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7.012</v>
+      </c>
+      <c r="C134" t="n">
+        <v>7.012</v>
+      </c>
+      <c r="D134" t="n">
+        <v>7.012</v>
+      </c>
+      <c r="E134" t="n">
+        <v>7.012</v>
+      </c>
+      <c r="F134" t="n">
+        <v>142.6126640045636</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1494426.42413851</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.977</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6.977</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.977</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6.977</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6375.175</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-1500801.59913851</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="F136" t="n">
+        <v>34157.7646</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1534959.36373851</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="F137" t="n">
+        <v>19807.4998</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1534959.36373851</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6.956</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6.956</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.956</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6.956</v>
+      </c>
+      <c r="F138" t="n">
+        <v>127328.29</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1662287.65373851</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2671.71</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1664959.36373851</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1664959.36363851</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.961</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13552.9891</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1664959.36363851</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.982</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.982</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.982</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.982</v>
+      </c>
+      <c r="F142" t="n">
+        <v>103329.499</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1561629.86463851</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>7.003</v>
+      </c>
+      <c r="C143" t="n">
+        <v>7.032</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7.032</v>
+      </c>
+      <c r="E143" t="n">
+        <v>7.003</v>
+      </c>
+      <c r="F143" t="n">
+        <v>144</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1561485.86463851</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="C144" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="E144" t="n">
+        <v>7.028</v>
+      </c>
+      <c r="F144" t="n">
+        <v>29767</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1591252.86463851</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7.024</v>
+      </c>
+      <c r="C145" t="n">
+        <v>7.024</v>
+      </c>
+      <c r="D145" t="n">
+        <v>7.024</v>
+      </c>
+      <c r="E145" t="n">
+        <v>7.024</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11574</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1602826.86463851</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="C146" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="D146" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="E146" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="F146" t="n">
+        <v>71.17440000000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1602755.69023851</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>7.017</v>
+      </c>
+      <c r="C147" t="n">
+        <v>7.016</v>
+      </c>
+      <c r="D147" t="n">
+        <v>7.017</v>
+      </c>
+      <c r="E147" t="n">
+        <v>7.016</v>
+      </c>
+      <c r="F147" t="n">
+        <v>14835.1475</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1617590.83773851</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>7.007</v>
+      </c>
+      <c r="C148" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="D148" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.997</v>
+      </c>
+      <c r="F148" t="n">
+        <v>240242.5872</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1857833.42493851</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4497.7043</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1862331.12923851</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="F150" t="n">
+        <v>40313.1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1862331.12923851</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.953</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.983</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.953</v>
+      </c>
+      <c r="F151" t="n">
+        <v>41978.27</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1904309.39923851</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.957</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.988</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.988</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.957</v>
+      </c>
+      <c r="F152" t="n">
+        <v>266621.1068</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1637688.29243851</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.988</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="D153" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.988</v>
+      </c>
+      <c r="F153" t="n">
+        <v>236000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1401688.29243851</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="D154" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="F154" t="n">
+        <v>25527.9836</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1401688.29243851</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7.053</v>
+      </c>
+      <c r="C155" t="n">
+        <v>7.063</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7.063</v>
+      </c>
+      <c r="E155" t="n">
+        <v>7.053</v>
+      </c>
+      <c r="F155" t="n">
+        <v>58000</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1343688.29243851</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="D156" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="F156" t="n">
+        <v>264.7017146096075</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1343952.994153119</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7.031</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7.031</v>
+      </c>
+      <c r="D157" t="n">
+        <v>7.031</v>
+      </c>
+      <c r="E157" t="n">
+        <v>7.031</v>
+      </c>
+      <c r="F157" t="n">
+        <v>252345.65</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1596298.644153119</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="C158" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="D158" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="E158" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="F158" t="n">
+        <v>163030.7276</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1759329.371753119</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>7.052</v>
+      </c>
+      <c r="C159" t="n">
+        <v>7.034</v>
+      </c>
+      <c r="D159" t="n">
+        <v>7.052</v>
+      </c>
+      <c r="E159" t="n">
+        <v>7.034</v>
+      </c>
+      <c r="F159" t="n">
+        <v>111020.9272</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1648308.444553119</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>7.034</v>
+      </c>
+      <c r="C160" t="n">
+        <v>7.034</v>
+      </c>
+      <c r="D160" t="n">
+        <v>7.034</v>
+      </c>
+      <c r="E160" t="n">
+        <v>7.034</v>
+      </c>
+      <c r="F160" t="n">
+        <v>64123.8896</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1648308.444553119</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="C161" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="D161" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="E161" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="F161" t="n">
+        <v>77263.1789</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1571045.265653119</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>7.055</v>
+      </c>
+      <c r="C162" t="n">
+        <v>7.055</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7.055</v>
+      </c>
+      <c r="E162" t="n">
+        <v>7.055</v>
+      </c>
+      <c r="F162" t="n">
+        <v>75903.7711</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1646949.036753119</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>7.053</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7.053</v>
+      </c>
+      <c r="D163" t="n">
+        <v>7.053</v>
+      </c>
+      <c r="E163" t="n">
+        <v>7.053</v>
+      </c>
+      <c r="F163" t="n">
+        <v>50000.0931</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-1696949.129853119</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7.039</v>
+      </c>
+      <c r="C164" t="n">
+        <v>7.062</v>
+      </c>
+      <c r="D164" t="n">
+        <v>7.062</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7.039</v>
+      </c>
+      <c r="F164" t="n">
+        <v>113880.1148</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1583069.015053119</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="C165" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="D165" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="E165" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="F165" t="n">
+        <v>15119.9365</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1598188.951553119</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7.062</v>
+      </c>
+      <c r="D166" t="n">
+        <v>7.062</v>
+      </c>
+      <c r="E166" t="n">
+        <v>7.057</v>
+      </c>
+      <c r="F166" t="n">
+        <v>117832.9986</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1480355.952953119</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="C167" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="D167" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="E167" t="n">
+        <v>7.041</v>
+      </c>
+      <c r="F167" t="n">
+        <v>116090.3058</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1596446.258753119</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="C168" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="D168" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="E168" t="n">
+        <v>7.008</v>
+      </c>
+      <c r="F168" t="n">
+        <v>854000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2450446.258753119</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>7.007</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6.975</v>
+      </c>
+      <c r="D169" t="n">
+        <v>7.007</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.975</v>
+      </c>
+      <c r="F169" t="n">
+        <v>109114.6004</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2559560.859153119</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6.854</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.854</v>
+      </c>
+      <c r="F170" t="n">
+        <v>848717.2193999999</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-3408278.078553119</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.854</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6.808</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6.854</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>942946.8524</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-4351224.930953119</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="C172" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.717</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-4357224.930953119</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6.712</v>
+      </c>
+      <c r="C173" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6.723</v>
+      </c>
+      <c r="E173" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>146615.8377</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-4503840.768653119</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>375042.8783</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-4503840.768653119</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>6.695</v>
+      </c>
+      <c r="F175" t="n">
+        <v>269374.632</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-4773215.400653119</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.696</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="E176" t="n">
+        <v>6.696</v>
+      </c>
+      <c r="F176" t="n">
+        <v>108518.6894</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-4881734.090053119</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="E177" t="n">
+        <v>6.697</v>
+      </c>
+      <c r="F177" t="n">
+        <v>116550.1491</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-4765183.940953119</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6.696</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6.696</v>
+      </c>
+      <c r="E178" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F178" t="n">
+        <v>50929.5483</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-4816113.489253119</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D179" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F179" t="n">
+        <v>77045</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-4816113.489253119</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E180" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="F180" t="n">
+        <v>222382.1734</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-4816113.489253119</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E181" t="n">
+        <v>6.678</v>
+      </c>
+      <c r="F181" t="n">
+        <v>630705.2419</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-5446818.731153118</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="D182" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E182" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="F182" t="n">
+        <v>211283.618</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-5446818.731153118</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E183" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F183" t="n">
+        <v>616379.1513</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-4830439.579853118</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="D184" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E184" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F184" t="n">
+        <v>175959.7577</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-4830439.579853118</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="C185" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="E185" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-4826439.579853118</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6.684</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="F186" t="n">
+        <v>129674.6915</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-4956114.271353118</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="C187" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="D187" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6.681</v>
+      </c>
+      <c r="F187" t="n">
+        <v>15130.1959</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-4956114.271353118</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6.668</v>
+      </c>
+      <c r="C188" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="D188" t="n">
+        <v>6.668</v>
+      </c>
+      <c r="E188" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="F188" t="n">
+        <v>400.0004</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-4956514.271753118</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="D189" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="E189" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="F189" t="n">
+        <v>133.6545</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-4956647.926253119</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="K189" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="D190" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="E190" t="n">
+        <v>6.611</v>
+      </c>
+      <c r="F190" t="n">
+        <v>6630</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-4963277.926253119</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>6.644</v>
+      </c>
+      <c r="K190" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
         <v>6.61</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C191" t="n">
         <v>6.6</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D191" t="n">
         <v>6.61</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E191" t="n">
         <v>6.6</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F191" t="n">
         <v>79117.84179999999</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G191" t="n">
         <v>-5042395.768053118</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
         <v>6.611</v>
       </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="K191" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L191" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
         <v>6.61</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C192" t="n">
         <v>6.6</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D192" t="n">
         <v>6.61</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E192" t="n">
         <v>6.6</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F192" t="n">
         <v>308189.2111</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G192" t="n">
         <v>-5042395.768053118</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
         <v>6.6</v>
       </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="K192" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
         <v>6.599</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C193" t="n">
         <v>6.553</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D193" t="n">
         <v>6.606</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E193" t="n">
         <v>6.5</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F193" t="n">
         <v>9106165.780400001</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G193" t="n">
         <v>-14148561.54845312</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
         <v>6.6</v>
       </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="K193" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
         <v>6.577</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C194" t="n">
         <v>6.579</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D194" t="n">
         <v>6.586</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E194" t="n">
         <v>6.565</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F194" t="n">
         <v>742684.1222</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G194" t="n">
         <v>-13405877.42625312</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
         <v>6.602</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C195" t="n">
         <v>6.603</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D195" t="n">
         <v>6.603</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E195" t="n">
         <v>6.602</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F195" t="n">
         <v>511575.2793</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G195" t="n">
         <v>-12894302.14695312</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>6.579</v>
+      </c>
+      <c r="K195" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
         <v>6.603</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C196" t="n">
         <v>6.604</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D196" t="n">
         <v>6.604</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E196" t="n">
         <v>6.603</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F196" t="n">
         <v>32212.4197</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G196" t="n">
         <v>-12862089.72725312</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="K196" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
         <v>6.631</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C197" t="n">
         <v>6.632</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D197" t="n">
         <v>6.632</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E197" t="n">
         <v>6.631</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F197" t="n">
         <v>388253.2343</v>
       </c>
-      <c r="G126" t="n">
+      <c r="G197" t="n">
         <v>-12473836.49295312</v>
       </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
         <v>6.604</v>
       </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="K197" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
         <v>6.632</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C198" t="n">
         <v>6.677</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D198" t="n">
         <v>6.677</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E198" t="n">
         <v>6.632</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F198" t="n">
         <v>353038.0897</v>
       </c>
-      <c r="G127" t="n">
+      <c r="G198" t="n">
         <v>-12120798.40325312</v>
       </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
         <v>6.632</v>
       </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="K198" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
         <v>6.677</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C199" t="n">
         <v>6.677</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D199" t="n">
         <v>6.677</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E199" t="n">
         <v>6.677</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F199" t="n">
         <v>6280.3819</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G199" t="n">
         <v>-12120798.40325312</v>
       </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
         <v>6.677</v>
       </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="K199" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
         <v>6.676</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C200" t="n">
         <v>6.676</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D200" t="n">
         <v>6.676</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E200" t="n">
         <v>6.676</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F200" t="n">
         <v>25585.9302</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G200" t="n">
         <v>-12146384.33345312</v>
       </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
         <v>6.677</v>
       </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="K200" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
         <v>6.678</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C201" t="n">
         <v>6.679</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D201" t="n">
         <v>6.679</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E201" t="n">
         <v>6.64</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F201" t="n">
         <v>244248.3335</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G201" t="n">
         <v>-11902135.99995312</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
         <v>6.676</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="K201" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
         <v>6.68</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C202" t="n">
         <v>6.693</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D202" t="n">
         <v>6.693</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E202" t="n">
         <v>6.68</v>
       </c>
-      <c r="F131" t="n">
+      <c r="F202" t="n">
         <v>10018.9648</v>
       </c>
-      <c r="G131" t="n">
+      <c r="G202" t="n">
         <v>-11892117.03515312</v>
       </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
         <v>6.679</v>
       </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="K202" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
         <v>6.658</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C203" t="n">
         <v>6.658</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D203" t="n">
         <v>6.658</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E203" t="n">
         <v>6.658</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F203" t="n">
         <v>9223.1644</v>
       </c>
-      <c r="G132" t="n">
+      <c r="G203" t="n">
         <v>-11901340.19955312</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="K203" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
         <v>6.68</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C204" t="n">
         <v>6.67</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D204" t="n">
         <v>6.68</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E204" t="n">
         <v>6.669</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F204" t="n">
         <v>58376.0952</v>
       </c>
-      <c r="G133" t="n">
+      <c r="G204" t="n">
         <v>-11842964.10435312</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="K204" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
         <v>6.694</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C205" t="n">
         <v>6.698</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D205" t="n">
         <v>6.698</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E205" t="n">
         <v>6.694</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F205" t="n">
         <v>87191.6076</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G205" t="n">
         <v>-11755772.49675312</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="K205" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
         <v>6.661</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C206" t="n">
         <v>6.661</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D206" t="n">
         <v>6.661</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E206" t="n">
         <v>6.661</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F206" t="n">
         <v>6018</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G206" t="n">
         <v>-11761790.49675312</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
         <v>6.698</v>
       </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="K206" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
         <v>6.698</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C207" t="n">
         <v>6.698</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D207" t="n">
         <v>6.698</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E207" t="n">
         <v>6.698</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F207" t="n">
         <v>32189.6568</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G207" t="n">
         <v>-11729600.83995312</v>
       </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
         <v>6.661</v>
       </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="K207" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
         <v>6.66</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C208" t="n">
         <v>6.66</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D208" t="n">
         <v>6.66</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E208" t="n">
         <v>6.66</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F208" t="n">
         <v>5217.5001</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G208" t="n">
         <v>-11734818.34005312</v>
       </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
         <v>6.698</v>
       </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="K208" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
         <v>6.66</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C209" t="n">
         <v>6.66</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D209" t="n">
         <v>6.66</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E209" t="n">
         <v>6.66</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F209" t="n">
         <v>642325.5037999999</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G209" t="n">
         <v>-11734818.34005312</v>
       </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
         <v>6.66</v>
       </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="K209" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
         <v>6.643</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C210" t="n">
         <v>6.643</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D210" t="n">
         <v>6.643</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E210" t="n">
         <v>6.643</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F210" t="n">
         <v>50000</v>
       </c>
-      <c r="G139" t="n">
+      <c r="G210" t="n">
         <v>-11784818.34005312</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
         <v>6.66</v>
       </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="K210" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
         <v>6.623</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C211" t="n">
         <v>6.623</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D211" t="n">
         <v>6.623</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E211" t="n">
         <v>6.623</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F211" t="n">
         <v>150.838</v>
       </c>
-      <c r="G140" t="n">
+      <c r="G211" t="n">
         <v>-11784969.17805312</v>
       </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
         <v>6.629</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C212" t="n">
         <v>6.63</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D212" t="n">
         <v>6.63</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E212" t="n">
         <v>6.6</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F212" t="n">
         <v>117336.4222</v>
       </c>
-      <c r="G141" t="n">
+      <c r="G212" t="n">
         <v>-11667632.75585312</v>
       </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
         <v>6.621</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C213" t="n">
         <v>6.621</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D213" t="n">
         <v>6.621</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E213" t="n">
         <v>6.621</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F213" t="n">
         <v>1510.345869204048</v>
       </c>
-      <c r="G142" t="n">
+      <c r="G213" t="n">
         <v>-11669143.10172232</v>
       </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
         <v>6.622</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C214" t="n">
         <v>6.627</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D214" t="n">
         <v>6.627</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E214" t="n">
         <v>6.622</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F214" t="n">
         <v>274731.9615</v>
       </c>
-      <c r="G143" t="n">
+      <c r="G214" t="n">
         <v>-11394411.14022232</v>
       </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
         <v>6.621</v>
       </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="K214" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
         <v>6.626</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C215" t="n">
         <v>6.627</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D215" t="n">
         <v>6.627</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E215" t="n">
         <v>6.626</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F215" t="n">
         <v>217464.8651</v>
       </c>
-      <c r="G144" t="n">
+      <c r="G215" t="n">
         <v>-11394411.14022232</v>
       </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
         <v>6.627</v>
       </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+      <c r="K215" t="n">
+        <v>6.656</v>
+      </c>
+      <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-20 BackTest VET.xlsx
+++ b/BackTest/2020-01-20 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-702652.1523000004</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-548565.1029000004</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-548637.1029000004</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-548565.1029000004</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-548494.1029000004</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-621456.3021000004</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>-621383.3021000004</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-621310.3021000004</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-547290.4115000004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-547806.0997000004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-1270132.9622</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-1342381.9815</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-901701.4875000004</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-3436541.3485</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-3353218.5168</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-3172136.5342</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-3206191.0624</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-3456020.9222</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-3396408.82</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-4046573.6661</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-4572412.136</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-4426784.1359</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-4384795.540800001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4015,15 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,18 +5632,15 @@
         <v>-1648308.444553119</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +5665,15 @@
         <v>-1648308.444553119</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6180,18 +5698,15 @@
         <v>-1571045.265653119</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6432,18 +5929,15 @@
         <v>-2450446.258753119</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6468,18 +5962,15 @@
         <v>-2559560.859153119</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6684,18 +6160,15 @@
         <v>-4773215.400653119</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6720,18 +6193,15 @@
         <v>-4881734.090053119</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6756,18 +6226,15 @@
         <v>-4765183.940953119</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6828,18 +6292,15 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7188,22 +6622,15 @@
         <v>-4956647.926253119</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="K189" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7228,26 +6655,15 @@
         <v>-4963277.926253119</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>6.644</v>
-      </c>
-      <c r="K190" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7272,1076 +6688,909 @@
         <v>-5042395.768053118</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>6.611</v>
-      </c>
-      <c r="K191" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="C192" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F192" t="n">
+        <v>308189.2111</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-5042395.768053118</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6.599</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="D193" t="n">
+        <v>6.606</v>
+      </c>
+      <c r="E193" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>9106165.780400001</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-14148561.54845312</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6.577</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.579</v>
+      </c>
+      <c r="D194" t="n">
+        <v>6.586</v>
+      </c>
+      <c r="E194" t="n">
+        <v>6.565</v>
+      </c>
+      <c r="F194" t="n">
+        <v>742684.1222</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-13405877.42625312</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6.602</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="D195" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="E195" t="n">
+        <v>6.602</v>
+      </c>
+      <c r="F195" t="n">
+        <v>511575.2793</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-12894302.14695312</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="C196" t="n">
+        <v>6.604</v>
+      </c>
+      <c r="D196" t="n">
+        <v>6.604</v>
+      </c>
+      <c r="E196" t="n">
+        <v>6.603</v>
+      </c>
+      <c r="F196" t="n">
+        <v>32212.4197</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-12862089.72725312</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="C197" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="E197" t="n">
+        <v>6.631</v>
+      </c>
+      <c r="F197" t="n">
+        <v>388253.2343</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-12473836.49295312</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="D198" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="F198" t="n">
+        <v>353038.0897</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-12120798.40325312</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+      <c r="I198" t="n">
+        <v>6.632</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="C192" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D192" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="E192" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F192" t="n">
-        <v>308189.2111</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-5042395.768053118</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K192" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="D199" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="E199" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="F199" t="n">
+        <v>6280.3819</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-12120798.40325312</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+      <c r="I199" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>6.599</v>
-      </c>
-      <c r="C193" t="n">
-        <v>6.553</v>
-      </c>
-      <c r="D193" t="n">
-        <v>6.606</v>
-      </c>
-      <c r="E193" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F193" t="n">
-        <v>9106165.780400001</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-14148561.54845312</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K193" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="C200" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="D200" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="E200" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25585.9302</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-12146384.33345312</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
+      </c>
+      <c r="I200" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>6.577</v>
-      </c>
-      <c r="C194" t="n">
-        <v>6.579</v>
-      </c>
-      <c r="D194" t="n">
-        <v>6.586</v>
-      </c>
-      <c r="E194" t="n">
-        <v>6.565</v>
-      </c>
-      <c r="F194" t="n">
-        <v>742684.1222</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-13405877.42625312</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6.678</v>
+      </c>
+      <c r="C201" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="D201" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="E201" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F201" t="n">
+        <v>244248.3335</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-11902135.99995312</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2</v>
+      </c>
+      <c r="I201" t="n">
+        <v>6.676</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>6.602</v>
-      </c>
-      <c r="C195" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="D195" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="E195" t="n">
-        <v>6.602</v>
-      </c>
-      <c r="F195" t="n">
-        <v>511575.2793</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-12894302.14695312</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>6.579</v>
-      </c>
-      <c r="K195" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="D202" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="E202" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F202" t="n">
+        <v>10018.9648</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-11892117.03515312</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+      <c r="I202" t="n">
+        <v>6.679</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="C196" t="n">
-        <v>6.604</v>
-      </c>
-      <c r="D196" t="n">
-        <v>6.604</v>
-      </c>
-      <c r="E196" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="F196" t="n">
-        <v>32212.4197</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-12862089.72725312</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>6.603</v>
-      </c>
-      <c r="K196" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="C203" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="D203" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="E203" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="F203" t="n">
+        <v>9223.1644</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-11901340.19955312</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+      <c r="I203" t="n">
+        <v>6.693</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>6.631</v>
-      </c>
-      <c r="C197" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="D197" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="E197" t="n">
-        <v>6.631</v>
-      </c>
-      <c r="F197" t="n">
-        <v>388253.2343</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-12473836.49295312</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>6.604</v>
-      </c>
-      <c r="K197" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E204" t="n">
+        <v>6.669</v>
+      </c>
+      <c r="F204" t="n">
+        <v>58376.0952</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-11842964.10435312</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2</v>
+      </c>
+      <c r="I204" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="C198" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="D198" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="E198" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="F198" t="n">
-        <v>353038.0897</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-12120798.40325312</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>6.632</v>
-      </c>
-      <c r="K198" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6.694</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="E205" t="n">
+        <v>6.694</v>
+      </c>
+      <c r="F205" t="n">
+        <v>87191.6076</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-11755772.49675312</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+      <c r="I205" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="C199" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="D199" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="E199" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="F199" t="n">
-        <v>6280.3819</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-12120798.40325312</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="K199" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="C206" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="D206" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="E206" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="F206" t="n">
+        <v>6018</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-11761790.49675312</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2</v>
+      </c>
+      <c r="I206" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="C200" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="D200" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="E200" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="F200" t="n">
-        <v>25585.9302</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-12146384.33345312</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="K200" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="C207" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="E207" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="F207" t="n">
+        <v>32189.6568</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-11729600.83995312</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2</v>
+      </c>
+      <c r="I207" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>6.678</v>
-      </c>
-      <c r="C201" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="D201" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="E201" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="F201" t="n">
-        <v>244248.3335</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-11902135.99995312</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>6.676</v>
-      </c>
-      <c r="K201" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D208" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E208" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F208" t="n">
+        <v>5217.5001</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-11734818.34005312</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C202" t="n">
-        <v>6.693</v>
-      </c>
-      <c r="D202" t="n">
-        <v>6.693</v>
-      </c>
-      <c r="E202" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F202" t="n">
-        <v>10018.9648</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-11892117.03515312</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>6.679</v>
-      </c>
-      <c r="K202" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="C209" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="D209" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F209" t="n">
+        <v>642325.5037999999</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-11734818.34005312</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2</v>
+      </c>
+      <c r="I209" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="C203" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="D203" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="E203" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="F203" t="n">
-        <v>9223.1644</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-11901340.19955312</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>6.693</v>
-      </c>
-      <c r="K203" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="D210" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="E210" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="F210" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-11784818.34005312</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
+      <c r="I210" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="C204" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="D204" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="E204" t="n">
-        <v>6.669</v>
-      </c>
-      <c r="F204" t="n">
-        <v>58376.0952</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-11842964.10435312</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="K204" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="E211" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="F211" t="n">
+        <v>150.838</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-11784969.17805312</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
+      <c r="I211" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>6.694</v>
-      </c>
-      <c r="C205" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="D205" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="E205" t="n">
-        <v>6.694</v>
-      </c>
-      <c r="F205" t="n">
-        <v>87191.6076</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-11755772.49675312</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K205" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>6.629</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="D212" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E212" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F212" t="n">
+        <v>117336.4222</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-11667632.75585312</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+      <c r="I212" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="C206" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="D206" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="E206" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="F206" t="n">
-        <v>6018</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-11761790.49675312</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="K206" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="C213" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="E213" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1510.345869204048</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-11669143.10172232</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="C207" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="D207" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="E207" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="F207" t="n">
-        <v>32189.6568</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-11729600.83995312</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="K207" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="D214" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="E214" t="n">
+        <v>6.622</v>
+      </c>
+      <c r="F214" t="n">
+        <v>274731.9615</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-11394411.14022232</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="D208" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E208" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="F208" t="n">
-        <v>5217.5001</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-11734818.34005312</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="K208" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6.626</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="D215" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="E215" t="n">
+        <v>6.626</v>
+      </c>
+      <c r="F215" t="n">
+        <v>217464.8651</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-11394411.14022232</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="C209" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="D209" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="E209" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="F209" t="n">
-        <v>642325.5037999999</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-11734818.34005312</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K209" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="C210" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="D210" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="E210" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="F210" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-11784818.34005312</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K210" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="C211" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="D211" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="E211" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="F211" t="n">
-        <v>150.838</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-11784969.17805312</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>6.629</v>
-      </c>
-      <c r="C212" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="D212" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="E212" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F212" t="n">
-        <v>117336.4222</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-11667632.75585312</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="C213" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="D213" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="E213" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1510.345869204048</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-11669143.10172232</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>6.622</v>
-      </c>
-      <c r="C214" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="D214" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="E214" t="n">
-        <v>6.622</v>
-      </c>
-      <c r="F214" t="n">
-        <v>274731.9615</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-11394411.14022232</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="K214" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>6.626</v>
-      </c>
-      <c r="C215" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="D215" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="E215" t="n">
-        <v>6.626</v>
-      </c>
-      <c r="F215" t="n">
-        <v>217464.8651</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-11394411.14022232</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="K215" t="n">
-        <v>6.656</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest VET.xlsx
+++ b/BackTest/2020-01-20 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-702652.1523000004</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-548565.1029000004</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-548637.1029000004</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-548565.1029000004</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-548494.1029000004</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-621456.3021000004</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-621383.3021000004</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-621310.3021000004</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-621310.3021000004</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-621390.0926000004</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-687066.1806000004</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-687140.5096000005</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-711017.1806000004</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-632198.1806000004</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-581907.1806000004</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-567433.5664000005</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-567433.5664000005</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-561577.5718000004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-566663.0432000004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-547290.4115000004</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-547806.0997000004</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1270132.9622</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1342381.9815</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-773850.4733000004</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-901701.4875000004</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3715583.3071</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3559234.7758</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3568456.8757</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3573033.7999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3567500.7749</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3560127.6405</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3422077.6991</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3559179.692400001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3552837.1464</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3529869.6967</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3529869.6967</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3334066.2968</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3606177.9359</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3482825.3485</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3436541.3485</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3353218.5168</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3172136.5342</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3201850.5342</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3206191.0624</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3456020.9222</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3396408.82</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3939235.6006</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3939163.6006</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-4012045.6006</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-4075562.416000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-4395899.781</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-4281562.416</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-4238039.5248</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4032423.4903</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-4033824.0564</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-4060255.9903</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4046573.6661</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4032253.1672</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4064678.484199999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4983600.6866</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4572412.136</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-4426784.1359</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4384795.540800001</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-4405021.997500001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4487903.768</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3577149.272702514</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2934537.926802514</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2934537.926802514</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-2934537.926802514</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-2934537.926802514</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>382169.6908974857</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>324141.2933974857</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>406676.6798974857</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>151528.3947974857</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>145339.4197974857</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>145339.4197974857</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1415688.727102514</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1472184.070202514</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1484337.070202514</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1484337.070202514</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1494426.42413851</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1500801.59913851</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1534959.36373851</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1534959.36373851</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1662287.65373851</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1664959.36373851</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1664959.36363851</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1664959.36363851</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-1648308.444553119</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1648308.444553119</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-1571045.265653119</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1696949.129853119</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1583069.015053119</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1598188.951553119</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1480355.952953119</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1596446.258753119</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2450446.258753119</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2559560.859153119</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3408278.078553119</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4351224.930953119</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4357224.930953119</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-4503840.768653119</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-4503840.768653119</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-4773215.400653119</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-4881734.090053119</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-4765183.940953119</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-5446818.731153118</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-5446818.731153118</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4830439.579853118</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4830439.579853118</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-4826439.579853118</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-4956114.271353118</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-4963277.926253119</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-5042395.768053118</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-5042395.768053118</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6919,17 +6919,11 @@
         <v>-12120798.40325312</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>6.632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6958,17 +6952,11 @@
         <v>-12120798.40325312</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>6.677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6997,17 +6985,11 @@
         <v>-12146384.33345312</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>6.677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7036,17 +7018,11 @@
         <v>-11902135.99995312</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>6.676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7075,17 +7051,11 @@
         <v>-11892117.03515312</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>6.679</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7114,17 +7084,11 @@
         <v>-11901340.19955312</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>6.693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7153,17 +7117,11 @@
         <v>-11842964.10435312</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>6.658</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7192,17 +7150,11 @@
         <v>-11755772.49675312</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>6.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7231,17 +7183,11 @@
         <v>-11761790.49675312</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>6.698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7270,17 +7216,11 @@
         <v>-11729600.83995312</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>6.661</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7313,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7346,17 +7282,11 @@
         <v>-11734818.34005312</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>6.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7385,17 +7315,11 @@
         <v>-11784818.34005312</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>6.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7424,17 +7348,11 @@
         <v>-11784969.17805312</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>6.643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7463,17 +7381,11 @@
         <v>-11667632.75585312</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="n">
-        <v>6.623</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7506,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7539,15 +7447,15 @@
         <v>-11394411.14022232</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="J214" t="n">
+        <v>6.621</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7576,13 +7484,17 @@
         <v>-11394411.14022232</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>6.627</v>
+      </c>
+      <c r="J215" t="n">
+        <v>6.621</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -7591,6 +7503,6 @@
       <c r="M215" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest VET.xlsx
+++ b/BackTest/2020-01-20 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>-548494.1029000004</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-621456.3021000004</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-621383.3021000004</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-621310.3021000004</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-621310.3021000004</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-621390.0926000004</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-687066.1806000004</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-687140.5096000005</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-711017.1806000004</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-632198.1806000004</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-581907.1806000004</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-567433.5664000005</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-561577.5718000004</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-566663.0432000004</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-773850.4733000004</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3715583.3071</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3559234.7758</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-3568456.8757</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-3573033.7999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-3422077.6991</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-3559179.692400001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3552837.1464</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3529869.6967</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3529869.6967</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3334066.2968</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3606177.9359</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3436541.3485</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3353218.5168</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3172136.5342</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3201850.5342</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3206191.0624</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3769552.5222</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3770452.5222</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3847270.507300001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3849270.507300001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3849570.507300001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3939235.6006</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-4060255.9903</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4032253.1672</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-4064678.484199999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4384795.540800001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-4405021.997500001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4487903.768</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3577149.272702514</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2934537.926802514</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2934537.926802514</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-2934537.926802514</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-2934537.926802514</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>382169.6908974857</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>324141.2933974857</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>406676.6798974857</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>151528.3947974857</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>145339.4197974857</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>145339.4197974857</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1415688.727102514</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1472184.070202514</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1484337.070202514</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1484337.070202514</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1561629.86463851</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1561485.86463851</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1591252.86463851</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1602826.86463851</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1602755.69023851</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1401688.29243851</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1401688.29243851</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1343688.29243851</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1343952.994153119</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1696949.129853119</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1583069.015053119</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1598188.951553119</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1480355.952953119</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-4765183.940953119</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-5446818.731153118</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-4956114.271353118</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-4956514.271753118</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-4956647.926253119</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7183,10 +7183,14 @@
         <v>-11761790.49675312</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="J206" t="n">
+        <v>6.698</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
@@ -7216,11 +7220,19 @@
         <v>-11729600.83995312</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>6.661</v>
+      </c>
+      <c r="J207" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7261,19 @@
         <v>-11734818.34005312</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="J208" t="n">
+        <v>6.698</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,10 +7302,14 @@
         <v>-11734818.34005312</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="J209" t="n">
+        <v>6.66</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
@@ -7315,11 +7339,19 @@
         <v>-11784818.34005312</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="J210" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7380,19 @@
         <v>-11784969.17805312</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="J211" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7421,19 @@
         <v>-11667632.75585312</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>6.623</v>
+      </c>
+      <c r="J212" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +7462,19 @@
         <v>-11669143.10172232</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="J213" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7453,9 +7509,13 @@
         <v>6.621</v>
       </c>
       <c r="J214" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
+        <v>6.66</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7490,11 +7550,11 @@
         <v>6.627</v>
       </c>
       <c r="J215" t="n">
-        <v>6.621</v>
+        <v>6.66</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -7503,6 +7563,6 @@
       <c r="M215" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest VET.xlsx
+++ b/BackTest/2020-01-20 BackTest VET.xlsx
@@ -715,7 +715,7 @@
         <v>-621456.3021000004</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-621383.3021000004</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-621310.3021000004</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-621390.0926000004</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-567433.5664000005</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-561577.5718000004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-547290.4115000004</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-547806.0997000004</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1270132.9622</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-896682.4875000004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-3567500.7749</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3560127.6405</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3482825.3485</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3353218.5168</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3172136.5342</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3201850.5342</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3206191.0624</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3175970.2096</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3456020.9222</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3351214.8711</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3769552.5222</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3770452.5222</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3847270.507300001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3849270.507300001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3849570.507300001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3939163.6006</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-4012045.6006</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-4075562.416000001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-4395899.781</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-4281562.416</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-4238039.5248</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4032423.4903</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-4033824.0564</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4046573.6661</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-4983600.6866</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-4572412.136</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-4426784.1359</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>406676.6798974857</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>406676.6798974857</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>151528.3947974857</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>145339.4197974857</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>145339.4197974857</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1415688.727102514</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1472184.070202514</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1484337.070202514</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1534959.36373851</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1534959.36373851</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1662287.65373851</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1664959.36373851</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1664959.36363851</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1664959.36363851</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1561629.86463851</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1561485.86463851</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1591252.86463851</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1602826.86463851</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1602755.69023851</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1401688.29243851</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1401688.29243851</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1343688.29243851</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1343952.994153119</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-1696949.129853119</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1583069.015053119</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1598188.951553119</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1480355.952953119</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2450446.258753119</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2559560.859153119</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3408278.078553119</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4351224.930953119</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4357224.930953119</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-4503840.768653119</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-4503840.768653119</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-4773215.400653119</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-4881734.090053119</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-5446818.731153118</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4830439.579853118</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4830439.579853118</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-4826439.579853118</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-4956114.271353118</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-4956114.271353118</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-4956514.271753118</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-4956647.926253119</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-4963277.926253119</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-5042395.768053118</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-5042395.768053118</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7117,10 +7117,14 @@
         <v>-11842964.10435312</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="J204" t="n">
+        <v>6.658</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
@@ -7153,8 +7157,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6.658</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,15 +7193,17 @@
         <v>-11761790.49675312</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>6.698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+        <v>6.658</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7226,13 +7238,9 @@
         <v>6.661</v>
       </c>
       <c r="J207" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>6.661</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7267,7 +7275,7 @@
         <v>6.698</v>
       </c>
       <c r="J208" t="n">
-        <v>6.698</v>
+        <v>6.661</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7302,15 +7310,17 @@
         <v>-11734818.34005312</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>6.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+        <v>6.661</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7339,19 +7349,11 @@
         <v>-11784818.34005312</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="J210" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7386,13 +7388,9 @@
         <v>6.643</v>
       </c>
       <c r="J211" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>6.643</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7427,7 +7425,7 @@
         <v>6.623</v>
       </c>
       <c r="J212" t="n">
-        <v>6.66</v>
+        <v>6.643</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7468,7 +7466,7 @@
         <v>6.63</v>
       </c>
       <c r="J213" t="n">
-        <v>6.66</v>
+        <v>6.643</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7509,7 +7507,7 @@
         <v>6.621</v>
       </c>
       <c r="J214" t="n">
-        <v>6.66</v>
+        <v>6.643</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7550,7 +7548,7 @@
         <v>6.627</v>
       </c>
       <c r="J215" t="n">
-        <v>6.66</v>
+        <v>6.643</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>

--- a/BackTest/2020-01-20 BackTest VET.xlsx
+++ b/BackTest/2020-01-20 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>146.5347</v>
       </c>
       <c r="G2" t="n">
-        <v>-680116.4038000003</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>74</v>
       </c>
       <c r="G3" t="n">
-        <v>-680190.4038000003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>113.5108</v>
       </c>
       <c r="G4" t="n">
-        <v>-680303.9146000004</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>22348.2377</v>
       </c>
       <c r="G5" t="n">
-        <v>-702652.1523000004</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>154087.0494</v>
       </c>
       <c r="G6" t="n">
-        <v>-548565.1029000004</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>72</v>
       </c>
       <c r="G7" t="n">
-        <v>-548637.1029000004</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>72</v>
       </c>
       <c r="G8" t="n">
-        <v>-548565.1029000004</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>-548494.1029000004</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>72962.1992</v>
       </c>
       <c r="G10" t="n">
-        <v>-621456.3021000004</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>73</v>
       </c>
       <c r="G11" t="n">
-        <v>-621383.3021000004</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>73</v>
       </c>
       <c r="G12" t="n">
-        <v>-621310.3021000004</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>74.657</v>
       </c>
       <c r="G13" t="n">
-        <v>-621310.3021000004</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>79.79049999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-621390.0926000004</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>65676.088</v>
       </c>
       <c r="G15" t="n">
-        <v>-687066.1806000004</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>74.32899999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-687140.5096000005</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>23876.671</v>
       </c>
       <c r="G17" t="n">
-        <v>-711017.1806000004</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>78819</v>
       </c>
       <c r="G18" t="n">
-        <v>-632198.1806000004</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>50291</v>
       </c>
       <c r="G19" t="n">
-        <v>-581907.1806000004</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>14473.6142</v>
       </c>
       <c r="G20" t="n">
-        <v>-567433.5664000005</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>13762.4121</v>
       </c>
       <c r="G21" t="n">
-        <v>-567433.5664000005</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>8443.666499999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-558989.8999000004</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>40335.9115</v>
       </c>
       <c r="G23" t="n">
-        <v>-558989.8999000004</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>63846</v>
       </c>
       <c r="G24" t="n">
-        <v>-558989.8999000004</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3710.6351</v>
       </c>
       <c r="G25" t="n">
-        <v>-558989.8999000004</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>2587.6719</v>
       </c>
       <c r="G26" t="n">
-        <v>-561577.5718000004</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>5085.4714</v>
       </c>
       <c r="G27" t="n">
-        <v>-566663.0432000004</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>9000</v>
       </c>
       <c r="G28" t="n">
-        <v>-557663.0432000004</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>315.2747</v>
       </c>
       <c r="G29" t="n">
-        <v>-557347.7685000005</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>8799.8318</v>
       </c>
       <c r="G30" t="n">
-        <v>-548547.9367000004</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>147084.3171</v>
       </c>
       <c r="G31" t="n">
-        <v>-548547.9367000004</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>6778.1486</v>
       </c>
       <c r="G32" t="n">
-        <v>-548547.9367000004</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2903.8287</v>
       </c>
       <c r="G33" t="n">
-        <v>-548547.9367000004</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1257.5252</v>
       </c>
       <c r="G34" t="n">
-        <v>-547290.4115000004</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>515.6882000000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-547806.0997000004</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>722326.8625</v>
       </c>
       <c r="G36" t="n">
-        <v>-1270132.9622</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>72249.0193</v>
       </c>
       <c r="G37" t="n">
-        <v>-1342381.9815</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>568531.5082</v>
       </c>
       <c r="G38" t="n">
-        <v>-773850.4733000004</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>73220</v>
       </c>
       <c r="G39" t="n">
-        <v>-700630.4733000004</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>196052.0142</v>
       </c>
       <c r="G40" t="n">
-        <v>-896682.4875000004</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>5019</v>
       </c>
       <c r="G41" t="n">
-        <v>-901701.4875000004</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2817278.2809</v>
       </c>
       <c r="G42" t="n">
-        <v>-3718979.7684</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>3396.4613</v>
       </c>
       <c r="G43" t="n">
-        <v>-3715583.3071</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>156348.5313</v>
       </c>
       <c r="G44" t="n">
-        <v>-3559234.7758</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>9222.099899999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-3568456.8757</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>4576.9242</v>
       </c>
       <c r="G46" t="n">
-        <v>-3573033.7999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>5533.025</v>
       </c>
       <c r="G47" t="n">
-        <v>-3567500.7749</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>7373.1344</v>
       </c>
       <c r="G48" t="n">
-        <v>-3560127.6405</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>138049.9414</v>
       </c>
       <c r="G49" t="n">
-        <v>-3422077.6991</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>137101.9933</v>
       </c>
       <c r="G50" t="n">
-        <v>-3559179.692400001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>6342.546</v>
       </c>
       <c r="G51" t="n">
-        <v>-3552837.1464</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>22967.4497</v>
       </c>
       <c r="G52" t="n">
-        <v>-3529869.6967</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>100000</v>
       </c>
       <c r="G53" t="n">
-        <v>-3529869.6967</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>195803.3999</v>
       </c>
       <c r="G54" t="n">
-        <v>-3334066.2968</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>272111.6391</v>
       </c>
       <c r="G55" t="n">
-        <v>-3606177.9359</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>123352.5874</v>
       </c>
       <c r="G56" t="n">
-        <v>-3482825.3485</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>46284</v>
       </c>
       <c r="G57" t="n">
-        <v>-3436541.3485</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>83322.8317</v>
       </c>
       <c r="G58" t="n">
-        <v>-3353218.5168</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>181081.9826</v>
       </c>
       <c r="G59" t="n">
-        <v>-3172136.5342</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>29714</v>
       </c>
       <c r="G60" t="n">
-        <v>-3201850.5342</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>4340.5282</v>
       </c>
       <c r="G61" t="n">
-        <v>-3206191.0624</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>30220.8528</v>
       </c>
       <c r="G62" t="n">
-        <v>-3175970.2096</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>280050.7126</v>
       </c>
       <c r="G63" t="n">
-        <v>-3456020.9222</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>104806.0511</v>
       </c>
       <c r="G64" t="n">
-        <v>-3351214.8711</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>45193.9489</v>
       </c>
       <c r="G65" t="n">
-        <v>-3396408.82</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>378000</v>
       </c>
       <c r="G66" t="n">
-        <v>-3774408.82</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>4856.2978</v>
       </c>
       <c r="G67" t="n">
-        <v>-3769552.5222</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>900</v>
       </c>
       <c r="G68" t="n">
-        <v>-3770452.5222</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>76817.98510000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-3847270.507300001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2000</v>
       </c>
       <c r="G70" t="n">
-        <v>-3849270.507300001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>300</v>
       </c>
       <c r="G71" t="n">
-        <v>-3849570.507300001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>89665.09329999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-3939235.6006</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>72</v>
       </c>
       <c r="G73" t="n">
-        <v>-3939163.6006</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>72882</v>
       </c>
       <c r="G74" t="n">
-        <v>-4012045.6006</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>63516.8154</v>
       </c>
       <c r="G75" t="n">
-        <v>-4075562.416000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>320337.365</v>
       </c>
       <c r="G76" t="n">
-        <v>-4395899.781</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>114337.365</v>
       </c>
       <c r="G77" t="n">
-        <v>-4281562.416</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>43522.8912</v>
       </c>
       <c r="G78" t="n">
-        <v>-4238039.5248</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>205616.0345</v>
       </c>
       <c r="G79" t="n">
-        <v>-4032423.4903</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1400.5661</v>
       </c>
       <c r="G80" t="n">
-        <v>-4033824.0564</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>26431.9339</v>
       </c>
       <c r="G81" t="n">
-        <v>-4060255.9903</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>13682.3242</v>
       </c>
       <c r="G82" t="n">
-        <v>-4046573.6661</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>14320.4989</v>
       </c>
       <c r="G83" t="n">
-        <v>-4032253.1672</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>32425.317</v>
       </c>
       <c r="G84" t="n">
-        <v>-4064678.484199999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>918922.2024</v>
       </c>
       <c r="G85" t="n">
-        <v>-4983600.6866</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>411188.5506</v>
       </c>
       <c r="G86" t="n">
-        <v>-4572412.136</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>234516.0001</v>
       </c>
       <c r="G87" t="n">
-        <v>-4337896.1359</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>30000</v>
       </c>
       <c r="G88" t="n">
-        <v>-4337896.1359</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>41282.9343</v>
       </c>
       <c r="G89" t="n">
-        <v>-4337896.1359</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>88888</v>
       </c>
       <c r="G90" t="n">
-        <v>-4426784.1359</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>41988.5951</v>
       </c>
       <c r="G91" t="n">
-        <v>-4384795.540800001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>27539.2038</v>
       </c>
       <c r="G92" t="n">
-        <v>-4412334.744600001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>16898.044</v>
       </c>
       <c r="G93" t="n">
-        <v>-4395436.700600001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>13185.0442</v>
       </c>
       <c r="G94" t="n">
-        <v>-4382251.656400001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>117300</v>
       </c>
       <c r="G95" t="n">
-        <v>-4499551.656400001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>0.0001</v>
       </c>
       <c r="G96" t="n">
-        <v>-4499551.656300001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>11000</v>
       </c>
       <c r="G97" t="n">
-        <v>-4510551.656300001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>105529.6588</v>
       </c>
       <c r="G98" t="n">
-        <v>-4405021.997500001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>82881.7705</v>
       </c>
       <c r="G99" t="n">
-        <v>-4487903.768</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>910754.4952974862</v>
       </c>
       <c r="G100" t="n">
-        <v>-3577149.272702514</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>642611.3459</v>
       </c>
       <c r="G101" t="n">
-        <v>-2934537.926802514</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>125754.8175</v>
       </c>
       <c r="G102" t="n">
-        <v>-2934537.926802514</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>231901.5358</v>
       </c>
       <c r="G103" t="n">
-        <v>-2934537.926802514</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1356516.9605</v>
       </c>
       <c r="G104" t="n">
-        <v>-2934537.926802514</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>100000</v>
       </c>
       <c r="G105" t="n">
-        <v>-3034537.926802514</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>3416707.6177</v>
       </c>
       <c r="G106" t="n">
-        <v>382169.6908974857</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>58028.3975</v>
       </c>
       <c r="G107" t="n">
-        <v>324141.2933974857</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>53000.3865</v>
       </c>
       <c r="G108" t="n">
-        <v>377141.6798974857</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>6766.26</v>
       </c>
       <c r="G109" t="n">
-        <v>377141.6798974857</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>26352.4</v>
       </c>
       <c r="G110" t="n">
-        <v>377141.6798974857</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>5965.137</v>
       </c>
       <c r="G111" t="n">
-        <v>377141.6798974857</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>29535</v>
       </c>
       <c r="G112" t="n">
-        <v>406676.6798974857</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>458935.9008</v>
       </c>
       <c r="G113" t="n">
-        <v>406676.6798974857</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>76817.98510000001</v>
       </c>
       <c r="G114" t="n">
-        <v>329858.6947974857</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>7659</v>
       </c>
       <c r="G115" t="n">
-        <v>329858.6947974857</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>62900</v>
       </c>
       <c r="G116" t="n">
-        <v>329858.6947974857</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>102800.3548</v>
       </c>
       <c r="G117" t="n">
-        <v>329858.6947974857</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>120997.5478</v>
       </c>
       <c r="G118" t="n">
-        <v>329858.6947974857</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>408437.0202</v>
       </c>
       <c r="G119" t="n">
-        <v>329858.6947974857</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>142.8007</v>
       </c>
       <c r="G120" t="n">
-        <v>329858.6947974857</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>100604.1968</v>
       </c>
       <c r="G121" t="n">
-        <v>329858.6947974857</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>88719</v>
       </c>
       <c r="G122" t="n">
-        <v>329858.6947974857</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>178330.3</v>
       </c>
       <c r="G123" t="n">
-        <v>151528.3947974857</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>6188.975</v>
       </c>
       <c r="G124" t="n">
-        <v>145339.4197974857</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>335865.3112</v>
       </c>
       <c r="G125" t="n">
-        <v>145339.4197974857</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>1561028.1469</v>
       </c>
       <c r="G126" t="n">
-        <v>-1415688.727102514</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>56495.3431</v>
       </c>
       <c r="G127" t="n">
-        <v>-1472184.070202514</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>12153</v>
       </c>
       <c r="G128" t="n">
-        <v>-1484337.070202514</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>12967</v>
       </c>
       <c r="G129" t="n">
-        <v>-1484337.070202514</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>10231.9666</v>
       </c>
       <c r="G130" t="n">
-        <v>-1494569.036802514</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>5527.5436</v>
       </c>
       <c r="G131" t="n">
-        <v>-1494569.036802514</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>8036.0431</v>
       </c>
       <c r="G132" t="n">
-        <v>-1494569.036802514</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>4898.3369</v>
       </c>
       <c r="G133" t="n">
-        <v>-1494569.036802514</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>142.6126640045636</v>
       </c>
       <c r="G134" t="n">
-        <v>-1494426.42413851</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>6375.175</v>
       </c>
       <c r="G135" t="n">
-        <v>-1500801.59913851</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>34157.7646</v>
       </c>
       <c r="G136" t="n">
-        <v>-1534959.36373851</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>19807.4998</v>
       </c>
       <c r="G137" t="n">
-        <v>-1534959.36373851</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>127328.29</v>
       </c>
       <c r="G138" t="n">
-        <v>-1662287.65373851</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>2671.71</v>
       </c>
       <c r="G139" t="n">
-        <v>-1664959.36373851</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>0.0001</v>
       </c>
       <c r="G140" t="n">
-        <v>-1664959.36363851</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>13552.9891</v>
       </c>
       <c r="G141" t="n">
-        <v>-1664959.36363851</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>103329.499</v>
       </c>
       <c r="G142" t="n">
-        <v>-1561629.86463851</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>144</v>
       </c>
       <c r="G143" t="n">
-        <v>-1561485.86463851</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>29767</v>
       </c>
       <c r="G144" t="n">
-        <v>-1591252.86463851</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>11574</v>
       </c>
       <c r="G145" t="n">
-        <v>-1602826.86463851</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>71.17440000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>-1602755.69023851</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>14835.1475</v>
       </c>
       <c r="G147" t="n">
-        <v>-1617590.83773851</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>240242.5872</v>
       </c>
       <c r="G148" t="n">
-        <v>-1857833.42493851</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>4497.7043</v>
       </c>
       <c r="G149" t="n">
-        <v>-1862331.12923851</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>40313.1</v>
       </c>
       <c r="G150" t="n">
-        <v>-1862331.12923851</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>41978.27</v>
       </c>
       <c r="G151" t="n">
-        <v>-1904309.39923851</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>266621.1068</v>
       </c>
       <c r="G152" t="n">
-        <v>-1637688.29243851</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>236000</v>
       </c>
       <c r="G153" t="n">
-        <v>-1401688.29243851</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>25527.9836</v>
       </c>
       <c r="G154" t="n">
-        <v>-1401688.29243851</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>58000</v>
       </c>
       <c r="G155" t="n">
-        <v>-1343688.29243851</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>264.7017146096075</v>
       </c>
       <c r="G156" t="n">
-        <v>-1343952.994153119</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>252345.65</v>
       </c>
       <c r="G157" t="n">
-        <v>-1596298.644153119</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>163030.7276</v>
       </c>
       <c r="G158" t="n">
-        <v>-1759329.371753119</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>111020.9272</v>
       </c>
       <c r="G159" t="n">
-        <v>-1648308.444553119</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>64123.8896</v>
       </c>
       <c r="G160" t="n">
-        <v>-1648308.444553119</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>77263.1789</v>
       </c>
       <c r="G161" t="n">
-        <v>-1571045.265653119</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>75903.7711</v>
       </c>
       <c r="G162" t="n">
-        <v>-1646949.036753119</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>50000.0931</v>
       </c>
       <c r="G163" t="n">
-        <v>-1696949.129853119</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>113880.1148</v>
       </c>
       <c r="G164" t="n">
-        <v>-1583069.015053119</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>15119.9365</v>
       </c>
       <c r="G165" t="n">
-        <v>-1598188.951553119</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>117832.9986</v>
       </c>
       <c r="G166" t="n">
-        <v>-1480355.952953119</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>116090.3058</v>
       </c>
       <c r="G167" t="n">
-        <v>-1596446.258753119</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>854000</v>
       </c>
       <c r="G168" t="n">
-        <v>-2450446.258753119</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>109114.6004</v>
       </c>
       <c r="G169" t="n">
-        <v>-2559560.859153119</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>848717.2193999999</v>
       </c>
       <c r="G170" t="n">
-        <v>-3408278.078553119</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>942946.8524</v>
       </c>
       <c r="G171" t="n">
-        <v>-4351224.930953119</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>6000</v>
       </c>
       <c r="G172" t="n">
-        <v>-4357224.930953119</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>146615.8377</v>
       </c>
       <c r="G173" t="n">
-        <v>-4503840.768653119</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>375042.8783</v>
       </c>
       <c r="G174" t="n">
-        <v>-4503840.768653119</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>269374.632</v>
       </c>
       <c r="G175" t="n">
-        <v>-4773215.400653119</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>108518.6894</v>
       </c>
       <c r="G176" t="n">
-        <v>-4881734.090053119</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>116550.1491</v>
       </c>
       <c r="G177" t="n">
-        <v>-4765183.940953119</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>50929.5483</v>
       </c>
       <c r="G178" t="n">
-        <v>-4816113.489253119</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>77045</v>
       </c>
       <c r="G179" t="n">
-        <v>-4816113.489253119</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>222382.1734</v>
       </c>
       <c r="G180" t="n">
-        <v>-4816113.489253119</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>630705.2419</v>
       </c>
       <c r="G181" t="n">
-        <v>-5446818.731153118</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>211283.618</v>
       </c>
       <c r="G182" t="n">
-        <v>-5446818.731153118</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>616379.1513</v>
       </c>
       <c r="G183" t="n">
-        <v>-4830439.579853118</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>175959.7577</v>
       </c>
       <c r="G184" t="n">
-        <v>-4830439.579853118</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>4000</v>
       </c>
       <c r="G185" t="n">
-        <v>-4826439.579853118</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>129674.6915</v>
       </c>
       <c r="G186" t="n">
-        <v>-4956114.271353118</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>15130.1959</v>
       </c>
       <c r="G187" t="n">
-        <v>-4956114.271353118</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>400.0004</v>
       </c>
       <c r="G188" t="n">
-        <v>-4956514.271753118</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>133.6545</v>
       </c>
       <c r="G189" t="n">
-        <v>-4956647.926253119</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>6630</v>
       </c>
       <c r="G190" t="n">
-        <v>-4963277.926253119</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>79117.84179999999</v>
       </c>
       <c r="G191" t="n">
-        <v>-5042395.768053118</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>308189.2111</v>
       </c>
       <c r="G192" t="n">
-        <v>-5042395.768053118</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>9106165.780400001</v>
       </c>
       <c r="G193" t="n">
-        <v>-14148561.54845312</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,19 @@
         <v>742684.1222</v>
       </c>
       <c r="G194" t="n">
-        <v>-13405877.42625312</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>6.553</v>
+      </c>
+      <c r="I194" t="n">
+        <v>6.553</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6237,23 @@
         <v>511575.2793</v>
       </c>
       <c r="G195" t="n">
-        <v>-12894302.14695312</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>6.579</v>
+      </c>
+      <c r="I195" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6275,23 @@
         <v>32212.4197</v>
       </c>
       <c r="G196" t="n">
-        <v>-12862089.72725312</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>6.603</v>
+      </c>
+      <c r="I196" t="n">
+        <v>6.553</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6313,19 @@
         <v>388253.2343</v>
       </c>
       <c r="G197" t="n">
-        <v>-12473836.49295312</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>6.604</v>
+      </c>
+      <c r="I197" t="n">
+        <v>6.604</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6347,23 @@
         <v>353038.0897</v>
       </c>
       <c r="G198" t="n">
-        <v>-12120798.40325312</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>6.632</v>
+      </c>
+      <c r="I198" t="n">
+        <v>6.604</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6385,23 @@
         <v>6280.3819</v>
       </c>
       <c r="G199" t="n">
-        <v>-12120798.40325312</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>6.677</v>
+      </c>
+      <c r="I199" t="n">
+        <v>6.604</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6423,19 @@
         <v>25585.9302</v>
       </c>
       <c r="G200" t="n">
-        <v>-12146384.33345312</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>6.677</v>
+      </c>
+      <c r="I200" t="n">
+        <v>6.677</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6457,23 @@
         <v>244248.3335</v>
       </c>
       <c r="G201" t="n">
-        <v>-11902135.99995312</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>6.676</v>
+      </c>
+      <c r="I201" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6495,23 @@
         <v>10018.9648</v>
       </c>
       <c r="G202" t="n">
-        <v>-11892117.03515312</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>6.679</v>
+      </c>
+      <c r="I202" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6533,23 @@
         <v>9223.1644</v>
       </c>
       <c r="G203" t="n">
-        <v>-11901340.19955312</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>6.693</v>
+      </c>
+      <c r="I203" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,22 +6571,23 @@
         <v>58376.0952</v>
       </c>
       <c r="G204" t="n">
-        <v>-11842964.10435312</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>6.658</v>
       </c>
       <c r="I204" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="J204" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>6.677</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7151,24 +6609,23 @@
         <v>87191.6076</v>
       </c>
       <c r="G205" t="n">
-        <v>-11755772.49675312</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="K205" t="inlineStr">
+        <v>6.67</v>
+      </c>
+      <c r="I205" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="J205" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7190,24 +6647,21 @@
         <v>6018</v>
       </c>
       <c r="G206" t="n">
-        <v>-11761790.49675312</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6.658</v>
-      </c>
-      <c r="K206" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="J206" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7229,22 +6683,21 @@
         <v>32189.6568</v>
       </c>
       <c r="G207" t="n">
-        <v>-11729600.83995312</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="J207" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>6.677</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7266,26 +6719,21 @@
         <v>5217.5001</v>
       </c>
       <c r="G208" t="n">
-        <v>-11734818.34005312</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="n">
-        <v>6.698</v>
-      </c>
-      <c r="J208" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="K208" t="inlineStr">
+        <v>6.677</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7307,24 +6755,23 @@
         <v>642325.5037999999</v>
       </c>
       <c r="G209" t="n">
-        <v>-11734818.34005312</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6.661</v>
-      </c>
-      <c r="K209" t="inlineStr">
+        <v>6.66</v>
+      </c>
+      <c r="I209" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="J209" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7346,18 +6793,21 @@
         <v>50000</v>
       </c>
       <c r="G210" t="n">
-        <v>-11784818.34005312</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>6.677</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7379,22 +6829,21 @@
         <v>150.838</v>
       </c>
       <c r="G211" t="n">
-        <v>-11784969.17805312</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="J211" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>6.677</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7416,26 +6865,21 @@
         <v>117336.4222</v>
       </c>
       <c r="G212" t="n">
-        <v>-11667632.75585312</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
-        <v>6.623</v>
-      </c>
-      <c r="J212" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="K212" t="inlineStr">
+        <v>6.677</v>
+      </c>
+      <c r="J212" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7457,26 +6901,21 @@
         <v>1510.345869204048</v>
       </c>
       <c r="G213" t="n">
-        <v>-11669143.10172232</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="J213" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="K213" t="inlineStr">
+        <v>6.677</v>
+      </c>
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7498,26 +6937,21 @@
         <v>274731.9615</v>
       </c>
       <c r="G214" t="n">
-        <v>-11394411.14022232</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="n">
-        <v>6.621</v>
-      </c>
-      <c r="J214" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="K214" t="inlineStr">
+        <v>6.677</v>
+      </c>
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7539,26 +6973,21 @@
         <v>217464.8651</v>
       </c>
       <c r="G215" t="n">
-        <v>-11394411.14022232</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="n">
-        <v>6.627</v>
-      </c>
-      <c r="J215" t="n">
-        <v>6.643</v>
-      </c>
-      <c r="K215" t="inlineStr">
+        <v>6.677</v>
+      </c>
+      <c r="J215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
